--- a/builds/development/data/_raw/markets.xlsx
+++ b/builds/development/data/_raw/markets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="6520" yWindow="860" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="minneapolis" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="986">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="1023">
   <si>
     <t>Market Name</t>
   </si>
@@ -3028,6 +3028,117 @@
   </si>
   <si>
     <t>icon</t>
+  </si>
+  <si>
+    <t>Anoka County Farmers Market</t>
+  </si>
+  <si>
+    <t>M: 2 to 6pm</t>
+  </si>
+  <si>
+    <t>420 E. Main St.</t>
+  </si>
+  <si>
+    <t>Anoka</t>
+  </si>
+  <si>
+    <t>763-792-4025</t>
+  </si>
+  <si>
+    <t>Opens mid-July</t>
+  </si>
+  <si>
+    <t>http://anokacounty.us</t>
+  </si>
+  <si>
+    <t>(Blaine) Anoka County Farmers Market</t>
+  </si>
+  <si>
+    <t>(Columbia Heights) Anoka County Farmers Market</t>
+  </si>
+  <si>
+    <t>Eagan Market Fest</t>
+  </si>
+  <si>
+    <t>Farmington Farmers Market</t>
+  </si>
+  <si>
+    <t>South St. Paul Farmers Market</t>
+  </si>
+  <si>
+    <t>White Bear Lake Farmers Market</t>
+  </si>
+  <si>
+    <t>Washington Av. between 3rd and 4th Streets</t>
+  </si>
+  <si>
+    <t>1151 Southview Blvd.</t>
+  </si>
+  <si>
+    <t>4008 220th St. W.</t>
+  </si>
+  <si>
+    <t>1501 Central Pkwy.</t>
+  </si>
+  <si>
+    <t>4444 Reservoir Blvd.</t>
+  </si>
+  <si>
+    <t>89th Av. NE.</t>
+  </si>
+  <si>
+    <t>Blaine</t>
+  </si>
+  <si>
+    <t>Columbia Heights</t>
+  </si>
+  <si>
+    <t>Eagan</t>
+  </si>
+  <si>
+    <t>Farmington</t>
+  </si>
+  <si>
+    <t>South St. Paul</t>
+  </si>
+  <si>
+    <t>White Bear Lake</t>
+  </si>
+  <si>
+    <t>http://whitebearlake.org</t>
+  </si>
+  <si>
+    <t>http://ci.farmington.mn.us</t>
+  </si>
+  <si>
+    <t>http://cityofeagan.com</t>
+  </si>
+  <si>
+    <t>651-747-3650</t>
+  </si>
+  <si>
+    <t>SA: 7 am to 12 pm</t>
+  </si>
+  <si>
+    <t>June 7-Aug. 30</t>
+  </si>
+  <si>
+    <t>June 8-Oct. 12</t>
+  </si>
+  <si>
+    <t>June 28-Sept. 27</t>
+  </si>
+  <si>
+    <t>June 30-Oct. 27</t>
+  </si>
+  <si>
+    <t>M: 2 to 5 pm</t>
+  </si>
+  <si>
+    <t>W: 4 to 8 pm</t>
+  </si>
+  <si>
+    <t>TH: 2:30 to 6:30 pm</t>
   </si>
 </sst>
 </file>
@@ -3114,9 +3225,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="351">
+  <cellStyleXfs count="356">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3482,7 +3598,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="351">
+  <cellStyles count="356">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -3832,6 +3948,11 @@
     <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="349" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="351" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="353" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="355" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -5832,10 +5953,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y81"/>
+  <dimension ref="A1:Y88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80:XFD80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5923,49 +6044,34 @@
     </row>
     <row r="2" spans="1:25" ht="16">
       <c r="A2">
-        <v>-93.301375530000001</v>
+        <v>-93.232900000000001</v>
       </c>
       <c r="B2">
-        <v>44.825416879999999</v>
+        <v>45.131810000000002</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>302</v>
+        <v>993</v>
       </c>
       <c r="E2" t="s">
-        <v>303</v>
+        <v>1004</v>
       </c>
       <c r="F2" t="s">
-        <v>304</v>
-      </c>
-      <c r="G2">
-        <v>55431</v>
+        <v>1005</v>
       </c>
       <c r="H2" t="s">
-        <v>305</v>
+        <v>992</v>
       </c>
       <c r="I2" t="s">
-        <v>306</v>
-      </c>
-      <c r="J2" t="s">
-        <v>307</v>
+        <v>990</v>
       </c>
       <c r="K2" t="s">
-        <v>308</v>
+        <v>393</v>
       </c>
       <c r="Q2" t="s">
-        <v>309</v>
-      </c>
-      <c r="S2" t="s">
-        <v>310</v>
-      </c>
-      <c r="T2" t="s">
-        <v>311</v>
-      </c>
-      <c r="U2" t="s">
-        <v>312</v>
+        <v>1015</v>
       </c>
       <c r="V2" t="s">
         <v>313</v>
@@ -5979,46 +6085,37 @@
     </row>
     <row r="3" spans="1:25" ht="16">
       <c r="A3">
-        <v>-93.357500619999996</v>
+        <v>-93.235889999999998</v>
       </c>
       <c r="B3">
-        <v>45.112709899999999</v>
+        <v>45.048969999999997</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>314</v>
+        <v>994</v>
       </c>
       <c r="E3" t="s">
-        <v>315</v>
+        <v>1003</v>
       </c>
       <c r="F3" t="s">
-        <v>316</v>
-      </c>
-      <c r="G3">
-        <v>55443</v>
+        <v>1006</v>
       </c>
       <c r="H3" t="s">
-        <v>317</v>
+        <v>992</v>
       </c>
       <c r="I3" t="s">
-        <v>318</v>
-      </c>
-      <c r="J3" t="s">
-        <v>319</v>
+        <v>990</v>
       </c>
       <c r="K3" t="s">
-        <v>320</v>
-      </c>
-      <c r="N3" t="s">
-        <v>321</v>
-      </c>
-      <c r="S3" t="s">
-        <v>322</v>
-      </c>
-      <c r="T3" t="s">
-        <v>323</v>
+        <v>393</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1020</v>
+      </c>
+      <c r="U3" t="s">
+        <v>991</v>
       </c>
       <c r="V3" t="s">
         <v>313</v>
@@ -6032,47 +6129,42 @@
     </row>
     <row r="4" spans="1:25" ht="16">
       <c r="A4">
-        <v>-93.395536980000003</v>
+        <v>-92.783293480054894</v>
       </c>
       <c r="B4">
-        <v>45.174178730000001</v>
+        <v>44.899259463383899</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>324</v>
+        <v>689</v>
       </c>
       <c r="E4" t="s">
-        <v>890</v>
+        <v>907</v>
       </c>
       <c r="F4" t="s">
-        <v>325</v>
-      </c>
-      <c r="G4">
-        <v>55316</v>
+        <v>777</v>
+      </c>
+      <c r="G4" s="7">
+        <v>55001</v>
       </c>
       <c r="H4" t="s">
-        <v>326</v>
+        <v>858</v>
       </c>
       <c r="I4" t="s">
-        <v>327</v>
-      </c>
-      <c r="J4" t="s">
-        <v>319</v>
+        <v>393</v>
       </c>
       <c r="K4" t="s">
-        <v>328</v>
-      </c>
-      <c r="N4" t="s">
-        <v>329</v>
+        <v>393</v>
+      </c>
+      <c r="O4" t="s">
+        <v>984</v>
       </c>
       <c r="S4" t="s">
         <v>330</v>
       </c>
-      <c r="T4" t="s">
-        <v>331</v>
-      </c>
+      <c r="U4" s="6"/>
       <c r="V4" t="s">
         <v>313</v>
       </c>
@@ -6085,49 +6177,43 @@
     </row>
     <row r="5" spans="1:25" ht="16">
       <c r="A5">
-        <v>-93.566922980000001</v>
+        <v>-93.356430000000003</v>
       </c>
       <c r="B5">
-        <v>44.902810700000003</v>
+        <v>45.218960000000003</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>332</v>
+        <v>640</v>
       </c>
       <c r="E5" t="s">
-        <v>891</v>
+        <v>920</v>
       </c>
       <c r="F5" t="s">
-        <v>333</v>
-      </c>
-      <c r="G5">
-        <v>55331</v>
+        <v>256</v>
+      </c>
+      <c r="G5" s="7">
+        <v>55304</v>
       </c>
       <c r="H5" t="s">
-        <v>334</v>
+        <v>884</v>
       </c>
       <c r="I5" t="s">
-        <v>335</v>
-      </c>
-      <c r="J5" t="s">
-        <v>307</v>
+        <v>692</v>
       </c>
       <c r="K5" t="s">
-        <v>336</v>
+        <v>393</v>
       </c>
       <c r="M5" t="s">
-        <v>337</v>
+        <v>968</v>
       </c>
       <c r="S5" t="s">
-        <v>338</v>
-      </c>
-      <c r="T5" t="s">
-        <v>339</v>
-      </c>
-      <c r="U5" t="s">
-        <v>340</v>
+        <v>330</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>641</v>
       </c>
       <c r="V5" t="s">
         <v>313</v>
@@ -6141,46 +6227,37 @@
     </row>
     <row r="6" spans="1:25" ht="16">
       <c r="A6">
-        <v>-93.41156024</v>
+        <v>-93.383949999999999</v>
       </c>
       <c r="B6">
-        <v>44.923783309999997</v>
+        <v>45.197560000000003</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>341</v>
+        <v>986</v>
       </c>
       <c r="E6" t="s">
-        <v>342</v>
+        <v>988</v>
       </c>
       <c r="F6" t="s">
-        <v>343</v>
-      </c>
-      <c r="G6">
-        <v>55343</v>
+        <v>989</v>
       </c>
       <c r="H6" t="s">
-        <v>344</v>
+        <v>992</v>
       </c>
       <c r="I6" t="s">
-        <v>345</v>
-      </c>
-      <c r="J6" t="s">
-        <v>346</v>
+        <v>990</v>
       </c>
       <c r="K6" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>348</v>
-      </c>
-      <c r="S6" t="s">
-        <v>310</v>
-      </c>
-      <c r="T6" t="s">
-        <v>349</v>
+        <v>393</v>
+      </c>
+      <c r="L6" t="s">
+        <v>987</v>
+      </c>
+      <c r="U6" t="s">
+        <v>991</v>
       </c>
       <c r="V6" t="s">
         <v>313</v>
@@ -6194,46 +6271,43 @@
     </row>
     <row r="7" spans="1:25" ht="16">
       <c r="A7">
-        <v>-93.27801925</v>
+        <v>-93.208690000000004</v>
       </c>
       <c r="B7">
-        <v>44.924727220000001</v>
+        <v>44.734789999999997</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>350</v>
+        <v>675</v>
       </c>
       <c r="E7" t="s">
-        <v>351</v>
+        <v>904</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G7">
-        <v>55409</v>
+        <v>292</v>
+      </c>
+      <c r="G7" s="7">
+        <v>55124</v>
       </c>
       <c r="H7" t="s">
-        <v>352</v>
+        <v>850</v>
       </c>
       <c r="I7" t="s">
-        <v>353</v>
-      </c>
-      <c r="J7" t="s">
-        <v>354</v>
+        <v>692</v>
       </c>
       <c r="K7" t="s">
-        <v>355</v>
-      </c>
-      <c r="R7" t="s">
-        <v>356</v>
+        <v>393</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>955</v>
       </c>
       <c r="S7" t="s">
-        <v>310</v>
-      </c>
-      <c r="T7" t="s">
-        <v>357</v>
+        <v>330</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>676</v>
       </c>
       <c r="V7" t="s">
         <v>313</v>
@@ -6247,49 +6321,49 @@
     </row>
     <row r="8" spans="1:25" ht="16">
       <c r="A8">
-        <v>-93.443520269999993</v>
+        <v>-93.301375530000001</v>
       </c>
       <c r="B8">
-        <v>45.103781750000003</v>
+        <v>44.825416879999999</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>358</v>
+        <v>302</v>
       </c>
       <c r="E8" t="s">
-        <v>359</v>
+        <v>303</v>
       </c>
       <c r="F8" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="G8">
-        <v>55369</v>
+        <v>55431</v>
       </c>
       <c r="H8" t="s">
-        <v>361</v>
+        <v>305</v>
       </c>
       <c r="I8" t="s">
-        <v>362</v>
+        <v>306</v>
       </c>
       <c r="J8" t="s">
-        <v>354</v>
+        <v>307</v>
       </c>
       <c r="K8" t="s">
-        <v>363</v>
-      </c>
-      <c r="O8" t="s">
-        <v>364</v>
+        <v>308</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>309</v>
       </c>
       <c r="S8" t="s">
         <v>310</v>
       </c>
       <c r="T8" t="s">
-        <v>365</v>
+        <v>311</v>
       </c>
       <c r="U8" t="s">
-        <v>366</v>
+        <v>312</v>
       </c>
       <c r="V8" t="s">
         <v>313</v>
@@ -6303,64 +6377,46 @@
     </row>
     <row r="9" spans="1:25" ht="16">
       <c r="A9">
-        <v>-93.481904319999998</v>
+        <v>-93.357500619999996</v>
       </c>
       <c r="B9">
-        <v>44.838996219999999</v>
+        <v>45.112709899999999</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>367</v>
+        <v>314</v>
       </c>
       <c r="E9" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="F9" t="s">
-        <v>369</v>
+        <v>316</v>
       </c>
       <c r="G9">
-        <v>55347</v>
+        <v>55443</v>
       </c>
       <c r="H9" t="s">
-        <v>370</v>
+        <v>317</v>
       </c>
       <c r="I9" t="s">
-        <v>371</v>
+        <v>318</v>
       </c>
       <c r="J9" t="s">
-        <v>372</v>
+        <v>319</v>
       </c>
       <c r="K9" t="s">
-        <v>373</v>
-      </c>
-      <c r="L9" t="s">
-        <v>934</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>940</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>935</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>936</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>937</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>938</v>
-      </c>
-      <c r="R9" s="6" t="s">
-        <v>939</v>
+        <v>320</v>
+      </c>
+      <c r="N9" t="s">
+        <v>321</v>
       </c>
       <c r="S9" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="T9" t="s">
-        <v>374</v>
+        <v>323</v>
       </c>
       <c r="V9" t="s">
         <v>313</v>
@@ -6374,53 +6430,42 @@
     </row>
     <row r="10" spans="1:25" ht="16">
       <c r="A10">
-        <v>-93.238939920000007</v>
+        <v>-93.874388999999994</v>
       </c>
       <c r="B10">
-        <v>44.947987689999998</v>
+        <v>45.173301000000002</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>375</v>
+        <v>649</v>
       </c>
       <c r="E10" t="s">
-        <v>376</v>
+        <v>899</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
-      </c>
-      <c r="G10">
-        <v>55407</v>
+        <v>650</v>
+      </c>
+      <c r="G10" s="7">
+        <v>55313</v>
       </c>
       <c r="H10" t="s">
-        <v>377</v>
+        <v>844</v>
       </c>
       <c r="I10" t="s">
-        <v>378</v>
-      </c>
-      <c r="J10" t="s">
-        <v>379</v>
+        <v>722</v>
       </c>
       <c r="K10" t="s">
-        <v>380</v>
-      </c>
-      <c r="M10" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="Q10" t="s">
-        <v>309</v>
+        <v>950</v>
       </c>
       <c r="S10" t="s">
-        <v>310</v>
-      </c>
-      <c r="T10" t="s">
-        <v>381</v>
-      </c>
-      <c r="U10" t="s">
-        <v>382</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="U10" s="6"/>
       <c r="V10" t="s">
         <v>313</v>
       </c>
@@ -6433,50 +6478,42 @@
     </row>
     <row r="11" spans="1:25" ht="16">
       <c r="A11">
-        <v>-93.2561532</v>
+        <v>-93.281549999999996</v>
       </c>
       <c r="B11">
-        <v>44.978557719999998</v>
+        <v>44.772419999999997</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>119</v>
+        <v>642</v>
       </c>
       <c r="E11" t="s">
-        <v>383</v>
+        <v>769</v>
       </c>
       <c r="F11" t="s">
-        <v>97</v>
-      </c>
-      <c r="G11">
-        <v>55401</v>
+        <v>783</v>
+      </c>
+      <c r="G11" s="7">
+        <v>55337</v>
       </c>
       <c r="H11" t="s">
-        <v>384</v>
+        <v>852</v>
       </c>
       <c r="I11" t="s">
-        <v>385</v>
-      </c>
-      <c r="J11" t="s">
-        <v>354</v>
+        <v>692</v>
       </c>
       <c r="K11" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="Q11" t="s">
-        <v>387</v>
+        <v>955</v>
       </c>
       <c r="S11" t="s">
-        <v>310</v>
-      </c>
-      <c r="T11" t="s">
-        <v>388</v>
-      </c>
-      <c r="U11" t="s">
-        <v>389</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="U11" s="6"/>
       <c r="V11" t="s">
         <v>313</v>
       </c>
@@ -6489,49 +6526,43 @@
     </row>
     <row r="12" spans="1:25" ht="16">
       <c r="A12">
-        <v>-93.267168600000005</v>
+        <v>-93.230577999999994</v>
       </c>
       <c r="B12">
-        <v>44.975266300000001</v>
+        <v>44.789363999999999</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>129</v>
+        <v>642</v>
       </c>
       <c r="E12" t="s">
-        <v>892</v>
+        <v>706</v>
       </c>
       <c r="F12" t="s">
-        <v>97</v>
-      </c>
-      <c r="G12">
-        <v>55487</v>
+        <v>783</v>
+      </c>
+      <c r="G12" s="7">
+        <v>55337</v>
       </c>
       <c r="H12" t="s">
-        <v>390</v>
+        <v>854</v>
       </c>
       <c r="I12" t="s">
-        <v>391</v>
-      </c>
-      <c r="J12" t="s">
-        <v>392</v>
+        <v>692</v>
       </c>
       <c r="K12" t="s">
         <v>393</v>
       </c>
       <c r="O12" t="s">
-        <v>394</v>
+        <v>958</v>
       </c>
       <c r="S12" t="s">
-        <v>310</v>
-      </c>
-      <c r="T12" t="s">
-        <v>395</v>
-      </c>
-      <c r="U12" t="s">
-        <v>396</v>
+        <v>330</v>
+      </c>
+      <c r="U12" s="6" t="s">
+        <v>926</v>
       </c>
       <c r="V12" t="s">
         <v>313</v>
@@ -6545,64 +6576,46 @@
     </row>
     <row r="13" spans="1:25" ht="16">
       <c r="A13">
-        <v>-93.28591978</v>
+        <v>-93.309414050000001</v>
       </c>
       <c r="B13">
-        <v>44.981227310000001</v>
+        <v>45.03584524</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>397</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>398</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
         <v>97</v>
       </c>
       <c r="G13">
-        <v>55405</v>
+        <v>55412</v>
       </c>
       <c r="H13" t="s">
-        <v>399</v>
+        <v>548</v>
       </c>
       <c r="I13" t="s">
-        <v>400</v>
+        <v>549</v>
       </c>
       <c r="J13" t="s">
-        <v>319</v>
+        <v>550</v>
       </c>
       <c r="K13" t="s">
-        <v>401</v>
-      </c>
-      <c r="L13" t="s">
-        <v>947</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>946</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>945</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>944</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>943</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>942</v>
-      </c>
-      <c r="R13" s="6" t="s">
-        <v>941</v>
+        <v>551</v>
+      </c>
+      <c r="O13" t="s">
+        <v>552</v>
       </c>
       <c r="S13" t="s">
         <v>310</v>
       </c>
       <c r="T13" t="s">
-        <v>402</v>
+        <v>553</v>
       </c>
       <c r="V13" t="s">
         <v>313</v>
@@ -6616,46 +6629,43 @@
     </row>
     <row r="14" spans="1:25" ht="16">
       <c r="A14">
-        <v>-93.465455669999997</v>
+        <v>-93.268997639999995</v>
       </c>
       <c r="B14">
-        <v>44.940518529999999</v>
+        <v>44.97524739</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>403</v>
+        <v>100</v>
       </c>
       <c r="E14" t="s">
-        <v>404</v>
+        <v>599</v>
       </c>
       <c r="F14" t="s">
-        <v>405</v>
+        <v>97</v>
       </c>
       <c r="G14">
-        <v>55345</v>
+        <v>55402</v>
       </c>
       <c r="H14" t="s">
-        <v>406</v>
+        <v>531</v>
       </c>
       <c r="I14" t="s">
-        <v>407</v>
-      </c>
-      <c r="J14" t="s">
-        <v>354</v>
+        <v>600</v>
       </c>
       <c r="K14" t="s">
-        <v>408</v>
-      </c>
-      <c r="M14" t="s">
-        <v>409</v>
+        <v>601</v>
+      </c>
+      <c r="N14" t="s">
+        <v>460</v>
       </c>
       <c r="S14" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="T14" t="s">
-        <v>410</v>
+        <v>602</v>
       </c>
       <c r="V14" t="s">
         <v>313</v>
@@ -6669,49 +6679,46 @@
     </row>
     <row r="15" spans="1:25" ht="16">
       <c r="A15">
-        <v>-93.391522600000002</v>
+        <v>-93.32613551</v>
       </c>
       <c r="B15">
-        <v>45.02124937</v>
+        <v>44.866969949999998</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>411</v>
+        <v>463</v>
       </c>
       <c r="E15" t="s">
-        <v>412</v>
+        <v>464</v>
       </c>
       <c r="F15" t="s">
-        <v>413</v>
+        <v>465</v>
       </c>
       <c r="G15">
-        <v>55428</v>
+        <v>55435</v>
       </c>
       <c r="H15" t="s">
-        <v>414</v>
+        <v>466</v>
       </c>
       <c r="I15" t="s">
-        <v>415</v>
+        <v>467</v>
       </c>
       <c r="J15" t="s">
-        <v>372</v>
+        <v>468</v>
       </c>
       <c r="K15" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>309</v>
+        <v>469</v>
+      </c>
+      <c r="O15" t="s">
+        <v>364</v>
       </c>
       <c r="S15" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="T15" t="s">
-        <v>417</v>
-      </c>
-      <c r="U15" t="s">
-        <v>418</v>
+        <v>470</v>
       </c>
       <c r="V15" t="s">
         <v>313</v>
@@ -6725,46 +6732,46 @@
     </row>
     <row r="16" spans="1:25" ht="16">
       <c r="A16">
-        <v>-93.262177269999995</v>
+        <v>-93.395536980000003</v>
       </c>
       <c r="B16">
-        <v>44.995133260000003</v>
+        <v>45.174178730000001</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>419</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>843</v>
+        <v>324</v>
+      </c>
+      <c r="E16" t="s">
+        <v>890</v>
       </c>
       <c r="F16" t="s">
-        <v>97</v>
+        <v>325</v>
       </c>
       <c r="G16">
-        <v>55413</v>
+        <v>55316</v>
       </c>
       <c r="H16" t="s">
-        <v>420</v>
+        <v>326</v>
       </c>
       <c r="I16" t="s">
-        <v>421</v>
+        <v>327</v>
       </c>
       <c r="J16" t="s">
-        <v>346</v>
+        <v>319</v>
       </c>
       <c r="K16" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>423</v>
+        <v>328</v>
+      </c>
+      <c r="N16" t="s">
+        <v>329</v>
       </c>
       <c r="S16" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="T16" t="s">
-        <v>424</v>
+        <v>331</v>
       </c>
       <c r="V16" t="s">
         <v>313</v>
@@ -6778,46 +6785,43 @@
     </row>
     <row r="17" spans="1:24" ht="16">
       <c r="A17">
-        <v>-93.402580240000006</v>
+        <v>-92.890249999999995</v>
       </c>
       <c r="B17">
-        <v>45.12072336</v>
+        <v>45.372700000000002</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="D17" t="s">
-        <v>425</v>
+        <v>657</v>
       </c>
       <c r="E17" t="s">
-        <v>426</v>
+        <v>922</v>
       </c>
       <c r="F17" t="s">
-        <v>427</v>
-      </c>
-      <c r="G17">
-        <v>55369</v>
+        <v>734</v>
+      </c>
+      <c r="G17" s="7">
+        <v>55013</v>
       </c>
       <c r="H17" t="s">
-        <v>428</v>
+        <v>886</v>
       </c>
       <c r="I17" t="s">
-        <v>429</v>
-      </c>
-      <c r="J17" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="K17" t="s">
-        <v>430</v>
-      </c>
-      <c r="M17" t="s">
-        <v>431</v>
+        <v>393</v>
+      </c>
+      <c r="P17" t="s">
+        <v>965</v>
       </c>
       <c r="S17" t="s">
-        <v>338</v>
-      </c>
-      <c r="T17" t="s">
-        <v>432</v>
+        <v>330</v>
+      </c>
+      <c r="U17" s="6" t="s">
+        <v>658</v>
       </c>
       <c r="V17" t="s">
         <v>313</v>
@@ -6831,50 +6835,42 @@
     </row>
     <row r="18" spans="1:24" ht="16">
       <c r="A18">
-        <v>-93.265853750000005</v>
+        <v>-93.144052128406898</v>
       </c>
       <c r="B18">
-        <v>44.887157989999999</v>
+        <v>44.983633044805202</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="D18" t="s">
-        <v>433</v>
+        <v>688</v>
       </c>
       <c r="E18" t="s">
-        <v>893</v>
+        <v>914</v>
       </c>
       <c r="F18" t="s">
-        <v>434</v>
-      </c>
-      <c r="G18">
-        <v>55423</v>
+        <v>645</v>
+      </c>
+      <c r="G18" s="7">
+        <v>55103</v>
       </c>
       <c r="H18" t="s">
-        <v>435</v>
+        <v>873</v>
       </c>
       <c r="I18" t="s">
-        <v>436</v>
-      </c>
-      <c r="J18" t="s">
-        <v>354</v>
+        <v>692</v>
       </c>
       <c r="K18" t="s">
-        <v>437</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>438</v>
+        <v>393</v>
+      </c>
+      <c r="P18" t="s">
+        <v>962</v>
       </c>
       <c r="S18" t="s">
-        <v>310</v>
-      </c>
-      <c r="T18" t="s">
-        <v>424</v>
-      </c>
-      <c r="U18" t="s">
-        <v>439</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="U18" s="6"/>
       <c r="V18" t="s">
         <v>313</v>
       </c>
@@ -6887,46 +6883,46 @@
     </row>
     <row r="19" spans="1:24" ht="16">
       <c r="A19">
-        <v>-93.552147840000003</v>
+        <v>-93.514457770000007</v>
       </c>
       <c r="B19">
-        <v>45.187066489999999</v>
+        <v>45.242557060000003</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>440</v>
+        <v>569</v>
       </c>
       <c r="E19" t="s">
-        <v>894</v>
+        <v>570</v>
       </c>
       <c r="F19" t="s">
-        <v>441</v>
+        <v>571</v>
       </c>
       <c r="G19">
-        <v>55347</v>
+        <v>55327</v>
       </c>
       <c r="H19" t="s">
-        <v>442</v>
+        <v>572</v>
       </c>
       <c r="I19" t="s">
-        <v>443</v>
+        <v>573</v>
       </c>
       <c r="J19" t="s">
-        <v>444</v>
+        <v>574</v>
       </c>
       <c r="K19" t="s">
-        <v>445</v>
-      </c>
-      <c r="N19" t="s">
-        <v>446</v>
+        <v>575</v>
+      </c>
+      <c r="P19" t="s">
+        <v>576</v>
       </c>
       <c r="S19" t="s">
-        <v>338</v>
+        <v>577</v>
       </c>
       <c r="T19" t="s">
-        <v>447</v>
+        <v>489</v>
       </c>
       <c r="V19" t="s">
         <v>313</v>
@@ -6940,46 +6936,43 @@
     </row>
     <row r="20" spans="1:24" ht="16">
       <c r="A20">
-        <v>-93.204085849999998</v>
+        <v>-93.260828880000005</v>
       </c>
       <c r="B20">
-        <v>44.90195782</v>
+        <v>44.978882470000002</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>448</v>
+        <v>618</v>
       </c>
       <c r="E20" t="s">
-        <v>449</v>
+        <v>619</v>
       </c>
       <c r="F20" t="s">
         <v>97</v>
       </c>
       <c r="G20">
-        <v>55417</v>
+        <v>55401</v>
       </c>
       <c r="H20" t="s">
-        <v>450</v>
+        <v>393</v>
       </c>
       <c r="I20" t="s">
-        <v>451</v>
-      </c>
-      <c r="J20" t="s">
-        <v>452</v>
+        <v>620</v>
       </c>
       <c r="K20" t="s">
-        <v>453</v>
+        <v>621</v>
       </c>
       <c r="M20" t="s">
-        <v>454</v>
+        <v>622</v>
       </c>
       <c r="S20" t="s">
         <v>338</v>
       </c>
       <c r="T20" t="s">
-        <v>455</v>
+        <v>623</v>
       </c>
       <c r="V20" t="s">
         <v>313</v>
@@ -6993,49 +6986,37 @@
     </row>
     <row r="21" spans="1:24" ht="16">
       <c r="A21">
-        <v>-93.227817450000003</v>
+        <v>-93.172629999999998</v>
       </c>
       <c r="B21">
-        <v>44.974341600000002</v>
+        <v>44.83963</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="D21" t="s">
-        <v>456</v>
+        <v>995</v>
       </c>
       <c r="E21" t="s">
-        <v>895</v>
+        <v>1002</v>
       </c>
       <c r="F21" t="s">
-        <v>97</v>
-      </c>
-      <c r="G21">
-        <v>55455</v>
+        <v>1007</v>
       </c>
       <c r="H21" t="s">
-        <v>457</v>
+        <v>1013</v>
       </c>
       <c r="I21" t="s">
-        <v>458</v>
-      </c>
-      <c r="J21" t="s">
-        <v>459</v>
+        <v>393</v>
       </c>
       <c r="K21" t="s">
         <v>393</v>
       </c>
       <c r="N21" t="s">
-        <v>460</v>
-      </c>
-      <c r="S21" t="s">
-        <v>338</v>
-      </c>
-      <c r="T21" t="s">
-        <v>461</v>
+        <v>1021</v>
       </c>
       <c r="U21" t="s">
-        <v>462</v>
+        <v>1016</v>
       </c>
       <c r="V21" t="s">
         <v>313</v>
@@ -7049,46 +7030,43 @@
     </row>
     <row r="22" spans="1:24" ht="16">
       <c r="A22">
-        <v>-93.32613551</v>
+        <v>-93.577804</v>
       </c>
       <c r="B22">
-        <v>44.866969949999998</v>
+        <v>45.305881999999997</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="D22" t="s">
-        <v>463</v>
+        <v>673</v>
       </c>
       <c r="E22" t="s">
-        <v>464</v>
+        <v>800</v>
       </c>
       <c r="F22" t="s">
-        <v>465</v>
-      </c>
-      <c r="G22">
-        <v>55435</v>
+        <v>801</v>
+      </c>
+      <c r="G22" s="8">
+        <v>55330</v>
       </c>
       <c r="H22" t="s">
-        <v>466</v>
+        <v>889</v>
       </c>
       <c r="I22" t="s">
-        <v>467</v>
-      </c>
-      <c r="J22" t="s">
-        <v>468</v>
+        <v>393</v>
       </c>
       <c r="K22" t="s">
-        <v>469</v>
+        <v>393</v>
       </c>
       <c r="O22" t="s">
-        <v>364</v>
+        <v>962</v>
       </c>
       <c r="S22" t="s">
-        <v>338</v>
-      </c>
-      <c r="T22" t="s">
-        <v>470</v>
+        <v>330</v>
+      </c>
+      <c r="U22" s="6" t="s">
+        <v>800</v>
       </c>
       <c r="V22" t="s">
         <v>313</v>
@@ -7102,46 +7080,49 @@
     </row>
     <row r="23" spans="1:24" ht="16">
       <c r="A23">
-        <v>-93.315818309999997</v>
+        <v>-93.566922980000001</v>
       </c>
       <c r="B23">
-        <v>44.92463549</v>
+        <v>44.902810700000003</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>219</v>
+        <v>332</v>
       </c>
       <c r="E23" t="s">
-        <v>471</v>
+        <v>891</v>
       </c>
       <c r="F23" t="s">
-        <v>97</v>
+        <v>333</v>
       </c>
       <c r="G23">
-        <v>55410</v>
+        <v>55331</v>
       </c>
       <c r="H23" t="s">
-        <v>472</v>
+        <v>334</v>
       </c>
       <c r="I23" t="s">
-        <v>473</v>
+        <v>335</v>
       </c>
       <c r="J23" t="s">
-        <v>474</v>
+        <v>307</v>
       </c>
       <c r="K23" t="s">
-        <v>475</v>
-      </c>
-      <c r="R23" t="s">
-        <v>476</v>
+        <v>336</v>
+      </c>
+      <c r="M23" t="s">
+        <v>337</v>
       </c>
       <c r="S23" t="s">
-        <v>477</v>
+        <v>338</v>
       </c>
       <c r="T23" t="s">
-        <v>478</v>
+        <v>339</v>
+      </c>
+      <c r="U23" t="s">
+        <v>340</v>
       </c>
       <c r="V23" t="s">
         <v>313</v>
@@ -7155,46 +7136,37 @@
     </row>
     <row r="24" spans="1:24" ht="16">
       <c r="A24">
-        <v>-93.324966149999995</v>
+        <v>-93.14864</v>
       </c>
       <c r="B24">
-        <v>44.913637350000002</v>
+        <v>44.626469999999998</v>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="D24" t="s">
-        <v>479</v>
+        <v>996</v>
       </c>
       <c r="E24" t="s">
-        <v>480</v>
+        <v>1001</v>
       </c>
       <c r="F24" t="s">
-        <v>97</v>
-      </c>
-      <c r="G24">
-        <v>55409</v>
+        <v>1008</v>
       </c>
       <c r="H24" t="s">
-        <v>481</v>
+        <v>1012</v>
       </c>
       <c r="I24" t="s">
-        <v>353</v>
-      </c>
-      <c r="J24" t="s">
-        <v>474</v>
+        <v>393</v>
       </c>
       <c r="K24" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>482</v>
-      </c>
-      <c r="S24" t="s">
-        <v>310</v>
-      </c>
-      <c r="T24" t="s">
-        <v>483</v>
+        <v>393</v>
+      </c>
+      <c r="O24" t="s">
+        <v>1022</v>
+      </c>
+      <c r="U24" t="s">
+        <v>1017</v>
       </c>
       <c r="V24" t="s">
         <v>313</v>
@@ -7208,46 +7180,64 @@
     </row>
     <row r="25" spans="1:24" ht="16">
       <c r="A25">
-        <v>-93.288696079999994</v>
+        <v>-93.252119550000003</v>
       </c>
       <c r="B25">
-        <v>44.999326080000003</v>
+        <v>44.962523910000002</v>
       </c>
       <c r="C25">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>614</v>
       </c>
       <c r="E25" t="s">
-        <v>896</v>
+        <v>615</v>
       </c>
       <c r="F25" t="s">
         <v>97</v>
       </c>
       <c r="G25">
-        <v>55411</v>
+        <v>55404</v>
       </c>
       <c r="H25" t="s">
-        <v>484</v>
+        <v>616</v>
       </c>
       <c r="I25" t="s">
-        <v>485</v>
+        <v>393</v>
       </c>
       <c r="J25" t="s">
-        <v>486</v>
+        <v>595</v>
       </c>
       <c r="K25" t="s">
-        <v>487</v>
+        <v>617</v>
+      </c>
+      <c r="L25" t="s">
+        <v>477</v>
+      </c>
+      <c r="M25" t="s">
+        <v>477</v>
+      </c>
+      <c r="N25" t="s">
+        <v>477</v>
+      </c>
+      <c r="O25" t="s">
+        <v>477</v>
       </c>
       <c r="P25" t="s">
-        <v>488</v>
+        <v>477</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>477</v>
+      </c>
+      <c r="R25" t="s">
+        <v>477</v>
       </c>
       <c r="S25" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="T25" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="V25" t="s">
         <v>313</v>
@@ -7261,46 +7251,46 @@
     </row>
     <row r="26" spans="1:24" ht="16">
       <c r="A26">
-        <v>-93.664526010000003</v>
+        <v>-93.324966149999995</v>
       </c>
       <c r="B26">
-        <v>44.937047810000003</v>
+        <v>44.913637350000002</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="E26" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="F26" t="s">
-        <v>492</v>
+        <v>97</v>
       </c>
       <c r="G26">
-        <v>55364</v>
+        <v>55409</v>
       </c>
       <c r="H26" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="I26" t="s">
-        <v>494</v>
+        <v>353</v>
       </c>
       <c r="J26" t="s">
-        <v>495</v>
+        <v>474</v>
       </c>
       <c r="K26" t="s">
-        <v>496</v>
+        <v>355</v>
       </c>
       <c r="Q26" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="S26" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="T26" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="V26" t="s">
         <v>313</v>
@@ -7314,46 +7304,46 @@
     </row>
     <row r="27" spans="1:24" ht="16">
       <c r="A27">
-        <v>-93.473888900000006</v>
+        <v>-93.378780000000006</v>
       </c>
       <c r="B27">
-        <v>44.997202219999998</v>
+        <v>44.986960000000003</v>
       </c>
       <c r="C27">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="D27" t="s">
-        <v>499</v>
+        <v>685</v>
       </c>
       <c r="E27" t="s">
-        <v>500</v>
+        <v>773</v>
       </c>
       <c r="F27" t="s">
-        <v>501</v>
-      </c>
-      <c r="G27">
-        <v>55447</v>
+        <v>516</v>
+      </c>
+      <c r="G27" s="7">
+        <v>55427</v>
       </c>
       <c r="H27" t="s">
-        <v>502</v>
+        <v>874</v>
       </c>
       <c r="I27" t="s">
-        <v>503</v>
-      </c>
-      <c r="J27" t="s">
-        <v>319</v>
+        <v>774</v>
       </c>
       <c r="K27" t="s">
-        <v>504</v>
-      </c>
-      <c r="N27" t="s">
-        <v>505</v>
+        <v>393</v>
+      </c>
+      <c r="L27" t="s">
+        <v>975</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>976</v>
       </c>
       <c r="S27" t="s">
-        <v>338</v>
-      </c>
-      <c r="T27" t="s">
-        <v>506</v>
+        <v>330</v>
+      </c>
+      <c r="U27" s="6" t="s">
+        <v>825</v>
       </c>
       <c r="V27" t="s">
         <v>313</v>
@@ -7367,46 +7357,46 @@
     </row>
     <row r="28" spans="1:24" ht="16">
       <c r="A28">
-        <v>-93.74145919</v>
+        <v>-93.269537729999996</v>
       </c>
       <c r="B28">
-        <v>44.902299849999999</v>
+        <v>44.999925470000001</v>
       </c>
       <c r="C28">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>925</v>
+        <v>554</v>
       </c>
       <c r="E28" t="s">
-        <v>507</v>
+        <v>897</v>
       </c>
       <c r="F28" t="s">
-        <v>508</v>
+        <v>97</v>
       </c>
       <c r="G28">
-        <v>55375</v>
+        <v>55413</v>
       </c>
       <c r="H28" t="s">
-        <v>509</v>
+        <v>555</v>
       </c>
       <c r="I28" t="s">
-        <v>510</v>
+        <v>556</v>
       </c>
       <c r="J28" t="s">
-        <v>319</v>
+        <v>557</v>
       </c>
       <c r="K28" t="s">
-        <v>511</v>
-      </c>
-      <c r="N28" t="s">
-        <v>512</v>
+        <v>558</v>
+      </c>
+      <c r="O28" t="s">
+        <v>559</v>
       </c>
       <c r="S28" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="T28" t="s">
-        <v>513</v>
+        <v>560</v>
       </c>
       <c r="V28" t="s">
         <v>313</v>
@@ -7420,46 +7410,46 @@
     </row>
     <row r="29" spans="1:24" ht="16">
       <c r="A29">
-        <v>-93.378865090000005</v>
+        <v>-93.41156024</v>
       </c>
       <c r="B29">
-        <v>44.98611502</v>
+        <v>44.923783309999997</v>
       </c>
       <c r="C29">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>514</v>
+        <v>341</v>
       </c>
       <c r="E29" t="s">
-        <v>515</v>
+        <v>342</v>
       </c>
       <c r="F29" t="s">
-        <v>516</v>
+        <v>343</v>
       </c>
       <c r="G29">
-        <v>55427</v>
+        <v>55343</v>
       </c>
       <c r="H29" t="s">
-        <v>517</v>
+        <v>344</v>
       </c>
       <c r="I29" t="s">
-        <v>518</v>
+        <v>345</v>
       </c>
       <c r="J29" t="s">
-        <v>519</v>
+        <v>346</v>
       </c>
       <c r="K29" t="s">
-        <v>520</v>
-      </c>
-      <c r="R29" t="s">
-        <v>476</v>
+        <v>347</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>348</v>
       </c>
       <c r="S29" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="T29" t="s">
-        <v>521</v>
+        <v>349</v>
       </c>
       <c r="V29" t="s">
         <v>313</v>
@@ -7473,49 +7463,43 @@
     </row>
     <row r="30" spans="1:24" ht="16">
       <c r="A30">
-        <v>-93.262404279999998</v>
+        <v>-92.719909999999999</v>
       </c>
       <c r="B30">
-        <v>44.908629570000002</v>
+        <v>44.974789999999999</v>
       </c>
       <c r="C30">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D30" t="s">
-        <v>522</v>
+        <v>684</v>
       </c>
       <c r="E30" t="s">
-        <v>523</v>
+        <v>771</v>
       </c>
       <c r="F30" t="s">
-        <v>97</v>
-      </c>
-      <c r="G30">
-        <v>55417</v>
+        <v>772</v>
+      </c>
+      <c r="G30" s="7">
+        <v>54016</v>
       </c>
       <c r="H30" t="s">
-        <v>524</v>
+        <v>871</v>
       </c>
       <c r="I30" t="s">
-        <v>353</v>
-      </c>
-      <c r="J30" t="s">
-        <v>459</v>
+        <v>393</v>
       </c>
       <c r="K30" t="s">
-        <v>355</v>
-      </c>
-      <c r="N30" t="s">
-        <v>525</v>
+        <v>393</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>950</v>
       </c>
       <c r="S30" t="s">
-        <v>310</v>
-      </c>
-      <c r="T30" t="s">
-        <v>526</v>
-      </c>
-      <c r="U30" t="s">
-        <v>527</v>
+        <v>330</v>
+      </c>
+      <c r="U30" s="6" t="s">
+        <v>770</v>
       </c>
       <c r="V30" t="s">
         <v>313</v>
@@ -7529,46 +7513,46 @@
     </row>
     <row r="31" spans="1:24" ht="16">
       <c r="A31">
-        <v>-93.361558579999993</v>
+        <v>-93.272576939999993</v>
       </c>
       <c r="B31">
-        <v>44.928979269999999</v>
+        <v>44.976069389999999</v>
       </c>
       <c r="C31">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D31" t="s">
-        <v>528</v>
+        <v>592</v>
       </c>
       <c r="E31" t="s">
-        <v>529</v>
+        <v>593</v>
       </c>
       <c r="F31" t="s">
-        <v>530</v>
+        <v>97</v>
       </c>
       <c r="G31">
-        <v>55426</v>
+        <v>55402</v>
       </c>
       <c r="H31" t="s">
-        <v>531</v>
+        <v>393</v>
       </c>
       <c r="I31" t="s">
-        <v>532</v>
+        <v>594</v>
       </c>
       <c r="J31" t="s">
-        <v>533</v>
+        <v>595</v>
       </c>
       <c r="K31" t="s">
-        <v>393</v>
+        <v>596</v>
       </c>
       <c r="M31" t="s">
-        <v>534</v>
+        <v>597</v>
       </c>
       <c r="S31" t="s">
         <v>338</v>
       </c>
       <c r="T31" t="s">
-        <v>535</v>
+        <v>598</v>
       </c>
       <c r="V31" t="s">
         <v>313</v>
@@ -7582,46 +7566,43 @@
     </row>
     <row r="32" spans="1:24" ht="16">
       <c r="A32">
-        <v>-93.346291449999995</v>
+        <v>-93.063100000000006</v>
       </c>
       <c r="B32">
-        <v>44.933093739999997</v>
+        <v>44.830500000000001</v>
       </c>
       <c r="C32">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="D32" t="s">
-        <v>536</v>
+        <v>686</v>
       </c>
       <c r="E32" t="s">
-        <v>537</v>
+        <v>906</v>
       </c>
       <c r="F32" t="s">
-        <v>530</v>
-      </c>
-      <c r="G32">
-        <v>55416</v>
+        <v>247</v>
+      </c>
+      <c r="G32" s="7">
+        <v>55077</v>
       </c>
       <c r="H32" t="s">
-        <v>531</v>
+        <v>855</v>
       </c>
       <c r="I32" t="s">
-        <v>532</v>
-      </c>
-      <c r="J32" t="s">
-        <v>533</v>
+        <v>692</v>
       </c>
       <c r="K32" t="s">
         <v>393</v>
       </c>
-      <c r="O32" t="s">
-        <v>538</v>
+      <c r="L32" t="s">
+        <v>959</v>
       </c>
       <c r="S32" t="s">
-        <v>338</v>
-      </c>
-      <c r="T32" t="s">
-        <v>539</v>
+        <v>330</v>
+      </c>
+      <c r="U32" s="6" t="s">
+        <v>775</v>
       </c>
       <c r="V32" t="s">
         <v>313</v>
@@ -7635,46 +7616,46 @@
     </row>
     <row r="33" spans="1:24" ht="16">
       <c r="A33">
-        <v>-93.506930420000003</v>
+        <v>-93.27801925</v>
       </c>
       <c r="B33">
-        <v>44.968517650000003</v>
+        <v>44.924727220000001</v>
       </c>
       <c r="C33">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>540</v>
+        <v>350</v>
       </c>
       <c r="E33" t="s">
-        <v>541</v>
+        <v>351</v>
       </c>
       <c r="F33" t="s">
-        <v>542</v>
+        <v>97</v>
       </c>
       <c r="G33">
-        <v>55391</v>
+        <v>55409</v>
       </c>
       <c r="H33" t="s">
-        <v>543</v>
+        <v>352</v>
       </c>
       <c r="I33" t="s">
-        <v>544</v>
+        <v>353</v>
       </c>
       <c r="J33" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="K33" t="s">
-        <v>545</v>
-      </c>
-      <c r="O33" t="s">
-        <v>546</v>
+        <v>355</v>
+      </c>
+      <c r="R33" t="s">
+        <v>356</v>
       </c>
       <c r="S33" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="T33" t="s">
-        <v>547</v>
+        <v>357</v>
       </c>
       <c r="V33" t="s">
         <v>313</v>
@@ -7688,46 +7669,43 @@
     </row>
     <row r="34" spans="1:24" ht="16">
       <c r="A34">
-        <v>-93.309414050000001</v>
+        <v>-93.242890171888604</v>
       </c>
       <c r="B34">
-        <v>45.03584524</v>
+        <v>44.645831834528202</v>
       </c>
       <c r="C34">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>680</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>902</v>
       </c>
       <c r="F34" t="s">
-        <v>97</v>
-      </c>
-      <c r="G34">
-        <v>55412</v>
+        <v>270</v>
+      </c>
+      <c r="G34" s="7">
+        <v>55044</v>
       </c>
       <c r="H34" t="s">
-        <v>548</v>
+        <v>847</v>
       </c>
       <c r="I34" t="s">
-        <v>549</v>
-      </c>
-      <c r="J34" t="s">
-        <v>550</v>
+        <v>692</v>
       </c>
       <c r="K34" t="s">
-        <v>551</v>
-      </c>
-      <c r="O34" t="s">
-        <v>552</v>
+        <v>393</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>953</v>
       </c>
       <c r="S34" t="s">
-        <v>310</v>
-      </c>
-      <c r="T34" t="s">
-        <v>553</v>
+        <v>330</v>
+      </c>
+      <c r="U34" s="6" t="s">
+        <v>778</v>
       </c>
       <c r="V34" t="s">
         <v>313</v>
@@ -7741,46 +7719,46 @@
     </row>
     <row r="35" spans="1:24" ht="16">
       <c r="A35">
-        <v>-93.269537729999996</v>
+        <v>-93.315818309999997</v>
       </c>
       <c r="B35">
-        <v>44.999925470000001</v>
+        <v>44.92463549</v>
       </c>
       <c r="C35">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D35" t="s">
-        <v>554</v>
+        <v>219</v>
       </c>
       <c r="E35" t="s">
-        <v>897</v>
+        <v>471</v>
       </c>
       <c r="F35" t="s">
         <v>97</v>
       </c>
       <c r="G35">
-        <v>55413</v>
+        <v>55410</v>
       </c>
       <c r="H35" t="s">
-        <v>555</v>
+        <v>472</v>
       </c>
       <c r="I35" t="s">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="J35" t="s">
-        <v>557</v>
+        <v>474</v>
       </c>
       <c r="K35" t="s">
-        <v>558</v>
-      </c>
-      <c r="O35" t="s">
-        <v>559</v>
+        <v>475</v>
+      </c>
+      <c r="R35" t="s">
+        <v>476</v>
       </c>
       <c r="S35" t="s">
-        <v>310</v>
+        <v>477</v>
       </c>
       <c r="T35" t="s">
-        <v>560</v>
+        <v>478</v>
       </c>
       <c r="V35" t="s">
         <v>313</v>
@@ -7853,46 +7831,64 @@
     </row>
     <row r="37" spans="1:24" ht="16">
       <c r="A37">
-        <v>-93.514457770000007</v>
+        <v>-93.28591978</v>
       </c>
       <c r="B37">
-        <v>45.242557060000003</v>
+        <v>44.981227310000001</v>
       </c>
       <c r="C37">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>569</v>
+        <v>397</v>
       </c>
       <c r="E37" t="s">
-        <v>570</v>
+        <v>398</v>
       </c>
       <c r="F37" t="s">
-        <v>571</v>
+        <v>97</v>
       </c>
       <c r="G37">
-        <v>55327</v>
+        <v>55405</v>
       </c>
       <c r="H37" t="s">
-        <v>572</v>
+        <v>399</v>
       </c>
       <c r="I37" t="s">
-        <v>573</v>
+        <v>400</v>
       </c>
       <c r="J37" t="s">
-        <v>574</v>
+        <v>319</v>
       </c>
       <c r="K37" t="s">
-        <v>575</v>
-      </c>
-      <c r="P37" t="s">
-        <v>576</v>
+        <v>401</v>
+      </c>
+      <c r="L37" t="s">
+        <v>947</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>946</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>945</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>944</v>
+      </c>
+      <c r="P37" s="6" t="s">
+        <v>943</v>
+      </c>
+      <c r="Q37" s="6" t="s">
+        <v>942</v>
+      </c>
+      <c r="R37" s="6" t="s">
+        <v>941</v>
       </c>
       <c r="S37" t="s">
-        <v>577</v>
+        <v>310</v>
       </c>
       <c r="T37" t="s">
-        <v>489</v>
+        <v>402</v>
       </c>
       <c r="V37" t="s">
         <v>313</v>
@@ -7906,43 +7902,49 @@
     </row>
     <row r="38" spans="1:24" ht="16">
       <c r="A38">
-        <v>-93.238340809999997</v>
+        <v>-93.443520269999993</v>
       </c>
       <c r="B38">
-        <v>44.966206479999997</v>
+        <v>45.103781750000003</v>
       </c>
       <c r="C38">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>578</v>
+        <v>358</v>
       </c>
       <c r="E38" t="s">
-        <v>579</v>
+        <v>359</v>
       </c>
       <c r="F38" t="s">
-        <v>97</v>
+        <v>360</v>
+      </c>
+      <c r="G38">
+        <v>55369</v>
       </c>
       <c r="H38" t="s">
-        <v>580</v>
+        <v>361</v>
       </c>
       <c r="I38" t="s">
-        <v>581</v>
+        <v>362</v>
       </c>
       <c r="J38" t="s">
-        <v>582</v>
+        <v>354</v>
       </c>
       <c r="K38" t="s">
-        <v>583</v>
-      </c>
-      <c r="M38" t="s">
-        <v>584</v>
+        <v>363</v>
+      </c>
+      <c r="O38" t="s">
+        <v>364</v>
       </c>
       <c r="S38" t="s">
         <v>310</v>
       </c>
       <c r="T38" t="s">
-        <v>585</v>
+        <v>365</v>
+      </c>
+      <c r="U38" t="s">
+        <v>366</v>
       </c>
       <c r="V38" t="s">
         <v>313</v>
@@ -7956,46 +7958,43 @@
     </row>
     <row r="39" spans="1:24" ht="16">
       <c r="A39">
-        <v>-93.259001249999997</v>
+        <v>-93.02346</v>
       </c>
       <c r="B39">
-        <v>44.934401080000001</v>
+        <v>44.996989999999997</v>
       </c>
       <c r="C39">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="D39" t="s">
-        <v>586</v>
+        <v>653</v>
       </c>
       <c r="E39" t="s">
-        <v>898</v>
+        <v>915</v>
       </c>
       <c r="F39" t="s">
-        <v>97</v>
-      </c>
-      <c r="G39">
-        <v>55407</v>
+        <v>729</v>
+      </c>
+      <c r="G39" s="7">
+        <v>55109</v>
       </c>
       <c r="H39" t="s">
-        <v>587</v>
+        <v>875</v>
       </c>
       <c r="I39" t="s">
-        <v>588</v>
-      </c>
-      <c r="J39" t="s">
-        <v>533</v>
+        <v>692</v>
       </c>
       <c r="K39" t="s">
-        <v>589</v>
+        <v>393</v>
       </c>
       <c r="O39" t="s">
-        <v>590</v>
+        <v>974</v>
       </c>
       <c r="S39" t="s">
-        <v>338</v>
-      </c>
-      <c r="T39" t="s">
-        <v>591</v>
+        <v>330</v>
+      </c>
+      <c r="U39" s="6" t="s">
+        <v>973</v>
       </c>
       <c r="V39" t="s">
         <v>313</v>
@@ -8009,46 +8008,46 @@
     </row>
     <row r="40" spans="1:24" ht="16">
       <c r="A40">
-        <v>-93.272576939999993</v>
+        <v>-93.378865090000005</v>
       </c>
       <c r="B40">
-        <v>44.976069389999999</v>
+        <v>44.98611502</v>
       </c>
       <c r="C40">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D40" t="s">
-        <v>592</v>
+        <v>514</v>
       </c>
       <c r="E40" t="s">
-        <v>593</v>
+        <v>515</v>
       </c>
       <c r="F40" t="s">
-        <v>97</v>
+        <v>516</v>
       </c>
       <c r="G40">
-        <v>55402</v>
+        <v>55427</v>
       </c>
       <c r="H40" t="s">
-        <v>393</v>
+        <v>517</v>
       </c>
       <c r="I40" t="s">
-        <v>594</v>
+        <v>518</v>
       </c>
       <c r="J40" t="s">
-        <v>595</v>
+        <v>519</v>
       </c>
       <c r="K40" t="s">
-        <v>596</v>
-      </c>
-      <c r="M40" t="s">
-        <v>597</v>
+        <v>520</v>
+      </c>
+      <c r="R40" t="s">
+        <v>476</v>
       </c>
       <c r="S40" t="s">
         <v>338</v>
       </c>
       <c r="T40" t="s">
-        <v>598</v>
+        <v>521</v>
       </c>
       <c r="V40" t="s">
         <v>313</v>
@@ -8062,43 +8061,64 @@
     </row>
     <row r="41" spans="1:24" ht="16">
       <c r="A41">
-        <v>-93.268997639999995</v>
+        <v>-93.481904319999998</v>
       </c>
       <c r="B41">
-        <v>44.97524739</v>
+        <v>44.838996219999999</v>
       </c>
       <c r="C41">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>100</v>
+        <v>367</v>
       </c>
       <c r="E41" t="s">
-        <v>599</v>
+        <v>368</v>
       </c>
       <c r="F41" t="s">
-        <v>97</v>
+        <v>369</v>
       </c>
       <c r="G41">
-        <v>55402</v>
+        <v>55347</v>
       </c>
       <c r="H41" t="s">
-        <v>531</v>
+        <v>370</v>
       </c>
       <c r="I41" t="s">
-        <v>600</v>
+        <v>371</v>
+      </c>
+      <c r="J41" t="s">
+        <v>372</v>
       </c>
       <c r="K41" t="s">
-        <v>601</v>
-      </c>
-      <c r="N41" t="s">
-        <v>460</v>
+        <v>373</v>
+      </c>
+      <c r="L41" t="s">
+        <v>934</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>940</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>935</v>
+      </c>
+      <c r="O41" s="6" t="s">
+        <v>936</v>
+      </c>
+      <c r="P41" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="Q41" s="6" t="s">
+        <v>938</v>
+      </c>
+      <c r="R41" s="6" t="s">
+        <v>939</v>
       </c>
       <c r="S41" t="s">
         <v>338</v>
       </c>
       <c r="T41" t="s">
-        <v>602</v>
+        <v>374</v>
       </c>
       <c r="V41" t="s">
         <v>313</v>
@@ -8112,43 +8132,46 @@
     </row>
     <row r="42" spans="1:24" ht="16">
       <c r="A42">
-        <v>-93.247074839999996</v>
+        <v>-93.361558579999993</v>
       </c>
       <c r="B42">
-        <v>44.968948480000002</v>
+        <v>44.928979269999999</v>
       </c>
       <c r="C42">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D42" t="s">
-        <v>603</v>
+        <v>528</v>
       </c>
       <c r="E42" t="s">
-        <v>604</v>
+        <v>529</v>
       </c>
       <c r="F42" t="s">
-        <v>97</v>
+        <v>530</v>
       </c>
       <c r="G42">
-        <v>55454</v>
+        <v>55426</v>
       </c>
       <c r="H42" t="s">
-        <v>605</v>
+        <v>531</v>
       </c>
       <c r="I42" t="s">
-        <v>606</v>
+        <v>532</v>
+      </c>
+      <c r="J42" t="s">
+        <v>533</v>
       </c>
       <c r="K42" t="s">
-        <v>583</v>
+        <v>393</v>
       </c>
       <c r="M42" t="s">
-        <v>607</v>
+        <v>534</v>
       </c>
       <c r="S42" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="T42" t="s">
-        <v>585</v>
+        <v>535</v>
       </c>
       <c r="V42" t="s">
         <v>313</v>
@@ -8162,43 +8185,52 @@
     </row>
     <row r="43" spans="1:24" ht="16">
       <c r="A43">
-        <v>-93.258869090000005</v>
+        <v>-93.238939920000007</v>
       </c>
       <c r="B43">
-        <v>44.986570030000003</v>
+        <v>44.947987689999998</v>
       </c>
       <c r="C43">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>608</v>
+        <v>375</v>
       </c>
       <c r="E43" t="s">
-        <v>609</v>
+        <v>376</v>
       </c>
       <c r="F43" t="s">
         <v>97</v>
       </c>
       <c r="G43">
-        <v>55414</v>
+        <v>55407</v>
       </c>
       <c r="H43" t="s">
-        <v>610</v>
+        <v>377</v>
       </c>
       <c r="I43" t="s">
-        <v>611</v>
+        <v>378</v>
+      </c>
+      <c r="J43" t="s">
+        <v>379</v>
       </c>
       <c r="K43" t="s">
-        <v>612</v>
-      </c>
-      <c r="N43" t="s">
-        <v>512</v>
+        <v>380</v>
+      </c>
+      <c r="M43" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>309</v>
       </c>
       <c r="S43" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="T43" t="s">
-        <v>613</v>
+        <v>381</v>
+      </c>
+      <c r="U43" t="s">
+        <v>382</v>
       </c>
       <c r="V43" t="s">
         <v>313</v>
@@ -8210,66 +8242,51 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="16">
+    <row r="44" spans="1:24" ht="17">
       <c r="A44">
-        <v>-93.252119550000003</v>
+        <v>-93.2561532</v>
       </c>
       <c r="B44">
-        <v>44.962523910000002</v>
+        <v>44.978557719999998</v>
       </c>
       <c r="C44">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>614</v>
+        <v>119</v>
       </c>
       <c r="E44" t="s">
-        <v>615</v>
+        <v>383</v>
       </c>
       <c r="F44" t="s">
         <v>97</v>
       </c>
       <c r="G44">
-        <v>55404</v>
+        <v>55401</v>
       </c>
       <c r="H44" t="s">
-        <v>616</v>
+        <v>384</v>
       </c>
       <c r="I44" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="J44" t="s">
-        <v>595</v>
+        <v>354</v>
       </c>
       <c r="K44" t="s">
-        <v>617</v>
-      </c>
-      <c r="L44" t="s">
-        <v>477</v>
-      </c>
-      <c r="M44" t="s">
-        <v>477</v>
-      </c>
-      <c r="N44" t="s">
-        <v>477</v>
-      </c>
-      <c r="O44" t="s">
-        <v>477</v>
-      </c>
-      <c r="P44" t="s">
-        <v>477</v>
+        <v>386</v>
       </c>
       <c r="Q44" t="s">
-        <v>477</v>
-      </c>
-      <c r="R44" t="s">
-        <v>477</v>
+        <v>387</v>
       </c>
       <c r="S44" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="T44" t="s">
-        <v>477</v>
+        <v>388</v>
+      </c>
+      <c r="U44" t="s">
+        <v>389</v>
       </c>
       <c r="V44" t="s">
         <v>313</v>
@@ -8281,45 +8298,51 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="16">
+    <row r="45" spans="1:24" ht="17">
       <c r="A45">
-        <v>-93.260828880000005</v>
+        <v>-93.267168600000005</v>
       </c>
       <c r="B45">
-        <v>44.978882470000002</v>
+        <v>44.975266300000001</v>
       </c>
       <c r="C45">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>618</v>
+        <v>129</v>
       </c>
       <c r="E45" t="s">
-        <v>619</v>
+        <v>892</v>
       </c>
       <c r="F45" t="s">
         <v>97</v>
       </c>
       <c r="G45">
-        <v>55401</v>
+        <v>55487</v>
       </c>
       <c r="H45" t="s">
+        <v>390</v>
+      </c>
+      <c r="I45" t="s">
+        <v>391</v>
+      </c>
+      <c r="J45" t="s">
+        <v>392</v>
+      </c>
+      <c r="K45" t="s">
         <v>393</v>
       </c>
-      <c r="I45" t="s">
-        <v>620</v>
-      </c>
-      <c r="K45" t="s">
-        <v>621</v>
-      </c>
-      <c r="M45" t="s">
-        <v>622</v>
+      <c r="O45" t="s">
+        <v>394</v>
       </c>
       <c r="S45" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="T45" t="s">
-        <v>623</v>
+        <v>395</v>
+      </c>
+      <c r="U45" t="s">
+        <v>396</v>
       </c>
       <c r="V45" t="s">
         <v>313</v>
@@ -8333,42 +8356,44 @@
     </row>
     <row r="46" spans="1:24" ht="17">
       <c r="A46">
-        <v>-93.874388999999994</v>
+        <v>-93.266143999999997</v>
       </c>
       <c r="B46">
-        <v>45.173301000000002</v>
+        <v>44.976748999999998</v>
       </c>
       <c r="C46">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="D46" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="E46" t="s">
-        <v>899</v>
+        <v>913</v>
       </c>
       <c r="F46" t="s">
-        <v>650</v>
+        <v>737</v>
       </c>
       <c r="G46" s="7">
-        <v>55313</v>
+        <v>55487</v>
       </c>
       <c r="H46" t="s">
-        <v>844</v>
+        <v>872</v>
       </c>
       <c r="I46" t="s">
-        <v>722</v>
+        <v>400</v>
       </c>
       <c r="K46" t="s">
         <v>393</v>
       </c>
-      <c r="Q46" t="s">
-        <v>950</v>
+      <c r="P46" t="s">
+        <v>978</v>
       </c>
       <c r="S46" t="s">
         <v>330</v>
       </c>
-      <c r="U46" s="6"/>
+      <c r="U46" s="6" t="s">
+        <v>977</v>
+      </c>
       <c r="V46" t="s">
         <v>313</v>
       </c>
@@ -8381,46 +8406,46 @@
     </row>
     <row r="47" spans="1:24" ht="17">
       <c r="A47">
-        <v>-92.455960000000005</v>
+        <v>-93.465455669999997</v>
       </c>
       <c r="B47">
-        <v>44.001130000000003</v>
+        <v>44.940518529999999</v>
       </c>
       <c r="C47">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>647</v>
+        <v>403</v>
       </c>
       <c r="E47" t="s">
-        <v>900</v>
+        <v>404</v>
       </c>
       <c r="F47" t="s">
-        <v>719</v>
-      </c>
-      <c r="G47" s="7">
-        <v>55904</v>
+        <v>405</v>
+      </c>
+      <c r="G47">
+        <v>55345</v>
       </c>
       <c r="H47" t="s">
-        <v>845</v>
+        <v>406</v>
       </c>
       <c r="I47" t="s">
-        <v>720</v>
+        <v>407</v>
+      </c>
+      <c r="J47" t="s">
+        <v>354</v>
       </c>
       <c r="K47" t="s">
-        <v>393</v>
-      </c>
-      <c r="N47" t="s">
-        <v>951</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>952</v>
+        <v>408</v>
+      </c>
+      <c r="M47" t="s">
+        <v>409</v>
       </c>
       <c r="S47" t="s">
-        <v>330</v>
-      </c>
-      <c r="U47" s="6" t="s">
-        <v>648</v>
+        <v>310</v>
+      </c>
+      <c r="T47" t="s">
+        <v>410</v>
       </c>
       <c r="V47" t="s">
         <v>313</v>
@@ -8434,39 +8459,44 @@
     </row>
     <row r="48" spans="1:24" ht="17">
       <c r="A48">
-        <v>-93.161739999999995</v>
+        <v>-93.799229999999994</v>
       </c>
       <c r="B48">
-        <v>44.455100000000002</v>
+        <v>45.302010000000003</v>
       </c>
       <c r="C48">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="D48" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="E48" t="s">
-        <v>901</v>
+        <v>921</v>
       </c>
       <c r="F48" t="s">
-        <v>748</v>
+        <v>787</v>
       </c>
       <c r="G48" s="7">
-        <v>55057</v>
+        <v>55362</v>
       </c>
       <c r="H48" t="s">
-        <v>846</v>
+        <v>885</v>
+      </c>
+      <c r="I48" t="s">
+        <v>732</v>
       </c>
       <c r="K48" t="s">
         <v>393</v>
       </c>
-      <c r="Q48" t="s">
-        <v>953</v>
+      <c r="O48" t="s">
+        <v>967</v>
       </c>
       <c r="S48" t="s">
         <v>330</v>
       </c>
-      <c r="U48" s="6"/>
+      <c r="U48" s="6" t="s">
+        <v>966</v>
+      </c>
       <c r="V48" t="s">
         <v>313</v>
       </c>
@@ -8479,43 +8509,43 @@
     </row>
     <row r="49" spans="1:24" ht="17">
       <c r="A49">
-        <v>-93.242890171888604</v>
+        <v>-93.664710999999997</v>
       </c>
       <c r="B49">
-        <v>44.645831834528202</v>
+        <v>44.937469999999998</v>
       </c>
       <c r="C49">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D49" t="s">
-        <v>680</v>
+        <v>661</v>
       </c>
       <c r="E49" t="s">
-        <v>902</v>
+        <v>663</v>
       </c>
       <c r="F49" t="s">
-        <v>270</v>
+        <v>664</v>
       </c>
       <c r="G49" s="7">
-        <v>55044</v>
+        <v>55364</v>
       </c>
       <c r="H49" t="s">
-        <v>847</v>
+        <v>393</v>
       </c>
       <c r="I49" t="s">
-        <v>692</v>
+        <v>744</v>
       </c>
       <c r="K49" t="s">
         <v>393</v>
       </c>
       <c r="Q49" t="s">
-        <v>953</v>
+        <v>982</v>
       </c>
       <c r="S49" t="s">
         <v>330</v>
       </c>
       <c r="U49" s="6" t="s">
-        <v>778</v>
+        <v>662</v>
       </c>
       <c r="V49" t="s">
         <v>313</v>
@@ -8529,42 +8559,47 @@
     </row>
     <row r="50" spans="1:24" ht="17">
       <c r="A50">
-        <v>-93.424610000000001</v>
+        <v>-93.664526010000003</v>
       </c>
       <c r="B50">
-        <v>44.714300000000001</v>
+        <v>44.937047810000003</v>
       </c>
       <c r="C50">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D50" t="s">
-        <v>651</v>
+        <v>490</v>
       </c>
       <c r="E50" t="s">
-        <v>903</v>
+        <v>491</v>
       </c>
       <c r="F50" t="s">
-        <v>652</v>
-      </c>
-      <c r="G50" s="7">
-        <v>55372</v>
+        <v>492</v>
+      </c>
+      <c r="G50">
+        <v>55364</v>
       </c>
       <c r="H50" t="s">
-        <v>849</v>
+        <v>493</v>
       </c>
       <c r="I50" t="s">
-        <v>724</v>
+        <v>494</v>
+      </c>
+      <c r="J50" t="s">
+        <v>495</v>
       </c>
       <c r="K50" t="s">
-        <v>393</v>
+        <v>496</v>
       </c>
       <c r="Q50" t="s">
-        <v>954</v>
+        <v>497</v>
       </c>
       <c r="S50" t="s">
-        <v>330</v>
-      </c>
-      <c r="U50" s="6"/>
+        <v>338</v>
+      </c>
+      <c r="T50" t="s">
+        <v>498</v>
+      </c>
       <c r="V50" t="s">
         <v>313</v>
       </c>
@@ -8577,43 +8612,49 @@
     </row>
     <row r="51" spans="1:24" ht="17">
       <c r="A51">
-        <v>-93.208690000000004</v>
+        <v>-93.391522600000002</v>
       </c>
       <c r="B51">
-        <v>44.734789999999997</v>
+        <v>45.02124937</v>
       </c>
       <c r="C51">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>675</v>
+        <v>411</v>
       </c>
       <c r="E51" t="s">
-        <v>904</v>
+        <v>412</v>
       </c>
       <c r="F51" t="s">
-        <v>292</v>
-      </c>
-      <c r="G51" s="7">
-        <v>55124</v>
+        <v>413</v>
+      </c>
+      <c r="G51">
+        <v>55428</v>
       </c>
       <c r="H51" t="s">
-        <v>850</v>
+        <v>414</v>
       </c>
       <c r="I51" t="s">
-        <v>692</v>
+        <v>415</v>
+      </c>
+      <c r="J51" t="s">
+        <v>372</v>
       </c>
       <c r="K51" t="s">
-        <v>393</v>
+        <v>416</v>
       </c>
       <c r="Q51" t="s">
-        <v>955</v>
+        <v>309</v>
       </c>
       <c r="S51" t="s">
-        <v>330</v>
-      </c>
-      <c r="U51" s="6" t="s">
-        <v>676</v>
+        <v>310</v>
+      </c>
+      <c r="T51" t="s">
+        <v>417</v>
+      </c>
+      <c r="U51" t="s">
+        <v>418</v>
       </c>
       <c r="V51" t="s">
         <v>313</v>
@@ -8627,42 +8668,50 @@
     </row>
     <row r="52" spans="1:24" ht="17">
       <c r="A52">
-        <v>-93.127529999999993</v>
+        <v>-93.262404279999998</v>
       </c>
       <c r="B52">
-        <v>44.747709999999998</v>
+        <v>44.908629570000002</v>
       </c>
       <c r="C52">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D52" t="s">
-        <v>678</v>
+        <v>522</v>
       </c>
       <c r="E52" t="s">
-        <v>761</v>
+        <v>523</v>
       </c>
       <c r="F52" t="s">
-        <v>264</v>
-      </c>
-      <c r="G52" s="7">
-        <v>55068</v>
+        <v>97</v>
+      </c>
+      <c r="G52">
+        <v>55417</v>
       </c>
       <c r="H52" t="s">
-        <v>851</v>
+        <v>524</v>
       </c>
       <c r="I52" t="s">
-        <v>692</v>
+        <v>353</v>
+      </c>
+      <c r="J52" t="s">
+        <v>459</v>
       </c>
       <c r="K52" t="s">
-        <v>393</v>
-      </c>
-      <c r="M52" t="s">
-        <v>956</v>
+        <v>355</v>
+      </c>
+      <c r="N52" t="s">
+        <v>525</v>
       </c>
       <c r="S52" t="s">
-        <v>330</v>
-      </c>
-      <c r="U52" s="6"/>
+        <v>310</v>
+      </c>
+      <c r="T52" t="s">
+        <v>526</v>
+      </c>
+      <c r="U52" t="s">
+        <v>527</v>
+      </c>
       <c r="V52" t="s">
         <v>313</v>
       </c>
@@ -8675,42 +8724,44 @@
     </row>
     <row r="53" spans="1:24" ht="17">
       <c r="A53">
-        <v>-93.281549999999996</v>
+        <v>-93.266409999999993</v>
       </c>
       <c r="B53">
-        <v>44.772419999999997</v>
+        <v>45.033729999999998</v>
       </c>
       <c r="C53">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="D53" t="s">
-        <v>642</v>
+        <v>659</v>
       </c>
       <c r="E53" t="s">
-        <v>769</v>
+        <v>917</v>
       </c>
       <c r="F53" t="s">
-        <v>783</v>
+        <v>737</v>
       </c>
       <c r="G53" s="7">
-        <v>55337</v>
+        <v>55413</v>
       </c>
       <c r="H53" t="s">
-        <v>852</v>
+        <v>878</v>
       </c>
       <c r="I53" t="s">
-        <v>692</v>
+        <v>393</v>
       </c>
       <c r="K53" t="s">
         <v>393</v>
       </c>
       <c r="Q53" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="S53" t="s">
         <v>330</v>
       </c>
-      <c r="U53" s="6"/>
+      <c r="U53" s="6" t="s">
+        <v>739</v>
+      </c>
       <c r="V53" t="s">
         <v>313</v>
       </c>
@@ -8723,46 +8774,46 @@
     </row>
     <row r="54" spans="1:24" ht="17">
       <c r="A54">
-        <v>-93.340203207883306</v>
+        <v>-93.262177269999995</v>
       </c>
       <c r="B54">
-        <v>44.778434967402298</v>
+        <v>44.995133260000003</v>
       </c>
       <c r="C54">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="D54" t="s">
-        <v>667</v>
-      </c>
-      <c r="E54" t="s">
-        <v>905</v>
+        <v>419</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>843</v>
       </c>
       <c r="F54" t="s">
-        <v>250</v>
-      </c>
-      <c r="G54" s="7">
-        <v>55378</v>
+        <v>97</v>
+      </c>
+      <c r="G54">
+        <v>55413</v>
       </c>
       <c r="H54" t="s">
-        <v>853</v>
+        <v>420</v>
       </c>
       <c r="I54" t="s">
-        <v>692</v>
+        <v>421</v>
+      </c>
+      <c r="J54" t="s">
+        <v>346</v>
       </c>
       <c r="K54" t="s">
-        <v>393</v>
-      </c>
-      <c r="L54" t="s">
-        <v>959</v>
-      </c>
-      <c r="R54" t="s">
-        <v>957</v>
+        <v>422</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>423</v>
       </c>
       <c r="S54" t="s">
-        <v>330</v>
-      </c>
-      <c r="U54" s="6" t="s">
-        <v>668</v>
+        <v>310</v>
+      </c>
+      <c r="T54" t="s">
+        <v>424</v>
       </c>
       <c r="V54" t="s">
         <v>313</v>
@@ -8776,43 +8827,43 @@
     </row>
     <row r="55" spans="1:24" ht="17">
       <c r="A55">
-        <v>-93.230577999999994</v>
+        <v>-92.96499</v>
       </c>
       <c r="B55">
-        <v>44.789363999999999</v>
+        <v>44.971760000000003</v>
       </c>
       <c r="C55">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D55" t="s">
-        <v>642</v>
+        <v>671</v>
       </c>
       <c r="E55" t="s">
-        <v>706</v>
+        <v>912</v>
       </c>
       <c r="F55" t="s">
-        <v>783</v>
+        <v>797</v>
       </c>
       <c r="G55" s="7">
-        <v>55337</v>
+        <v>55128</v>
       </c>
       <c r="H55" t="s">
-        <v>854</v>
+        <v>870</v>
       </c>
       <c r="I55" t="s">
-        <v>692</v>
+        <v>798</v>
       </c>
       <c r="K55" t="s">
         <v>393</v>
       </c>
       <c r="O55" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="S55" t="s">
         <v>330</v>
       </c>
       <c r="U55" s="6" t="s">
-        <v>926</v>
+        <v>672</v>
       </c>
       <c r="V55" t="s">
         <v>313</v>
@@ -8826,43 +8877,46 @@
     </row>
     <row r="56" spans="1:24" ht="17">
       <c r="A56">
-        <v>-93.063100000000006</v>
+        <v>-93.402580240000006</v>
       </c>
       <c r="B56">
-        <v>44.830500000000001</v>
+        <v>45.12072336</v>
       </c>
       <c r="C56">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>686</v>
+        <v>425</v>
       </c>
       <c r="E56" t="s">
-        <v>906</v>
+        <v>426</v>
       </c>
       <c r="F56" t="s">
-        <v>247</v>
-      </c>
-      <c r="G56" s="7">
-        <v>55077</v>
+        <v>427</v>
+      </c>
+      <c r="G56">
+        <v>55369</v>
       </c>
       <c r="H56" t="s">
-        <v>855</v>
+        <v>428</v>
       </c>
       <c r="I56" t="s">
-        <v>692</v>
+        <v>429</v>
+      </c>
+      <c r="J56" t="s">
+        <v>354</v>
       </c>
       <c r="K56" t="s">
-        <v>393</v>
-      </c>
-      <c r="L56" t="s">
-        <v>959</v>
+        <v>430</v>
+      </c>
+      <c r="M56" t="s">
+        <v>431</v>
       </c>
       <c r="S56" t="s">
-        <v>330</v>
-      </c>
-      <c r="U56" s="6" t="s">
-        <v>775</v>
+        <v>338</v>
+      </c>
+      <c r="T56" t="s">
+        <v>432</v>
       </c>
       <c r="V56" t="s">
         <v>313</v>
@@ -8876,42 +8930,47 @@
     </row>
     <row r="57" spans="1:24" ht="17">
       <c r="A57">
-        <v>-92.783293480054894</v>
+        <v>-93.346291449999995</v>
       </c>
       <c r="B57">
-        <v>44.899259463383899</v>
+        <v>44.933093739999997</v>
       </c>
       <c r="C57">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D57" t="s">
-        <v>689</v>
+        <v>536</v>
       </c>
       <c r="E57" t="s">
-        <v>907</v>
+        <v>537</v>
       </c>
       <c r="F57" t="s">
-        <v>777</v>
-      </c>
-      <c r="G57" s="7">
-        <v>55001</v>
+        <v>530</v>
+      </c>
+      <c r="G57">
+        <v>55416</v>
       </c>
       <c r="H57" t="s">
-        <v>858</v>
+        <v>531</v>
       </c>
       <c r="I57" t="s">
-        <v>393</v>
+        <v>532</v>
+      </c>
+      <c r="J57" t="s">
+        <v>533</v>
       </c>
       <c r="K57" t="s">
         <v>393</v>
       </c>
       <c r="O57" t="s">
-        <v>984</v>
+        <v>538</v>
       </c>
       <c r="S57" t="s">
-        <v>330</v>
-      </c>
-      <c r="U57" s="6"/>
+        <v>338</v>
+      </c>
+      <c r="T57" t="s">
+        <v>539</v>
+      </c>
       <c r="V57" t="s">
         <v>313</v>
       </c>
@@ -8924,43 +8983,46 @@
     </row>
     <row r="58" spans="1:24" ht="17">
       <c r="A58">
-        <v>-93.080629999999999</v>
+        <v>-93.473888900000006</v>
       </c>
       <c r="B58">
-        <v>44.912550000000003</v>
+        <v>44.997202219999998</v>
       </c>
       <c r="C58">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="D58" t="s">
-        <v>763</v>
+        <v>499</v>
       </c>
       <c r="E58" t="s">
-        <v>908</v>
+        <v>500</v>
       </c>
       <c r="F58" t="s">
-        <v>819</v>
-      </c>
-      <c r="G58" s="7">
-        <v>55118</v>
+        <v>501</v>
+      </c>
+      <c r="G58">
+        <v>55447</v>
       </c>
       <c r="H58" t="s">
-        <v>861</v>
+        <v>502</v>
       </c>
       <c r="I58" t="s">
-        <v>692</v>
+        <v>503</v>
+      </c>
+      <c r="J58" t="s">
+        <v>319</v>
       </c>
       <c r="K58" t="s">
-        <v>393</v>
-      </c>
-      <c r="P58" t="s">
-        <v>983</v>
+        <v>504</v>
+      </c>
+      <c r="N58" t="s">
+        <v>505</v>
       </c>
       <c r="S58" t="s">
-        <v>330</v>
-      </c>
-      <c r="U58" s="6" t="s">
-        <v>821</v>
+        <v>338</v>
+      </c>
+      <c r="T58" t="s">
+        <v>506</v>
       </c>
       <c r="V58" t="s">
         <v>313</v>
@@ -8974,46 +9036,43 @@
     </row>
     <row r="59" spans="1:24" ht="17">
       <c r="A59">
-        <v>-92.933160000000001</v>
+        <v>-93.580187936822099</v>
       </c>
       <c r="B59">
-        <v>44.915970000000002</v>
+        <v>45.569487655963897</v>
       </c>
       <c r="C59">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D59" t="s">
-        <v>677</v>
+        <v>646</v>
       </c>
       <c r="E59" t="s">
-        <v>803</v>
+        <v>714</v>
       </c>
       <c r="F59" t="s">
-        <v>252</v>
+        <v>715</v>
       </c>
       <c r="G59" s="7">
-        <v>55125</v>
+        <v>55371</v>
       </c>
       <c r="H59" t="s">
-        <v>862</v>
+        <v>887</v>
       </c>
       <c r="I59" t="s">
-        <v>692</v>
+        <v>716</v>
       </c>
       <c r="K59" t="s">
         <v>393</v>
       </c>
-      <c r="L59" t="s">
-        <v>959</v>
-      </c>
-      <c r="R59" t="s">
-        <v>957</v>
+      <c r="Q59" t="s">
+        <v>963</v>
       </c>
       <c r="S59" t="s">
         <v>330</v>
       </c>
       <c r="U59" s="6" t="s">
-        <v>804</v>
+        <v>713</v>
       </c>
       <c r="V59" t="s">
         <v>313</v>
@@ -9027,44 +9086,42 @@
     </row>
     <row r="60" spans="1:24" ht="17">
       <c r="A60">
-        <v>-93.664710999999997</v>
+        <v>-93.424610000000001</v>
       </c>
       <c r="B60">
-        <v>44.937469999999998</v>
+        <v>44.714300000000001</v>
       </c>
       <c r="C60">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D60" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="E60" t="s">
-        <v>663</v>
+        <v>903</v>
       </c>
       <c r="F60" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="G60" s="7">
-        <v>55364</v>
+        <v>55372</v>
       </c>
       <c r="H60" t="s">
-        <v>393</v>
+        <v>849</v>
       </c>
       <c r="I60" t="s">
-        <v>744</v>
+        <v>724</v>
       </c>
       <c r="K60" t="s">
         <v>393</v>
       </c>
       <c r="Q60" t="s">
-        <v>982</v>
+        <v>954</v>
       </c>
       <c r="S60" t="s">
         <v>330</v>
       </c>
-      <c r="U60" s="6" t="s">
-        <v>662</v>
-      </c>
+      <c r="U60" s="6"/>
       <c r="V60" t="s">
         <v>313</v>
       </c>
@@ -9077,42 +9134,50 @@
     </row>
     <row r="61" spans="1:24" ht="17">
       <c r="A61">
-        <v>-93.145229999999998</v>
+        <v>-93.265853750000005</v>
       </c>
       <c r="B61">
-        <v>44.94191</v>
+        <v>44.887157989999999</v>
       </c>
       <c r="C61">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="D61" t="s">
-        <v>924</v>
+        <v>433</v>
       </c>
       <c r="E61" t="s">
-        <v>909</v>
+        <v>893</v>
       </c>
       <c r="F61" t="s">
-        <v>645</v>
-      </c>
-      <c r="G61" s="7">
-        <v>55105</v>
+        <v>434</v>
+      </c>
+      <c r="G61">
+        <v>55423</v>
       </c>
       <c r="H61" t="s">
-        <v>865</v>
+        <v>435</v>
       </c>
       <c r="I61" t="s">
-        <v>692</v>
+        <v>436</v>
+      </c>
+      <c r="J61" t="s">
+        <v>354</v>
       </c>
       <c r="K61" t="s">
-        <v>393</v>
-      </c>
-      <c r="P61" t="s">
-        <v>981</v>
+        <v>437</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>438</v>
       </c>
       <c r="S61" t="s">
-        <v>330</v>
-      </c>
-      <c r="U61" s="6"/>
+        <v>310</v>
+      </c>
+      <c r="T61" t="s">
+        <v>424</v>
+      </c>
+      <c r="U61" t="s">
+        <v>439</v>
+      </c>
       <c r="V61" t="s">
         <v>313</v>
       </c>
@@ -9125,48 +9190,44 @@
     </row>
     <row r="62" spans="1:24" ht="17">
       <c r="A62">
-        <v>-93.085080000000005</v>
+        <v>-93.258869090000005</v>
       </c>
       <c r="B62">
-        <v>44.949590000000001</v>
+        <v>44.986570030000003</v>
       </c>
       <c r="C62">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D62" t="s">
-        <v>840</v>
+        <v>608</v>
       </c>
       <c r="E62" t="s">
-        <v>910</v>
+        <v>609</v>
       </c>
       <c r="F62" t="s">
-        <v>645</v>
-      </c>
-      <c r="G62" s="7">
-        <v>55101</v>
+        <v>97</v>
+      </c>
+      <c r="G62">
+        <v>55414</v>
       </c>
       <c r="H62" t="s">
-        <v>867</v>
+        <v>610</v>
       </c>
       <c r="I62" t="s">
-        <v>692</v>
+        <v>611</v>
       </c>
       <c r="K62" t="s">
-        <v>393</v>
-      </c>
-      <c r="L62" t="s">
-        <v>959</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>980</v>
-      </c>
-      <c r="R62" t="s">
-        <v>957</v>
+        <v>612</v>
+      </c>
+      <c r="N62" t="s">
+        <v>512</v>
       </c>
       <c r="S62" t="s">
         <v>330</v>
       </c>
-      <c r="U62" s="6"/>
+      <c r="T62" t="s">
+        <v>613</v>
+      </c>
       <c r="V62" t="s">
         <v>313</v>
       </c>
@@ -9179,44 +9240,39 @@
     </row>
     <row r="63" spans="1:24" ht="17">
       <c r="A63">
-        <v>-93.28013</v>
+        <v>-93.161739999999995</v>
       </c>
       <c r="B63">
-        <v>44.955219999999997</v>
+        <v>44.455100000000002</v>
       </c>
       <c r="C63">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D63" t="s">
-        <v>690</v>
+        <v>666</v>
       </c>
       <c r="E63" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="F63" t="s">
-        <v>737</v>
+        <v>748</v>
       </c>
       <c r="G63" s="7">
-        <v>55408</v>
+        <v>55057</v>
       </c>
       <c r="H63" t="s">
-        <v>868</v>
-      </c>
-      <c r="I63" t="s">
-        <v>393</v>
+        <v>846</v>
       </c>
       <c r="K63" t="s">
         <v>393</v>
       </c>
       <c r="Q63" t="s">
-        <v>979</v>
+        <v>953</v>
       </c>
       <c r="S63" t="s">
         <v>330</v>
       </c>
-      <c r="U63" s="6" t="s">
-        <v>780</v>
-      </c>
+      <c r="U63" s="6"/>
       <c r="V63" t="s">
         <v>313</v>
       </c>
@@ -9229,43 +9285,46 @@
     </row>
     <row r="64" spans="1:24" ht="17">
       <c r="A64">
-        <v>-92.96499</v>
+        <v>-92.455960000000005</v>
       </c>
       <c r="B64">
-        <v>44.971760000000003</v>
+        <v>44.001130000000003</v>
       </c>
       <c r="C64">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D64" t="s">
-        <v>671</v>
+        <v>647</v>
       </c>
       <c r="E64" t="s">
-        <v>912</v>
+        <v>900</v>
       </c>
       <c r="F64" t="s">
-        <v>797</v>
+        <v>719</v>
       </c>
       <c r="G64" s="7">
-        <v>55128</v>
+        <v>55904</v>
       </c>
       <c r="H64" t="s">
-        <v>870</v>
+        <v>845</v>
       </c>
       <c r="I64" t="s">
-        <v>798</v>
+        <v>720</v>
       </c>
       <c r="K64" t="s">
         <v>393</v>
       </c>
-      <c r="O64" t="s">
+      <c r="N64" t="s">
         <v>951</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>952</v>
       </c>
       <c r="S64" t="s">
         <v>330</v>
       </c>
       <c r="U64" s="6" t="s">
-        <v>672</v>
+        <v>648</v>
       </c>
       <c r="V64" t="s">
         <v>313</v>
@@ -9279,28 +9338,28 @@
     </row>
     <row r="65" spans="1:24" ht="17">
       <c r="A65">
-        <v>-92.719909999999999</v>
+        <v>-93.7346</v>
       </c>
       <c r="B65">
-        <v>44.974789999999999</v>
+        <v>45.088560000000001</v>
       </c>
       <c r="C65">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D65" t="s">
-        <v>684</v>
+        <v>665</v>
       </c>
       <c r="E65" t="s">
-        <v>771</v>
+        <v>919</v>
       </c>
       <c r="F65" t="s">
-        <v>772</v>
+        <v>97</v>
       </c>
       <c r="G65" s="7">
-        <v>54016</v>
+        <v>55373</v>
       </c>
       <c r="H65" t="s">
-        <v>871</v>
+        <v>882</v>
       </c>
       <c r="I65" t="s">
         <v>393</v>
@@ -9308,15 +9367,13 @@
       <c r="K65" t="s">
         <v>393</v>
       </c>
-      <c r="Q65" t="s">
-        <v>950</v>
+      <c r="P65" t="s">
+        <v>969</v>
       </c>
       <c r="S65" t="s">
         <v>330</v>
       </c>
-      <c r="U65" s="6" t="s">
-        <v>770</v>
-      </c>
+      <c r="U65" s="6"/>
       <c r="V65" t="s">
         <v>313</v>
       </c>
@@ -9329,43 +9386,46 @@
     </row>
     <row r="66" spans="1:24" ht="17">
       <c r="A66">
-        <v>-93.266143999999997</v>
+        <v>-93.552147840000003</v>
       </c>
       <c r="B66">
-        <v>44.976748999999998</v>
+        <v>45.187066489999999</v>
       </c>
       <c r="C66">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="D66" t="s">
-        <v>644</v>
+        <v>440</v>
       </c>
       <c r="E66" t="s">
-        <v>913</v>
+        <v>894</v>
       </c>
       <c r="F66" t="s">
-        <v>737</v>
-      </c>
-      <c r="G66" s="7">
-        <v>55487</v>
+        <v>441</v>
+      </c>
+      <c r="G66">
+        <v>55347</v>
       </c>
       <c r="H66" t="s">
-        <v>872</v>
+        <v>442</v>
       </c>
       <c r="I66" t="s">
-        <v>400</v>
+        <v>443</v>
+      </c>
+      <c r="J66" t="s">
+        <v>444</v>
       </c>
       <c r="K66" t="s">
-        <v>393</v>
-      </c>
-      <c r="P66" t="s">
-        <v>978</v>
+        <v>445</v>
+      </c>
+      <c r="N66" t="s">
+        <v>446</v>
       </c>
       <c r="S66" t="s">
-        <v>330</v>
-      </c>
-      <c r="U66" s="6" t="s">
-        <v>977</v>
+        <v>338</v>
+      </c>
+      <c r="T66" t="s">
+        <v>447</v>
       </c>
       <c r="V66" t="s">
         <v>313</v>
@@ -9379,28 +9439,28 @@
     </row>
     <row r="67" spans="1:24" ht="17">
       <c r="A67">
-        <v>-93.144052128406898</v>
+        <v>-93.127529999999993</v>
       </c>
       <c r="B67">
-        <v>44.983633044805202</v>
+        <v>44.747709999999998</v>
       </c>
       <c r="C67">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D67" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="E67" t="s">
-        <v>914</v>
+        <v>761</v>
       </c>
       <c r="F67" t="s">
-        <v>645</v>
+        <v>264</v>
       </c>
       <c r="G67" s="7">
-        <v>55103</v>
+        <v>55068</v>
       </c>
       <c r="H67" t="s">
-        <v>873</v>
+        <v>851</v>
       </c>
       <c r="I67" t="s">
         <v>692</v>
@@ -9408,8 +9468,8 @@
       <c r="K67" t="s">
         <v>393</v>
       </c>
-      <c r="P67" t="s">
-        <v>962</v>
+      <c r="M67" t="s">
+        <v>956</v>
       </c>
       <c r="S67" t="s">
         <v>330</v>
@@ -9427,46 +9487,43 @@
     </row>
     <row r="68" spans="1:24" ht="17">
       <c r="A68">
-        <v>-93.378780000000006</v>
+        <v>-93.178299999999993</v>
       </c>
       <c r="B68">
-        <v>44.986960000000003</v>
+        <v>45.00497</v>
       </c>
       <c r="C68">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D68" t="s">
-        <v>685</v>
+        <v>639</v>
       </c>
       <c r="E68" t="s">
-        <v>773</v>
+        <v>916</v>
       </c>
       <c r="F68" t="s">
-        <v>516</v>
+        <v>259</v>
       </c>
       <c r="G68" s="7">
-        <v>55427</v>
+        <v>55113</v>
       </c>
       <c r="H68" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="I68" t="s">
-        <v>774</v>
+        <v>692</v>
       </c>
       <c r="K68" t="s">
         <v>393</v>
       </c>
-      <c r="L68" t="s">
-        <v>975</v>
-      </c>
-      <c r="R68" s="6" t="s">
-        <v>976</v>
+      <c r="N68" t="s">
+        <v>972</v>
       </c>
       <c r="S68" t="s">
         <v>330</v>
       </c>
       <c r="U68" s="6" t="s">
-        <v>825</v>
+        <v>971</v>
       </c>
       <c r="V68" t="s">
         <v>313</v>
@@ -9480,28 +9537,28 @@
     </row>
     <row r="69" spans="1:24" ht="17">
       <c r="A69">
-        <v>-93.02346</v>
+        <v>-93.340203207883306</v>
       </c>
       <c r="B69">
-        <v>44.996989999999997</v>
+        <v>44.778434967402298</v>
       </c>
       <c r="C69">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="D69" t="s">
-        <v>653</v>
+        <v>667</v>
       </c>
       <c r="E69" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
       <c r="F69" t="s">
-        <v>729</v>
+        <v>250</v>
       </c>
       <c r="G69" s="7">
-        <v>55109</v>
+        <v>55378</v>
       </c>
       <c r="H69" t="s">
-        <v>875</v>
+        <v>853</v>
       </c>
       <c r="I69" t="s">
         <v>692</v>
@@ -9509,14 +9566,17 @@
       <c r="K69" t="s">
         <v>393</v>
       </c>
-      <c r="O69" t="s">
-        <v>974</v>
+      <c r="L69" t="s">
+        <v>959</v>
+      </c>
+      <c r="R69" t="s">
+        <v>957</v>
       </c>
       <c r="S69" t="s">
         <v>330</v>
       </c>
       <c r="U69" s="6" t="s">
-        <v>973</v>
+        <v>668</v>
       </c>
       <c r="V69" t="s">
         <v>313</v>
@@ -9530,43 +9590,43 @@
     </row>
     <row r="70" spans="1:24" ht="17">
       <c r="A70">
-        <v>-93.178299999999993</v>
+        <v>-93.135266880548002</v>
       </c>
       <c r="B70">
-        <v>45.00497</v>
+        <v>45.080821796611701</v>
       </c>
       <c r="C70">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D70" t="s">
-        <v>639</v>
+        <v>669</v>
       </c>
       <c r="E70" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="F70" t="s">
-        <v>259</v>
+        <v>791</v>
       </c>
       <c r="G70" s="7">
-        <v>55113</v>
+        <v>55126</v>
       </c>
       <c r="H70" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="I70" t="s">
-        <v>692</v>
+        <v>792</v>
       </c>
       <c r="K70" t="s">
         <v>393</v>
       </c>
-      <c r="N70" t="s">
-        <v>972</v>
+      <c r="M70" t="s">
+        <v>970</v>
       </c>
       <c r="S70" t="s">
         <v>330</v>
       </c>
       <c r="U70" s="6" t="s">
-        <v>971</v>
+        <v>794</v>
       </c>
       <c r="V70" t="s">
         <v>313</v>
@@ -9580,43 +9640,37 @@
     </row>
     <row r="71" spans="1:24" ht="17">
       <c r="A71">
-        <v>-93.266409999999993</v>
+        <v>-93.048416000000003</v>
       </c>
       <c r="B71">
-        <v>45.033729999999998</v>
+        <v>44.888627</v>
       </c>
       <c r="C71">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="D71" t="s">
-        <v>659</v>
+        <v>997</v>
       </c>
       <c r="E71" t="s">
-        <v>917</v>
+        <v>1000</v>
       </c>
       <c r="F71" t="s">
-        <v>737</v>
-      </c>
-      <c r="G71" s="7">
-        <v>55413</v>
+        <v>1009</v>
       </c>
       <c r="H71" t="s">
-        <v>878</v>
+        <v>867</v>
       </c>
       <c r="I71" t="s">
-        <v>393</v>
+        <v>692</v>
       </c>
       <c r="K71" t="s">
         <v>393</v>
       </c>
-      <c r="Q71" t="s">
-        <v>953</v>
-      </c>
-      <c r="S71" t="s">
-        <v>330</v>
-      </c>
-      <c r="U71" s="6" t="s">
-        <v>739</v>
+      <c r="N71" t="s">
+        <v>951</v>
+      </c>
+      <c r="U71" t="s">
+        <v>1018</v>
       </c>
       <c r="V71" t="s">
         <v>313</v>
@@ -9630,43 +9684,46 @@
     </row>
     <row r="72" spans="1:24" ht="17">
       <c r="A72">
-        <v>-93.051959999999994</v>
+        <v>-93.74145919</v>
       </c>
       <c r="B72">
-        <v>45.051380000000002</v>
+        <v>44.902299849999999</v>
       </c>
       <c r="C72">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="D72" t="s">
-        <v>687</v>
+        <v>925</v>
       </c>
       <c r="E72" t="s">
-        <v>826</v>
+        <v>507</v>
       </c>
       <c r="F72" t="s">
-        <v>276</v>
-      </c>
-      <c r="G72" s="7">
-        <v>55110</v>
+        <v>508</v>
+      </c>
+      <c r="G72">
+        <v>55375</v>
       </c>
       <c r="H72" t="s">
-        <v>880</v>
+        <v>509</v>
       </c>
       <c r="I72" t="s">
-        <v>692</v>
+        <v>510</v>
+      </c>
+      <c r="J72" t="s">
+        <v>319</v>
       </c>
       <c r="K72" t="s">
-        <v>393</v>
+        <v>511</v>
       </c>
       <c r="N72" t="s">
-        <v>951</v>
+        <v>512</v>
       </c>
       <c r="S72" t="s">
-        <v>330</v>
-      </c>
-      <c r="U72" s="6" t="s">
-        <v>827</v>
+        <v>338</v>
+      </c>
+      <c r="T72" t="s">
+        <v>513</v>
       </c>
       <c r="V72" t="s">
         <v>313</v>
@@ -9680,44 +9737,48 @@
     </row>
     <row r="73" spans="1:24" ht="17">
       <c r="A73">
-        <v>-93.135266880548002</v>
+        <v>-93.085080000000005</v>
       </c>
       <c r="B73">
-        <v>45.080821796611701</v>
+        <v>44.949590000000001</v>
       </c>
       <c r="C73">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D73" t="s">
-        <v>669</v>
+        <v>840</v>
       </c>
       <c r="E73" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="F73" t="s">
-        <v>791</v>
+        <v>645</v>
       </c>
       <c r="G73" s="7">
-        <v>55126</v>
+        <v>55101</v>
       </c>
       <c r="H73" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I73" t="s">
-        <v>792</v>
+        <v>692</v>
       </c>
       <c r="K73" t="s">
         <v>393</v>
       </c>
-      <c r="M73" t="s">
-        <v>970</v>
+      <c r="L73" t="s">
+        <v>959</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>980</v>
+      </c>
+      <c r="R73" t="s">
+        <v>957</v>
       </c>
       <c r="S73" t="s">
         <v>330</v>
       </c>
-      <c r="U73" s="6" t="s">
-        <v>794</v>
-      </c>
+      <c r="U73" s="6"/>
       <c r="V73" t="s">
         <v>313</v>
       </c>
@@ -9730,42 +9791,47 @@
     </row>
     <row r="74" spans="1:24" ht="17">
       <c r="A74">
-        <v>-93.7346</v>
+        <v>-93.091020999999998</v>
       </c>
       <c r="B74">
-        <v>45.088560000000001</v>
+        <v>44.949686</v>
       </c>
       <c r="C74">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D74" t="s">
-        <v>665</v>
+        <v>840</v>
       </c>
       <c r="E74" t="s">
-        <v>919</v>
+        <v>841</v>
       </c>
       <c r="F74" t="s">
-        <v>97</v>
-      </c>
-      <c r="G74" s="7">
-        <v>55373</v>
+        <v>645</v>
+      </c>
+      <c r="G74" s="9">
+        <v>55101</v>
       </c>
       <c r="H74" t="s">
-        <v>882</v>
+        <v>867</v>
       </c>
       <c r="I74" t="s">
-        <v>393</v>
+        <v>692</v>
       </c>
       <c r="K74" t="s">
         <v>393</v>
       </c>
-      <c r="P74" t="s">
-        <v>969</v>
+      <c r="M74" t="s">
+        <v>961</v>
+      </c>
+      <c r="O74" t="s">
+        <v>960</v>
       </c>
       <c r="S74" t="s">
         <v>330</v>
       </c>
-      <c r="U74" s="6"/>
+      <c r="U74" s="6" t="s">
+        <v>841</v>
+      </c>
       <c r="V74" t="s">
         <v>313</v>
       </c>
@@ -9778,28 +9844,28 @@
     </row>
     <row r="75" spans="1:24" ht="17">
       <c r="A75">
-        <v>-93.356430000000003</v>
+        <v>-93.145229999999998</v>
       </c>
       <c r="B75">
-        <v>45.218960000000003</v>
+        <v>44.94191</v>
       </c>
       <c r="C75">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D75" t="s">
-        <v>640</v>
+        <v>924</v>
       </c>
       <c r="E75" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
       <c r="F75" t="s">
-        <v>256</v>
+        <v>645</v>
       </c>
       <c r="G75" s="7">
-        <v>55304</v>
+        <v>55105</v>
       </c>
       <c r="H75" t="s">
-        <v>884</v>
+        <v>865</v>
       </c>
       <c r="I75" t="s">
         <v>692</v>
@@ -9807,15 +9873,13 @@
       <c r="K75" t="s">
         <v>393</v>
       </c>
-      <c r="M75" t="s">
-        <v>968</v>
+      <c r="P75" t="s">
+        <v>981</v>
       </c>
       <c r="S75" t="s">
         <v>330</v>
       </c>
-      <c r="U75" s="6" t="s">
-        <v>641</v>
-      </c>
+      <c r="U75" s="6"/>
       <c r="V75" t="s">
         <v>313</v>
       </c>
@@ -9828,43 +9892,46 @@
     </row>
     <row r="76" spans="1:24" ht="17">
       <c r="A76">
-        <v>-93.799229999999994</v>
+        <v>-93.259001249999997</v>
       </c>
       <c r="B76">
-        <v>45.302010000000003</v>
+        <v>44.934401080000001</v>
       </c>
       <c r="C76">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="D76" t="s">
-        <v>654</v>
+        <v>586</v>
       </c>
       <c r="E76" t="s">
-        <v>921</v>
+        <v>898</v>
       </c>
       <c r="F76" t="s">
-        <v>787</v>
-      </c>
-      <c r="G76" s="7">
-        <v>55362</v>
+        <v>97</v>
+      </c>
+      <c r="G76">
+        <v>55407</v>
       </c>
       <c r="H76" t="s">
-        <v>885</v>
+        <v>587</v>
       </c>
       <c r="I76" t="s">
-        <v>732</v>
+        <v>588</v>
+      </c>
+      <c r="J76" t="s">
+        <v>533</v>
       </c>
       <c r="K76" t="s">
-        <v>393</v>
+        <v>589</v>
       </c>
       <c r="O76" t="s">
-        <v>967</v>
+        <v>590</v>
       </c>
       <c r="S76" t="s">
-        <v>330</v>
-      </c>
-      <c r="U76" s="6" t="s">
-        <v>966</v>
+        <v>338</v>
+      </c>
+      <c r="T76" t="s">
+        <v>591</v>
       </c>
       <c r="V76" t="s">
         <v>313</v>
@@ -9876,45 +9943,51 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="77" spans="1:24" ht="17">
+    <row r="77" spans="1:24" ht="16">
       <c r="A77">
-        <v>-92.890249999999995</v>
+        <v>-93.227817450000003</v>
       </c>
       <c r="B77">
-        <v>45.372700000000002</v>
+        <v>44.974341600000002</v>
       </c>
       <c r="C77">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="D77" t="s">
-        <v>657</v>
+        <v>456</v>
       </c>
       <c r="E77" t="s">
-        <v>922</v>
+        <v>895</v>
       </c>
       <c r="F77" t="s">
-        <v>734</v>
-      </c>
-      <c r="G77" s="7">
-        <v>55013</v>
+        <v>97</v>
+      </c>
+      <c r="G77">
+        <v>55455</v>
       </c>
       <c r="H77" t="s">
-        <v>886</v>
+        <v>457</v>
       </c>
       <c r="I77" t="s">
-        <v>393</v>
+        <v>458</v>
+      </c>
+      <c r="J77" t="s">
+        <v>459</v>
       </c>
       <c r="K77" t="s">
         <v>393</v>
       </c>
-      <c r="P77" t="s">
-        <v>965</v>
+      <c r="N77" t="s">
+        <v>460</v>
       </c>
       <c r="S77" t="s">
-        <v>330</v>
-      </c>
-      <c r="U77" s="6" t="s">
-        <v>658</v>
+        <v>338</v>
+      </c>
+      <c r="T77" t="s">
+        <v>461</v>
+      </c>
+      <c r="U77" t="s">
+        <v>462</v>
       </c>
       <c r="V77" t="s">
         <v>313</v>
@@ -9926,41 +9999,49 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="78" spans="1:24" ht="17">
+    <row r="78" spans="1:24" ht="16">
       <c r="A78">
-        <v>-93.584225204641996</v>
+        <v>-93.204085849999998</v>
       </c>
       <c r="B78">
-        <v>45.438823288834399</v>
+        <v>44.90195782</v>
       </c>
       <c r="C78">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="D78" t="s">
-        <v>670</v>
+        <v>448</v>
       </c>
       <c r="E78" t="s">
-        <v>923</v>
+        <v>449</v>
       </c>
       <c r="F78" t="s">
-        <v>752</v>
-      </c>
-      <c r="G78" s="7">
-        <v>55398</v>
+        <v>97</v>
+      </c>
+      <c r="G78">
+        <v>55417</v>
       </c>
       <c r="H78" t="s">
-        <v>887</v>
+        <v>450</v>
+      </c>
+      <c r="I78" t="s">
+        <v>451</v>
+      </c>
+      <c r="J78" t="s">
+        <v>452</v>
       </c>
       <c r="K78" t="s">
-        <v>393</v>
+        <v>453</v>
       </c>
       <c r="M78" t="s">
-        <v>964</v>
+        <v>454</v>
       </c>
       <c r="S78" t="s">
-        <v>330</v>
-      </c>
-      <c r="U78" s="6"/>
+        <v>338</v>
+      </c>
+      <c r="T78" t="s">
+        <v>455</v>
+      </c>
       <c r="V78" t="s">
         <v>313</v>
       </c>
@@ -9971,45 +10052,45 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="79" spans="1:24" ht="17">
+    <row r="79" spans="1:24" ht="16">
       <c r="A79">
-        <v>-93.580187936822099</v>
+        <v>-93.051959999999994</v>
       </c>
       <c r="B79">
-        <v>45.569487655963897</v>
+        <v>45.051380000000002</v>
       </c>
       <c r="C79">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D79" t="s">
-        <v>646</v>
+        <v>687</v>
       </c>
       <c r="E79" t="s">
-        <v>714</v>
+        <v>826</v>
       </c>
       <c r="F79" t="s">
-        <v>715</v>
+        <v>276</v>
       </c>
       <c r="G79" s="7">
-        <v>55371</v>
+        <v>55110</v>
       </c>
       <c r="H79" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="I79" t="s">
-        <v>716</v>
+        <v>692</v>
       </c>
       <c r="K79" t="s">
         <v>393</v>
       </c>
-      <c r="Q79" t="s">
-        <v>963</v>
+      <c r="N79" t="s">
+        <v>951</v>
       </c>
       <c r="S79" t="s">
         <v>330</v>
       </c>
       <c r="U79" s="6" t="s">
-        <v>713</v>
+        <v>827</v>
       </c>
       <c r="V79" t="s">
         <v>313</v>
@@ -10023,43 +10104,46 @@
     </row>
     <row r="80" spans="1:24" ht="16">
       <c r="A80">
-        <v>-93.577804</v>
+        <v>-93.506930420000003</v>
       </c>
       <c r="B80">
-        <v>45.305881999999997</v>
+        <v>44.968517650000003</v>
       </c>
       <c r="C80">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="D80" t="s">
-        <v>673</v>
+        <v>540</v>
       </c>
       <c r="E80" t="s">
-        <v>800</v>
+        <v>541</v>
       </c>
       <c r="F80" t="s">
-        <v>801</v>
-      </c>
-      <c r="G80" s="8">
-        <v>55330</v>
+        <v>542</v>
+      </c>
+      <c r="G80">
+        <v>55391</v>
       </c>
       <c r="H80" t="s">
-        <v>889</v>
+        <v>543</v>
       </c>
       <c r="I80" t="s">
-        <v>393</v>
+        <v>544</v>
+      </c>
+      <c r="J80" t="s">
+        <v>319</v>
       </c>
       <c r="K80" t="s">
-        <v>393</v>
+        <v>545</v>
       </c>
       <c r="O80" t="s">
-        <v>962</v>
+        <v>546</v>
       </c>
       <c r="S80" t="s">
-        <v>330</v>
-      </c>
-      <c r="U80" s="6" t="s">
-        <v>800</v>
+        <v>338</v>
+      </c>
+      <c r="T80" t="s">
+        <v>547</v>
       </c>
       <c r="V80" t="s">
         <v>313</v>
@@ -10073,46 +10157,43 @@
     </row>
     <row r="81" spans="1:24" ht="16">
       <c r="A81">
-        <v>-93.091020999999998</v>
+        <v>-93.247074839999996</v>
       </c>
       <c r="B81">
-        <v>44.949686</v>
+        <v>44.968948480000002</v>
       </c>
       <c r="C81">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="D81" t="s">
-        <v>840</v>
+        <v>603</v>
       </c>
       <c r="E81" t="s">
-        <v>841</v>
+        <v>604</v>
       </c>
       <c r="F81" t="s">
-        <v>645</v>
-      </c>
-      <c r="G81" s="9">
-        <v>55101</v>
+        <v>97</v>
+      </c>
+      <c r="G81">
+        <v>55454</v>
       </c>
       <c r="H81" t="s">
-        <v>867</v>
+        <v>605</v>
       </c>
       <c r="I81" t="s">
-        <v>692</v>
+        <v>606</v>
       </c>
       <c r="K81" t="s">
-        <v>393</v>
+        <v>583</v>
       </c>
       <c r="M81" t="s">
-        <v>961</v>
-      </c>
-      <c r="O81" t="s">
-        <v>960</v>
+        <v>607</v>
       </c>
       <c r="S81" t="s">
-        <v>330</v>
-      </c>
-      <c r="U81" s="6" t="s">
-        <v>841</v>
+        <v>310</v>
+      </c>
+      <c r="T81" t="s">
+        <v>585</v>
       </c>
       <c r="V81" t="s">
         <v>313</v>
@@ -10124,9 +10205,354 @@
         <v>-60</v>
       </c>
     </row>
+    <row r="82" spans="1:24" ht="16">
+      <c r="A82">
+        <v>-93.238340809999997</v>
+      </c>
+      <c r="B82">
+        <v>44.966206479999997</v>
+      </c>
+      <c r="C82">
+        <v>37</v>
+      </c>
+      <c r="D82" t="s">
+        <v>578</v>
+      </c>
+      <c r="E82" t="s">
+        <v>579</v>
+      </c>
+      <c r="F82" t="s">
+        <v>97</v>
+      </c>
+      <c r="H82" t="s">
+        <v>580</v>
+      </c>
+      <c r="I82" t="s">
+        <v>581</v>
+      </c>
+      <c r="J82" t="s">
+        <v>582</v>
+      </c>
+      <c r="K82" t="s">
+        <v>583</v>
+      </c>
+      <c r="M82" t="s">
+        <v>584</v>
+      </c>
+      <c r="S82" t="s">
+        <v>310</v>
+      </c>
+      <c r="T82" t="s">
+        <v>585</v>
+      </c>
+      <c r="V82" t="s">
+        <v>313</v>
+      </c>
+      <c r="W82" s="5">
+        <v>60</v>
+      </c>
+      <c r="X82" s="5">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" ht="16">
+      <c r="A83">
+        <v>-93.288696079999994</v>
+      </c>
+      <c r="B83">
+        <v>44.999326080000003</v>
+      </c>
+      <c r="C83">
+        <v>24</v>
+      </c>
+      <c r="D83" t="s">
+        <v>25</v>
+      </c>
+      <c r="E83" t="s">
+        <v>896</v>
+      </c>
+      <c r="F83" t="s">
+        <v>97</v>
+      </c>
+      <c r="G83">
+        <v>55411</v>
+      </c>
+      <c r="H83" t="s">
+        <v>484</v>
+      </c>
+      <c r="I83" t="s">
+        <v>485</v>
+      </c>
+      <c r="J83" t="s">
+        <v>486</v>
+      </c>
+      <c r="K83" t="s">
+        <v>487</v>
+      </c>
+      <c r="P83" t="s">
+        <v>488</v>
+      </c>
+      <c r="S83" t="s">
+        <v>310</v>
+      </c>
+      <c r="T83" t="s">
+        <v>489</v>
+      </c>
+      <c r="V83" t="s">
+        <v>313</v>
+      </c>
+      <c r="W83" s="5">
+        <v>60</v>
+      </c>
+      <c r="X83" s="5">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" ht="16">
+      <c r="A84">
+        <v>-93.080629999999999</v>
+      </c>
+      <c r="B84">
+        <v>44.912550000000003</v>
+      </c>
+      <c r="C84">
+        <v>58</v>
+      </c>
+      <c r="D84" t="s">
+        <v>763</v>
+      </c>
+      <c r="E84" t="s">
+        <v>908</v>
+      </c>
+      <c r="F84" t="s">
+        <v>819</v>
+      </c>
+      <c r="G84" s="7">
+        <v>55118</v>
+      </c>
+      <c r="H84" t="s">
+        <v>861</v>
+      </c>
+      <c r="I84" t="s">
+        <v>692</v>
+      </c>
+      <c r="K84" t="s">
+        <v>393</v>
+      </c>
+      <c r="P84" t="s">
+        <v>983</v>
+      </c>
+      <c r="S84" t="s">
+        <v>330</v>
+      </c>
+      <c r="U84" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="V84" t="s">
+        <v>313</v>
+      </c>
+      <c r="W84" s="5">
+        <v>60</v>
+      </c>
+      <c r="X84" s="5">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" ht="16">
+      <c r="A85">
+        <v>-93.061803999999995</v>
+      </c>
+      <c r="B85">
+        <v>45.052309000000001</v>
+      </c>
+      <c r="C85">
+        <v>92</v>
+      </c>
+      <c r="D85" t="s">
+        <v>998</v>
+      </c>
+      <c r="E85" t="s">
+        <v>999</v>
+      </c>
+      <c r="F85" t="s">
+        <v>1010</v>
+      </c>
+      <c r="H85" t="s">
+        <v>1011</v>
+      </c>
+      <c r="I85" t="s">
+        <v>1014</v>
+      </c>
+      <c r="K85" t="s">
+        <v>393</v>
+      </c>
+      <c r="P85" t="s">
+        <v>983</v>
+      </c>
+      <c r="U85" t="s">
+        <v>1019</v>
+      </c>
+      <c r="V85" t="s">
+        <v>313</v>
+      </c>
+      <c r="W85" s="5">
+        <v>60</v>
+      </c>
+      <c r="X85" s="5">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" ht="16">
+      <c r="A86">
+        <v>-93.28013</v>
+      </c>
+      <c r="B86">
+        <v>44.955219999999997</v>
+      </c>
+      <c r="C86">
+        <v>63</v>
+      </c>
+      <c r="D86" t="s">
+        <v>690</v>
+      </c>
+      <c r="E86" t="s">
+        <v>911</v>
+      </c>
+      <c r="F86" t="s">
+        <v>737</v>
+      </c>
+      <c r="G86" s="7">
+        <v>55408</v>
+      </c>
+      <c r="H86" t="s">
+        <v>868</v>
+      </c>
+      <c r="I86" t="s">
+        <v>393</v>
+      </c>
+      <c r="K86" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>979</v>
+      </c>
+      <c r="S86" t="s">
+        <v>330</v>
+      </c>
+      <c r="U86" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="V86" t="s">
+        <v>313</v>
+      </c>
+      <c r="W86" s="5">
+        <v>60</v>
+      </c>
+      <c r="X86" s="5">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" ht="16">
+      <c r="A87">
+        <v>-92.933160000000001</v>
+      </c>
+      <c r="B87">
+        <v>44.915970000000002</v>
+      </c>
+      <c r="C87">
+        <v>59</v>
+      </c>
+      <c r="D87" t="s">
+        <v>677</v>
+      </c>
+      <c r="E87" t="s">
+        <v>803</v>
+      </c>
+      <c r="F87" t="s">
+        <v>252</v>
+      </c>
+      <c r="G87" s="7">
+        <v>55125</v>
+      </c>
+      <c r="H87" t="s">
+        <v>862</v>
+      </c>
+      <c r="I87" t="s">
+        <v>692</v>
+      </c>
+      <c r="K87" t="s">
+        <v>393</v>
+      </c>
+      <c r="L87" t="s">
+        <v>959</v>
+      </c>
+      <c r="R87" t="s">
+        <v>957</v>
+      </c>
+      <c r="S87" t="s">
+        <v>330</v>
+      </c>
+      <c r="U87" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="V87" t="s">
+        <v>313</v>
+      </c>
+      <c r="W87" s="5">
+        <v>60</v>
+      </c>
+      <c r="X87" s="5">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" ht="16">
+      <c r="A88">
+        <v>-93.584225204641996</v>
+      </c>
+      <c r="B88">
+        <v>45.438823288834399</v>
+      </c>
+      <c r="C88">
+        <v>78</v>
+      </c>
+      <c r="D88" t="s">
+        <v>670</v>
+      </c>
+      <c r="E88" t="s">
+        <v>923</v>
+      </c>
+      <c r="F88" t="s">
+        <v>752</v>
+      </c>
+      <c r="G88" s="7">
+        <v>55398</v>
+      </c>
+      <c r="H88" t="s">
+        <v>887</v>
+      </c>
+      <c r="K88" t="s">
+        <v>393</v>
+      </c>
+      <c r="M88" t="s">
+        <v>964</v>
+      </c>
+      <c r="S88" t="s">
+        <v>330</v>
+      </c>
+      <c r="U88" s="6"/>
+      <c r="V88" t="s">
+        <v>313</v>
+      </c>
+      <c r="W88" s="5">
+        <v>60</v>
+      </c>
+      <c r="X88" s="5">
+        <v>-60</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:R82">
-    <sortCondition ref="C1"/>
+  <sortState ref="A2:Y93">
+    <sortCondition ref="D1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/builds/development/data/_raw/markets.xlsx
+++ b/builds/development/data/_raw/markets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6520" yWindow="860" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="6580" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="minneapolis" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="1023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="1023">
   <si>
     <t>Market Name</t>
   </si>
@@ -1356,9 +1356,6 @@
     <t>Osseo</t>
   </si>
   <si>
-    <t>http://www.discoverosseo.com/event/osseo-farmers-market/</t>
-  </si>
-  <si>
     <t>763-425-2624</t>
   </si>
   <si>
@@ -1782,9 +1779,6 @@
     <t>Dayton Village Farmers Market</t>
   </si>
   <si>
-    <t>18380 Columbus St</t>
-  </si>
-  <si>
     <t>Dayton</t>
   </si>
   <si>
@@ -2823,9 +2817,6 @@
     <t>2131 Fairview Ave. N</t>
   </si>
   <si>
-    <t>629 2nd St. NE</t>
-  </si>
-  <si>
     <t>4580 N Victoria St.</t>
   </si>
   <si>
@@ -3018,9 +3009,6 @@
     <t>F: 1:15 to 5 pm</t>
   </si>
   <si>
-    <t>SA: 8 am to 12:30 pm</t>
-  </si>
-  <si>
     <t>F: 8 am to 12 pm</t>
   </si>
   <si>
@@ -3051,12 +3039,6 @@
     <t>http://anokacounty.us</t>
   </si>
   <si>
-    <t>(Blaine) Anoka County Farmers Market</t>
-  </si>
-  <si>
-    <t>(Columbia Heights) Anoka County Farmers Market</t>
-  </si>
-  <si>
     <t>Eagan Market Fest</t>
   </si>
   <si>
@@ -3139,13 +3121,31 @@
   </si>
   <si>
     <t>TH: 2:30 to 6:30 pm</t>
+  </si>
+  <si>
+    <t>Anoka County Farmers Market (Blaine)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anoka County Farmers Market (Columbia Heights) </t>
+  </si>
+  <si>
+    <t>next Sunday VeteranÕs Memorial Community Center</t>
+  </si>
+  <si>
+    <t>http://www.farmersmarketonline.com/fm/CapellaTowerFarmersMarket.html</t>
+  </si>
+  <si>
+    <t>11311 Dayton River Road</t>
+  </si>
+  <si>
+    <t>http://www.discoverosseo.com/event/farmers-market/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3180,33 +3180,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF212121"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3225,7 +3198,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="356">
+  <cellStyleXfs count="357">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3582,8 +3555,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3591,14 +3565,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="356">
+  <cellStyles count="357">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -3953,6 +3922,7 @@
     <cellStyle name="Followed Hyperlink" xfId="353" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="355" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -5577,7 +5547,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -5585,73 +5555,73 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="10"/>
+      <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="10"/>
+      <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="10"/>
+      <c r="A18" s="5"/>
       <c r="B18" s="2" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="10"/>
+      <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="10"/>
+      <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="10"/>
+      <c r="A21" s="5"/>
       <c r="B21" s="2" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="10"/>
+      <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="10"/>
+      <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="10"/>
+      <c r="A24" s="5"/>
       <c r="B24" s="2" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="10"/>
+      <c r="A25" s="5"/>
       <c r="B25" s="3" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="10"/>
+      <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="5" t="s">
         <v>81</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -5659,73 +5629,73 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="10"/>
+      <c r="A28" s="5"/>
       <c r="B28" s="3" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="10"/>
+      <c r="A29" s="5"/>
       <c r="B29" s="3" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="10"/>
+      <c r="A30" s="5"/>
       <c r="B30" s="2" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="10"/>
+      <c r="A31" s="5"/>
       <c r="B31" s="3" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="10"/>
+      <c r="A32" s="5"/>
       <c r="B32" s="3" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="10"/>
+      <c r="A33" s="5"/>
       <c r="B33" s="2" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="10"/>
+      <c r="A34" s="5"/>
       <c r="B34" s="3" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="10"/>
+      <c r="A35" s="5"/>
       <c r="B35" s="3" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="10"/>
+      <c r="A36" s="5"/>
       <c r="B36" s="2" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="10"/>
+      <c r="A37" s="5"/>
       <c r="B37" s="3" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="10"/>
+      <c r="A38" s="5"/>
       <c r="B38" s="3" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -5733,55 +5703,55 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="10"/>
+      <c r="A40" s="5"/>
       <c r="B40" s="3" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="10"/>
+      <c r="A41" s="5"/>
       <c r="B41" s="3" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="10"/>
+      <c r="A42" s="5"/>
       <c r="B42" s="2" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="10"/>
+      <c r="A43" s="5"/>
       <c r="B43" s="3" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="10"/>
+      <c r="A44" s="5"/>
       <c r="B44" s="3" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="10"/>
+      <c r="A45" s="5"/>
       <c r="B45" s="2" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="10"/>
+      <c r="A46" s="5"/>
       <c r="B46" s="3" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="10"/>
+      <c r="A47" s="5"/>
       <c r="B47" s="3" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -5789,37 +5759,37 @@
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="10"/>
+      <c r="A49" s="5"/>
       <c r="B49" s="3" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="10"/>
+      <c r="A50" s="5"/>
       <c r="B50" s="3" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="10"/>
+      <c r="A51" s="5"/>
       <c r="B51" s="2" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="10"/>
+      <c r="A52" s="5"/>
       <c r="B52" s="3" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="10"/>
+      <c r="A53" s="5"/>
       <c r="B53" s="3" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -5827,85 +5797,85 @@
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="10"/>
+      <c r="A55" s="5"/>
       <c r="B55" s="3" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="10"/>
+      <c r="A56" s="5"/>
       <c r="B56" s="3" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="10"/>
+      <c r="A57" s="5"/>
       <c r="B57" s="2" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="10"/>
+      <c r="A58" s="5"/>
       <c r="B58" s="3" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="10"/>
+      <c r="A59" s="5"/>
       <c r="B59" s="3" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="10"/>
+      <c r="A60" s="5"/>
       <c r="B60" s="2" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="10"/>
+      <c r="A61" s="5"/>
       <c r="B61" s="3" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="10"/>
+      <c r="A62" s="5"/>
       <c r="B62" s="3" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="10"/>
+      <c r="A63" s="5"/>
       <c r="B63" s="2" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="10"/>
+      <c r="A64" s="5"/>
       <c r="B64" s="3" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="10"/>
+      <c r="A65" s="5"/>
       <c r="B65" s="3" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="10"/>
+      <c r="A66" s="5"/>
       <c r="B66" s="2" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="10"/>
+      <c r="A67" s="5"/>
       <c r="B67" s="3" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="10"/>
+      <c r="A68" s="5"/>
       <c r="B68" s="3" t="s">
         <v>299</v>
       </c>
@@ -5953,10 +5923,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y88"/>
+  <dimension ref="A1:Y86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80:XFD80"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5973,76 +5943,76 @@
         <v>301</v>
       </c>
       <c r="C1" t="s">
+        <v>634</v>
+      </c>
+      <c r="D1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E1" t="s">
+        <v>623</v>
+      </c>
+      <c r="F1" t="s">
+        <v>624</v>
+      </c>
+      <c r="G1" t="s">
+        <v>625</v>
+      </c>
+      <c r="H1" t="s">
+        <v>626</v>
+      </c>
+      <c r="I1" t="s">
+        <v>627</v>
+      </c>
+      <c r="J1" t="s">
+        <v>628</v>
+      </c>
+      <c r="K1" t="s">
+        <v>629</v>
+      </c>
+      <c r="L1" t="s">
+        <v>924</v>
+      </c>
+      <c r="M1" t="s">
+        <v>925</v>
+      </c>
+      <c r="N1" t="s">
+        <v>926</v>
+      </c>
+      <c r="O1" t="s">
+        <v>927</v>
+      </c>
+      <c r="P1" t="s">
+        <v>928</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>929</v>
+      </c>
+      <c r="R1" t="s">
+        <v>930</v>
+      </c>
+      <c r="S1" t="s">
+        <v>630</v>
+      </c>
+      <c r="T1" t="s">
+        <v>632</v>
+      </c>
+      <c r="U1" t="s">
+        <v>631</v>
+      </c>
+      <c r="V1" t="s">
+        <v>633</v>
+      </c>
+      <c r="W1" t="s">
+        <v>635</v>
+      </c>
+      <c r="X1" t="s">
         <v>636</v>
       </c>
-      <c r="D1" t="s">
-        <v>624</v>
-      </c>
-      <c r="E1" t="s">
-        <v>625</v>
-      </c>
-      <c r="F1" t="s">
-        <v>626</v>
-      </c>
-      <c r="G1" t="s">
-        <v>627</v>
-      </c>
-      <c r="H1" t="s">
-        <v>628</v>
-      </c>
-      <c r="I1" t="s">
-        <v>629</v>
-      </c>
-      <c r="J1" t="s">
-        <v>630</v>
-      </c>
-      <c r="K1" t="s">
-        <v>631</v>
-      </c>
-      <c r="L1" t="s">
-        <v>927</v>
-      </c>
-      <c r="M1" t="s">
-        <v>928</v>
-      </c>
-      <c r="N1" t="s">
-        <v>929</v>
-      </c>
-      <c r="O1" t="s">
-        <v>930</v>
-      </c>
-      <c r="P1" t="s">
-        <v>931</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>932</v>
-      </c>
-      <c r="R1" t="s">
-        <v>933</v>
-      </c>
-      <c r="S1" t="s">
-        <v>632</v>
-      </c>
-      <c r="T1" t="s">
-        <v>634</v>
-      </c>
-      <c r="U1" t="s">
-        <v>633</v>
-      </c>
-      <c r="V1" t="s">
-        <v>635</v>
-      </c>
-      <c r="W1" t="s">
-        <v>637</v>
-      </c>
-      <c r="X1" t="s">
-        <v>638</v>
-      </c>
       <c r="Y1" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="16">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2">
         <v>-93.232900000000001</v>
       </c>
@@ -6053,37 +6023,40 @@
         <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>993</v>
+        <v>1017</v>
       </c>
       <c r="E2" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="F2" t="s">
-        <v>1005</v>
+        <v>999</v>
+      </c>
+      <c r="G2">
+        <v>55434</v>
       </c>
       <c r="H2" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="I2" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="K2" t="s">
         <v>393</v>
       </c>
       <c r="Q2" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="V2" t="s">
         <v>313</v>
       </c>
-      <c r="W2" s="5">
+      <c r="W2">
         <v>60</v>
       </c>
-      <c r="X2" s="5">
+      <c r="X2">
         <v>-60</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="16">
+    <row r="3" spans="1:25">
       <c r="A3">
         <v>-93.235889999999998</v>
       </c>
@@ -6094,63 +6067,66 @@
         <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>994</v>
+        <v>1018</v>
       </c>
       <c r="E3" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="F3" t="s">
-        <v>1006</v>
+        <v>1000</v>
+      </c>
+      <c r="G3">
+        <v>55421</v>
       </c>
       <c r="H3" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="I3" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="K3" t="s">
         <v>393</v>
       </c>
       <c r="L3" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="U3" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="V3" t="s">
         <v>313</v>
       </c>
-      <c r="W3" s="5">
+      <c r="W3">
         <v>60</v>
       </c>
-      <c r="X3" s="5">
+      <c r="X3">
         <v>-60</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="16">
+    <row r="4" spans="1:25">
       <c r="A4">
-        <v>-92.783293480054894</v>
+        <v>-92.783293479999998</v>
       </c>
       <c r="B4">
-        <v>44.899259463383899</v>
+        <v>44.899259460000003</v>
       </c>
       <c r="C4">
         <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E4" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="F4" t="s">
-        <v>777</v>
-      </c>
-      <c r="G4" s="7">
+        <v>775</v>
+      </c>
+      <c r="G4">
         <v>55001</v>
       </c>
       <c r="H4" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="I4" t="s">
         <v>393</v>
@@ -6159,23 +6135,22 @@
         <v>393</v>
       </c>
       <c r="O4" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="S4" t="s">
         <v>330</v>
       </c>
-      <c r="U4" s="6"/>
       <c r="V4" t="s">
         <v>313</v>
       </c>
-      <c r="W4" s="5">
+      <c r="W4">
         <v>60</v>
       </c>
-      <c r="X4" s="5">
+      <c r="X4">
         <v>-60</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="16">
+    <row r="5" spans="1:25">
       <c r="A5">
         <v>-93.356430000000003</v>
       </c>
@@ -6186,46 +6161,46 @@
         <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E5" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="F5" t="s">
         <v>256</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5">
         <v>55304</v>
       </c>
       <c r="H5" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="I5" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="K5" t="s">
         <v>393</v>
       </c>
       <c r="M5" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="S5" t="s">
         <v>330</v>
       </c>
-      <c r="U5" s="6" t="s">
-        <v>641</v>
+      <c r="U5" t="s">
+        <v>639</v>
       </c>
       <c r="V5" t="s">
         <v>313</v>
       </c>
-      <c r="W5" s="5">
+      <c r="W5">
         <v>60</v>
       </c>
-      <c r="X5" s="5">
+      <c r="X5">
         <v>-60</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="16">
+    <row r="6" spans="1:25">
       <c r="A6">
         <v>-93.383949999999999</v>
       </c>
@@ -6236,40 +6211,43 @@
         <v>82</v>
       </c>
       <c r="D6" t="s">
+        <v>982</v>
+      </c>
+      <c r="E6" t="s">
+        <v>984</v>
+      </c>
+      <c r="F6" t="s">
+        <v>985</v>
+      </c>
+      <c r="G6">
+        <v>55303</v>
+      </c>
+      <c r="H6" t="s">
+        <v>988</v>
+      </c>
+      <c r="I6" t="s">
         <v>986</v>
-      </c>
-      <c r="E6" t="s">
-        <v>988</v>
-      </c>
-      <c r="F6" t="s">
-        <v>989</v>
-      </c>
-      <c r="H6" t="s">
-        <v>992</v>
-      </c>
-      <c r="I6" t="s">
-        <v>990</v>
       </c>
       <c r="K6" t="s">
         <v>393</v>
       </c>
       <c r="L6" t="s">
+        <v>983</v>
+      </c>
+      <c r="U6" t="s">
         <v>987</v>
-      </c>
-      <c r="U6" t="s">
-        <v>991</v>
       </c>
       <c r="V6" t="s">
         <v>313</v>
       </c>
-      <c r="W6" s="5">
+      <c r="W6">
         <v>60</v>
       </c>
-      <c r="X6" s="5">
+      <c r="X6">
         <v>-60</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="16">
+    <row r="7" spans="1:25">
       <c r="A7">
         <v>-93.208690000000004</v>
       </c>
@@ -6280,46 +6258,46 @@
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E7" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="F7" t="s">
         <v>292</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7">
         <v>55124</v>
       </c>
       <c r="H7" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="I7" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="K7" t="s">
         <v>393</v>
       </c>
       <c r="Q7" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="S7" t="s">
         <v>330</v>
       </c>
-      <c r="U7" s="6" t="s">
-        <v>676</v>
+      <c r="U7" t="s">
+        <v>674</v>
       </c>
       <c r="V7" t="s">
         <v>313</v>
       </c>
-      <c r="W7" s="5">
+      <c r="W7">
         <v>60</v>
       </c>
-      <c r="X7" s="5">
+      <c r="X7">
         <v>-60</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="16">
+    <row r="8" spans="1:25">
       <c r="A8">
         <v>-93.301375530000001</v>
       </c>
@@ -6368,14 +6346,14 @@
       <c r="V8" t="s">
         <v>313</v>
       </c>
-      <c r="W8" s="5">
+      <c r="W8">
         <v>60</v>
       </c>
-      <c r="X8" s="5">
+      <c r="X8">
         <v>-60</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="16">
+    <row r="9" spans="1:25">
       <c r="A9">
         <v>-93.357500619999996</v>
       </c>
@@ -6421,14 +6399,14 @@
       <c r="V9" t="s">
         <v>313</v>
       </c>
-      <c r="W9" s="5">
+      <c r="W9">
         <v>60</v>
       </c>
-      <c r="X9" s="5">
+      <c r="X9">
         <v>-60</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="16">
+    <row r="10" spans="1:25">
       <c r="A10">
         <v>-93.874388999999994</v>
       </c>
@@ -6439,44 +6417,43 @@
         <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E10" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="F10" t="s">
-        <v>650</v>
-      </c>
-      <c r="G10" s="7">
+        <v>648</v>
+      </c>
+      <c r="G10">
         <v>55313</v>
       </c>
       <c r="H10" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="I10" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="K10" t="s">
         <v>393</v>
       </c>
       <c r="Q10" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="S10" t="s">
         <v>330</v>
       </c>
-      <c r="U10" s="6"/>
       <c r="V10" t="s">
         <v>313</v>
       </c>
-      <c r="W10" s="5">
+      <c r="W10">
         <v>60</v>
       </c>
-      <c r="X10" s="5">
+      <c r="X10">
         <v>-60</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="16">
+    <row r="11" spans="1:25">
       <c r="A11">
         <v>-93.281549999999996</v>
       </c>
@@ -6487,44 +6464,43 @@
         <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E11" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="F11" t="s">
-        <v>783</v>
-      </c>
-      <c r="G11" s="7">
+        <v>781</v>
+      </c>
+      <c r="G11">
         <v>55337</v>
       </c>
       <c r="H11" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="I11" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="K11" t="s">
         <v>393</v>
       </c>
       <c r="Q11" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="S11" t="s">
         <v>330</v>
       </c>
-      <c r="U11" s="6"/>
       <c r="V11" t="s">
         <v>313</v>
       </c>
-      <c r="W11" s="5">
+      <c r="W11">
         <v>60</v>
       </c>
-      <c r="X11" s="5">
+      <c r="X11">
         <v>-60</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="16">
+    <row r="12" spans="1:25">
       <c r="A12">
         <v>-93.230577999999994</v>
       </c>
@@ -6535,46 +6511,46 @@
         <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E12" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="F12" t="s">
-        <v>783</v>
-      </c>
-      <c r="G12" s="7">
+        <v>781</v>
+      </c>
+      <c r="G12">
         <v>55337</v>
       </c>
       <c r="H12" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="I12" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="K12" t="s">
         <v>393</v>
       </c>
       <c r="O12" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="S12" t="s">
         <v>330</v>
       </c>
-      <c r="U12" s="6" t="s">
-        <v>926</v>
+      <c r="U12" t="s">
+        <v>923</v>
       </c>
       <c r="V12" t="s">
         <v>313</v>
       </c>
-      <c r="W12" s="5">
+      <c r="W12">
         <v>60</v>
       </c>
-      <c r="X12" s="5">
+      <c r="X12">
         <v>-60</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="16">
+    <row r="13" spans="1:25">
       <c r="A13">
         <v>-93.309414050000001</v>
       </c>
@@ -6597,37 +6573,37 @@
         <v>55412</v>
       </c>
       <c r="H13" t="s">
+        <v>547</v>
+      </c>
+      <c r="I13" t="s">
         <v>548</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>549</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>550</v>
       </c>
-      <c r="K13" t="s">
+      <c r="O13" t="s">
         <v>551</v>
-      </c>
-      <c r="O13" t="s">
-        <v>552</v>
       </c>
       <c r="S13" t="s">
         <v>310</v>
       </c>
       <c r="T13" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="V13" t="s">
         <v>313</v>
       </c>
-      <c r="W13" s="5">
+      <c r="W13">
         <v>60</v>
       </c>
-      <c r="X13" s="5">
+      <c r="X13">
         <v>-60</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="16">
+    <row r="14" spans="1:25">
       <c r="A14">
         <v>-93.268997639999995</v>
       </c>
@@ -6641,7 +6617,7 @@
         <v>100</v>
       </c>
       <c r="E14" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F14" t="s">
         <v>97</v>
@@ -6650,34 +6626,34 @@
         <v>55402</v>
       </c>
       <c r="H14" t="s">
-        <v>531</v>
+        <v>1020</v>
       </c>
       <c r="I14" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="K14" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="N14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="S14" t="s">
         <v>338</v>
       </c>
       <c r="T14" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="V14" t="s">
         <v>313</v>
       </c>
-      <c r="W14" s="5">
+      <c r="W14">
         <v>60</v>
       </c>
-      <c r="X14" s="5">
+      <c r="X14">
         <v>-60</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="16">
+    <row r="15" spans="1:25">
       <c r="A15">
         <v>-93.32613551</v>
       </c>
@@ -6688,28 +6664,28 @@
         <v>21</v>
       </c>
       <c r="D15" t="s">
+        <v>462</v>
+      </c>
+      <c r="E15" t="s">
         <v>463</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>464</v>
-      </c>
-      <c r="F15" t="s">
-        <v>465</v>
       </c>
       <c r="G15">
         <v>55435</v>
       </c>
       <c r="H15" t="s">
+        <v>465</v>
+      </c>
+      <c r="I15" t="s">
         <v>466</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>467</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>468</v>
-      </c>
-      <c r="K15" t="s">
-        <v>469</v>
       </c>
       <c r="O15" t="s">
         <v>364</v>
@@ -6718,19 +6694,19 @@
         <v>338</v>
       </c>
       <c r="T15" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="V15" t="s">
         <v>313</v>
       </c>
-      <c r="W15" s="5">
+      <c r="W15">
         <v>60</v>
       </c>
-      <c r="X15" s="5">
+      <c r="X15">
         <v>-60</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="16">
+    <row r="16" spans="1:25">
       <c r="A16">
         <v>-93.395536980000003</v>
       </c>
@@ -6744,7 +6720,7 @@
         <v>324</v>
       </c>
       <c r="E16" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="F16" t="s">
         <v>325</v>
@@ -6776,14 +6752,14 @@
       <c r="V16" t="s">
         <v>313</v>
       </c>
-      <c r="W16" s="5">
+      <c r="W16">
         <v>60</v>
       </c>
-      <c r="X16" s="5">
+      <c r="X16">
         <v>-60</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="16">
+    <row r="17" spans="1:24">
       <c r="A17">
         <v>-92.890249999999995</v>
       </c>
@@ -6794,19 +6770,19 @@
         <v>77</v>
       </c>
       <c r="D17" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E17" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="F17" t="s">
-        <v>734</v>
-      </c>
-      <c r="G17" s="7">
+        <v>732</v>
+      </c>
+      <c r="G17">
         <v>55013</v>
       </c>
       <c r="H17" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="I17" t="s">
         <v>393</v>
@@ -6815,126 +6791,125 @@
         <v>393</v>
       </c>
       <c r="P17" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="S17" t="s">
         <v>330</v>
       </c>
-      <c r="U17" s="6" t="s">
-        <v>658</v>
+      <c r="U17" t="s">
+        <v>656</v>
       </c>
       <c r="V17" t="s">
         <v>313</v>
       </c>
-      <c r="W17" s="5">
+      <c r="W17">
         <v>60</v>
       </c>
-      <c r="X17" s="5">
+      <c r="X17">
         <v>-60</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="16">
+    <row r="18" spans="1:24">
       <c r="A18">
-        <v>-93.144052128406898</v>
+        <v>-93.144052130000006</v>
       </c>
       <c r="B18">
-        <v>44.983633044805202</v>
+        <v>44.983633040000001</v>
       </c>
       <c r="C18">
         <v>67</v>
       </c>
       <c r="D18" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E18" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="F18" t="s">
-        <v>645</v>
-      </c>
-      <c r="G18" s="7">
+        <v>643</v>
+      </c>
+      <c r="G18">
         <v>55103</v>
       </c>
       <c r="H18" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="I18" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="K18" t="s">
         <v>393</v>
       </c>
       <c r="P18" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="S18" t="s">
         <v>330</v>
       </c>
-      <c r="U18" s="6"/>
       <c r="V18" t="s">
         <v>313</v>
       </c>
-      <c r="W18" s="5">
+      <c r="W18">
         <v>60</v>
       </c>
-      <c r="X18" s="5">
+      <c r="X18">
         <v>-60</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="16">
+    <row r="19" spans="1:24">
       <c r="A19">
-        <v>-93.514457770000007</v>
+        <v>-93.425967</v>
       </c>
       <c r="B19">
-        <v>45.242557060000003</v>
+        <v>45.202330000000003</v>
       </c>
       <c r="C19">
         <v>36</v>
       </c>
       <c r="D19" t="s">
+        <v>568</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F19" t="s">
         <v>569</v>
-      </c>
-      <c r="E19" t="s">
-        <v>570</v>
-      </c>
-      <c r="F19" t="s">
-        <v>571</v>
       </c>
       <c r="G19">
         <v>55327</v>
       </c>
       <c r="H19" t="s">
+        <v>570</v>
+      </c>
+      <c r="I19" t="s">
+        <v>571</v>
+      </c>
+      <c r="J19" t="s">
         <v>572</v>
       </c>
-      <c r="I19" t="s">
+      <c r="K19" t="s">
         <v>573</v>
       </c>
-      <c r="J19" t="s">
+      <c r="P19" t="s">
         <v>574</v>
       </c>
-      <c r="K19" t="s">
+      <c r="S19" t="s">
         <v>575</v>
       </c>
-      <c r="P19" t="s">
-        <v>576</v>
-      </c>
-      <c r="S19" t="s">
-        <v>577</v>
-      </c>
       <c r="T19" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="V19" t="s">
         <v>313</v>
       </c>
-      <c r="W19" s="5">
+      <c r="W19">
         <v>60</v>
       </c>
-      <c r="X19" s="5">
+      <c r="X19">
         <v>-60</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="16">
+    <row r="20" spans="1:24">
       <c r="A20">
         <v>-93.260828880000005</v>
       </c>
@@ -6945,10 +6920,10 @@
         <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E20" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F20" t="s">
         <v>97</v>
@@ -6960,31 +6935,31 @@
         <v>393</v>
       </c>
       <c r="I20" t="s">
+        <v>618</v>
+      </c>
+      <c r="K20" t="s">
+        <v>619</v>
+      </c>
+      <c r="M20" t="s">
         <v>620</v>
-      </c>
-      <c r="K20" t="s">
-        <v>621</v>
-      </c>
-      <c r="M20" t="s">
-        <v>622</v>
       </c>
       <c r="S20" t="s">
         <v>338</v>
       </c>
       <c r="T20" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="V20" t="s">
         <v>313</v>
       </c>
-      <c r="W20" s="5">
+      <c r="W20">
         <v>60</v>
       </c>
-      <c r="X20" s="5">
+      <c r="X20">
         <v>-60</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="16">
+    <row r="21" spans="1:24">
       <c r="A21">
         <v>-93.172629999999998</v>
       </c>
@@ -6995,16 +6970,19 @@
         <v>86</v>
       </c>
       <c r="D21" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="E21" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="F21" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G21">
+        <v>55121</v>
+      </c>
+      <c r="H21" t="s">
         <v>1007</v>
-      </c>
-      <c r="H21" t="s">
-        <v>1013</v>
       </c>
       <c r="I21" t="s">
         <v>393</v>
@@ -7013,22 +6991,22 @@
         <v>393</v>
       </c>
       <c r="N21" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="U21" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="V21" t="s">
         <v>313</v>
       </c>
-      <c r="W21" s="5">
+      <c r="W21">
         <v>60</v>
       </c>
-      <c r="X21" s="5">
+      <c r="X21">
         <v>-60</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="16">
+    <row r="22" spans="1:24">
       <c r="A22">
         <v>-93.577804</v>
       </c>
@@ -7039,19 +7017,19 @@
         <v>80</v>
       </c>
       <c r="D22" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E22" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="F22" t="s">
-        <v>801</v>
-      </c>
-      <c r="G22" s="8">
+        <v>799</v>
+      </c>
+      <c r="G22">
         <v>55330</v>
       </c>
       <c r="H22" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="I22" t="s">
         <v>393</v>
@@ -7060,25 +7038,25 @@
         <v>393</v>
       </c>
       <c r="O22" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="S22" t="s">
         <v>330</v>
       </c>
-      <c r="U22" s="6" t="s">
-        <v>800</v>
+      <c r="U22" t="s">
+        <v>798</v>
       </c>
       <c r="V22" t="s">
         <v>313</v>
       </c>
-      <c r="W22" s="5">
+      <c r="W22">
         <v>60</v>
       </c>
-      <c r="X22" s="5">
+      <c r="X22">
         <v>-60</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="16">
+    <row r="23" spans="1:24">
       <c r="A23">
         <v>-93.566922980000001</v>
       </c>
@@ -7092,7 +7070,7 @@
         <v>332</v>
       </c>
       <c r="E23" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="F23" t="s">
         <v>333</v>
@@ -7127,14 +7105,14 @@
       <c r="V23" t="s">
         <v>313</v>
       </c>
-      <c r="W23" s="5">
+      <c r="W23">
         <v>60</v>
       </c>
-      <c r="X23" s="5">
+      <c r="X23">
         <v>-60</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="16">
+    <row r="24" spans="1:24">
       <c r="A24">
         <v>-93.14864</v>
       </c>
@@ -7145,16 +7123,19 @@
         <v>87</v>
       </c>
       <c r="D24" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="E24" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="F24" t="s">
-        <v>1008</v>
+        <v>1002</v>
+      </c>
+      <c r="G24">
+        <v>55024</v>
       </c>
       <c r="H24" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="I24" t="s">
         <v>393</v>
@@ -7163,22 +7144,22 @@
         <v>393</v>
       </c>
       <c r="O24" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="U24" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="V24" t="s">
         <v>313</v>
       </c>
-      <c r="W24" s="5">
+      <c r="W24">
         <v>60</v>
       </c>
-      <c r="X24" s="5">
+      <c r="X24">
         <v>-60</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="16">
+    <row r="25" spans="1:24">
       <c r="A25">
         <v>-93.252119550000003</v>
       </c>
@@ -7189,10 +7170,10 @@
         <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E25" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F25" t="s">
         <v>97</v>
@@ -7201,55 +7182,55 @@
         <v>55404</v>
       </c>
       <c r="H25" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="I25" t="s">
         <v>393</v>
       </c>
       <c r="J25" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="K25" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="L25" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M25" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N25" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O25" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P25" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Q25" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="R25" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="S25" t="s">
         <v>338</v>
       </c>
       <c r="T25" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="V25" t="s">
         <v>313</v>
       </c>
-      <c r="W25" s="5">
+      <c r="W25">
         <v>60</v>
       </c>
-      <c r="X25" s="5">
+      <c r="X25">
         <v>-60</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="16">
+    <row r="26" spans="1:24">
       <c r="A26">
         <v>-93.324966149999995</v>
       </c>
@@ -7260,10 +7241,10 @@
         <v>23</v>
       </c>
       <c r="D26" t="s">
+        <v>478</v>
+      </c>
+      <c r="E26" t="s">
         <v>479</v>
-      </c>
-      <c r="E26" t="s">
-        <v>480</v>
       </c>
       <c r="F26" t="s">
         <v>97</v>
@@ -7272,37 +7253,37 @@
         <v>55409</v>
       </c>
       <c r="H26" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I26" t="s">
         <v>353</v>
       </c>
       <c r="J26" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K26" t="s">
         <v>355</v>
       </c>
       <c r="Q26" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="S26" t="s">
         <v>310</v>
       </c>
       <c r="T26" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="V26" t="s">
         <v>313</v>
       </c>
-      <c r="W26" s="5">
+      <c r="W26">
         <v>60</v>
       </c>
-      <c r="X26" s="5">
+      <c r="X26">
         <v>-60</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="16">
+    <row r="27" spans="1:24">
       <c r="A27">
         <v>-93.378780000000006</v>
       </c>
@@ -7313,49 +7294,49 @@
         <v>68</v>
       </c>
       <c r="D27" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E27" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="F27" t="s">
-        <v>516</v>
-      </c>
-      <c r="G27" s="7">
+        <v>515</v>
+      </c>
+      <c r="G27">
         <v>55427</v>
       </c>
       <c r="H27" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="I27" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="K27" t="s">
         <v>393</v>
       </c>
       <c r="L27" t="s">
-        <v>975</v>
-      </c>
-      <c r="R27" s="6" t="s">
-        <v>976</v>
+        <v>972</v>
+      </c>
+      <c r="R27" t="s">
+        <v>973</v>
       </c>
       <c r="S27" t="s">
         <v>330</v>
       </c>
-      <c r="U27" s="6" t="s">
-        <v>825</v>
+      <c r="U27" t="s">
+        <v>823</v>
       </c>
       <c r="V27" t="s">
         <v>313</v>
       </c>
-      <c r="W27" s="5">
+      <c r="W27">
         <v>60</v>
       </c>
-      <c r="X27" s="5">
+      <c r="X27">
         <v>-60</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="16">
+    <row r="28" spans="1:24">
       <c r="A28">
         <v>-93.269537729999996</v>
       </c>
@@ -7366,10 +7347,10 @@
         <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E28" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="F28" t="s">
         <v>97</v>
@@ -7378,37 +7359,37 @@
         <v>55413</v>
       </c>
       <c r="H28" t="s">
+        <v>554</v>
+      </c>
+      <c r="I28" t="s">
         <v>555</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>556</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>557</v>
       </c>
-      <c r="K28" t="s">
+      <c r="O28" t="s">
         <v>558</v>
-      </c>
-      <c r="O28" t="s">
-        <v>559</v>
       </c>
       <c r="S28" t="s">
         <v>310</v>
       </c>
       <c r="T28" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V28" t="s">
         <v>313</v>
       </c>
-      <c r="W28" s="5">
+      <c r="W28">
         <v>60</v>
       </c>
-      <c r="X28" s="5">
+      <c r="X28">
         <v>-60</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="16">
+    <row r="29" spans="1:24">
       <c r="A29">
         <v>-93.41156024</v>
       </c>
@@ -7454,14 +7435,14 @@
       <c r="V29" t="s">
         <v>313</v>
       </c>
-      <c r="W29" s="5">
+      <c r="W29">
         <v>60</v>
       </c>
-      <c r="X29" s="5">
+      <c r="X29">
         <v>-60</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="16">
+    <row r="30" spans="1:24">
       <c r="A30">
         <v>-92.719909999999999</v>
       </c>
@@ -7472,19 +7453,19 @@
         <v>65</v>
       </c>
       <c r="D30" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E30" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F30" t="s">
-        <v>772</v>
-      </c>
-      <c r="G30" s="7">
+        <v>770</v>
+      </c>
+      <c r="G30">
         <v>54016</v>
       </c>
       <c r="H30" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="I30" t="s">
         <v>393</v>
@@ -7493,25 +7474,25 @@
         <v>393</v>
       </c>
       <c r="Q30" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="S30" t="s">
         <v>330</v>
       </c>
-      <c r="U30" s="6" t="s">
-        <v>770</v>
+      <c r="U30" t="s">
+        <v>768</v>
       </c>
       <c r="V30" t="s">
         <v>313</v>
       </c>
-      <c r="W30" s="5">
+      <c r="W30">
         <v>60</v>
       </c>
-      <c r="X30" s="5">
+      <c r="X30">
         <v>-60</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="16">
+    <row r="31" spans="1:24">
       <c r="A31">
         <v>-93.272576939999993</v>
       </c>
@@ -7522,10 +7503,10 @@
         <v>39</v>
       </c>
       <c r="D31" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E31" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F31" t="s">
         <v>97</v>
@@ -7537,34 +7518,34 @@
         <v>393</v>
       </c>
       <c r="I31" t="s">
+        <v>592</v>
+      </c>
+      <c r="J31" t="s">
+        <v>593</v>
+      </c>
+      <c r="K31" t="s">
         <v>594</v>
       </c>
-      <c r="J31" t="s">
+      <c r="M31" t="s">
         <v>595</v>
-      </c>
-      <c r="K31" t="s">
-        <v>596</v>
-      </c>
-      <c r="M31" t="s">
-        <v>597</v>
       </c>
       <c r="S31" t="s">
         <v>338</v>
       </c>
       <c r="T31" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="V31" t="s">
         <v>313</v>
       </c>
-      <c r="W31" s="5">
+      <c r="W31">
         <v>60</v>
       </c>
-      <c r="X31" s="5">
+      <c r="X31">
         <v>-60</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="16">
+    <row r="32" spans="1:24">
       <c r="A32">
         <v>-93.063100000000006</v>
       </c>
@@ -7575,46 +7556,46 @@
         <v>55</v>
       </c>
       <c r="D32" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E32" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="F32" t="s">
         <v>247</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32">
         <v>55077</v>
       </c>
       <c r="H32" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="I32" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="K32" t="s">
         <v>393</v>
       </c>
       <c r="L32" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="S32" t="s">
         <v>330</v>
       </c>
-      <c r="U32" s="6" t="s">
-        <v>775</v>
+      <c r="U32" t="s">
+        <v>1019</v>
       </c>
       <c r="V32" t="s">
         <v>313</v>
       </c>
-      <c r="W32" s="5">
+      <c r="W32">
         <v>60</v>
       </c>
-      <c r="X32" s="5">
+      <c r="X32">
         <v>-60</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="16">
+    <row r="33" spans="1:24">
       <c r="A33">
         <v>-93.27801925</v>
       </c>
@@ -7660,64 +7641,64 @@
       <c r="V33" t="s">
         <v>313</v>
       </c>
-      <c r="W33" s="5">
+      <c r="W33">
         <v>60</v>
       </c>
-      <c r="X33" s="5">
+      <c r="X33">
         <v>-60</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="16">
+    <row r="34" spans="1:24">
       <c r="A34">
-        <v>-93.242890171888604</v>
+        <v>-93.242890169999995</v>
       </c>
       <c r="B34">
-        <v>44.645831834528202</v>
+        <v>44.645831829999999</v>
       </c>
       <c r="C34">
         <v>48</v>
       </c>
       <c r="D34" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E34" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="F34" t="s">
         <v>270</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34">
         <v>55044</v>
       </c>
       <c r="H34" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="I34" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="K34" t="s">
         <v>393</v>
       </c>
       <c r="Q34" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="S34" t="s">
         <v>330</v>
       </c>
-      <c r="U34" s="6" t="s">
-        <v>778</v>
+      <c r="U34" t="s">
+        <v>776</v>
       </c>
       <c r="V34" t="s">
         <v>313</v>
       </c>
-      <c r="W34" s="5">
+      <c r="W34">
         <v>60</v>
       </c>
-      <c r="X34" s="5">
+      <c r="X34">
         <v>-60</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="16">
+    <row r="35" spans="1:24">
       <c r="A35">
         <v>-93.315818309999997</v>
       </c>
@@ -7731,7 +7712,7 @@
         <v>219</v>
       </c>
       <c r="E35" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F35" t="s">
         <v>97</v>
@@ -7740,37 +7721,37 @@
         <v>55410</v>
       </c>
       <c r="H35" t="s">
+        <v>471</v>
+      </c>
+      <c r="I35" t="s">
         <v>472</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>473</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>474</v>
       </c>
-      <c r="K35" t="s">
+      <c r="R35" t="s">
         <v>475</v>
       </c>
-      <c r="R35" t="s">
+      <c r="S35" t="s">
         <v>476</v>
       </c>
-      <c r="S35" t="s">
+      <c r="T35" t="s">
         <v>477</v>
-      </c>
-      <c r="T35" t="s">
-        <v>478</v>
       </c>
       <c r="V35" t="s">
         <v>313</v>
       </c>
-      <c r="W35" s="5">
+      <c r="W35">
         <v>60</v>
       </c>
-      <c r="X35" s="5">
+      <c r="X35">
         <v>-60</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="16">
+    <row r="36" spans="1:24">
       <c r="A36">
         <v>-93.285932930000001</v>
       </c>
@@ -7781,10 +7762,10 @@
         <v>35</v>
       </c>
       <c r="D36" t="s">
+        <v>560</v>
+      </c>
+      <c r="E36" t="s">
         <v>561</v>
-      </c>
-      <c r="E36" t="s">
-        <v>562</v>
       </c>
       <c r="F36" t="s">
         <v>97</v>
@@ -7793,43 +7774,43 @@
         <v>55405</v>
       </c>
       <c r="H36" t="s">
+        <v>562</v>
+      </c>
+      <c r="I36" t="s">
         <v>563</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>564</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>565</v>
       </c>
-      <c r="K36" t="s">
-        <v>566</v>
-      </c>
       <c r="Q36" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="R36" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="S36" t="s">
         <v>338</v>
       </c>
       <c r="T36" t="s">
+        <v>566</v>
+      </c>
+      <c r="U36" t="s">
         <v>567</v>
-      </c>
-      <c r="U36" t="s">
-        <v>568</v>
       </c>
       <c r="V36" t="s">
         <v>313</v>
       </c>
-      <c r="W36" s="5">
+      <c r="W36">
         <v>60</v>
       </c>
-      <c r="X36" s="5">
+      <c r="X36">
         <v>-60</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="16">
+    <row r="37" spans="1:24">
       <c r="A37">
         <v>-93.28591978</v>
       </c>
@@ -7864,25 +7845,25 @@
         <v>401</v>
       </c>
       <c r="L37" t="s">
-        <v>947</v>
-      </c>
-      <c r="M37" s="6" t="s">
-        <v>946</v>
-      </c>
-      <c r="N37" s="6" t="s">
-        <v>945</v>
-      </c>
-      <c r="O37" s="6" t="s">
         <v>944</v>
       </c>
-      <c r="P37" s="6" t="s">
+      <c r="M37" t="s">
         <v>943</v>
       </c>
-      <c r="Q37" s="6" t="s">
+      <c r="N37" t="s">
         <v>942</v>
       </c>
-      <c r="R37" s="6" t="s">
+      <c r="O37" t="s">
         <v>941</v>
+      </c>
+      <c r="P37" t="s">
+        <v>940</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>939</v>
+      </c>
+      <c r="R37" t="s">
+        <v>938</v>
       </c>
       <c r="S37" t="s">
         <v>310</v>
@@ -7893,14 +7874,14 @@
       <c r="V37" t="s">
         <v>313</v>
       </c>
-      <c r="W37" s="5">
+      <c r="W37">
         <v>60</v>
       </c>
-      <c r="X37" s="5">
+      <c r="X37">
         <v>-60</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="16">
+    <row r="38" spans="1:24">
       <c r="A38">
         <v>-93.443520269999993</v>
       </c>
@@ -7949,14 +7930,14 @@
       <c r="V38" t="s">
         <v>313</v>
       </c>
-      <c r="W38" s="5">
+      <c r="W38">
         <v>60</v>
       </c>
-      <c r="X38" s="5">
+      <c r="X38">
         <v>-60</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="16">
+    <row r="39" spans="1:24">
       <c r="A39">
         <v>-93.02346</v>
       </c>
@@ -7967,46 +7948,46 @@
         <v>69</v>
       </c>
       <c r="D39" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E39" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="F39" t="s">
-        <v>729</v>
-      </c>
-      <c r="G39" s="7">
+        <v>727</v>
+      </c>
+      <c r="G39">
         <v>55109</v>
       </c>
       <c r="H39" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="I39" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="K39" t="s">
         <v>393</v>
       </c>
       <c r="O39" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="S39" t="s">
         <v>330</v>
       </c>
-      <c r="U39" s="6" t="s">
-        <v>973</v>
+      <c r="U39" t="s">
+        <v>970</v>
       </c>
       <c r="V39" t="s">
         <v>313</v>
       </c>
-      <c r="W39" s="5">
+      <c r="W39">
         <v>60</v>
       </c>
-      <c r="X39" s="5">
+      <c r="X39">
         <v>-60</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="16">
+    <row r="40" spans="1:24">
       <c r="A40">
         <v>-93.378865090000005</v>
       </c>
@@ -8017,49 +7998,49 @@
         <v>28</v>
       </c>
       <c r="D40" t="s">
+        <v>513</v>
+      </c>
+      <c r="E40" t="s">
         <v>514</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>515</v>
-      </c>
-      <c r="F40" t="s">
-        <v>516</v>
       </c>
       <c r="G40">
         <v>55427</v>
       </c>
       <c r="H40" t="s">
+        <v>516</v>
+      </c>
+      <c r="I40" t="s">
         <v>517</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>518</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>519</v>
       </c>
-      <c r="K40" t="s">
-        <v>520</v>
-      </c>
       <c r="R40" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="S40" t="s">
         <v>338</v>
       </c>
       <c r="T40" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="V40" t="s">
         <v>313</v>
       </c>
-      <c r="W40" s="5">
+      <c r="W40">
         <v>60</v>
       </c>
-      <c r="X40" s="5">
+      <c r="X40">
         <v>-60</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="16">
+    <row r="41" spans="1:24">
       <c r="A41">
         <v>-93.481904319999998</v>
       </c>
@@ -8094,25 +8075,25 @@
         <v>373</v>
       </c>
       <c r="L41" t="s">
+        <v>931</v>
+      </c>
+      <c r="M41" t="s">
+        <v>937</v>
+      </c>
+      <c r="N41" t="s">
+        <v>932</v>
+      </c>
+      <c r="O41" t="s">
+        <v>933</v>
+      </c>
+      <c r="P41" t="s">
         <v>934</v>
       </c>
-      <c r="M41" s="6" t="s">
-        <v>940</v>
-      </c>
-      <c r="N41" s="6" t="s">
+      <c r="Q41" t="s">
         <v>935</v>
       </c>
-      <c r="O41" s="6" t="s">
+      <c r="R41" t="s">
         <v>936</v>
-      </c>
-      <c r="P41" s="6" t="s">
-        <v>937</v>
-      </c>
-      <c r="Q41" s="6" t="s">
-        <v>938</v>
-      </c>
-      <c r="R41" s="6" t="s">
-        <v>939</v>
       </c>
       <c r="S41" t="s">
         <v>338</v>
@@ -8123,14 +8104,14 @@
       <c r="V41" t="s">
         <v>313</v>
       </c>
-      <c r="W41" s="5">
+      <c r="W41">
         <v>60</v>
       </c>
-      <c r="X41" s="5">
+      <c r="X41">
         <v>-60</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="16">
+    <row r="42" spans="1:24">
       <c r="A42">
         <v>-93.361558579999993</v>
       </c>
@@ -8141,49 +8122,49 @@
         <v>30</v>
       </c>
       <c r="D42" t="s">
+        <v>527</v>
+      </c>
+      <c r="E42" t="s">
         <v>528</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>529</v>
-      </c>
-      <c r="F42" t="s">
-        <v>530</v>
       </c>
       <c r="G42">
         <v>55426</v>
       </c>
       <c r="H42" t="s">
+        <v>530</v>
+      </c>
+      <c r="I42" t="s">
         <v>531</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>532</v>
-      </c>
-      <c r="J42" t="s">
-        <v>533</v>
       </c>
       <c r="K42" t="s">
         <v>393</v>
       </c>
       <c r="M42" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="S42" t="s">
         <v>338</v>
       </c>
       <c r="T42" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="V42" t="s">
         <v>313</v>
       </c>
-      <c r="W42" s="5">
+      <c r="W42">
         <v>60</v>
       </c>
-      <c r="X42" s="5">
+      <c r="X42">
         <v>-60</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="16">
+    <row r="43" spans="1:24">
       <c r="A43">
         <v>-93.238939920000007</v>
       </c>
@@ -8235,14 +8216,14 @@
       <c r="V43" t="s">
         <v>313</v>
       </c>
-      <c r="W43" s="5">
+      <c r="W43">
         <v>60</v>
       </c>
-      <c r="X43" s="5">
+      <c r="X43">
         <v>-60</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="17">
+    <row r="44" spans="1:24">
       <c r="A44">
         <v>-93.2561532</v>
       </c>
@@ -8291,14 +8272,14 @@
       <c r="V44" t="s">
         <v>313</v>
       </c>
-      <c r="W44" s="5">
+      <c r="W44">
         <v>60</v>
       </c>
-      <c r="X44" s="5">
+      <c r="X44">
         <v>-60</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="17">
+    <row r="45" spans="1:24">
       <c r="A45">
         <v>-93.267168600000005</v>
       </c>
@@ -8312,7 +8293,7 @@
         <v>129</v>
       </c>
       <c r="E45" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="F45" t="s">
         <v>97</v>
@@ -8347,14 +8328,14 @@
       <c r="V45" t="s">
         <v>313</v>
       </c>
-      <c r="W45" s="5">
+      <c r="W45">
         <v>60</v>
       </c>
-      <c r="X45" s="5">
+      <c r="X45">
         <v>-60</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="17">
+    <row r="46" spans="1:24">
       <c r="A46">
         <v>-93.266143999999997</v>
       </c>
@@ -8365,19 +8346,19 @@
         <v>66</v>
       </c>
       <c r="D46" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E46" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="F46" t="s">
-        <v>737</v>
-      </c>
-      <c r="G46" s="7">
+        <v>735</v>
+      </c>
+      <c r="G46">
         <v>55487</v>
       </c>
       <c r="H46" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="I46" t="s">
         <v>400</v>
@@ -8386,25 +8367,25 @@
         <v>393</v>
       </c>
       <c r="P46" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="S46" t="s">
         <v>330</v>
       </c>
-      <c r="U46" s="6" t="s">
-        <v>977</v>
+      <c r="U46" t="s">
+        <v>974</v>
       </c>
       <c r="V46" t="s">
         <v>313</v>
       </c>
-      <c r="W46" s="5">
+      <c r="W46">
         <v>60</v>
       </c>
-      <c r="X46" s="5">
+      <c r="X46">
         <v>-60</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="17">
+    <row r="47" spans="1:24">
       <c r="A47">
         <v>-93.465455669999997</v>
       </c>
@@ -8450,14 +8431,14 @@
       <c r="V47" t="s">
         <v>313</v>
       </c>
-      <c r="W47" s="5">
+      <c r="W47">
         <v>60</v>
       </c>
-      <c r="X47" s="5">
+      <c r="X47">
         <v>-60</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="17">
+    <row r="48" spans="1:24">
       <c r="A48">
         <v>-93.799229999999994</v>
       </c>
@@ -8468,2085 +8449,1987 @@
         <v>76</v>
       </c>
       <c r="D48" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E48" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="F48" t="s">
-        <v>787</v>
-      </c>
-      <c r="G48" s="7">
+        <v>785</v>
+      </c>
+      <c r="G48">
         <v>55362</v>
       </c>
       <c r="H48" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="I48" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="K48" t="s">
         <v>393</v>
       </c>
       <c r="O48" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="S48" t="s">
         <v>330</v>
       </c>
-      <c r="U48" s="6" t="s">
-        <v>966</v>
+      <c r="U48" t="s">
+        <v>963</v>
       </c>
       <c r="V48" t="s">
         <v>313</v>
       </c>
-      <c r="W48" s="5">
+      <c r="W48">
         <v>60</v>
       </c>
-      <c r="X48" s="5">
+      <c r="X48">
         <v>-60</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="17">
+    <row r="49" spans="1:24">
       <c r="A49">
-        <v>-93.664710999999997</v>
+        <v>-93.664526010000003</v>
       </c>
       <c r="B49">
-        <v>44.937469999999998</v>
+        <v>44.937047810000003</v>
       </c>
       <c r="C49">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D49" t="s">
-        <v>661</v>
+        <v>489</v>
       </c>
       <c r="E49" t="s">
-        <v>663</v>
+        <v>490</v>
       </c>
       <c r="F49" t="s">
-        <v>664</v>
-      </c>
-      <c r="G49" s="7">
+        <v>491</v>
+      </c>
+      <c r="G49">
         <v>55364</v>
       </c>
       <c r="H49" t="s">
-        <v>393</v>
+        <v>492</v>
       </c>
       <c r="I49" t="s">
-        <v>744</v>
+        <v>493</v>
+      </c>
+      <c r="J49" t="s">
+        <v>494</v>
       </c>
       <c r="K49" t="s">
-        <v>393</v>
+        <v>495</v>
       </c>
       <c r="Q49" t="s">
-        <v>982</v>
+        <v>496</v>
       </c>
       <c r="S49" t="s">
-        <v>330</v>
-      </c>
-      <c r="U49" s="6" t="s">
-        <v>662</v>
+        <v>338</v>
+      </c>
+      <c r="T49" t="s">
+        <v>497</v>
       </c>
       <c r="V49" t="s">
         <v>313</v>
       </c>
-      <c r="W49" s="5">
+      <c r="W49">
         <v>60</v>
       </c>
-      <c r="X49" s="5">
+      <c r="X49">
         <v>-60</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="17">
+    <row r="50" spans="1:24">
       <c r="A50">
-        <v>-93.664526010000003</v>
+        <v>-93.391522600000002</v>
       </c>
       <c r="B50">
-        <v>44.937047810000003</v>
+        <v>45.02124937</v>
       </c>
       <c r="C50">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>490</v>
+        <v>411</v>
       </c>
       <c r="E50" t="s">
-        <v>491</v>
+        <v>412</v>
       </c>
       <c r="F50" t="s">
-        <v>492</v>
+        <v>413</v>
       </c>
       <c r="G50">
-        <v>55364</v>
+        <v>55428</v>
       </c>
       <c r="H50" t="s">
-        <v>493</v>
+        <v>414</v>
       </c>
       <c r="I50" t="s">
-        <v>494</v>
+        <v>415</v>
       </c>
       <c r="J50" t="s">
-        <v>495</v>
+        <v>372</v>
       </c>
       <c r="K50" t="s">
-        <v>496</v>
+        <v>416</v>
       </c>
       <c r="Q50" t="s">
-        <v>497</v>
+        <v>309</v>
       </c>
       <c r="S50" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="T50" t="s">
-        <v>498</v>
+        <v>417</v>
+      </c>
+      <c r="U50" t="s">
+        <v>418</v>
       </c>
       <c r="V50" t="s">
         <v>313</v>
       </c>
-      <c r="W50" s="5">
+      <c r="W50">
         <v>60</v>
       </c>
-      <c r="X50" s="5">
+      <c r="X50">
         <v>-60</v>
       </c>
     </row>
-    <row r="51" spans="1:24" ht="17">
+    <row r="51" spans="1:24">
       <c r="A51">
-        <v>-93.391522600000002</v>
+        <v>-93.262404279999998</v>
       </c>
       <c r="B51">
-        <v>45.02124937</v>
+        <v>44.908629570000002</v>
       </c>
       <c r="C51">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D51" t="s">
-        <v>411</v>
+        <v>521</v>
       </c>
       <c r="E51" t="s">
-        <v>412</v>
+        <v>522</v>
       </c>
       <c r="F51" t="s">
-        <v>413</v>
+        <v>97</v>
       </c>
       <c r="G51">
-        <v>55428</v>
+        <v>55417</v>
       </c>
       <c r="H51" t="s">
-        <v>414</v>
+        <v>523</v>
       </c>
       <c r="I51" t="s">
-        <v>415</v>
+        <v>353</v>
       </c>
       <c r="J51" t="s">
-        <v>372</v>
+        <v>458</v>
       </c>
       <c r="K51" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>309</v>
+        <v>355</v>
+      </c>
+      <c r="N51" t="s">
+        <v>524</v>
       </c>
       <c r="S51" t="s">
         <v>310</v>
       </c>
       <c r="T51" t="s">
-        <v>417</v>
+        <v>525</v>
       </c>
       <c r="U51" t="s">
-        <v>418</v>
+        <v>526</v>
       </c>
       <c r="V51" t="s">
         <v>313</v>
       </c>
-      <c r="W51" s="5">
+      <c r="W51">
         <v>60</v>
       </c>
-      <c r="X51" s="5">
+      <c r="X51">
         <v>-60</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="17">
+    <row r="52" spans="1:24">
       <c r="A52">
-        <v>-93.262404279999998</v>
+        <v>-93.262177269999995</v>
       </c>
       <c r="B52">
-        <v>44.908629570000002</v>
+        <v>44.995133260000003</v>
       </c>
       <c r="C52">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D52" t="s">
-        <v>522</v>
+        <v>419</v>
       </c>
       <c r="E52" t="s">
-        <v>523</v>
+        <v>841</v>
       </c>
       <c r="F52" t="s">
         <v>97</v>
       </c>
       <c r="G52">
-        <v>55417</v>
+        <v>55413</v>
       </c>
       <c r="H52" t="s">
-        <v>524</v>
+        <v>420</v>
       </c>
       <c r="I52" t="s">
-        <v>353</v>
+        <v>421</v>
       </c>
       <c r="J52" t="s">
-        <v>459</v>
+        <v>346</v>
       </c>
       <c r="K52" t="s">
-        <v>355</v>
-      </c>
-      <c r="N52" t="s">
-        <v>525</v>
+        <v>422</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>423</v>
       </c>
       <c r="S52" t="s">
         <v>310</v>
       </c>
       <c r="T52" t="s">
-        <v>526</v>
-      </c>
-      <c r="U52" t="s">
-        <v>527</v>
+        <v>424</v>
       </c>
       <c r="V52" t="s">
         <v>313</v>
       </c>
-      <c r="W52" s="5">
+      <c r="W52">
         <v>60</v>
       </c>
-      <c r="X52" s="5">
+      <c r="X52">
         <v>-60</v>
       </c>
     </row>
-    <row r="53" spans="1:24" ht="17">
+    <row r="53" spans="1:24">
       <c r="A53">
-        <v>-93.266409999999993</v>
+        <v>-92.96499</v>
       </c>
       <c r="B53">
-        <v>45.033729999999998</v>
+        <v>44.971760000000003</v>
       </c>
       <c r="C53">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D53" t="s">
-        <v>659</v>
+        <v>669</v>
       </c>
       <c r="E53" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="F53" t="s">
-        <v>737</v>
-      </c>
-      <c r="G53" s="7">
-        <v>55413</v>
+        <v>795</v>
+      </c>
+      <c r="G53">
+        <v>55128</v>
       </c>
       <c r="H53" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="I53" t="s">
-        <v>393</v>
+        <v>796</v>
       </c>
       <c r="K53" t="s">
         <v>393</v>
       </c>
-      <c r="Q53" t="s">
-        <v>953</v>
+      <c r="O53" t="s">
+        <v>948</v>
       </c>
       <c r="S53" t="s">
         <v>330</v>
       </c>
-      <c r="U53" s="6" t="s">
-        <v>739</v>
+      <c r="U53" t="s">
+        <v>670</v>
       </c>
       <c r="V53" t="s">
         <v>313</v>
       </c>
-      <c r="W53" s="5">
+      <c r="W53">
         <v>60</v>
       </c>
-      <c r="X53" s="5">
+      <c r="X53">
         <v>-60</v>
       </c>
     </row>
-    <row r="54" spans="1:24" ht="17">
+    <row r="54" spans="1:24">
       <c r="A54">
-        <v>-93.262177269999995</v>
+        <v>-93.402580240000006</v>
       </c>
       <c r="B54">
-        <v>44.995133260000003</v>
+        <v>45.12072336</v>
       </c>
       <c r="C54">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>419</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>843</v>
+        <v>425</v>
+      </c>
+      <c r="E54" t="s">
+        <v>426</v>
       </c>
       <c r="F54" t="s">
-        <v>97</v>
+        <v>427</v>
       </c>
       <c r="G54">
-        <v>55413</v>
+        <v>55369</v>
       </c>
       <c r="H54" t="s">
-        <v>420</v>
+        <v>1022</v>
       </c>
       <c r="I54" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="J54" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="K54" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>423</v>
+        <v>429</v>
+      </c>
+      <c r="M54" t="s">
+        <v>430</v>
       </c>
       <c r="S54" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="T54" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="V54" t="s">
         <v>313</v>
       </c>
-      <c r="W54" s="5">
+      <c r="W54">
         <v>60</v>
       </c>
-      <c r="X54" s="5">
+      <c r="X54">
         <v>-60</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="17">
+    <row r="55" spans="1:24">
       <c r="A55">
-        <v>-92.96499</v>
+        <v>-93.346291449999995</v>
       </c>
       <c r="B55">
-        <v>44.971760000000003</v>
+        <v>44.933093739999997</v>
       </c>
       <c r="C55">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="D55" t="s">
-        <v>671</v>
+        <v>535</v>
       </c>
       <c r="E55" t="s">
-        <v>912</v>
+        <v>536</v>
       </c>
       <c r="F55" t="s">
-        <v>797</v>
-      </c>
-      <c r="G55" s="7">
-        <v>55128</v>
+        <v>529</v>
+      </c>
+      <c r="G55">
+        <v>55416</v>
       </c>
       <c r="H55" t="s">
-        <v>870</v>
+        <v>530</v>
       </c>
       <c r="I55" t="s">
-        <v>798</v>
+        <v>531</v>
+      </c>
+      <c r="J55" t="s">
+        <v>532</v>
       </c>
       <c r="K55" t="s">
         <v>393</v>
       </c>
       <c r="O55" t="s">
-        <v>951</v>
+        <v>537</v>
       </c>
       <c r="S55" t="s">
-        <v>330</v>
-      </c>
-      <c r="U55" s="6" t="s">
-        <v>672</v>
+        <v>338</v>
+      </c>
+      <c r="T55" t="s">
+        <v>538</v>
       </c>
       <c r="V55" t="s">
         <v>313</v>
       </c>
-      <c r="W55" s="5">
+      <c r="W55">
         <v>60</v>
       </c>
-      <c r="X55" s="5">
+      <c r="X55">
         <v>-60</v>
       </c>
     </row>
-    <row r="56" spans="1:24" ht="17">
+    <row r="56" spans="1:24">
       <c r="A56">
-        <v>-93.402580240000006</v>
+        <v>-93.473888900000006</v>
       </c>
       <c r="B56">
-        <v>45.12072336</v>
+        <v>44.997202219999998</v>
       </c>
       <c r="C56">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D56" t="s">
-        <v>425</v>
+        <v>498</v>
       </c>
       <c r="E56" t="s">
-        <v>426</v>
+        <v>499</v>
       </c>
       <c r="F56" t="s">
-        <v>427</v>
+        <v>500</v>
       </c>
       <c r="G56">
-        <v>55369</v>
+        <v>55447</v>
       </c>
       <c r="H56" t="s">
-        <v>428</v>
+        <v>501</v>
       </c>
       <c r="I56" t="s">
-        <v>429</v>
+        <v>502</v>
       </c>
       <c r="J56" t="s">
-        <v>354</v>
+        <v>319</v>
       </c>
       <c r="K56" t="s">
-        <v>430</v>
-      </c>
-      <c r="M56" t="s">
-        <v>431</v>
+        <v>503</v>
+      </c>
+      <c r="N56" t="s">
+        <v>504</v>
       </c>
       <c r="S56" t="s">
         <v>338</v>
       </c>
       <c r="T56" t="s">
-        <v>432</v>
+        <v>505</v>
       </c>
       <c r="V56" t="s">
         <v>313</v>
       </c>
-      <c r="W56" s="5">
+      <c r="W56">
         <v>60</v>
       </c>
-      <c r="X56" s="5">
+      <c r="X56">
         <v>-60</v>
       </c>
     </row>
-    <row r="57" spans="1:24" ht="17">
+    <row r="57" spans="1:24">
       <c r="A57">
-        <v>-93.346291449999995</v>
+        <v>-93.580187940000002</v>
       </c>
       <c r="B57">
-        <v>44.933093739999997</v>
+        <v>45.56948766</v>
       </c>
       <c r="C57">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="D57" t="s">
-        <v>536</v>
+        <v>644</v>
       </c>
       <c r="E57" t="s">
-        <v>537</v>
+        <v>712</v>
       </c>
       <c r="F57" t="s">
-        <v>530</v>
+        <v>713</v>
       </c>
       <c r="G57">
-        <v>55416</v>
+        <v>55371</v>
       </c>
       <c r="H57" t="s">
-        <v>531</v>
+        <v>885</v>
       </c>
       <c r="I57" t="s">
-        <v>532</v>
-      </c>
-      <c r="J57" t="s">
-        <v>533</v>
+        <v>714</v>
       </c>
       <c r="K57" t="s">
         <v>393</v>
       </c>
-      <c r="O57" t="s">
-        <v>538</v>
+      <c r="Q57" t="s">
+        <v>960</v>
       </c>
       <c r="S57" t="s">
-        <v>338</v>
-      </c>
-      <c r="T57" t="s">
-        <v>539</v>
+        <v>330</v>
+      </c>
+      <c r="U57" t="s">
+        <v>711</v>
       </c>
       <c r="V57" t="s">
         <v>313</v>
       </c>
-      <c r="W57" s="5">
+      <c r="W57">
         <v>60</v>
       </c>
-      <c r="X57" s="5">
+      <c r="X57">
         <v>-60</v>
       </c>
     </row>
-    <row r="58" spans="1:24" ht="17">
+    <row r="58" spans="1:24">
       <c r="A58">
-        <v>-93.473888900000006</v>
+        <v>-93.424610000000001</v>
       </c>
       <c r="B58">
-        <v>44.997202219999998</v>
+        <v>44.714300000000001</v>
       </c>
       <c r="C58">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D58" t="s">
-        <v>499</v>
+        <v>649</v>
       </c>
       <c r="E58" t="s">
-        <v>500</v>
+        <v>901</v>
       </c>
       <c r="F58" t="s">
-        <v>501</v>
+        <v>650</v>
       </c>
       <c r="G58">
-        <v>55447</v>
+        <v>55372</v>
       </c>
       <c r="H58" t="s">
-        <v>502</v>
+        <v>847</v>
       </c>
       <c r="I58" t="s">
-        <v>503</v>
-      </c>
-      <c r="J58" t="s">
-        <v>319</v>
+        <v>722</v>
       </c>
       <c r="K58" t="s">
-        <v>504</v>
-      </c>
-      <c r="N58" t="s">
-        <v>505</v>
+        <v>393</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>951</v>
       </c>
       <c r="S58" t="s">
-        <v>338</v>
-      </c>
-      <c r="T58" t="s">
-        <v>506</v>
+        <v>330</v>
       </c>
       <c r="V58" t="s">
         <v>313</v>
       </c>
-      <c r="W58" s="5">
+      <c r="W58">
         <v>60</v>
       </c>
-      <c r="X58" s="5">
+      <c r="X58">
         <v>-60</v>
       </c>
     </row>
-    <row r="59" spans="1:24" ht="17">
+    <row r="59" spans="1:24">
       <c r="A59">
-        <v>-93.580187936822099</v>
+        <v>-93.265853750000005</v>
       </c>
       <c r="B59">
-        <v>45.569487655963897</v>
+        <v>44.887157989999999</v>
       </c>
       <c r="C59">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="D59" t="s">
-        <v>646</v>
+        <v>432</v>
       </c>
       <c r="E59" t="s">
-        <v>714</v>
+        <v>891</v>
       </c>
       <c r="F59" t="s">
-        <v>715</v>
-      </c>
-      <c r="G59" s="7">
-        <v>55371</v>
+        <v>433</v>
+      </c>
+      <c r="G59">
+        <v>55423</v>
       </c>
       <c r="H59" t="s">
-        <v>887</v>
+        <v>434</v>
       </c>
       <c r="I59" t="s">
-        <v>716</v>
+        <v>435</v>
+      </c>
+      <c r="J59" t="s">
+        <v>354</v>
       </c>
       <c r="K59" t="s">
-        <v>393</v>
+        <v>436</v>
       </c>
       <c r="Q59" t="s">
-        <v>963</v>
+        <v>437</v>
       </c>
       <c r="S59" t="s">
-        <v>330</v>
-      </c>
-      <c r="U59" s="6" t="s">
-        <v>713</v>
+        <v>310</v>
+      </c>
+      <c r="T59" t="s">
+        <v>424</v>
+      </c>
+      <c r="U59" t="s">
+        <v>438</v>
       </c>
       <c r="V59" t="s">
         <v>313</v>
       </c>
-      <c r="W59" s="5">
+      <c r="W59">
         <v>60</v>
       </c>
-      <c r="X59" s="5">
+      <c r="X59">
         <v>-60</v>
       </c>
     </row>
-    <row r="60" spans="1:24" ht="17">
+    <row r="60" spans="1:24">
       <c r="A60">
-        <v>-93.424610000000001</v>
+        <v>-93.258869090000005</v>
       </c>
       <c r="B60">
-        <v>44.714300000000001</v>
+        <v>44.986570030000003</v>
       </c>
       <c r="C60">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D60" t="s">
-        <v>651</v>
+        <v>606</v>
       </c>
       <c r="E60" t="s">
-        <v>903</v>
+        <v>607</v>
       </c>
       <c r="F60" t="s">
-        <v>652</v>
-      </c>
-      <c r="G60" s="7">
-        <v>55372</v>
+        <v>97</v>
+      </c>
+      <c r="G60">
+        <v>55414</v>
       </c>
       <c r="H60" t="s">
-        <v>849</v>
+        <v>608</v>
       </c>
       <c r="I60" t="s">
-        <v>724</v>
+        <v>609</v>
       </c>
       <c r="K60" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>954</v>
+        <v>610</v>
+      </c>
+      <c r="N60" t="s">
+        <v>511</v>
       </c>
       <c r="S60" t="s">
         <v>330</v>
       </c>
-      <c r="U60" s="6"/>
+      <c r="T60" t="s">
+        <v>611</v>
+      </c>
       <c r="V60" t="s">
         <v>313</v>
       </c>
-      <c r="W60" s="5">
+      <c r="W60">
         <v>60</v>
       </c>
-      <c r="X60" s="5">
+      <c r="X60">
         <v>-60</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="17">
+    <row r="61" spans="1:24">
       <c r="A61">
-        <v>-93.265853750000005</v>
+        <v>-93.161739999999995</v>
       </c>
       <c r="B61">
-        <v>44.887157989999999</v>
+        <v>44.455100000000002</v>
       </c>
       <c r="C61">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="D61" t="s">
-        <v>433</v>
+        <v>664</v>
       </c>
       <c r="E61" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
       <c r="F61" t="s">
-        <v>434</v>
+        <v>746</v>
       </c>
       <c r="G61">
-        <v>55423</v>
+        <v>55057</v>
       </c>
       <c r="H61" t="s">
-        <v>435</v>
-      </c>
-      <c r="I61" t="s">
-        <v>436</v>
-      </c>
-      <c r="J61" t="s">
-        <v>354</v>
+        <v>844</v>
       </c>
       <c r="K61" t="s">
-        <v>437</v>
+        <v>393</v>
       </c>
       <c r="Q61" t="s">
-        <v>438</v>
+        <v>950</v>
       </c>
       <c r="S61" t="s">
-        <v>310</v>
-      </c>
-      <c r="T61" t="s">
-        <v>424</v>
-      </c>
-      <c r="U61" t="s">
-        <v>439</v>
+        <v>330</v>
       </c>
       <c r="V61" t="s">
         <v>313</v>
       </c>
-      <c r="W61" s="5">
+      <c r="W61">
         <v>60</v>
       </c>
-      <c r="X61" s="5">
+      <c r="X61">
         <v>-60</v>
       </c>
     </row>
-    <row r="62" spans="1:24" ht="17">
+    <row r="62" spans="1:24">
       <c r="A62">
-        <v>-93.258869090000005</v>
+        <v>-92.455960000000005</v>
       </c>
       <c r="B62">
-        <v>44.986570030000003</v>
+        <v>44.001130000000003</v>
       </c>
       <c r="C62">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D62" t="s">
-        <v>608</v>
+        <v>645</v>
       </c>
       <c r="E62" t="s">
-        <v>609</v>
+        <v>898</v>
       </c>
       <c r="F62" t="s">
-        <v>97</v>
+        <v>717</v>
       </c>
       <c r="G62">
-        <v>55414</v>
+        <v>55904</v>
       </c>
       <c r="H62" t="s">
-        <v>610</v>
+        <v>843</v>
       </c>
       <c r="I62" t="s">
-        <v>611</v>
+        <v>718</v>
       </c>
       <c r="K62" t="s">
-        <v>612</v>
+        <v>393</v>
       </c>
       <c r="N62" t="s">
-        <v>512</v>
+        <v>948</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>949</v>
       </c>
       <c r="S62" t="s">
         <v>330</v>
       </c>
-      <c r="T62" t="s">
-        <v>613</v>
+      <c r="U62" t="s">
+        <v>646</v>
       </c>
       <c r="V62" t="s">
         <v>313</v>
       </c>
-      <c r="W62" s="5">
+      <c r="W62">
         <v>60</v>
       </c>
-      <c r="X62" s="5">
+      <c r="X62">
         <v>-60</v>
       </c>
     </row>
-    <row r="63" spans="1:24" ht="17">
+    <row r="63" spans="1:24">
       <c r="A63">
-        <v>-93.161739999999995</v>
+        <v>-93.7346</v>
       </c>
       <c r="B63">
-        <v>44.455100000000002</v>
+        <v>45.088560000000001</v>
       </c>
       <c r="C63">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="D63" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="E63" t="s">
-        <v>901</v>
+        <v>916</v>
       </c>
       <c r="F63" t="s">
-        <v>748</v>
-      </c>
-      <c r="G63" s="7">
-        <v>55057</v>
+        <v>97</v>
+      </c>
+      <c r="G63">
+        <v>55373</v>
       </c>
       <c r="H63" t="s">
-        <v>846</v>
+        <v>880</v>
+      </c>
+      <c r="I63" t="s">
+        <v>393</v>
       </c>
       <c r="K63" t="s">
         <v>393</v>
       </c>
-      <c r="Q63" t="s">
-        <v>953</v>
+      <c r="P63" t="s">
+        <v>966</v>
       </c>
       <c r="S63" t="s">
         <v>330</v>
       </c>
-      <c r="U63" s="6"/>
       <c r="V63" t="s">
         <v>313</v>
       </c>
-      <c r="W63" s="5">
+      <c r="W63">
         <v>60</v>
       </c>
-      <c r="X63" s="5">
+      <c r="X63">
         <v>-60</v>
       </c>
     </row>
-    <row r="64" spans="1:24" ht="17">
+    <row r="64" spans="1:24">
       <c r="A64">
-        <v>-92.455960000000005</v>
+        <v>-93.552147840000003</v>
       </c>
       <c r="B64">
-        <v>44.001130000000003</v>
+        <v>45.187066489999999</v>
       </c>
       <c r="C64">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>647</v>
+        <v>439</v>
       </c>
       <c r="E64" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="F64" t="s">
-        <v>719</v>
-      </c>
-      <c r="G64" s="7">
-        <v>55904</v>
+        <v>440</v>
+      </c>
+      <c r="G64">
+        <v>55347</v>
       </c>
       <c r="H64" t="s">
-        <v>845</v>
+        <v>441</v>
       </c>
       <c r="I64" t="s">
-        <v>720</v>
+        <v>442</v>
+      </c>
+      <c r="J64" t="s">
+        <v>443</v>
       </c>
       <c r="K64" t="s">
-        <v>393</v>
+        <v>444</v>
       </c>
       <c r="N64" t="s">
-        <v>951</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>952</v>
+        <v>445</v>
       </c>
       <c r="S64" t="s">
-        <v>330</v>
-      </c>
-      <c r="U64" s="6" t="s">
-        <v>648</v>
+        <v>338</v>
+      </c>
+      <c r="T64" t="s">
+        <v>446</v>
       </c>
       <c r="V64" t="s">
         <v>313</v>
       </c>
-      <c r="W64" s="5">
+      <c r="W64">
         <v>60</v>
       </c>
-      <c r="X64" s="5">
+      <c r="X64">
         <v>-60</v>
       </c>
     </row>
-    <row r="65" spans="1:24" ht="17">
+    <row r="65" spans="1:24">
       <c r="A65">
-        <v>-93.7346</v>
+        <v>-93.127529999999993</v>
       </c>
       <c r="B65">
-        <v>45.088560000000001</v>
+        <v>44.747709999999998</v>
       </c>
       <c r="C65">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="D65" t="s">
-        <v>665</v>
+        <v>676</v>
       </c>
       <c r="E65" t="s">
-        <v>919</v>
+        <v>759</v>
       </c>
       <c r="F65" t="s">
-        <v>97</v>
-      </c>
-      <c r="G65" s="7">
-        <v>55373</v>
+        <v>264</v>
+      </c>
+      <c r="G65">
+        <v>55068</v>
       </c>
       <c r="H65" t="s">
-        <v>882</v>
+        <v>849</v>
       </c>
       <c r="I65" t="s">
-        <v>393</v>
+        <v>690</v>
       </c>
       <c r="K65" t="s">
         <v>393</v>
       </c>
-      <c r="P65" t="s">
-        <v>969</v>
+      <c r="M65" t="s">
+        <v>953</v>
       </c>
       <c r="S65" t="s">
         <v>330</v>
       </c>
-      <c r="U65" s="6"/>
       <c r="V65" t="s">
         <v>313</v>
       </c>
-      <c r="W65" s="5">
+      <c r="W65">
         <v>60</v>
       </c>
-      <c r="X65" s="5">
+      <c r="X65">
         <v>-60</v>
       </c>
     </row>
-    <row r="66" spans="1:24" ht="17">
+    <row r="66" spans="1:24">
       <c r="A66">
-        <v>-93.552147840000003</v>
+        <v>-93.178299999999993</v>
       </c>
       <c r="B66">
-        <v>45.187066489999999</v>
+        <v>45.00497</v>
       </c>
       <c r="C66">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D66" t="s">
-        <v>440</v>
+        <v>637</v>
       </c>
       <c r="E66" t="s">
-        <v>894</v>
+        <v>914</v>
       </c>
       <c r="F66" t="s">
-        <v>441</v>
+        <v>259</v>
       </c>
       <c r="G66">
-        <v>55347</v>
+        <v>55113</v>
       </c>
       <c r="H66" t="s">
-        <v>442</v>
+        <v>875</v>
       </c>
       <c r="I66" t="s">
-        <v>443</v>
-      </c>
-      <c r="J66" t="s">
-        <v>444</v>
+        <v>690</v>
       </c>
       <c r="K66" t="s">
-        <v>445</v>
+        <v>393</v>
       </c>
       <c r="N66" t="s">
-        <v>446</v>
+        <v>969</v>
       </c>
       <c r="S66" t="s">
-        <v>338</v>
-      </c>
-      <c r="T66" t="s">
-        <v>447</v>
+        <v>330</v>
+      </c>
+      <c r="U66" t="s">
+        <v>968</v>
       </c>
       <c r="V66" t="s">
         <v>313</v>
       </c>
-      <c r="W66" s="5">
+      <c r="W66">
         <v>60</v>
       </c>
-      <c r="X66" s="5">
+      <c r="X66">
         <v>-60</v>
       </c>
     </row>
-    <row r="67" spans="1:24" ht="17">
+    <row r="67" spans="1:24">
       <c r="A67">
-        <v>-93.127529999999993</v>
+        <v>-93.340203209999999</v>
       </c>
       <c r="B67">
-        <v>44.747709999999998</v>
+        <v>44.778434969999999</v>
       </c>
       <c r="C67">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D67" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="E67" t="s">
-        <v>761</v>
+        <v>903</v>
       </c>
       <c r="F67" t="s">
-        <v>264</v>
-      </c>
-      <c r="G67" s="7">
-        <v>55068</v>
+        <v>250</v>
+      </c>
+      <c r="G67">
+        <v>55378</v>
       </c>
       <c r="H67" t="s">
         <v>851</v>
       </c>
       <c r="I67" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="K67" t="s">
         <v>393</v>
       </c>
-      <c r="M67" t="s">
+      <c r="L67" t="s">
         <v>956</v>
+      </c>
+      <c r="R67" t="s">
+        <v>954</v>
       </c>
       <c r="S67" t="s">
         <v>330</v>
       </c>
-      <c r="U67" s="6"/>
+      <c r="U67" t="s">
+        <v>666</v>
+      </c>
       <c r="V67" t="s">
         <v>313</v>
       </c>
-      <c r="W67" s="5">
+      <c r="W67">
         <v>60</v>
       </c>
-      <c r="X67" s="5">
+      <c r="X67">
         <v>-60</v>
       </c>
     </row>
-    <row r="68" spans="1:24" ht="17">
+    <row r="68" spans="1:24">
       <c r="A68">
-        <v>-93.178299999999993</v>
+        <v>-93.135266880000003</v>
       </c>
       <c r="B68">
-        <v>45.00497</v>
+        <v>45.080821800000002</v>
       </c>
       <c r="C68">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D68" t="s">
-        <v>639</v>
+        <v>667</v>
       </c>
       <c r="E68" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F68" t="s">
-        <v>259</v>
-      </c>
-      <c r="G68" s="7">
-        <v>55113</v>
+        <v>789</v>
+      </c>
+      <c r="G68">
+        <v>55126</v>
       </c>
       <c r="H68" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="I68" t="s">
-        <v>692</v>
+        <v>790</v>
       </c>
       <c r="K68" t="s">
         <v>393</v>
       </c>
-      <c r="N68" t="s">
-        <v>972</v>
+      <c r="M68" t="s">
+        <v>967</v>
       </c>
       <c r="S68" t="s">
         <v>330</v>
       </c>
-      <c r="U68" s="6" t="s">
-        <v>971</v>
+      <c r="U68" t="s">
+        <v>792</v>
       </c>
       <c r="V68" t="s">
         <v>313</v>
       </c>
-      <c r="W68" s="5">
+      <c r="W68">
         <v>60</v>
       </c>
-      <c r="X68" s="5">
+      <c r="X68">
         <v>-60</v>
       </c>
     </row>
-    <row r="69" spans="1:24" ht="17">
+    <row r="69" spans="1:24">
       <c r="A69">
-        <v>-93.340203207883306</v>
+        <v>-93.048416000000003</v>
       </c>
       <c r="B69">
-        <v>44.778434967402298</v>
+        <v>44.888627</v>
       </c>
       <c r="C69">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="D69" t="s">
-        <v>667</v>
+        <v>991</v>
       </c>
       <c r="E69" t="s">
-        <v>905</v>
+        <v>994</v>
       </c>
       <c r="F69" t="s">
-        <v>250</v>
-      </c>
-      <c r="G69" s="7">
-        <v>55378</v>
+        <v>1003</v>
+      </c>
+      <c r="G69">
+        <v>55075</v>
       </c>
       <c r="H69" t="s">
-        <v>853</v>
+        <v>865</v>
       </c>
       <c r="I69" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="K69" t="s">
         <v>393</v>
       </c>
-      <c r="L69" t="s">
-        <v>959</v>
-      </c>
-      <c r="R69" t="s">
-        <v>957</v>
-      </c>
-      <c r="S69" t="s">
-        <v>330</v>
-      </c>
-      <c r="U69" s="6" t="s">
-        <v>668</v>
+      <c r="N69" t="s">
+        <v>948</v>
+      </c>
+      <c r="U69" t="s">
+        <v>1012</v>
       </c>
       <c r="V69" t="s">
         <v>313</v>
       </c>
-      <c r="W69" s="5">
+      <c r="W69">
         <v>60</v>
       </c>
-      <c r="X69" s="5">
+      <c r="X69">
         <v>-60</v>
       </c>
     </row>
-    <row r="70" spans="1:24" ht="17">
+    <row r="70" spans="1:24">
       <c r="A70">
-        <v>-93.135266880548002</v>
+        <v>-93.74145919</v>
       </c>
       <c r="B70">
-        <v>45.080821796611701</v>
+        <v>44.902299849999999</v>
       </c>
       <c r="C70">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="D70" t="s">
-        <v>669</v>
+        <v>922</v>
       </c>
       <c r="E70" t="s">
-        <v>918</v>
+        <v>506</v>
       </c>
       <c r="F70" t="s">
-        <v>791</v>
-      </c>
-      <c r="G70" s="7">
-        <v>55126</v>
+        <v>507</v>
+      </c>
+      <c r="G70">
+        <v>55375</v>
       </c>
       <c r="H70" t="s">
-        <v>881</v>
+        <v>508</v>
       </c>
       <c r="I70" t="s">
-        <v>792</v>
+        <v>509</v>
+      </c>
+      <c r="J70" t="s">
+        <v>319</v>
       </c>
       <c r="K70" t="s">
-        <v>393</v>
-      </c>
-      <c r="M70" t="s">
-        <v>970</v>
+        <v>510</v>
+      </c>
+      <c r="N70" t="s">
+        <v>511</v>
       </c>
       <c r="S70" t="s">
-        <v>330</v>
-      </c>
-      <c r="U70" s="6" t="s">
-        <v>794</v>
+        <v>338</v>
+      </c>
+      <c r="T70" t="s">
+        <v>512</v>
       </c>
       <c r="V70" t="s">
         <v>313</v>
       </c>
-      <c r="W70" s="5">
+      <c r="W70">
         <v>60</v>
       </c>
-      <c r="X70" s="5">
+      <c r="X70">
         <v>-60</v>
       </c>
     </row>
-    <row r="71" spans="1:24" ht="17">
+    <row r="71" spans="1:24">
       <c r="A71">
-        <v>-93.048416000000003</v>
+        <v>-93.085080000000005</v>
       </c>
       <c r="B71">
-        <v>44.888627</v>
+        <v>44.949590000000001</v>
       </c>
       <c r="C71">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="D71" t="s">
-        <v>997</v>
+        <v>838</v>
       </c>
       <c r="E71" t="s">
-        <v>1000</v>
+        <v>908</v>
       </c>
       <c r="F71" t="s">
-        <v>1009</v>
+        <v>643</v>
+      </c>
+      <c r="G71">
+        <v>55101</v>
       </c>
       <c r="H71" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="I71" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="K71" t="s">
         <v>393</v>
       </c>
-      <c r="N71" t="s">
-        <v>951</v>
-      </c>
-      <c r="U71" t="s">
-        <v>1018</v>
+      <c r="L71" t="s">
+        <v>956</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>977</v>
+      </c>
+      <c r="R71" t="s">
+        <v>954</v>
+      </c>
+      <c r="S71" t="s">
+        <v>330</v>
       </c>
       <c r="V71" t="s">
         <v>313</v>
       </c>
-      <c r="W71" s="5">
+      <c r="W71">
         <v>60</v>
       </c>
-      <c r="X71" s="5">
+      <c r="X71">
         <v>-60</v>
       </c>
     </row>
-    <row r="72" spans="1:24" ht="17">
+    <row r="72" spans="1:24">
       <c r="A72">
-        <v>-93.74145919</v>
+        <v>-93.091020999999998</v>
       </c>
       <c r="B72">
-        <v>44.902299849999999</v>
+        <v>44.949686</v>
       </c>
       <c r="C72">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="D72" t="s">
-        <v>925</v>
+        <v>838</v>
       </c>
       <c r="E72" t="s">
-        <v>507</v>
+        <v>839</v>
       </c>
       <c r="F72" t="s">
-        <v>508</v>
+        <v>643</v>
       </c>
       <c r="G72">
-        <v>55375</v>
+        <v>55101</v>
       </c>
       <c r="H72" t="s">
-        <v>509</v>
+        <v>865</v>
       </c>
       <c r="I72" t="s">
-        <v>510</v>
-      </c>
-      <c r="J72" t="s">
-        <v>319</v>
+        <v>690</v>
       </c>
       <c r="K72" t="s">
-        <v>511</v>
-      </c>
-      <c r="N72" t="s">
-        <v>512</v>
+        <v>393</v>
+      </c>
+      <c r="M72" t="s">
+        <v>958</v>
+      </c>
+      <c r="O72" t="s">
+        <v>957</v>
       </c>
       <c r="S72" t="s">
-        <v>338</v>
-      </c>
-      <c r="T72" t="s">
-        <v>513</v>
+        <v>330</v>
+      </c>
+      <c r="U72" t="s">
+        <v>839</v>
       </c>
       <c r="V72" t="s">
         <v>313</v>
       </c>
-      <c r="W72" s="5">
+      <c r="W72">
         <v>60</v>
       </c>
-      <c r="X72" s="5">
+      <c r="X72">
         <v>-60</v>
       </c>
     </row>
-    <row r="73" spans="1:24" ht="17">
+    <row r="73" spans="1:24">
       <c r="A73">
-        <v>-93.085080000000005</v>
+        <v>-93.145229999999998</v>
       </c>
       <c r="B73">
-        <v>44.949590000000001</v>
+        <v>44.94191</v>
       </c>
       <c r="C73">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D73" t="s">
-        <v>840</v>
+        <v>921</v>
       </c>
       <c r="E73" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="F73" t="s">
-        <v>645</v>
-      </c>
-      <c r="G73" s="7">
-        <v>55101</v>
+        <v>643</v>
+      </c>
+      <c r="G73">
+        <v>55105</v>
       </c>
       <c r="H73" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="I73" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="K73" t="s">
         <v>393</v>
       </c>
-      <c r="L73" t="s">
-        <v>959</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>980</v>
-      </c>
-      <c r="R73" t="s">
-        <v>957</v>
+      <c r="P73" t="s">
+        <v>978</v>
       </c>
       <c r="S73" t="s">
         <v>330</v>
       </c>
-      <c r="U73" s="6"/>
       <c r="V73" t="s">
         <v>313</v>
       </c>
-      <c r="W73" s="5">
+      <c r="W73">
         <v>60</v>
       </c>
-      <c r="X73" s="5">
+      <c r="X73">
         <v>-60</v>
       </c>
     </row>
-    <row r="74" spans="1:24" ht="17">
+    <row r="74" spans="1:24">
       <c r="A74">
-        <v>-93.091020999999998</v>
+        <v>-93.259001249999997</v>
       </c>
       <c r="B74">
-        <v>44.949686</v>
+        <v>44.934401080000001</v>
       </c>
       <c r="C74">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="D74" t="s">
-        <v>840</v>
+        <v>584</v>
       </c>
       <c r="E74" t="s">
-        <v>841</v>
+        <v>896</v>
       </c>
       <c r="F74" t="s">
-        <v>645</v>
-      </c>
-      <c r="G74" s="9">
-        <v>55101</v>
+        <v>97</v>
+      </c>
+      <c r="G74">
+        <v>55407</v>
       </c>
       <c r="H74" t="s">
-        <v>867</v>
+        <v>585</v>
       </c>
       <c r="I74" t="s">
-        <v>692</v>
+        <v>586</v>
+      </c>
+      <c r="J74" t="s">
+        <v>532</v>
       </c>
       <c r="K74" t="s">
-        <v>393</v>
-      </c>
-      <c r="M74" t="s">
-        <v>961</v>
+        <v>587</v>
       </c>
       <c r="O74" t="s">
-        <v>960</v>
+        <v>588</v>
       </c>
       <c r="S74" t="s">
-        <v>330</v>
-      </c>
-      <c r="U74" s="6" t="s">
-        <v>841</v>
+        <v>338</v>
+      </c>
+      <c r="T74" t="s">
+        <v>589</v>
       </c>
       <c r="V74" t="s">
         <v>313</v>
       </c>
-      <c r="W74" s="5">
+      <c r="W74">
         <v>60</v>
       </c>
-      <c r="X74" s="5">
+      <c r="X74">
         <v>-60</v>
       </c>
     </row>
-    <row r="75" spans="1:24" ht="17">
+    <row r="75" spans="1:24">
       <c r="A75">
-        <v>-93.145229999999998</v>
+        <v>-93.227817450000003</v>
       </c>
       <c r="B75">
-        <v>44.94191</v>
+        <v>44.974341600000002</v>
       </c>
       <c r="C75">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D75" t="s">
-        <v>924</v>
+        <v>455</v>
       </c>
       <c r="E75" t="s">
-        <v>909</v>
+        <v>893</v>
       </c>
       <c r="F75" t="s">
-        <v>645</v>
-      </c>
-      <c r="G75" s="7">
-        <v>55105</v>
+        <v>97</v>
+      </c>
+      <c r="G75">
+        <v>55455</v>
       </c>
       <c r="H75" t="s">
-        <v>865</v>
+        <v>456</v>
       </c>
       <c r="I75" t="s">
-        <v>692</v>
+        <v>457</v>
+      </c>
+      <c r="J75" t="s">
+        <v>458</v>
       </c>
       <c r="K75" t="s">
         <v>393</v>
       </c>
-      <c r="P75" t="s">
-        <v>981</v>
+      <c r="N75" t="s">
+        <v>459</v>
       </c>
       <c r="S75" t="s">
-        <v>330</v>
-      </c>
-      <c r="U75" s="6"/>
+        <v>338</v>
+      </c>
+      <c r="T75" t="s">
+        <v>460</v>
+      </c>
+      <c r="U75" t="s">
+        <v>461</v>
+      </c>
       <c r="V75" t="s">
         <v>313</v>
       </c>
-      <c r="W75" s="5">
+      <c r="W75">
         <v>60</v>
       </c>
-      <c r="X75" s="5">
+      <c r="X75">
         <v>-60</v>
       </c>
     </row>
-    <row r="76" spans="1:24" ht="17">
+    <row r="76" spans="1:24">
       <c r="A76">
-        <v>-93.259001249999997</v>
+        <v>-93.204085849999998</v>
       </c>
       <c r="B76">
-        <v>44.934401080000001</v>
+        <v>44.90195782</v>
       </c>
       <c r="C76">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D76" t="s">
-        <v>586</v>
+        <v>447</v>
       </c>
       <c r="E76" t="s">
-        <v>898</v>
+        <v>448</v>
       </c>
       <c r="F76" t="s">
         <v>97</v>
       </c>
       <c r="G76">
-        <v>55407</v>
+        <v>55417</v>
       </c>
       <c r="H76" t="s">
-        <v>587</v>
+        <v>449</v>
       </c>
       <c r="I76" t="s">
-        <v>588</v>
+        <v>450</v>
       </c>
       <c r="J76" t="s">
-        <v>533</v>
+        <v>451</v>
       </c>
       <c r="K76" t="s">
-        <v>589</v>
-      </c>
-      <c r="O76" t="s">
-        <v>590</v>
+        <v>452</v>
+      </c>
+      <c r="M76" t="s">
+        <v>453</v>
       </c>
       <c r="S76" t="s">
         <v>338</v>
       </c>
       <c r="T76" t="s">
-        <v>591</v>
+        <v>454</v>
       </c>
       <c r="V76" t="s">
         <v>313</v>
       </c>
-      <c r="W76" s="5">
+      <c r="W76">
         <v>60</v>
       </c>
-      <c r="X76" s="5">
+      <c r="X76">
         <v>-60</v>
       </c>
     </row>
-    <row r="77" spans="1:24" ht="16">
+    <row r="77" spans="1:24">
       <c r="A77">
-        <v>-93.227817450000003</v>
+        <v>-93.051959999999994</v>
       </c>
       <c r="B77">
-        <v>44.974341600000002</v>
+        <v>45.051380000000002</v>
       </c>
       <c r="C77">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="D77" t="s">
-        <v>456</v>
+        <v>685</v>
       </c>
       <c r="E77" t="s">
-        <v>895</v>
+        <v>824</v>
       </c>
       <c r="F77" t="s">
-        <v>97</v>
+        <v>276</v>
       </c>
       <c r="G77">
-        <v>55455</v>
+        <v>55110</v>
       </c>
       <c r="H77" t="s">
-        <v>457</v>
+        <v>878</v>
       </c>
       <c r="I77" t="s">
-        <v>458</v>
-      </c>
-      <c r="J77" t="s">
-        <v>459</v>
+        <v>690</v>
       </c>
       <c r="K77" t="s">
         <v>393</v>
       </c>
       <c r="N77" t="s">
-        <v>460</v>
+        <v>948</v>
       </c>
       <c r="S77" t="s">
-        <v>338</v>
-      </c>
-      <c r="T77" t="s">
-        <v>461</v>
+        <v>330</v>
       </c>
       <c r="U77" t="s">
-        <v>462</v>
+        <v>825</v>
       </c>
       <c r="V77" t="s">
         <v>313</v>
       </c>
-      <c r="W77" s="5">
+      <c r="W77">
         <v>60</v>
       </c>
-      <c r="X77" s="5">
+      <c r="X77">
         <v>-60</v>
       </c>
     </row>
-    <row r="78" spans="1:24" ht="16">
+    <row r="78" spans="1:24">
       <c r="A78">
-        <v>-93.204085849999998</v>
+        <v>-93.506930420000003</v>
       </c>
       <c r="B78">
-        <v>44.90195782</v>
+        <v>44.968517650000003</v>
       </c>
       <c r="C78">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D78" t="s">
-        <v>448</v>
+        <v>539</v>
       </c>
       <c r="E78" t="s">
-        <v>449</v>
+        <v>540</v>
       </c>
       <c r="F78" t="s">
-        <v>97</v>
+        <v>541</v>
       </c>
       <c r="G78">
-        <v>55417</v>
+        <v>55391</v>
       </c>
       <c r="H78" t="s">
-        <v>450</v>
+        <v>542</v>
       </c>
       <c r="I78" t="s">
-        <v>451</v>
+        <v>543</v>
       </c>
       <c r="J78" t="s">
-        <v>452</v>
+        <v>319</v>
       </c>
       <c r="K78" t="s">
-        <v>453</v>
-      </c>
-      <c r="M78" t="s">
-        <v>454</v>
+        <v>544</v>
+      </c>
+      <c r="O78" t="s">
+        <v>545</v>
       </c>
       <c r="S78" t="s">
         <v>338</v>
       </c>
       <c r="T78" t="s">
-        <v>455</v>
+        <v>546</v>
       </c>
       <c r="V78" t="s">
         <v>313</v>
       </c>
-      <c r="W78" s="5">
+      <c r="W78">
         <v>60</v>
       </c>
-      <c r="X78" s="5">
+      <c r="X78">
         <v>-60</v>
       </c>
     </row>
-    <row r="79" spans="1:24" ht="16">
+    <row r="79" spans="1:24">
       <c r="A79">
-        <v>-93.051959999999994</v>
+        <v>-93.247074839999996</v>
       </c>
       <c r="B79">
-        <v>45.051380000000002</v>
+        <v>44.968948480000002</v>
       </c>
       <c r="C79">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="D79" t="s">
-        <v>687</v>
+        <v>601</v>
       </c>
       <c r="E79" t="s">
-        <v>826</v>
+        <v>602</v>
       </c>
       <c r="F79" t="s">
-        <v>276</v>
-      </c>
-      <c r="G79" s="7">
-        <v>55110</v>
+        <v>97</v>
+      </c>
+      <c r="G79">
+        <v>55454</v>
       </c>
       <c r="H79" t="s">
-        <v>880</v>
+        <v>603</v>
       </c>
       <c r="I79" t="s">
-        <v>692</v>
+        <v>604</v>
       </c>
       <c r="K79" t="s">
-        <v>393</v>
-      </c>
-      <c r="N79" t="s">
-        <v>951</v>
+        <v>581</v>
+      </c>
+      <c r="M79" t="s">
+        <v>605</v>
       </c>
       <c r="S79" t="s">
-        <v>330</v>
-      </c>
-      <c r="U79" s="6" t="s">
-        <v>827</v>
+        <v>310</v>
+      </c>
+      <c r="T79" t="s">
+        <v>583</v>
       </c>
       <c r="V79" t="s">
         <v>313</v>
       </c>
-      <c r="W79" s="5">
+      <c r="W79">
         <v>60</v>
       </c>
-      <c r="X79" s="5">
+      <c r="X79">
         <v>-60</v>
       </c>
     </row>
-    <row r="80" spans="1:24" ht="16">
+    <row r="80" spans="1:24">
       <c r="A80">
-        <v>-93.506930420000003</v>
+        <v>-93.238340809999997</v>
       </c>
       <c r="B80">
-        <v>44.968517650000003</v>
+        <v>44.966206479999997</v>
       </c>
       <c r="C80">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D80" t="s">
-        <v>540</v>
+        <v>576</v>
       </c>
       <c r="E80" t="s">
-        <v>541</v>
+        <v>577</v>
       </c>
       <c r="F80" t="s">
-        <v>542</v>
+        <v>97</v>
       </c>
       <c r="G80">
-        <v>55391</v>
+        <v>55454</v>
       </c>
       <c r="H80" t="s">
-        <v>543</v>
+        <v>578</v>
       </c>
       <c r="I80" t="s">
-        <v>544</v>
+        <v>579</v>
       </c>
       <c r="J80" t="s">
-        <v>319</v>
+        <v>580</v>
       </c>
       <c r="K80" t="s">
-        <v>545</v>
-      </c>
-      <c r="O80" t="s">
-        <v>546</v>
+        <v>581</v>
+      </c>
+      <c r="M80" t="s">
+        <v>582</v>
       </c>
       <c r="S80" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="T80" t="s">
-        <v>547</v>
+        <v>583</v>
       </c>
       <c r="V80" t="s">
         <v>313</v>
       </c>
-      <c r="W80" s="5">
+      <c r="W80">
         <v>60</v>
       </c>
-      <c r="X80" s="5">
+      <c r="X80">
         <v>-60</v>
       </c>
     </row>
-    <row r="81" spans="1:24" ht="16">
+    <row r="81" spans="1:24">
       <c r="A81">
-        <v>-93.247074839999996</v>
+        <v>-93.288696079999994</v>
       </c>
       <c r="B81">
-        <v>44.968948480000002</v>
+        <v>44.999326080000003</v>
       </c>
       <c r="C81">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D81" t="s">
-        <v>603</v>
+        <v>25</v>
       </c>
       <c r="E81" t="s">
-        <v>604</v>
+        <v>894</v>
       </c>
       <c r="F81" t="s">
         <v>97</v>
       </c>
       <c r="G81">
-        <v>55454</v>
+        <v>55411</v>
       </c>
       <c r="H81" t="s">
-        <v>605</v>
+        <v>483</v>
       </c>
       <c r="I81" t="s">
-        <v>606</v>
+        <v>484</v>
+      </c>
+      <c r="J81" t="s">
+        <v>485</v>
       </c>
       <c r="K81" t="s">
-        <v>583</v>
-      </c>
-      <c r="M81" t="s">
-        <v>607</v>
+        <v>486</v>
+      </c>
+      <c r="P81" t="s">
+        <v>487</v>
       </c>
       <c r="S81" t="s">
         <v>310</v>
       </c>
       <c r="T81" t="s">
-        <v>585</v>
+        <v>488</v>
       </c>
       <c r="V81" t="s">
         <v>313</v>
       </c>
-      <c r="W81" s="5">
+      <c r="W81">
         <v>60</v>
       </c>
-      <c r="X81" s="5">
+      <c r="X81">
         <v>-60</v>
       </c>
     </row>
-    <row r="82" spans="1:24" ht="16">
+    <row r="82" spans="1:24">
       <c r="A82">
-        <v>-93.238340809999997</v>
+        <v>-93.080629999999999</v>
       </c>
       <c r="B82">
-        <v>44.966206479999997</v>
+        <v>44.912550000000003</v>
       </c>
       <c r="C82">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="D82" t="s">
-        <v>578</v>
+        <v>761</v>
       </c>
       <c r="E82" t="s">
-        <v>579</v>
+        <v>906</v>
       </c>
       <c r="F82" t="s">
-        <v>97</v>
+        <v>817</v>
+      </c>
+      <c r="G82">
+        <v>55118</v>
       </c>
       <c r="H82" t="s">
-        <v>580</v>
+        <v>859</v>
       </c>
       <c r="I82" t="s">
-        <v>581</v>
-      </c>
-      <c r="J82" t="s">
-        <v>582</v>
+        <v>690</v>
       </c>
       <c r="K82" t="s">
-        <v>583</v>
-      </c>
-      <c r="M82" t="s">
-        <v>584</v>
+        <v>393</v>
+      </c>
+      <c r="P82" t="s">
+        <v>979</v>
       </c>
       <c r="S82" t="s">
-        <v>310</v>
-      </c>
-      <c r="T82" t="s">
-        <v>585</v>
+        <v>330</v>
+      </c>
+      <c r="U82" t="s">
+        <v>819</v>
       </c>
       <c r="V82" t="s">
         <v>313</v>
       </c>
-      <c r="W82" s="5">
+      <c r="W82">
         <v>60</v>
       </c>
-      <c r="X82" s="5">
+      <c r="X82">
         <v>-60</v>
       </c>
     </row>
-    <row r="83" spans="1:24" ht="16">
+    <row r="83" spans="1:24">
       <c r="A83">
-        <v>-93.288696079999994</v>
+        <v>-93.010060999999993</v>
       </c>
       <c r="B83">
-        <v>44.999326080000003</v>
+        <v>45.084986000000001</v>
       </c>
       <c r="C83">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="D83" t="s">
-        <v>25</v>
+        <v>992</v>
       </c>
       <c r="E83" t="s">
-        <v>896</v>
+        <v>993</v>
       </c>
       <c r="F83" t="s">
-        <v>97</v>
+        <v>1004</v>
       </c>
       <c r="G83">
-        <v>55411</v>
+        <v>55110</v>
       </c>
       <c r="H83" t="s">
-        <v>484</v>
+        <v>1005</v>
       </c>
       <c r="I83" t="s">
-        <v>485</v>
-      </c>
-      <c r="J83" t="s">
-        <v>486</v>
+        <v>1008</v>
       </c>
       <c r="K83" t="s">
-        <v>487</v>
+        <v>393</v>
       </c>
       <c r="P83" t="s">
-        <v>488</v>
-      </c>
-      <c r="S83" t="s">
-        <v>310</v>
-      </c>
-      <c r="T83" t="s">
-        <v>489</v>
+        <v>979</v>
+      </c>
+      <c r="U83" t="s">
+        <v>1013</v>
       </c>
       <c r="V83" t="s">
         <v>313</v>
       </c>
-      <c r="W83" s="5">
+      <c r="W83">
         <v>60</v>
       </c>
-      <c r="X83" s="5">
+      <c r="X83">
         <v>-60</v>
       </c>
     </row>
-    <row r="84" spans="1:24" ht="16">
+    <row r="84" spans="1:24">
       <c r="A84">
-        <v>-93.080629999999999</v>
+        <v>-93.28013</v>
       </c>
       <c r="B84">
-        <v>44.912550000000003</v>
+        <v>44.955219999999997</v>
       </c>
       <c r="C84">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D84" t="s">
-        <v>763</v>
+        <v>688</v>
       </c>
       <c r="E84" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="F84" t="s">
-        <v>819</v>
-      </c>
-      <c r="G84" s="7">
-        <v>55118</v>
+        <v>735</v>
+      </c>
+      <c r="G84">
+        <v>55408</v>
       </c>
       <c r="H84" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="I84" t="s">
-        <v>692</v>
+        <v>393</v>
       </c>
       <c r="K84" t="s">
         <v>393</v>
       </c>
-      <c r="P84" t="s">
-        <v>983</v>
+      <c r="Q84" t="s">
+        <v>976</v>
       </c>
       <c r="S84" t="s">
         <v>330</v>
       </c>
-      <c r="U84" s="6" t="s">
-        <v>821</v>
+      <c r="U84" t="s">
+        <v>778</v>
       </c>
       <c r="V84" t="s">
         <v>313</v>
       </c>
-      <c r="W84" s="5">
+      <c r="W84">
         <v>60</v>
       </c>
-      <c r="X84" s="5">
+      <c r="X84">
         <v>-60</v>
       </c>
     </row>
-    <row r="85" spans="1:24" ht="16">
+    <row r="85" spans="1:24">
       <c r="A85">
-        <v>-93.061803999999995</v>
+        <v>-92.933160000000001</v>
       </c>
       <c r="B85">
-        <v>45.052309000000001</v>
+        <v>44.915970000000002</v>
       </c>
       <c r="C85">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="D85" t="s">
-        <v>998</v>
+        <v>675</v>
       </c>
       <c r="E85" t="s">
-        <v>999</v>
+        <v>801</v>
       </c>
       <c r="F85" t="s">
-        <v>1010</v>
+        <v>252</v>
+      </c>
+      <c r="G85">
+        <v>55125</v>
       </c>
       <c r="H85" t="s">
-        <v>1011</v>
+        <v>860</v>
       </c>
       <c r="I85" t="s">
-        <v>1014</v>
+        <v>690</v>
       </c>
       <c r="K85" t="s">
         <v>393</v>
       </c>
-      <c r="P85" t="s">
-        <v>983</v>
+      <c r="L85" t="s">
+        <v>956</v>
+      </c>
+      <c r="R85" t="s">
+        <v>954</v>
+      </c>
+      <c r="S85" t="s">
+        <v>330</v>
       </c>
       <c r="U85" t="s">
-        <v>1019</v>
+        <v>802</v>
       </c>
       <c r="V85" t="s">
         <v>313</v>
       </c>
-      <c r="W85" s="5">
+      <c r="W85">
         <v>60</v>
       </c>
-      <c r="X85" s="5">
+      <c r="X85">
         <v>-60</v>
       </c>
     </row>
-    <row r="86" spans="1:24" ht="16">
+    <row r="86" spans="1:24">
       <c r="A86">
-        <v>-93.28013</v>
+        <v>-93.584225200000006</v>
       </c>
       <c r="B86">
-        <v>44.955219999999997</v>
+        <v>45.438823290000002</v>
       </c>
       <c r="C86">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="D86" t="s">
-        <v>690</v>
+        <v>668</v>
       </c>
       <c r="E86" t="s">
-        <v>911</v>
+        <v>920</v>
       </c>
       <c r="F86" t="s">
-        <v>737</v>
-      </c>
-      <c r="G86" s="7">
-        <v>55408</v>
+        <v>750</v>
+      </c>
+      <c r="G86">
+        <v>55398</v>
       </c>
       <c r="H86" t="s">
-        <v>868</v>
-      </c>
-      <c r="I86" t="s">
-        <v>393</v>
+        <v>885</v>
       </c>
       <c r="K86" t="s">
         <v>393</v>
       </c>
-      <c r="Q86" t="s">
-        <v>979</v>
+      <c r="M86" t="s">
+        <v>961</v>
       </c>
       <c r="S86" t="s">
         <v>330</v>
       </c>
-      <c r="U86" s="6" t="s">
-        <v>780</v>
-      </c>
       <c r="V86" t="s">
         <v>313</v>
       </c>
-      <c r="W86" s="5">
+      <c r="W86">
         <v>60</v>
       </c>
-      <c r="X86" s="5">
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="87" spans="1:24" ht="16">
-      <c r="A87">
-        <v>-92.933160000000001</v>
-      </c>
-      <c r="B87">
-        <v>44.915970000000002</v>
-      </c>
-      <c r="C87">
-        <v>59</v>
-      </c>
-      <c r="D87" t="s">
-        <v>677</v>
-      </c>
-      <c r="E87" t="s">
-        <v>803</v>
-      </c>
-      <c r="F87" t="s">
-        <v>252</v>
-      </c>
-      <c r="G87" s="7">
-        <v>55125</v>
-      </c>
-      <c r="H87" t="s">
-        <v>862</v>
-      </c>
-      <c r="I87" t="s">
-        <v>692</v>
-      </c>
-      <c r="K87" t="s">
-        <v>393</v>
-      </c>
-      <c r="L87" t="s">
-        <v>959</v>
-      </c>
-      <c r="R87" t="s">
-        <v>957</v>
-      </c>
-      <c r="S87" t="s">
-        <v>330</v>
-      </c>
-      <c r="U87" s="6" t="s">
-        <v>804</v>
-      </c>
-      <c r="V87" t="s">
-        <v>313</v>
-      </c>
-      <c r="W87" s="5">
-        <v>60</v>
-      </c>
-      <c r="X87" s="5">
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="88" spans="1:24" ht="16">
-      <c r="A88">
-        <v>-93.584225204641996</v>
-      </c>
-      <c r="B88">
-        <v>45.438823288834399</v>
-      </c>
-      <c r="C88">
-        <v>78</v>
-      </c>
-      <c r="D88" t="s">
-        <v>670</v>
-      </c>
-      <c r="E88" t="s">
-        <v>923</v>
-      </c>
-      <c r="F88" t="s">
-        <v>752</v>
-      </c>
-      <c r="G88" s="7">
-        <v>55398</v>
-      </c>
-      <c r="H88" t="s">
-        <v>887</v>
-      </c>
-      <c r="K88" t="s">
-        <v>393</v>
-      </c>
-      <c r="M88" t="s">
-        <v>964</v>
-      </c>
-      <c r="S88" t="s">
-        <v>330</v>
-      </c>
-      <c r="U88" s="6"/>
-      <c r="V88" t="s">
-        <v>313</v>
-      </c>
-      <c r="W88" s="5">
-        <v>60</v>
-      </c>
-      <c r="X88" s="5">
+      <c r="X86">
         <v>-60</v>
       </c>
     </row>
@@ -10576,28 +10459,28 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B1" t="s">
+        <v>805</v>
+      </c>
+      <c r="C1" t="s">
+        <v>806</v>
+      </c>
+      <c r="D1" t="s">
+        <v>807</v>
+      </c>
+      <c r="E1" t="s">
         <v>624</v>
       </c>
-      <c r="B1" t="s">
-        <v>807</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>830</v>
+      </c>
+      <c r="G1" t="s">
+        <v>627</v>
+      </c>
+      <c r="H1" t="s">
         <v>808</v>
-      </c>
-      <c r="D1" t="s">
-        <v>809</v>
-      </c>
-      <c r="E1" t="s">
-        <v>626</v>
-      </c>
-      <c r="F1" t="s">
-        <v>832</v>
-      </c>
-      <c r="G1" t="s">
-        <v>629</v>
-      </c>
-      <c r="H1" t="s">
-        <v>810</v>
       </c>
       <c r="I1" t="s">
         <v>300</v>
@@ -10608,25 +10491,25 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F2" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="G2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="H2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="I2">
         <v>-93.945201286304794</v>
@@ -10637,28 +10520,28 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B3" t="s">
+        <v>715</v>
+      </c>
+      <c r="C3" t="s">
+        <v>646</v>
+      </c>
+      <c r="D3" t="s">
+        <v>716</v>
+      </c>
+      <c r="E3" t="s">
         <v>717</v>
       </c>
-      <c r="C3" t="s">
-        <v>648</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
+        <v>831</v>
+      </c>
+      <c r="G3" t="s">
         <v>718</v>
       </c>
-      <c r="E3" t="s">
-        <v>719</v>
-      </c>
-      <c r="F3" t="s">
-        <v>833</v>
-      </c>
-      <c r="G3" t="s">
-        <v>720</v>
-      </c>
       <c r="H3" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="I3">
         <v>-92.455960000000005</v>
@@ -10669,25 +10552,25 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B4" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D4" t="s">
+        <v>716</v>
+      </c>
+      <c r="E4" t="s">
+        <v>679</v>
+      </c>
+      <c r="F4" t="s">
+        <v>831</v>
+      </c>
+      <c r="G4" t="s">
         <v>718</v>
       </c>
-      <c r="E4" t="s">
-        <v>681</v>
-      </c>
-      <c r="F4" t="s">
-        <v>833</v>
-      </c>
-      <c r="G4" t="s">
-        <v>720</v>
-      </c>
       <c r="H4" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="I4">
         <v>-92.455960000000005</v>
@@ -10698,22 +10581,22 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B5" t="s">
+        <v>744</v>
+      </c>
+      <c r="D5" t="s">
+        <v>745</v>
+      </c>
+      <c r="E5" t="s">
         <v>746</v>
       </c>
-      <c r="D5" t="s">
-        <v>747</v>
-      </c>
-      <c r="E5" t="s">
-        <v>748</v>
-      </c>
       <c r="F5" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="H5" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="I5">
         <v>-93.161739999999995</v>
@@ -10724,28 +10607,28 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B6" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C6" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D6" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E6" t="s">
         <v>270</v>
       </c>
       <c r="F6" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="G6" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="H6" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="I6">
         <v>-93.242890171888604</v>
@@ -10756,28 +10639,28 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B7" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C7" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D7" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E7" t="s">
         <v>270</v>
       </c>
       <c r="F7" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="G7" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="H7" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="I7">
         <v>-93.242810000000006</v>
@@ -10788,25 +10671,25 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B8" t="s">
+        <v>719</v>
+      </c>
+      <c r="D8" t="s">
         <v>721</v>
       </c>
-      <c r="D8" t="s">
-        <v>723</v>
-      </c>
       <c r="E8" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="F8" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="G8" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H8" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="I8">
         <v>-93.424610000000001</v>
@@ -10817,28 +10700,28 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B9" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C9" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D9" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E9" t="s">
         <v>292</v>
       </c>
       <c r="F9" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="G9" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="H9" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="I9">
         <v>-93.208690000000004</v>
@@ -10849,25 +10732,25 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B10" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D10" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E10" t="s">
         <v>264</v>
       </c>
       <c r="F10" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="G10" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="H10" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="I10">
         <v>-93.127529999999993</v>
@@ -10878,25 +10761,25 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B11" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D11" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E11" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="F11" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="G11" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="H11" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="I11">
         <v>-93.281549999999996</v>
@@ -10907,28 +10790,28 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B12" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C12" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D12" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E12" t="s">
         <v>250</v>
       </c>
       <c r="F12" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="G12" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="H12" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="I12">
         <v>-93.340203207883306</v>
@@ -10939,28 +10822,28 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B13" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C13" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D13" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E13" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="F13" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="G13" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="H13" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="I13">
         <v>-93.230577999999994</v>
@@ -10971,28 +10854,28 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B14" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C14" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D14" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E14" t="s">
         <v>247</v>
       </c>
       <c r="F14" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="G14" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="H14" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="I14">
         <v>-93.063100000000006</v>
@@ -11003,25 +10886,25 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B15" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D15" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E15" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F15" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="G15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H15" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="I15">
         <v>-93.325823</v>
@@ -11032,25 +10915,25 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
+        <v>432</v>
+      </c>
+      <c r="B16" t="s">
+        <v>739</v>
+      </c>
+      <c r="C16" t="s">
+        <v>658</v>
+      </c>
+      <c r="D16" t="s">
+        <v>740</v>
+      </c>
+      <c r="E16" t="s">
         <v>433</v>
       </c>
-      <c r="B16" t="s">
-        <v>741</v>
-      </c>
-      <c r="C16" t="s">
-        <v>660</v>
-      </c>
-      <c r="D16" t="s">
-        <v>742</v>
-      </c>
-      <c r="E16" t="s">
-        <v>434</v>
-      </c>
       <c r="F16" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="H16" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="I16">
         <v>-93.267795488253995</v>
@@ -11061,22 +10944,22 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B17" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D17" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E17" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="F17" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="H17" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="I17">
         <v>-92.783293480054894</v>
@@ -11090,25 +10973,25 @@
         <v>332</v>
       </c>
       <c r="B18" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C18" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D18" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="E18" t="s">
         <v>333</v>
       </c>
       <c r="F18" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="G18" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="H18" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="I18">
         <v>-93.568641662597699</v>
@@ -11119,25 +11002,25 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B19" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D19" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E19" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F19" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="G19" t="s">
         <v>353</v>
       </c>
       <c r="H19" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="I19">
         <v>-93.262249999999995</v>
@@ -11148,28 +11031,28 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B20" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C20" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D20" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E20" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="F20" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="G20" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="H20" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="I20">
         <v>-93.080629999999999</v>
@@ -11180,25 +11063,25 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B21" t="s">
+        <v>733</v>
+      </c>
+      <c r="D21" t="s">
+        <v>734</v>
+      </c>
+      <c r="E21" t="s">
         <v>735</v>
       </c>
-      <c r="D21" t="s">
-        <v>736</v>
-      </c>
-      <c r="E21" t="s">
-        <v>737</v>
-      </c>
       <c r="F21" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="G21" t="s">
         <v>353</v>
       </c>
       <c r="H21" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="I21">
         <v>-93.324590000000001</v>
@@ -11209,28 +11092,28 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B22" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C22" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D22" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E22" t="s">
         <v>252</v>
       </c>
       <c r="F22" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="G22" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="H22" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="I22">
         <v>-92.933160000000001</v>
@@ -11244,22 +11127,22 @@
         <v>341</v>
       </c>
       <c r="B23" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D23" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E23" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F23" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="G23" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="H23" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="I23">
         <v>-93.411522464870899</v>
@@ -11273,25 +11156,25 @@
         <v>350</v>
       </c>
       <c r="B24" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C24" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D24" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E24" t="s">
         <v>97</v>
       </c>
       <c r="F24" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="G24" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="H24" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="I24">
         <v>-93.278319999999994</v>
@@ -11302,25 +11185,25 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
+        <v>659</v>
+      </c>
+      <c r="B25" t="s">
+        <v>741</v>
+      </c>
+      <c r="C25" t="s">
+        <v>660</v>
+      </c>
+      <c r="D25" t="s">
         <v>661</v>
       </c>
-      <c r="B25" t="s">
-        <v>743</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="E25" t="s">
         <v>662</v>
       </c>
-      <c r="D25" t="s">
-        <v>663</v>
-      </c>
-      <c r="E25" t="s">
-        <v>664</v>
-      </c>
       <c r="F25" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="G25" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="H25" t="s">
         <v>393</v>
@@ -11337,22 +11220,22 @@
         <v>403</v>
       </c>
       <c r="B26" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C26" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D26" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E26" t="s">
         <v>405</v>
       </c>
       <c r="F26" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="H26" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="I26">
         <v>-93.465469999999996</v>
@@ -11363,25 +11246,25 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B27" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D27" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E27" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F27" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="G27" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="H27" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="I27">
         <v>-93.145229999999998</v>
@@ -11395,22 +11278,22 @@
         <v>375</v>
       </c>
       <c r="B28" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D28" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E28" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F28" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="G28" t="s">
         <v>378</v>
       </c>
       <c r="H28" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="I28">
         <v>-93.239419999999996</v>
@@ -11421,25 +11304,25 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
+        <v>695</v>
+      </c>
+      <c r="B29" t="s">
+        <v>779</v>
+      </c>
+      <c r="D29" t="s">
         <v>697</v>
       </c>
-      <c r="B29" t="s">
-        <v>781</v>
-      </c>
-      <c r="D29" t="s">
-        <v>699</v>
-      </c>
       <c r="E29" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F29" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="G29" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="H29" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="I29">
         <v>-93.085080000000005</v>
@@ -11450,25 +11333,25 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B30" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C30" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D30" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E30" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F30" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="H30" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="I30">
         <v>-93.28013</v>
@@ -11479,25 +11362,25 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B31" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D31" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E31" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="F31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="G31" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H31" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="I31">
         <v>-93.507187999999999</v>
@@ -11508,28 +11391,28 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B32" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C32" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D32" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E32" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="F32" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="G32" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="H32" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I32">
         <v>-92.96499</v>
@@ -11540,25 +11423,25 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B33" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C33" t="s">
+        <v>768</v>
+      </c>
+      <c r="D33" t="s">
+        <v>769</v>
+      </c>
+      <c r="E33" t="s">
         <v>770</v>
       </c>
-      <c r="D33" t="s">
-        <v>771</v>
-      </c>
-      <c r="E33" t="s">
-        <v>772</v>
-      </c>
       <c r="F33" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="H33" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="I33">
         <v>-92.719909999999999</v>
@@ -11569,25 +11452,25 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B34" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D34" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E34" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F34" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="G34" t="s">
         <v>400</v>
       </c>
       <c r="H34" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="I34">
         <v>-93.266143999999997</v>
@@ -11601,22 +11484,22 @@
         <v>129</v>
       </c>
       <c r="B35" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D35" t="s">
+        <v>829</v>
+      </c>
+      <c r="E35" t="s">
+        <v>735</v>
+      </c>
+      <c r="F35" t="s">
         <v>831</v>
-      </c>
-      <c r="E35" t="s">
-        <v>737</v>
-      </c>
-      <c r="F35" t="s">
-        <v>833</v>
       </c>
       <c r="G35" t="s">
         <v>400</v>
       </c>
       <c r="H35" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="I35">
         <v>-93.286677936605003</v>
@@ -11627,25 +11510,25 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B36" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D36" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E36" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F36" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="G36" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="H36" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="I36">
         <v>-93.144052128406898</v>
@@ -11656,28 +11539,28 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B37" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C37" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D37" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E37" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F37" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="G37" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="H37" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="I37">
         <v>-93.378780000000006</v>
@@ -11688,25 +11571,25 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B38" t="s">
+        <v>725</v>
+      </c>
+      <c r="D38" t="s">
+        <v>726</v>
+      </c>
+      <c r="E38" t="s">
         <v>727</v>
       </c>
-      <c r="D38" t="s">
-        <v>728</v>
-      </c>
-      <c r="E38" t="s">
-        <v>729</v>
-      </c>
       <c r="F38" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="G38" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="H38" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="I38">
         <v>-93.02346</v>
@@ -11720,22 +11603,22 @@
         <v>25</v>
       </c>
       <c r="B39" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="D39" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E39" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F39" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="G39" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="H39" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="I39">
         <v>-93.270849999999996</v>
@@ -11746,25 +11629,25 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B40" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D40" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E40" t="s">
         <v>259</v>
       </c>
       <c r="F40" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="G40" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="H40" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="I40">
         <v>-93.178299999999993</v>
@@ -11775,25 +11658,25 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B41" t="s">
+        <v>736</v>
+      </c>
+      <c r="C41" t="s">
+        <v>737</v>
+      </c>
+      <c r="D41" t="s">
         <v>738</v>
       </c>
-      <c r="C41" t="s">
-        <v>739</v>
-      </c>
-      <c r="D41" t="s">
-        <v>740</v>
-      </c>
       <c r="E41" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F41" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="H41" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="I41">
         <v>-93.266409999999993</v>
@@ -11807,25 +11690,25 @@
         <v>411</v>
       </c>
       <c r="B42" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C42" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D42" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E42" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="F42" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="G42" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="H42" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="I42">
         <v>-93.386740000000003</v>
@@ -11836,28 +11719,28 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B43" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C43" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D43" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E43" t="s">
         <v>276</v>
       </c>
       <c r="F43" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="G43" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="H43" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="I43">
         <v>-93.051959999999994</v>
@@ -11868,28 +11751,28 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B44" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C44" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D44" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E44" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="F44" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="G44" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="H44" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="I44">
         <v>-93.135266880548002</v>
@@ -11900,22 +11783,22 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B45" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D45" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E45" t="s">
         <v>97</v>
       </c>
       <c r="F45" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="H45" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="I45">
         <v>-93.7346</v>
@@ -11929,25 +11812,25 @@
         <v>358</v>
       </c>
       <c r="B46" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C46" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D46" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E46" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="F46" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="G46" t="s">
         <v>362</v>
       </c>
       <c r="H46" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="I46">
         <v>-93.44408</v>
@@ -11958,28 +11841,28 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B47" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C47" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D47" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E47" t="s">
         <v>256</v>
       </c>
       <c r="F47" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="G47" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="H47" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="I47">
         <v>-93.356430000000003</v>
@@ -11990,25 +11873,25 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B48" t="s">
+        <v>728</v>
+      </c>
+      <c r="D48" t="s">
+        <v>729</v>
+      </c>
+      <c r="E48" t="s">
+        <v>785</v>
+      </c>
+      <c r="F48" t="s">
+        <v>831</v>
+      </c>
+      <c r="G48" t="s">
         <v>730</v>
       </c>
-      <c r="D48" t="s">
-        <v>731</v>
-      </c>
-      <c r="E48" t="s">
-        <v>787</v>
-      </c>
-      <c r="F48" t="s">
-        <v>833</v>
-      </c>
-      <c r="G48" t="s">
-        <v>732</v>
-      </c>
       <c r="H48" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="I48">
         <v>-93.799229999999994</v>
@@ -12019,25 +11902,25 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B49" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C49" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D49" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E49" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="F49" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="H49" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="I49">
         <v>-92.890249999999995</v>
@@ -12048,22 +11931,22 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B50" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D50" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E50" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="F50" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="H50" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="I50">
         <v>-93.584225204641996</v>
@@ -12074,28 +11957,28 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B51" t="s">
+        <v>710</v>
+      </c>
+      <c r="C51" t="s">
+        <v>711</v>
+      </c>
+      <c r="D51" t="s">
         <v>712</v>
       </c>
-      <c r="C51" t="s">
+      <c r="E51" t="s">
         <v>713</v>
       </c>
-      <c r="D51" t="s">
+      <c r="F51" t="s">
+        <v>831</v>
+      </c>
+      <c r="G51" t="s">
         <v>714</v>
       </c>
-      <c r="E51" t="s">
-        <v>715</v>
-      </c>
-      <c r="F51" t="s">
-        <v>833</v>
-      </c>
-      <c r="G51" t="s">
-        <v>716</v>
-      </c>
       <c r="H51" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="I51">
         <v>-93.580187936822099</v>
@@ -12109,22 +11992,22 @@
         <v>119</v>
       </c>
       <c r="B52" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D52" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E52" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F52" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="G52" t="s">
         <v>385</v>
       </c>
       <c r="H52" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="I52">
         <v>-93.256414000000007</v>
@@ -12135,25 +12018,25 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B53" t="s">
+        <v>797</v>
+      </c>
+      <c r="C53" t="s">
+        <v>798</v>
+      </c>
+      <c r="D53" t="s">
+        <v>798</v>
+      </c>
+      <c r="E53" t="s">
         <v>799</v>
       </c>
-      <c r="C53" t="s">
-        <v>800</v>
-      </c>
-      <c r="D53" t="s">
-        <v>800</v>
-      </c>
-      <c r="E53" t="s">
-        <v>801</v>
-      </c>
       <c r="F53" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="H53" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="I53">
         <v>-93.577804</v>
@@ -12164,28 +12047,28 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B54" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C54" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D54" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="E54" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F54" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="G54" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="H54" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="I54">
         <v>-93.091020999999998</v>

--- a/builds/development/data/_raw/markets.xlsx
+++ b/builds/development/data/_raw/markets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6580" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="40520" yWindow="2180" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="minneapolis" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="1023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="969">
   <si>
     <t>Market Name</t>
   </si>
@@ -1008,9 +1008,6 @@
     <t>6/11-10/15</t>
   </si>
   <si>
-    <t>Winter Mkt 11/12 &amp; 12/10 9a-Noon</t>
-  </si>
-  <si>
     <t>Farmers Market</t>
   </si>
   <si>
@@ -1044,15 +1041,9 @@
     <t>6/22-10/12</t>
   </si>
   <si>
-    <t>Champlin's Farmers Market</t>
-  </si>
-  <si>
     <t>Champlin</t>
   </si>
   <si>
-    <t>http://ci.champlin.mn.us/event/2016-champlin-farmers-market-14/</t>
-  </si>
-  <si>
     <t>763-923-7132</t>
   </si>
   <si>
@@ -1092,9 +1083,6 @@
     <t>5/3-10/18</t>
   </si>
   <si>
-    <t>Closing 10/11-10/18 weather dependent. Possible EBT by individual vendors.</t>
-  </si>
-  <si>
     <t>Hopkins Farmers Market</t>
   </si>
   <si>
@@ -1170,33 +1158,9 @@
     <t>6/9-10/20</t>
   </si>
   <si>
-    <t>3pm-6pm in October</t>
-  </si>
-  <si>
-    <t>Marshall's Farm Market</t>
-  </si>
-  <si>
-    <t>9100 Eden Prairie Road</t>
-  </si>
-  <si>
-    <t>Eden Prairie</t>
-  </si>
-  <si>
-    <t>http://www.marshallsfarmmarket.net/</t>
-  </si>
-  <si>
-    <t>952-217-9573</t>
-  </si>
-  <si>
     <t>WEBSITE &amp; HC</t>
   </si>
   <si>
-    <t>info@marshallsfarmmarket.net</t>
-  </si>
-  <si>
-    <t>7/?-11/? Call for info.</t>
-  </si>
-  <si>
     <t>Midtown Farmers Market</t>
   </si>
   <si>
@@ -1218,9 +1182,6 @@
     <t>SA: 5/7-10/29 TU: 6/7-10/25</t>
   </si>
   <si>
-    <t>Adjacent to light rail.</t>
-  </si>
-  <si>
     <t>704 2nd St South</t>
   </si>
   <si>
@@ -1239,9 +1200,6 @@
     <t>5/7-10/29</t>
   </si>
   <si>
-    <t>Hours 9am-1pm Oct.</t>
-  </si>
-  <si>
     <t>http://www.mplsfarmersmarket.com/FreshNews/about-us/downtown-market/</t>
   </si>
   <si>
@@ -1260,18 +1218,9 @@
     <t>5/5-11/5</t>
   </si>
   <si>
-    <t>Temporary location at Hennepin County.</t>
-  </si>
-  <si>
-    <t>Lyndale Minneapolis Farmers Market</t>
-  </si>
-  <si>
     <t>312 East Lyndale Ave North</t>
   </si>
   <si>
-    <t>http://www.mplsfarmersmarket.com/FreshNews/find-us/</t>
-  </si>
-  <si>
     <t>612-333-1718</t>
   </si>
   <si>
@@ -1326,9 +1275,6 @@
     <t>6/18 - 10/8</t>
   </si>
   <si>
-    <t>9am-1pm Fall hours</t>
-  </si>
-  <si>
     <t>Northeast Minneapolis Farmers Market</t>
   </si>
   <si>
@@ -1383,9 +1329,6 @@
     <t>FarmersMarket@cityofrichfield.org</t>
   </si>
   <si>
-    <t>SA: 7am-12pm</t>
-  </si>
-  <si>
     <t>SA: 8am-12pm Oct.</t>
   </si>
   <si>
@@ -1413,30 +1356,6 @@
     <t>6/8-10/5</t>
   </si>
   <si>
-    <t>VA Medical Center Farmers Market</t>
-  </si>
-  <si>
-    <t>1 Veterans Drive</t>
-  </si>
-  <si>
-    <t>http://www.minneapolis.va.gov/news/farmersmarket.asp</t>
-  </si>
-  <si>
-    <t>612-467-2563</t>
-  </si>
-  <si>
-    <t>WEBSITE &amp; CALLED</t>
-  </si>
-  <si>
-    <t>tonia.dockter2@va.gov</t>
-  </si>
-  <si>
-    <t>TU: 2pm-5pm</t>
-  </si>
-  <si>
-    <t>6/22 - 10/25</t>
-  </si>
-  <si>
     <t>University of Minnesota Farmers Market</t>
   </si>
   <si>
@@ -1455,9 +1374,6 @@
     <t>7/13- 10/12</t>
   </si>
   <si>
-    <t>Located near Gateway Plaza.</t>
-  </si>
-  <si>
     <t>Centennial Lakes Farmers Market</t>
   </si>
   <si>
@@ -1560,9 +1476,6 @@
     <t>mfmm578@gmail.com</t>
   </si>
   <si>
-    <t>SA: 8:30am-12:30pm</t>
-  </si>
-  <si>
     <t>5/14 - 10/8</t>
   </si>
   <si>
@@ -1590,27 +1503,6 @@
     <t>6/22-10/5</t>
   </si>
   <si>
-    <t>8535 Kennedy Memorial Drive</t>
-  </si>
-  <si>
-    <t>St. Bonifacius</t>
-  </si>
-  <si>
-    <t>http://discover-stboni.com/st-boni-summer-market/</t>
-  </si>
-  <si>
-    <t>612-419-5932</t>
-  </si>
-  <si>
-    <t>info@discover-stboni.com</t>
-  </si>
-  <si>
-    <t>W: 3pm-7pm</t>
-  </si>
-  <si>
-    <t>5/25-10/5</t>
-  </si>
-  <si>
     <t>Market in the Valley - Golden Valley</t>
   </si>
   <si>
@@ -1650,45 +1542,9 @@
     <t>6/15-9/28</t>
   </si>
   <si>
-    <t>Closes at 7 in Sept.</t>
-  </si>
-  <si>
-    <t>Methodist Hospital Farmers Market</t>
-  </si>
-  <si>
-    <t>6500 Excelsior Blvd</t>
-  </si>
-  <si>
-    <t>St Louis Park</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>952-993-1092</t>
-  </si>
-  <si>
     <t>DIRECT</t>
   </si>
   <si>
-    <t>TU:10am-2pm</t>
-  </si>
-  <si>
-    <t>6/21 -Mid Oct</t>
-  </si>
-  <si>
-    <t>Park Nicollet Clinic Farmers Market</t>
-  </si>
-  <si>
-    <t>3850 Park Nicollet Blvd</t>
-  </si>
-  <si>
-    <t>TH:10am-1:30pm</t>
-  </si>
-  <si>
-    <t>6/23 -Mid Oct</t>
-  </si>
-  <si>
     <t>Wayzata Farmer's Market</t>
   </si>
   <si>
@@ -1698,87 +1554,15 @@
     <t>Wayzata</t>
   </si>
   <si>
-    <t>http://wayzatafarmersmarket.weebly.com/</t>
-  </si>
-  <si>
     <t>763-238-2702</t>
   </si>
   <si>
     <t>wayzatafarmersmarket@gmail.com</t>
   </si>
   <si>
-    <t>TH: 2pm-6pm</t>
-  </si>
-  <si>
     <t>5/12-10/27</t>
   </si>
   <si>
-    <t>https://www.facebook.com/CamdenFarmersMarketMpls</t>
-  </si>
-  <si>
-    <t>612-703-9609</t>
-  </si>
-  <si>
-    <t>MPLS &amp; FACEBOOK</t>
-  </si>
-  <si>
-    <t>Camdenfarmersmarket@gmail.com</t>
-  </si>
-  <si>
-    <t>TH: 3pm-8pm</t>
-  </si>
-  <si>
-    <t>7/14 - 10/6</t>
-  </si>
-  <si>
-    <t>Grainbelt Farmers Market</t>
-  </si>
-  <si>
-    <t>http://www.northeastmarket.org/thursday-market/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">612-387-0527 </t>
-  </si>
-  <si>
-    <t>Website</t>
-  </si>
-  <si>
-    <t>info@northeastmarket.org</t>
-  </si>
-  <si>
-    <t>TH: 4:30pm-7:30pm</t>
-  </si>
-  <si>
-    <t>6/9-8/25</t>
-  </si>
-  <si>
-    <t>Lyndale Farmers Market Annex</t>
-  </si>
-  <si>
-    <t>200 E Lyndale</t>
-  </si>
-  <si>
-    <t>http://www.farmersmarketannex.com/index.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">612-573-0148 </t>
-  </si>
-  <si>
-    <t>WEB</t>
-  </si>
-  <si>
-    <t>info@FarmersMarketAnnex.com</t>
-  </si>
-  <si>
-    <t>4/23-10/30</t>
-  </si>
-  <si>
-    <t>FMNP taken.</t>
-  </si>
-  <si>
-    <t>Dayton Village Farmers Market</t>
-  </si>
-  <si>
     <t>Dayton</t>
   </si>
   <si>
@@ -1800,30 +1584,6 @@
     <t>Check with vendors</t>
   </si>
   <si>
-    <t>West Bank Farmers' Market Augsburg Campus</t>
-  </si>
-  <si>
-    <t>701 22nd Ave. S.</t>
-  </si>
-  <si>
-    <t>HTTP://WWW.AUGSBURG.EDU/CAMPUSKITCHEN/WHAT-WE-DO-2/FARMERSMARKETS/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">612-330-1624 </t>
-  </si>
-  <si>
-    <t>Web Search</t>
-  </si>
-  <si>
-    <t>campuskitchen@augsburg.edu</t>
-  </si>
-  <si>
-    <t>TU: 11am-1pm</t>
-  </si>
-  <si>
-    <t>7/5-9/27</t>
-  </si>
-  <si>
     <t>The Tiny Diner Farmers Market</t>
   </si>
   <si>
@@ -1842,27 +1602,6 @@
     <t>6/30-10/6</t>
   </si>
   <si>
-    <t>IDS Crystal Court Farmers Market</t>
-  </si>
-  <si>
-    <t>80 8th St S</t>
-  </si>
-  <si>
-    <t>612-839-4180</t>
-  </si>
-  <si>
-    <t>MPLS</t>
-  </si>
-  <si>
-    <t>ken@livinggreens.net</t>
-  </si>
-  <si>
-    <t>TU: 10am-5pm</t>
-  </si>
-  <si>
-    <t>5/3-12/?</t>
-  </si>
-  <si>
     <t>225 6th St S</t>
   </si>
   <si>
@@ -1875,51 +1614,6 @@
     <t>6/1-10/26</t>
   </si>
   <si>
-    <t>West Bank Cedar Farmers Market</t>
-  </si>
-  <si>
-    <t>427 Cedar Ave</t>
-  </si>
-  <si>
-    <t>http://www.augsburg.edu/CAMPUSKITCHEN/WHAT-WE-DO-2/FARMERSMARKETS/</t>
-  </si>
-  <si>
-    <t>612-330-1624</t>
-  </si>
-  <si>
-    <t>TU: 3pm-6pm</t>
-  </si>
-  <si>
-    <t>Riverplace Market</t>
-  </si>
-  <si>
-    <t>1 Main St SW</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Riverplace-Market-1234170089943695</t>
-  </si>
-  <si>
-    <t>651-983-4766</t>
-  </si>
-  <si>
-    <t>Stephanie@stephaniesweeklydish.com</t>
-  </si>
-  <si>
-    <t>6/1-9/28</t>
-  </si>
-  <si>
-    <t>Four Sisters Farmers Market</t>
-  </si>
-  <si>
-    <t>2001 Bloomington Ave S</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/foursistersmarket?fref=ts</t>
-  </si>
-  <si>
-    <t>afairbanks@nacdi.org</t>
-  </si>
-  <si>
     <t>Depot Farmers Market</t>
   </si>
   <si>
@@ -2757,9 +2451,6 @@
     <t>718 West Broadway Ave.</t>
   </si>
   <si>
-    <t>1215 Marshall St. NE</t>
-  </si>
-  <si>
     <t>1024 E 38th St.</t>
   </si>
   <si>
@@ -2805,9 +2496,6 @@
     <t>1584 Hadley Ave.</t>
   </si>
   <si>
-    <t>300 S 6th St.</t>
-  </si>
-  <si>
     <t>1360 N Lexington Ave.</t>
   </si>
   <si>
@@ -2838,12 +2526,6 @@
     <t>St. Thomas More Church Farmers Market</t>
   </si>
   <si>
-    <t>St. Boni Summer Market</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mary Mother of the Church </t>
-  </si>
-  <si>
     <t>monday</t>
   </si>
   <si>
@@ -2865,27 +2547,6 @@
     <t>sunday</t>
   </si>
   <si>
-    <t>M:11am-6:30pm</t>
-  </si>
-  <si>
-    <t>W:11am-6:30pm</t>
-  </si>
-  <si>
-    <t>TH:11am-6:30pm</t>
-  </si>
-  <si>
-    <t>F:11am-6:30pm</t>
-  </si>
-  <si>
-    <t>SA:11am-6:30pm</t>
-  </si>
-  <si>
-    <t>SU:11am-6:30pm</t>
-  </si>
-  <si>
-    <t>TU:11am-6:30pm</t>
-  </si>
-  <si>
     <t xml:space="preserve">SU: 6am-1pm </t>
   </si>
   <si>
@@ -2907,12 +2568,6 @@
     <t xml:space="preserve">M: 6am-1pm </t>
   </si>
   <si>
-    <t>SU: 6:30am-1:30pm</t>
-  </si>
-  <si>
-    <t>SA: 6:30am-1:30pm</t>
-  </si>
-  <si>
     <t>SA: 8 am to 12 pm</t>
   </si>
   <si>
@@ -2940,9 +2595,6 @@
     <t>TH: 12 pm to 5 pm</t>
   </si>
   <si>
-    <t>M: 8 am to 1 pm</t>
-  </si>
-  <si>
     <t>TH: 10 am to 1:30 pm</t>
   </si>
   <si>
@@ -2961,9 +2613,6 @@
     <t>F: 2 to 6:30 pm</t>
   </si>
   <si>
-    <t>Monticello Public Library</t>
-  </si>
-  <si>
     <t>TH: 3:30 to 7 pm</t>
   </si>
   <si>
@@ -2976,30 +2625,15 @@
     <t>TU: 3 to 7 pm</t>
   </si>
   <si>
-    <t>Corpus Christi Catholic Church</t>
-  </si>
-  <si>
     <t>TU: 8 am to 12 pm</t>
   </si>
   <si>
-    <t>Aldrich Arena</t>
-  </si>
-  <si>
     <t>W: 8 am to 12 pm</t>
   </si>
   <si>
-    <t>M: 9 am to 1 pm</t>
-  </si>
-  <si>
     <t>SU: 9 am to 1 pm</t>
   </si>
   <si>
-    <t>Hennepin County Government Center</t>
-  </si>
-  <si>
-    <t>TH: 6 am to 6 pm</t>
-  </si>
-  <si>
     <t>SA: 8:30 am-1 pm</t>
   </si>
   <si>
@@ -3036,9 +2670,6 @@
     <t>Opens mid-July</t>
   </si>
   <si>
-    <t>http://anokacounty.us</t>
-  </si>
-  <si>
     <t>Eagan Market Fest</t>
   </si>
   <si>
@@ -3087,24 +2718,12 @@
     <t>White Bear Lake</t>
   </si>
   <si>
-    <t>http://whitebearlake.org</t>
-  </si>
-  <si>
-    <t>http://ci.farmington.mn.us</t>
-  </si>
-  <si>
-    <t>http://cityofeagan.com</t>
-  </si>
-  <si>
     <t>651-747-3650</t>
   </si>
   <si>
     <t>SA: 7 am to 12 pm</t>
   </si>
   <si>
-    <t>June 7-Aug. 30</t>
-  </si>
-  <si>
     <t>June 8-Oct. 12</t>
   </si>
   <si>
@@ -3129,9 +2748,6 @@
     <t xml:space="preserve">Anoka County Farmers Market (Columbia Heights) </t>
   </si>
   <si>
-    <t>next Sunday VeteranÕs Memorial Community Center</t>
-  </si>
-  <si>
     <t>http://www.farmersmarketonline.com/fm/CapellaTowerFarmersMarket.html</t>
   </si>
   <si>
@@ -3139,13 +2755,235 @@
   </si>
   <si>
     <t>http://www.discoverosseo.com/event/farmers-market/</t>
+  </si>
+  <si>
+    <t>June 22-Sept. 28</t>
+  </si>
+  <si>
+    <t>Ends Oct. 31</t>
+  </si>
+  <si>
+    <t>Mid-July through the fall</t>
+  </si>
+  <si>
+    <t>https://www.anokacounty.us/DocumentCenter/View/10182</t>
+  </si>
+  <si>
+    <t>Open through the fall</t>
+  </si>
+  <si>
+    <t>June 10-Oct. 28</t>
+  </si>
+  <si>
+    <t>June 10-Oct. 21</t>
+  </si>
+  <si>
+    <t>June 21-Oct. 11</t>
+  </si>
+  <si>
+    <t>Ends Oct. 28</t>
+  </si>
+  <si>
+    <t>BURNSVILLE (MARY, MOTHER OF THE CHURCH)</t>
+  </si>
+  <si>
+    <t>Ends Oct 26</t>
+  </si>
+  <si>
+    <t>June 17-Oct. 28</t>
+  </si>
+  <si>
+    <t>June 15-Sept. 28</t>
+  </si>
+  <si>
+    <t>Champlin Farmers Market</t>
+  </si>
+  <si>
+    <t>July 12-Oct. 11</t>
+  </si>
+  <si>
+    <t>http://ci.champlin.mn.us/event/farmers-market-opening-day/</t>
+  </si>
+  <si>
+    <t>May 19-Oct. 20</t>
+  </si>
+  <si>
+    <t>June 22-Sept. 7</t>
+  </si>
+  <si>
+    <t>DAYTON FARMERS MARKET</t>
+  </si>
+  <si>
+    <t>July 7-Sept. 29</t>
+  </si>
+  <si>
+    <t>June 7-Sept. 27</t>
+  </si>
+  <si>
+    <t>http://www.cityofeagan.com/marketfest</t>
+  </si>
+  <si>
+    <t>June 8-Oct. 5</t>
+  </si>
+  <si>
+    <t>Ends Oct. 17</t>
+  </si>
+  <si>
+    <t>http://www.ci.farmington.mn.us/cms/One.aspx?portalId=745759&amp;pageId=4311866</t>
+  </si>
+  <si>
+    <t>May 20-Oct. 28</t>
+  </si>
+  <si>
+    <t>June 18-Oct. 1</t>
+  </si>
+  <si>
+    <t>Jun 17-Oct. 21 | Faith Community Church Hudson</t>
+  </si>
+  <si>
+    <t>SU: 8 a.m. to 1 p.m.</t>
+  </si>
+  <si>
+    <t>June 18-Oct. 8</t>
+  </si>
+  <si>
+    <t>May 21-Oct. 29</t>
+  </si>
+  <si>
+    <t>http://stpaulfarmersmarket.com/members/locations/lakeville-saturday</t>
+  </si>
+  <si>
+    <t>May 21-Oct. 31</t>
+  </si>
+  <si>
+    <t>http://www.mplsfarmersmarket.com/FreshNews/</t>
+  </si>
+  <si>
+    <t>Ends Nov. 19</t>
+  </si>
+  <si>
+    <t>June 8-Oct. 19</t>
+  </si>
+  <si>
+    <t>May 10-Oct. 25</t>
+  </si>
+  <si>
+    <t>Ends Nov. 9</t>
+  </si>
+  <si>
+    <t>June 13-Sept. 26</t>
+  </si>
+  <si>
+    <t>May 11-Oct. 19</t>
+  </si>
+  <si>
+    <t>May 20-Oct. 7</t>
+  </si>
+  <si>
+    <t>SA 8 am-12:30 pm</t>
+  </si>
+  <si>
+    <t>June 17-Oct. 7</t>
+  </si>
+  <si>
+    <t>SA 7 am-12 pm</t>
+  </si>
+  <si>
+    <t>June 14-Sept. 27</t>
+  </si>
+  <si>
+    <t>May 20-Oct. 21</t>
+  </si>
+  <si>
+    <t>June 3-Oct. 21</t>
+  </si>
+  <si>
+    <t>Northfield Riverwalk Market Fair</t>
+  </si>
+  <si>
+    <t>http://www.ci.oakdale.mn.us/index.asp?Type=B_BASIC&amp;SEC=%7B10750054-AD05-4F42-AD46-9CDBFA0E031E%7D</t>
+  </si>
+  <si>
+    <t> June 7-Oct. 4</t>
+  </si>
+  <si>
+    <t>July 11-Sept. 26</t>
+  </si>
+  <si>
+    <t>June 28-Oct. 11</t>
+  </si>
+  <si>
+    <t>Rochester Downtown Farmers Market</t>
+  </si>
+  <si>
+    <t>June 2-Oct. 13</t>
+  </si>
+  <si>
+    <t>June 14-Oct. 4</t>
+  </si>
+  <si>
+    <t>Ends Oct 31</t>
+  </si>
+  <si>
+    <t> June 4-Oct. 29</t>
+  </si>
+  <si>
+    <t>June 6-Sept. 12</t>
+  </si>
+  <si>
+    <t>http://stpaulfarmersmarket.com/members/locations/south-saint-paul</t>
+  </si>
+  <si>
+    <t>http://stpaulfarmersmarket.com/members/locations/st-paul-farmers-market-downtown</t>
+  </si>
+  <si>
+    <t>Ends Oct. 27</t>
+  </si>
+  <si>
+    <t>July 12-Sept. 27</t>
+  </si>
+  <si>
+    <t>June 21-Sept. 27</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Wayzata-Farmers-Market-1381104138871588/</t>
+  </si>
+  <si>
+    <t>TH: 1:30-5:30pm</t>
+  </si>
+  <si>
+    <t>May 18-Oct. 26</t>
+  </si>
+  <si>
+    <t>June 9-Oct. 6</t>
+  </si>
+  <si>
+    <t>June 16-Oct. 27</t>
+  </si>
+  <si>
+    <t>http://www.whitebearlake.org/index.asp?Type=B_BASIC&amp;SEC=%7B84E936B8-30D6-4CD3-9E85-722023A7FB6D%7D</t>
+  </si>
+  <si>
+    <t>June 24-Sept. 30</t>
+  </si>
+  <si>
+    <t>June 11-Oct. 29</t>
+  </si>
+  <si>
+    <t>June 6-Oct. 13</t>
+  </si>
+  <si>
+    <t>St. Paul Farmers Market 7th Place Mall</t>
+  </si>
+  <si>
+    <t>June 13-Oct. 12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3180,6 +3018,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF1F497D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF1F497D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Poynter Serif RE"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3557,7 +3428,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3565,6 +3436,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="357">
@@ -5547,7 +5423,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="10" t="s">
         <v>70</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -5555,73 +5431,73 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="5"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="3" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="5"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="3" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="5"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="2" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="5"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="3" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="5"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="3" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="5"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="2" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="5"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="3" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="5"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="3" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="5"/>
+      <c r="A24" s="10"/>
       <c r="B24" s="2" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="5"/>
+      <c r="A25" s="10"/>
       <c r="B25" s="3" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="5"/>
+      <c r="A26" s="10"/>
       <c r="B26" s="3" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="10" t="s">
         <v>81</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -5629,73 +5505,73 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="5"/>
+      <c r="A28" s="10"/>
       <c r="B28" s="3" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="5"/>
+      <c r="A29" s="10"/>
       <c r="B29" s="3" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="5"/>
+      <c r="A30" s="10"/>
       <c r="B30" s="2" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="5"/>
+      <c r="A31" s="10"/>
       <c r="B31" s="3" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="5"/>
+      <c r="A32" s="10"/>
       <c r="B32" s="3" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="5"/>
+      <c r="A33" s="10"/>
       <c r="B33" s="2" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="5"/>
+      <c r="A34" s="10"/>
       <c r="B34" s="3" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="5"/>
+      <c r="A35" s="10"/>
       <c r="B35" s="3" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="5"/>
+      <c r="A36" s="10"/>
       <c r="B36" s="2" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="5"/>
+      <c r="A37" s="10"/>
       <c r="B37" s="3" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="5"/>
+      <c r="A38" s="10"/>
       <c r="B38" s="3" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -5703,55 +5579,55 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="5"/>
+      <c r="A40" s="10"/>
       <c r="B40" s="3" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="5"/>
+      <c r="A41" s="10"/>
       <c r="B41" s="3" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="5"/>
+      <c r="A42" s="10"/>
       <c r="B42" s="2" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="5"/>
+      <c r="A43" s="10"/>
       <c r="B43" s="3" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="5"/>
+      <c r="A44" s="10"/>
       <c r="B44" s="3" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="5"/>
+      <c r="A45" s="10"/>
       <c r="B45" s="2" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="5"/>
+      <c r="A46" s="10"/>
       <c r="B46" s="3" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="5"/>
+      <c r="A47" s="10"/>
       <c r="B47" s="3" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -5759,37 +5635,37 @@
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="5"/>
+      <c r="A49" s="10"/>
       <c r="B49" s="3" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="5"/>
+      <c r="A50" s="10"/>
       <c r="B50" s="3" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="5"/>
+      <c r="A51" s="10"/>
       <c r="B51" s="2" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="5"/>
+      <c r="A52" s="10"/>
       <c r="B52" s="3" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="5"/>
+      <c r="A53" s="10"/>
       <c r="B53" s="3" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="10" t="s">
         <v>60</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -5797,85 +5673,85 @@
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="5"/>
+      <c r="A55" s="10"/>
       <c r="B55" s="3" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="5"/>
+      <c r="A56" s="10"/>
       <c r="B56" s="3" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="5"/>
+      <c r="A57" s="10"/>
       <c r="B57" s="2" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="5"/>
+      <c r="A58" s="10"/>
       <c r="B58" s="3" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="5"/>
+      <c r="A59" s="10"/>
       <c r="B59" s="3" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="5"/>
+      <c r="A60" s="10"/>
       <c r="B60" s="2" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="5"/>
+      <c r="A61" s="10"/>
       <c r="B61" s="3" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="5"/>
+      <c r="A62" s="10"/>
       <c r="B62" s="3" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="5"/>
+      <c r="A63" s="10"/>
       <c r="B63" s="2" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="5"/>
+      <c r="A64" s="10"/>
       <c r="B64" s="3" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="5"/>
+      <c r="A65" s="10"/>
       <c r="B65" s="3" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="5"/>
+      <c r="A66" s="10"/>
       <c r="B66" s="2" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="5"/>
+      <c r="A67" s="10"/>
       <c r="B67" s="3" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="5"/>
+      <c r="A68" s="10"/>
       <c r="B68" s="3" t="s">
         <v>299</v>
       </c>
@@ -5923,10 +5799,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y86"/>
+  <dimension ref="A1:Y72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5943,76 +5819,76 @@
         <v>301</v>
       </c>
       <c r="C1" t="s">
-        <v>634</v>
+        <v>532</v>
       </c>
       <c r="D1" t="s">
-        <v>622</v>
+        <v>520</v>
       </c>
       <c r="E1" t="s">
-        <v>623</v>
+        <v>521</v>
       </c>
       <c r="F1" t="s">
-        <v>624</v>
+        <v>522</v>
       </c>
       <c r="G1" t="s">
-        <v>625</v>
+        <v>523</v>
       </c>
       <c r="H1" t="s">
-        <v>626</v>
+        <v>524</v>
       </c>
       <c r="I1" t="s">
-        <v>627</v>
+        <v>525</v>
       </c>
       <c r="J1" t="s">
-        <v>628</v>
+        <v>526</v>
       </c>
       <c r="K1" t="s">
-        <v>629</v>
+        <v>527</v>
       </c>
       <c r="L1" t="s">
-        <v>924</v>
+        <v>818</v>
       </c>
       <c r="M1" t="s">
-        <v>925</v>
+        <v>819</v>
       </c>
       <c r="N1" t="s">
-        <v>926</v>
+        <v>820</v>
       </c>
       <c r="O1" t="s">
-        <v>927</v>
+        <v>821</v>
       </c>
       <c r="P1" t="s">
-        <v>928</v>
+        <v>822</v>
       </c>
       <c r="Q1" t="s">
-        <v>929</v>
+        <v>823</v>
       </c>
       <c r="R1" t="s">
-        <v>930</v>
+        <v>824</v>
       </c>
       <c r="S1" t="s">
-        <v>630</v>
+        <v>528</v>
       </c>
       <c r="T1" t="s">
-        <v>632</v>
+        <v>530</v>
       </c>
       <c r="U1" t="s">
-        <v>631</v>
+        <v>529</v>
       </c>
       <c r="V1" t="s">
-        <v>633</v>
+        <v>531</v>
       </c>
       <c r="W1" t="s">
-        <v>635</v>
+        <v>533</v>
       </c>
       <c r="X1" t="s">
-        <v>636</v>
+        <v>534</v>
       </c>
       <c r="Y1" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="20">
       <c r="A2">
         <v>-93.232900000000001</v>
       </c>
@@ -6023,31 +5899,34 @@
         <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>1017</v>
+        <v>890</v>
       </c>
       <c r="E2" t="s">
-        <v>998</v>
+        <v>875</v>
       </c>
       <c r="F2" t="s">
-        <v>999</v>
+        <v>876</v>
       </c>
       <c r="G2">
         <v>55434</v>
       </c>
-      <c r="H2" t="s">
-        <v>988</v>
+      <c r="H2" s="2" t="s">
+        <v>898</v>
       </c>
       <c r="I2" t="s">
-        <v>986</v>
+        <v>864</v>
       </c>
       <c r="K2" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="Q2" t="s">
-        <v>1009</v>
+        <v>883</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>899</v>
       </c>
       <c r="V2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W2">
         <v>60</v>
@@ -6067,34 +5946,34 @@
         <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>1018</v>
+        <v>891</v>
       </c>
       <c r="E3" t="s">
-        <v>997</v>
+        <v>874</v>
       </c>
       <c r="F3" t="s">
-        <v>1000</v>
+        <v>877</v>
       </c>
       <c r="G3">
         <v>55421</v>
       </c>
-      <c r="H3" t="s">
-        <v>988</v>
+      <c r="H3" s="2" t="s">
+        <v>898</v>
       </c>
       <c r="I3" t="s">
-        <v>986</v>
+        <v>864</v>
       </c>
       <c r="K3" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="L3" t="s">
-        <v>1014</v>
+        <v>887</v>
       </c>
       <c r="U3" t="s">
-        <v>987</v>
+        <v>865</v>
       </c>
       <c r="V3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W3">
         <v>60</v>
@@ -6114,34 +5993,37 @@
         <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>687</v>
+        <v>585</v>
       </c>
       <c r="E4" t="s">
-        <v>905</v>
+        <v>802</v>
       </c>
       <c r="F4" t="s">
-        <v>775</v>
+        <v>673</v>
       </c>
       <c r="G4">
         <v>55001</v>
       </c>
       <c r="H4" t="s">
-        <v>856</v>
+        <v>754</v>
       </c>
       <c r="I4" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="K4" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="O4" t="s">
-        <v>980</v>
+        <v>858</v>
       </c>
       <c r="S4" t="s">
-        <v>330</v>
+        <v>327</v>
+      </c>
+      <c r="U4" t="s">
+        <v>895</v>
       </c>
       <c r="V4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W4">
         <v>60</v>
@@ -6150,7 +6032,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" ht="20">
       <c r="A5">
         <v>-93.356430000000003</v>
       </c>
@@ -6161,10 +6043,10 @@
         <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>638</v>
+        <v>536</v>
       </c>
       <c r="E5" t="s">
-        <v>917</v>
+        <v>813</v>
       </c>
       <c r="F5" t="s">
         <v>256</v>
@@ -6173,25 +6055,25 @@
         <v>55304</v>
       </c>
       <c r="H5" t="s">
-        <v>882</v>
+        <v>780</v>
       </c>
       <c r="I5" t="s">
-        <v>690</v>
+        <v>588</v>
       </c>
       <c r="K5" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="M5" t="s">
-        <v>965</v>
+        <v>848</v>
       </c>
       <c r="S5" t="s">
-        <v>330</v>
-      </c>
-      <c r="U5" t="s">
-        <v>639</v>
+        <v>327</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>896</v>
       </c>
       <c r="V5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W5">
         <v>60</v>
@@ -6200,7 +6082,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" ht="20">
       <c r="A6">
         <v>-93.383949999999999</v>
       </c>
@@ -6211,34 +6093,34 @@
         <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>982</v>
+        <v>860</v>
       </c>
       <c r="E6" t="s">
-        <v>984</v>
+        <v>862</v>
       </c>
       <c r="F6" t="s">
-        <v>985</v>
+        <v>863</v>
       </c>
       <c r="G6">
         <v>55303</v>
       </c>
-      <c r="H6" t="s">
-        <v>988</v>
+      <c r="H6" s="2" t="s">
+        <v>898</v>
       </c>
       <c r="I6" t="s">
-        <v>986</v>
+        <v>864</v>
       </c>
       <c r="K6" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="L6" t="s">
-        <v>983</v>
-      </c>
-      <c r="U6" t="s">
-        <v>987</v>
+        <v>861</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>897</v>
       </c>
       <c r="V6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W6">
         <v>60</v>
@@ -6247,7 +6129,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" ht="20">
       <c r="A7">
         <v>-93.208690000000004</v>
       </c>
@@ -6258,10 +6140,10 @@
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>673</v>
+        <v>571</v>
       </c>
       <c r="E7" t="s">
-        <v>902</v>
+        <v>799</v>
       </c>
       <c r="F7" t="s">
         <v>292</v>
@@ -6270,25 +6152,25 @@
         <v>55124</v>
       </c>
       <c r="H7" t="s">
-        <v>848</v>
+        <v>746</v>
       </c>
       <c r="I7" t="s">
-        <v>690</v>
+        <v>588</v>
       </c>
       <c r="K7" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="Q7" t="s">
-        <v>952</v>
+        <v>837</v>
       </c>
       <c r="S7" t="s">
-        <v>330</v>
-      </c>
-      <c r="U7" t="s">
-        <v>674</v>
+        <v>327</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>900</v>
       </c>
       <c r="V7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W7">
         <v>60</v>
@@ -6297,7 +6179,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" ht="20">
       <c r="A8">
         <v>-93.301375530000001</v>
       </c>
@@ -6340,11 +6222,11 @@
       <c r="T8" t="s">
         <v>311</v>
       </c>
-      <c r="U8" t="s">
+      <c r="U8" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="V8" t="s">
         <v>312</v>
-      </c>
-      <c r="V8" t="s">
-        <v>313</v>
       </c>
       <c r="W8">
         <v>60</v>
@@ -6353,7 +6235,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" ht="20">
       <c r="A9">
         <v>-93.357500619999996</v>
       </c>
@@ -6364,40 +6246,43 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
+        <v>313</v>
+      </c>
+      <c r="E9" t="s">
         <v>314</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>315</v>
-      </c>
-      <c r="F9" t="s">
-        <v>316</v>
       </c>
       <c r="G9">
         <v>55443</v>
       </c>
       <c r="H9" t="s">
+        <v>316</v>
+      </c>
+      <c r="I9" t="s">
         <v>317</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>318</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>319</v>
       </c>
-      <c r="K9" t="s">
+      <c r="N9" t="s">
         <v>320</v>
       </c>
-      <c r="N9" t="s">
+      <c r="S9" t="s">
         <v>321</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>322</v>
       </c>
-      <c r="T9" t="s">
-        <v>323</v>
+      <c r="U9" s="5" t="s">
+        <v>902</v>
       </c>
       <c r="V9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W9">
         <v>60</v>
@@ -6406,7 +6291,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" ht="20">
       <c r="A10">
         <v>-93.874388999999994</v>
       </c>
@@ -6417,34 +6302,37 @@
         <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>647</v>
+        <v>545</v>
       </c>
       <c r="E10" t="s">
-        <v>897</v>
+        <v>794</v>
       </c>
       <c r="F10" t="s">
-        <v>648</v>
+        <v>546</v>
       </c>
       <c r="G10">
         <v>55313</v>
       </c>
       <c r="H10" t="s">
-        <v>842</v>
+        <v>740</v>
       </c>
       <c r="I10" t="s">
-        <v>720</v>
+        <v>618</v>
       </c>
       <c r="K10" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="Q10" t="s">
-        <v>947</v>
+        <v>832</v>
       </c>
       <c r="S10" t="s">
-        <v>330</v>
+        <v>327</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>903</v>
       </c>
       <c r="V10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W10">
         <v>60</v>
@@ -6453,7 +6341,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" ht="20">
       <c r="A11">
         <v>-93.281549999999996</v>
       </c>
@@ -6464,34 +6352,37 @@
         <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>640</v>
+        <v>538</v>
       </c>
       <c r="E11" t="s">
-        <v>767</v>
+        <v>665</v>
       </c>
       <c r="F11" t="s">
-        <v>781</v>
+        <v>679</v>
       </c>
       <c r="G11">
         <v>55337</v>
       </c>
       <c r="H11" t="s">
-        <v>850</v>
+        <v>748</v>
       </c>
       <c r="I11" t="s">
-        <v>690</v>
+        <v>588</v>
       </c>
       <c r="K11" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="Q11" t="s">
-        <v>952</v>
+        <v>837</v>
       </c>
       <c r="S11" t="s">
-        <v>330</v>
+        <v>327</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>906</v>
       </c>
       <c r="V11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W11">
         <v>60</v>
@@ -6500,7 +6391,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" ht="20">
       <c r="A12">
         <v>-93.230577999999994</v>
       </c>
@@ -6510,38 +6401,38 @@
       <c r="C12">
         <v>54</v>
       </c>
-      <c r="D12" t="s">
-        <v>640</v>
+      <c r="D12" s="5" t="s">
+        <v>904</v>
       </c>
       <c r="E12" t="s">
-        <v>704</v>
+        <v>602</v>
       </c>
       <c r="F12" t="s">
-        <v>781</v>
+        <v>679</v>
       </c>
       <c r="G12">
         <v>55337</v>
       </c>
       <c r="H12" t="s">
-        <v>852</v>
+        <v>750</v>
       </c>
       <c r="I12" t="s">
-        <v>690</v>
+        <v>588</v>
       </c>
       <c r="K12" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="O12" t="s">
-        <v>955</v>
+        <v>840</v>
       </c>
       <c r="S12" t="s">
-        <v>330</v>
-      </c>
-      <c r="U12" t="s">
-        <v>923</v>
+        <v>327</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>905</v>
       </c>
       <c r="V12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W12">
         <v>60</v>
@@ -6552,49 +6443,46 @@
     </row>
     <row r="13" spans="1:25">
       <c r="A13">
-        <v>-93.309414050000001</v>
+        <v>-93.268997639999995</v>
       </c>
       <c r="B13">
-        <v>45.03584524</v>
+        <v>44.97524739</v>
       </c>
       <c r="C13">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>510</v>
       </c>
       <c r="F13" t="s">
         <v>97</v>
       </c>
       <c r="G13">
-        <v>55412</v>
+        <v>55402</v>
       </c>
       <c r="H13" t="s">
-        <v>547</v>
+        <v>892</v>
       </c>
       <c r="I13" t="s">
-        <v>548</v>
-      </c>
-      <c r="J13" t="s">
-        <v>549</v>
+        <v>511</v>
       </c>
       <c r="K13" t="s">
-        <v>550</v>
-      </c>
-      <c r="O13" t="s">
-        <v>551</v>
+        <v>512</v>
+      </c>
+      <c r="N13" t="s">
+        <v>432</v>
       </c>
       <c r="S13" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="T13" t="s">
-        <v>552</v>
+        <v>513</v>
       </c>
       <c r="V13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W13">
         <v>60</v>
@@ -6603,48 +6491,54 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" ht="20">
       <c r="A14">
-        <v>-93.268997639999995</v>
+        <v>-93.32613551</v>
       </c>
       <c r="B14">
-        <v>44.97524739</v>
+        <v>44.866969949999998</v>
       </c>
       <c r="C14">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>100</v>
+        <v>434</v>
       </c>
       <c r="E14" t="s">
-        <v>597</v>
+        <v>435</v>
       </c>
       <c r="F14" t="s">
-        <v>97</v>
+        <v>436</v>
       </c>
       <c r="G14">
-        <v>55402</v>
+        <v>55435</v>
       </c>
       <c r="H14" t="s">
-        <v>1020</v>
+        <v>437</v>
       </c>
       <c r="I14" t="s">
-        <v>598</v>
+        <v>438</v>
+      </c>
+      <c r="J14" t="s">
+        <v>439</v>
       </c>
       <c r="K14" t="s">
-        <v>599</v>
-      </c>
-      <c r="N14" t="s">
-        <v>459</v>
+        <v>440</v>
+      </c>
+      <c r="O14" t="s">
+        <v>360</v>
       </c>
       <c r="S14" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="T14" t="s">
-        <v>600</v>
+        <v>441</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>907</v>
       </c>
       <c r="V14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W14">
         <v>60</v>
@@ -6653,51 +6547,54 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" ht="20">
       <c r="A15">
-        <v>-93.32613551</v>
+        <v>-93.395536980000003</v>
       </c>
       <c r="B15">
-        <v>44.866969949999998</v>
+        <v>45.174178730000001</v>
       </c>
       <c r="C15">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>462</v>
+        <v>908</v>
       </c>
       <c r="E15" t="s">
-        <v>463</v>
+        <v>786</v>
       </c>
       <c r="F15" t="s">
-        <v>464</v>
+        <v>323</v>
       </c>
       <c r="G15">
-        <v>55435</v>
-      </c>
-      <c r="H15" t="s">
-        <v>465</v>
+        <v>55316</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>910</v>
       </c>
       <c r="I15" t="s">
-        <v>466</v>
+        <v>324</v>
       </c>
       <c r="J15" t="s">
-        <v>467</v>
+        <v>318</v>
       </c>
       <c r="K15" t="s">
-        <v>468</v>
-      </c>
-      <c r="O15" t="s">
-        <v>364</v>
+        <v>325</v>
+      </c>
+      <c r="N15" t="s">
+        <v>326</v>
       </c>
       <c r="S15" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="T15" t="s">
-        <v>469</v>
+        <v>328</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>909</v>
       </c>
       <c r="V15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W15">
         <v>60</v>
@@ -6706,51 +6603,48 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" ht="20">
       <c r="A16">
-        <v>-93.395536980000003</v>
+        <v>-92.890249999999995</v>
       </c>
       <c r="B16">
-        <v>45.174178730000001</v>
+        <v>45.372700000000002</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>324</v>
+        <v>553</v>
       </c>
       <c r="E16" t="s">
-        <v>888</v>
+        <v>815</v>
       </c>
       <c r="F16" t="s">
-        <v>325</v>
+        <v>630</v>
       </c>
       <c r="G16">
-        <v>55316</v>
+        <v>55013</v>
       </c>
       <c r="H16" t="s">
-        <v>326</v>
+        <v>782</v>
       </c>
       <c r="I16" t="s">
+        <v>379</v>
+      </c>
+      <c r="K16" t="s">
+        <v>379</v>
+      </c>
+      <c r="P16" t="s">
+        <v>846</v>
+      </c>
+      <c r="S16" t="s">
         <v>327</v>
       </c>
-      <c r="J16" t="s">
-        <v>319</v>
-      </c>
-      <c r="K16" t="s">
-        <v>328</v>
-      </c>
-      <c r="N16" t="s">
-        <v>329</v>
-      </c>
-      <c r="S16" t="s">
-        <v>330</v>
-      </c>
-      <c r="T16" t="s">
-        <v>331</v>
+      <c r="U16" s="5" t="s">
+        <v>911</v>
       </c>
       <c r="V16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W16">
         <v>60</v>
@@ -6759,48 +6653,48 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" ht="20">
       <c r="A17">
-        <v>-92.890249999999995</v>
+        <v>-93.144052130000006</v>
       </c>
       <c r="B17">
-        <v>45.372700000000002</v>
+        <v>44.983633040000001</v>
       </c>
       <c r="C17">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>655</v>
+        <v>584</v>
       </c>
       <c r="E17" t="s">
-        <v>919</v>
+        <v>808</v>
       </c>
       <c r="F17" t="s">
-        <v>732</v>
+        <v>541</v>
       </c>
       <c r="G17">
-        <v>55013</v>
+        <v>55103</v>
       </c>
       <c r="H17" t="s">
-        <v>884</v>
+        <v>769</v>
       </c>
       <c r="I17" t="s">
-        <v>393</v>
+        <v>588</v>
       </c>
       <c r="K17" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="P17" t="s">
-        <v>962</v>
+        <v>843</v>
       </c>
       <c r="S17" t="s">
-        <v>330</v>
-      </c>
-      <c r="U17" t="s">
-        <v>656</v>
+        <v>327</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>912</v>
       </c>
       <c r="V17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W17">
         <v>60</v>
@@ -6809,45 +6703,54 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" ht="20">
       <c r="A18">
-        <v>-93.144052130000006</v>
+        <v>-93.425967</v>
       </c>
       <c r="B18">
-        <v>44.983633040000001</v>
+        <v>45.202330000000003</v>
       </c>
       <c r="C18">
-        <v>67</v>
-      </c>
-      <c r="D18" t="s">
-        <v>686</v>
+        <v>36</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>913</v>
       </c>
       <c r="E18" t="s">
-        <v>912</v>
+        <v>893</v>
       </c>
       <c r="F18" t="s">
-        <v>643</v>
+        <v>497</v>
       </c>
       <c r="G18">
-        <v>55103</v>
-      </c>
-      <c r="H18" t="s">
-        <v>871</v>
+        <v>55327</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>498</v>
       </c>
       <c r="I18" t="s">
-        <v>690</v>
+        <v>499</v>
+      </c>
+      <c r="J18" t="s">
+        <v>500</v>
       </c>
       <c r="K18" t="s">
-        <v>393</v>
+        <v>501</v>
       </c>
       <c r="P18" t="s">
-        <v>959</v>
+        <v>502</v>
       </c>
       <c r="S18" t="s">
-        <v>330</v>
+        <v>503</v>
+      </c>
+      <c r="T18" t="s">
+        <v>460</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>914</v>
       </c>
       <c r="V18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W18">
         <v>60</v>
@@ -6858,49 +6761,46 @@
     </row>
     <row r="19" spans="1:24">
       <c r="A19">
-        <v>-93.425967</v>
+        <v>-93.260828880000005</v>
       </c>
       <c r="B19">
-        <v>45.202330000000003</v>
+        <v>44.978882470000002</v>
       </c>
       <c r="C19">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>568</v>
+        <v>514</v>
       </c>
       <c r="E19" t="s">
-        <v>1021</v>
+        <v>515</v>
       </c>
       <c r="F19" t="s">
-        <v>569</v>
+        <v>97</v>
       </c>
       <c r="G19">
-        <v>55327</v>
+        <v>55401</v>
       </c>
       <c r="H19" t="s">
-        <v>570</v>
+        <v>379</v>
       </c>
       <c r="I19" t="s">
-        <v>571</v>
-      </c>
-      <c r="J19" t="s">
-        <v>572</v>
+        <v>516</v>
       </c>
       <c r="K19" t="s">
-        <v>573</v>
-      </c>
-      <c r="P19" t="s">
-        <v>574</v>
+        <v>517</v>
+      </c>
+      <c r="M19" t="s">
+        <v>518</v>
       </c>
       <c r="S19" t="s">
-        <v>575</v>
+        <v>335</v>
       </c>
       <c r="T19" t="s">
-        <v>488</v>
+        <v>519</v>
       </c>
       <c r="V19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W19">
         <v>60</v>
@@ -6909,48 +6809,45 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" ht="20">
       <c r="A20">
-        <v>-93.260828880000005</v>
+        <v>-93.172629999999998</v>
       </c>
       <c r="B20">
-        <v>44.978882470000002</v>
+        <v>44.83963</v>
       </c>
       <c r="C20">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="D20" t="s">
-        <v>616</v>
+        <v>866</v>
       </c>
       <c r="E20" t="s">
-        <v>617</v>
+        <v>873</v>
       </c>
       <c r="F20" t="s">
-        <v>97</v>
+        <v>878</v>
       </c>
       <c r="G20">
-        <v>55401</v>
-      </c>
-      <c r="H20" t="s">
-        <v>393</v>
+        <v>55121</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>916</v>
       </c>
       <c r="I20" t="s">
-        <v>618</v>
+        <v>379</v>
       </c>
       <c r="K20" t="s">
-        <v>619</v>
-      </c>
-      <c r="M20" t="s">
-        <v>620</v>
-      </c>
-      <c r="S20" t="s">
-        <v>338</v>
-      </c>
-      <c r="T20" t="s">
-        <v>621</v>
+        <v>379</v>
+      </c>
+      <c r="N20" t="s">
+        <v>888</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>915</v>
       </c>
       <c r="V20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W20">
         <v>60</v>
@@ -6959,45 +6856,48 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:24" ht="20">
       <c r="A21">
-        <v>-93.172629999999998</v>
+        <v>-93.577804</v>
       </c>
       <c r="B21">
-        <v>44.83963</v>
+        <v>45.305881999999997</v>
       </c>
       <c r="C21">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>989</v>
+        <v>569</v>
       </c>
       <c r="E21" t="s">
-        <v>996</v>
+        <v>696</v>
       </c>
       <c r="F21" t="s">
-        <v>1001</v>
+        <v>697</v>
       </c>
       <c r="G21">
-        <v>55121</v>
+        <v>55330</v>
       </c>
       <c r="H21" t="s">
-        <v>1007</v>
+        <v>785</v>
       </c>
       <c r="I21" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="K21" t="s">
-        <v>393</v>
-      </c>
-      <c r="N21" t="s">
-        <v>1015</v>
-      </c>
-      <c r="U21" t="s">
-        <v>1010</v>
+        <v>379</v>
+      </c>
+      <c r="O21" t="s">
+        <v>843</v>
+      </c>
+      <c r="S21" t="s">
+        <v>327</v>
+      </c>
+      <c r="U21" s="5" t="s">
+        <v>917</v>
       </c>
       <c r="V21" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W21">
         <v>60</v>
@@ -7006,48 +6906,54 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:24" ht="20">
       <c r="A22">
-        <v>-93.577804</v>
+        <v>-93.566922980000001</v>
       </c>
       <c r="B22">
-        <v>45.305881999999997</v>
+        <v>44.902810700000003</v>
       </c>
       <c r="C22">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>671</v>
+        <v>329</v>
       </c>
       <c r="E22" t="s">
-        <v>798</v>
+        <v>787</v>
       </c>
       <c r="F22" t="s">
-        <v>799</v>
+        <v>330</v>
       </c>
       <c r="G22">
-        <v>55330</v>
+        <v>55331</v>
       </c>
       <c r="H22" t="s">
-        <v>887</v>
+        <v>331</v>
       </c>
       <c r="I22" t="s">
-        <v>393</v>
+        <v>332</v>
+      </c>
+      <c r="J22" t="s">
+        <v>307</v>
       </c>
       <c r="K22" t="s">
-        <v>393</v>
-      </c>
-      <c r="O22" t="s">
-        <v>959</v>
+        <v>333</v>
+      </c>
+      <c r="M22" t="s">
+        <v>334</v>
       </c>
       <c r="S22" t="s">
-        <v>330</v>
-      </c>
-      <c r="U22" t="s">
-        <v>798</v>
+        <v>335</v>
+      </c>
+      <c r="T22" t="s">
+        <v>336</v>
+      </c>
+      <c r="U22" s="6" t="s">
+        <v>918</v>
       </c>
       <c r="V22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W22">
         <v>60</v>
@@ -7058,52 +6964,43 @@
     </row>
     <row r="23" spans="1:24">
       <c r="A23">
-        <v>-93.566922980000001</v>
+        <v>-93.14864</v>
       </c>
       <c r="B23">
-        <v>44.902810700000003</v>
+        <v>44.626469999999998</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="D23" t="s">
-        <v>332</v>
+        <v>867</v>
       </c>
       <c r="E23" t="s">
+        <v>872</v>
+      </c>
+      <c r="F23" t="s">
+        <v>879</v>
+      </c>
+      <c r="G23">
+        <v>55024</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="I23" t="s">
+        <v>379</v>
+      </c>
+      <c r="K23" t="s">
+        <v>379</v>
+      </c>
+      <c r="O23" t="s">
         <v>889</v>
       </c>
-      <c r="F23" t="s">
-        <v>333</v>
-      </c>
-      <c r="G23">
-        <v>55331</v>
-      </c>
-      <c r="H23" t="s">
-        <v>334</v>
-      </c>
-      <c r="I23" t="s">
-        <v>335</v>
-      </c>
-      <c r="J23" t="s">
-        <v>307</v>
-      </c>
-      <c r="K23" t="s">
-        <v>336</v>
-      </c>
-      <c r="M23" t="s">
-        <v>337</v>
-      </c>
-      <c r="S23" t="s">
-        <v>338</v>
-      </c>
-      <c r="T23" t="s">
-        <v>339</v>
-      </c>
       <c r="U23" t="s">
-        <v>340</v>
+        <v>884</v>
       </c>
       <c r="V23" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W23">
         <v>60</v>
@@ -7112,45 +7009,54 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:24" ht="20">
       <c r="A24">
-        <v>-93.14864</v>
+        <v>-93.324966149999995</v>
       </c>
       <c r="B24">
-        <v>44.626469999999998</v>
+        <v>44.913637350000002</v>
       </c>
       <c r="C24">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>990</v>
+        <v>450</v>
       </c>
       <c r="E24" t="s">
-        <v>995</v>
+        <v>451</v>
       </c>
       <c r="F24" t="s">
-        <v>1002</v>
+        <v>97</v>
       </c>
       <c r="G24">
-        <v>55024</v>
+        <v>55409</v>
       </c>
       <c r="H24" t="s">
-        <v>1006</v>
+        <v>452</v>
       </c>
       <c r="I24" t="s">
-        <v>393</v>
+        <v>349</v>
+      </c>
+      <c r="J24" t="s">
+        <v>445</v>
       </c>
       <c r="K24" t="s">
-        <v>393</v>
-      </c>
-      <c r="O24" t="s">
-        <v>1016</v>
-      </c>
-      <c r="U24" t="s">
-        <v>1011</v>
+        <v>351</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>453</v>
+      </c>
+      <c r="S24" t="s">
+        <v>310</v>
+      </c>
+      <c r="T24" t="s">
+        <v>454</v>
+      </c>
+      <c r="U24" s="6" t="s">
+        <v>920</v>
       </c>
       <c r="V24" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W24">
         <v>60</v>
@@ -7159,69 +7065,48 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:24" ht="20">
       <c r="A25">
-        <v>-93.252119550000003</v>
+        <v>-93.378780000000006</v>
       </c>
       <c r="B25">
-        <v>44.962523910000002</v>
+        <v>44.986960000000003</v>
       </c>
       <c r="C25">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>612</v>
+        <v>581</v>
       </c>
       <c r="E25" t="s">
-        <v>613</v>
+        <v>669</v>
       </c>
       <c r="F25" t="s">
-        <v>97</v>
+        <v>479</v>
       </c>
       <c r="G25">
-        <v>55404</v>
+        <v>55427</v>
       </c>
       <c r="H25" t="s">
-        <v>614</v>
+        <v>770</v>
       </c>
       <c r="I25" t="s">
-        <v>393</v>
-      </c>
-      <c r="J25" t="s">
-        <v>593</v>
+        <v>670</v>
       </c>
       <c r="K25" t="s">
-        <v>615</v>
-      </c>
-      <c r="L25" t="s">
-        <v>476</v>
-      </c>
-      <c r="M25" t="s">
-        <v>476</v>
-      </c>
-      <c r="N25" t="s">
-        <v>476</v>
-      </c>
-      <c r="O25" t="s">
-        <v>476</v>
-      </c>
-      <c r="P25" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>476</v>
+        <v>379</v>
       </c>
       <c r="R25" t="s">
-        <v>476</v>
+        <v>853</v>
       </c>
       <c r="S25" t="s">
-        <v>338</v>
-      </c>
-      <c r="T25" t="s">
-        <v>476</v>
+        <v>327</v>
+      </c>
+      <c r="U25" s="6" t="s">
+        <v>921</v>
       </c>
       <c r="V25" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W25">
         <v>60</v>
@@ -7230,51 +7115,54 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:24" ht="19">
       <c r="A26">
-        <v>-93.324966149999995</v>
+        <v>-93.41156024</v>
       </c>
       <c r="B26">
-        <v>44.913637350000002</v>
+        <v>44.923783309999997</v>
       </c>
       <c r="C26">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>478</v>
+        <v>337</v>
       </c>
       <c r="E26" t="s">
-        <v>479</v>
+        <v>338</v>
       </c>
       <c r="F26" t="s">
-        <v>97</v>
+        <v>339</v>
       </c>
       <c r="G26">
-        <v>55409</v>
+        <v>55343</v>
       </c>
       <c r="H26" t="s">
-        <v>480</v>
+        <v>340</v>
       </c>
       <c r="I26" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="J26" t="s">
-        <v>473</v>
+        <v>342</v>
       </c>
       <c r="K26" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="Q26" t="s">
-        <v>481</v>
+        <v>344</v>
       </c>
       <c r="S26" t="s">
         <v>310</v>
       </c>
       <c r="T26" t="s">
-        <v>482</v>
+        <v>345</v>
+      </c>
+      <c r="U26" s="7" t="s">
+        <v>906</v>
       </c>
       <c r="V26" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W26">
         <v>60</v>
@@ -7285,49 +7173,46 @@
     </row>
     <row r="27" spans="1:24">
       <c r="A27">
-        <v>-93.378780000000006</v>
+        <v>-92.719909999999999</v>
       </c>
       <c r="B27">
-        <v>44.986960000000003</v>
+        <v>44.974789999999999</v>
       </c>
       <c r="C27">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D27" t="s">
-        <v>683</v>
+        <v>580</v>
       </c>
       <c r="E27" t="s">
-        <v>771</v>
+        <v>667</v>
       </c>
       <c r="F27" t="s">
-        <v>515</v>
+        <v>668</v>
       </c>
       <c r="G27">
-        <v>55427</v>
+        <v>54016</v>
       </c>
       <c r="H27" t="s">
-        <v>872</v>
+        <v>767</v>
       </c>
       <c r="I27" t="s">
-        <v>772</v>
+        <v>379</v>
       </c>
       <c r="K27" t="s">
-        <v>393</v>
-      </c>
-      <c r="L27" t="s">
-        <v>972</v>
-      </c>
-      <c r="R27" t="s">
-        <v>973</v>
+        <v>379</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>832</v>
       </c>
       <c r="S27" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="U27" t="s">
-        <v>823</v>
+        <v>922</v>
       </c>
       <c r="V27" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W27">
         <v>60</v>
@@ -7336,51 +7221,48 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:24" ht="19">
       <c r="A28">
-        <v>-93.269537729999996</v>
+        <v>-93.063100000000006</v>
       </c>
       <c r="B28">
-        <v>44.999925470000001</v>
+        <v>44.830500000000001</v>
       </c>
       <c r="C28">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
-        <v>553</v>
+        <v>582</v>
       </c>
       <c r="E28" t="s">
-        <v>895</v>
+        <v>801</v>
       </c>
       <c r="F28" t="s">
-        <v>97</v>
+        <v>247</v>
       </c>
       <c r="G28">
-        <v>55413</v>
+        <v>55077</v>
       </c>
       <c r="H28" t="s">
-        <v>554</v>
+        <v>751</v>
       </c>
       <c r="I28" t="s">
-        <v>555</v>
-      </c>
-      <c r="J28" t="s">
-        <v>556</v>
+        <v>588</v>
       </c>
       <c r="K28" t="s">
-        <v>557</v>
-      </c>
-      <c r="O28" t="s">
-        <v>558</v>
+        <v>379</v>
+      </c>
+      <c r="R28" s="7" t="s">
+        <v>923</v>
       </c>
       <c r="S28" t="s">
-        <v>310</v>
-      </c>
-      <c r="T28" t="s">
-        <v>559</v>
+        <v>327</v>
+      </c>
+      <c r="U28" s="7" t="s">
+        <v>924</v>
       </c>
       <c r="V28" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W28">
         <v>60</v>
@@ -7389,51 +7271,54 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:24" ht="19">
       <c r="A29">
-        <v>-93.41156024</v>
+        <v>-93.27801925</v>
       </c>
       <c r="B29">
-        <v>44.923783309999997</v>
+        <v>44.924727220000001</v>
       </c>
       <c r="C29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="E29" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="F29" t="s">
-        <v>343</v>
+        <v>97</v>
       </c>
       <c r="G29">
-        <v>55343</v>
+        <v>55409</v>
       </c>
       <c r="H29" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="I29" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="J29" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="K29" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>348</v>
+        <v>351</v>
+      </c>
+      <c r="R29" t="s">
+        <v>352</v>
       </c>
       <c r="S29" t="s">
         <v>310</v>
       </c>
       <c r="T29" t="s">
-        <v>349</v>
+        <v>353</v>
+      </c>
+      <c r="U29" s="7" t="s">
+        <v>925</v>
       </c>
       <c r="V29" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W29">
         <v>60</v>
@@ -7444,46 +7329,46 @@
     </row>
     <row r="30" spans="1:24">
       <c r="A30">
-        <v>-92.719909999999999</v>
+        <v>-93.242890169999995</v>
       </c>
       <c r="B30">
-        <v>44.974789999999999</v>
+        <v>44.645831829999999</v>
       </c>
       <c r="C30">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="D30" t="s">
-        <v>682</v>
+        <v>576</v>
       </c>
       <c r="E30" t="s">
-        <v>769</v>
+        <v>797</v>
       </c>
       <c r="F30" t="s">
-        <v>770</v>
+        <v>270</v>
       </c>
       <c r="G30">
-        <v>54016</v>
-      </c>
-      <c r="H30" t="s">
-        <v>869</v>
+        <v>55044</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>926</v>
       </c>
       <c r="I30" t="s">
-        <v>393</v>
+        <v>588</v>
       </c>
       <c r="K30" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="Q30" t="s">
-        <v>947</v>
+        <v>835</v>
       </c>
       <c r="S30" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="U30" t="s">
-        <v>768</v>
+        <v>674</v>
       </c>
       <c r="V30" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W30">
         <v>60</v>
@@ -7492,51 +7377,54 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:24" ht="19">
       <c r="A31">
-        <v>-93.272576939999993</v>
+        <v>-93.315818309999997</v>
       </c>
       <c r="B31">
-        <v>44.976069389999999</v>
+        <v>44.92463549</v>
       </c>
       <c r="C31">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>590</v>
+        <v>219</v>
       </c>
       <c r="E31" t="s">
-        <v>591</v>
+        <v>442</v>
       </c>
       <c r="F31" t="s">
         <v>97</v>
       </c>
       <c r="G31">
-        <v>55402</v>
+        <v>55410</v>
       </c>
       <c r="H31" t="s">
-        <v>393</v>
+        <v>443</v>
       </c>
       <c r="I31" t="s">
-        <v>592</v>
+        <v>444</v>
       </c>
       <c r="J31" t="s">
-        <v>593</v>
+        <v>445</v>
       </c>
       <c r="K31" t="s">
-        <v>594</v>
-      </c>
-      <c r="M31" t="s">
-        <v>595</v>
+        <v>446</v>
+      </c>
+      <c r="R31" t="s">
+        <v>447</v>
       </c>
       <c r="S31" t="s">
-        <v>338</v>
+        <v>448</v>
       </c>
       <c r="T31" t="s">
-        <v>596</v>
+        <v>449</v>
+      </c>
+      <c r="U31" s="7" t="s">
+        <v>927</v>
       </c>
       <c r="V31" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W31">
         <v>60</v>
@@ -7545,48 +7433,72 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:24" ht="19">
       <c r="A32">
-        <v>-93.063100000000006</v>
+        <v>-93.28591978</v>
       </c>
       <c r="B32">
-        <v>44.830500000000001</v>
+        <v>44.981227310000001</v>
       </c>
       <c r="C32">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>684</v>
+        <v>129</v>
       </c>
       <c r="E32" t="s">
-        <v>904</v>
+        <v>382</v>
       </c>
       <c r="F32" t="s">
-        <v>247</v>
+        <v>97</v>
       </c>
       <c r="G32">
-        <v>55077</v>
-      </c>
-      <c r="H32" t="s">
-        <v>853</v>
+        <v>55405</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="I32" t="s">
-        <v>690</v>
+        <v>383</v>
+      </c>
+      <c r="J32" t="s">
+        <v>318</v>
       </c>
       <c r="K32" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="L32" t="s">
-        <v>956</v>
+        <v>831</v>
+      </c>
+      <c r="M32" t="s">
+        <v>830</v>
+      </c>
+      <c r="N32" t="s">
+        <v>829</v>
+      </c>
+      <c r="O32" t="s">
+        <v>828</v>
+      </c>
+      <c r="P32" t="s">
+        <v>827</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>826</v>
+      </c>
+      <c r="R32" t="s">
+        <v>825</v>
       </c>
       <c r="S32" t="s">
-        <v>330</v>
-      </c>
-      <c r="U32" t="s">
-        <v>1019</v>
+        <v>310</v>
+      </c>
+      <c r="T32" t="s">
+        <v>385</v>
+      </c>
+      <c r="U32" s="7" t="s">
+        <v>929</v>
       </c>
       <c r="V32" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W32">
         <v>60</v>
@@ -7595,51 +7507,54 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="33" spans="1:24">
+    <row r="33" spans="1:24" ht="19">
       <c r="A33">
-        <v>-93.27801925</v>
+        <v>-93.443520269999993</v>
       </c>
       <c r="B33">
-        <v>44.924727220000001</v>
+        <v>45.103781750000003</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D33" t="s">
+        <v>354</v>
+      </c>
+      <c r="E33" t="s">
+        <v>355</v>
+      </c>
+      <c r="F33" t="s">
+        <v>356</v>
+      </c>
+      <c r="G33">
+        <v>55369</v>
+      </c>
+      <c r="H33" t="s">
+        <v>357</v>
+      </c>
+      <c r="I33" t="s">
+        <v>358</v>
+      </c>
+      <c r="J33" t="s">
         <v>350</v>
       </c>
-      <c r="E33" t="s">
-        <v>351</v>
-      </c>
-      <c r="F33" t="s">
-        <v>97</v>
-      </c>
-      <c r="G33">
-        <v>55409</v>
-      </c>
-      <c r="H33" t="s">
-        <v>352</v>
-      </c>
-      <c r="I33" t="s">
-        <v>353</v>
-      </c>
-      <c r="J33" t="s">
-        <v>354</v>
-      </c>
       <c r="K33" t="s">
-        <v>355</v>
-      </c>
-      <c r="R33" t="s">
-        <v>356</v>
+        <v>359</v>
+      </c>
+      <c r="O33" t="s">
+        <v>360</v>
       </c>
       <c r="S33" t="s">
         <v>310</v>
       </c>
       <c r="T33" t="s">
-        <v>357</v>
+        <v>361</v>
+      </c>
+      <c r="U33" s="7" t="s">
+        <v>930</v>
       </c>
       <c r="V33" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W33">
         <v>60</v>
@@ -7648,48 +7563,48 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="34" spans="1:24">
+    <row r="34" spans="1:24" ht="19">
       <c r="A34">
-        <v>-93.242890169999995</v>
+        <v>-93.02346</v>
       </c>
       <c r="B34">
-        <v>44.645831829999999</v>
+        <v>44.996989999999997</v>
       </c>
       <c r="C34">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="D34" t="s">
-        <v>678</v>
+        <v>549</v>
       </c>
       <c r="E34" t="s">
-        <v>900</v>
+        <v>809</v>
       </c>
       <c r="F34" t="s">
-        <v>270</v>
+        <v>625</v>
       </c>
       <c r="G34">
-        <v>55044</v>
+        <v>55109</v>
       </c>
       <c r="H34" t="s">
-        <v>845</v>
+        <v>771</v>
       </c>
       <c r="I34" t="s">
-        <v>690</v>
+        <v>588</v>
       </c>
       <c r="K34" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>950</v>
+        <v>379</v>
+      </c>
+      <c r="O34" t="s">
+        <v>852</v>
       </c>
       <c r="S34" t="s">
-        <v>330</v>
-      </c>
-      <c r="U34" t="s">
-        <v>776</v>
+        <v>327</v>
+      </c>
+      <c r="U34" s="7" t="s">
+        <v>931</v>
       </c>
       <c r="V34" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W34">
         <v>60</v>
@@ -7700,49 +7615,49 @@
     </row>
     <row r="35" spans="1:24">
       <c r="A35">
-        <v>-93.315818309999997</v>
+        <v>-93.378865090000005</v>
       </c>
       <c r="B35">
-        <v>44.92463549</v>
+        <v>44.98611502</v>
       </c>
       <c r="C35">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D35" t="s">
-        <v>219</v>
+        <v>477</v>
       </c>
       <c r="E35" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="F35" t="s">
-        <v>97</v>
+        <v>479</v>
       </c>
       <c r="G35">
-        <v>55410</v>
+        <v>55427</v>
       </c>
       <c r="H35" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="I35" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="J35" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="K35" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="R35" t="s">
-        <v>475</v>
+        <v>447</v>
       </c>
       <c r="S35" t="s">
-        <v>476</v>
+        <v>335</v>
       </c>
       <c r="T35" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="V35" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W35">
         <v>60</v>
@@ -7751,57 +7666,57 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="36" spans="1:24">
+    <row r="36" spans="1:24" ht="19">
       <c r="A36">
-        <v>-93.285932930000001</v>
+        <v>-93.238939920000007</v>
       </c>
       <c r="B36">
-        <v>44.980352830000001</v>
+        <v>44.947987689999998</v>
       </c>
       <c r="C36">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>560</v>
+        <v>363</v>
       </c>
       <c r="E36" t="s">
-        <v>561</v>
+        <v>364</v>
       </c>
       <c r="F36" t="s">
         <v>97</v>
       </c>
       <c r="G36">
-        <v>55405</v>
+        <v>55407</v>
       </c>
       <c r="H36" t="s">
-        <v>562</v>
+        <v>365</v>
       </c>
       <c r="I36" t="s">
-        <v>563</v>
+        <v>366</v>
       </c>
       <c r="J36" t="s">
-        <v>564</v>
+        <v>367</v>
       </c>
       <c r="K36" t="s">
-        <v>565</v>
+        <v>368</v>
+      </c>
+      <c r="M36" t="s">
+        <v>392</v>
       </c>
       <c r="Q36" t="s">
-        <v>946</v>
-      </c>
-      <c r="R36" t="s">
-        <v>945</v>
+        <v>309</v>
       </c>
       <c r="S36" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="T36" t="s">
-        <v>566</v>
-      </c>
-      <c r="U36" t="s">
-        <v>567</v>
+        <v>369</v>
+      </c>
+      <c r="U36" s="7" t="s">
+        <v>896</v>
       </c>
       <c r="V36" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W36">
         <v>60</v>
@@ -7810,69 +7725,54 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="37" spans="1:24">
+    <row r="37" spans="1:24" ht="20">
       <c r="A37">
-        <v>-93.28591978</v>
+        <v>-93.2561532</v>
       </c>
       <c r="B37">
-        <v>44.981227310000001</v>
+        <v>44.978557719999998</v>
       </c>
       <c r="C37">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>397</v>
+        <v>119</v>
       </c>
       <c r="E37" t="s">
-        <v>398</v>
+        <v>370</v>
       </c>
       <c r="F37" t="s">
         <v>97</v>
       </c>
       <c r="G37">
-        <v>55405</v>
+        <v>55401</v>
       </c>
       <c r="H37" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="I37" t="s">
-        <v>400</v>
+        <v>372</v>
       </c>
       <c r="J37" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="K37" t="s">
-        <v>401</v>
-      </c>
-      <c r="L37" t="s">
-        <v>944</v>
-      </c>
-      <c r="M37" t="s">
-        <v>943</v>
-      </c>
-      <c r="N37" t="s">
-        <v>942</v>
-      </c>
-      <c r="O37" t="s">
-        <v>941</v>
-      </c>
-      <c r="P37" t="s">
-        <v>940</v>
+        <v>373</v>
       </c>
       <c r="Q37" t="s">
-        <v>939</v>
-      </c>
-      <c r="R37" t="s">
-        <v>938</v>
+        <v>374</v>
       </c>
       <c r="S37" t="s">
         <v>310</v>
       </c>
       <c r="T37" t="s">
-        <v>402</v>
+        <v>375</v>
+      </c>
+      <c r="U37" s="8" t="s">
+        <v>903</v>
       </c>
       <c r="V37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W37">
         <v>60</v>
@@ -7881,54 +7781,54 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="38" spans="1:24">
+    <row r="38" spans="1:24" ht="20">
       <c r="A38">
-        <v>-93.443520269999993</v>
+        <v>-93.267168600000005</v>
       </c>
       <c r="B38">
-        <v>45.103781750000003</v>
+        <v>44.975266300000001</v>
       </c>
       <c r="C38">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>358</v>
+        <v>129</v>
       </c>
       <c r="E38" t="s">
-        <v>359</v>
+        <v>788</v>
       </c>
       <c r="F38" t="s">
-        <v>360</v>
+        <v>97</v>
       </c>
       <c r="G38">
-        <v>55369</v>
+        <v>55487</v>
       </c>
       <c r="H38" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="I38" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="J38" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="K38" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="O38" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="S38" t="s">
         <v>310</v>
       </c>
       <c r="T38" t="s">
-        <v>365</v>
-      </c>
-      <c r="U38" t="s">
-        <v>366</v>
+        <v>381</v>
+      </c>
+      <c r="U38" s="8" t="s">
+        <v>932</v>
       </c>
       <c r="V38" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W38">
         <v>60</v>
@@ -7937,48 +7837,54 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="39" spans="1:24">
+    <row r="39" spans="1:24" ht="20">
       <c r="A39">
-        <v>-93.02346</v>
+        <v>-93.465455669999997</v>
       </c>
       <c r="B39">
-        <v>44.996989999999997</v>
+        <v>44.940518529999999</v>
       </c>
       <c r="C39">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>651</v>
+        <v>386</v>
       </c>
       <c r="E39" t="s">
-        <v>913</v>
+        <v>387</v>
       </c>
       <c r="F39" t="s">
-        <v>727</v>
+        <v>388</v>
       </c>
       <c r="G39">
-        <v>55109</v>
+        <v>55345</v>
       </c>
       <c r="H39" t="s">
-        <v>873</v>
+        <v>389</v>
       </c>
       <c r="I39" t="s">
-        <v>690</v>
+        <v>390</v>
+      </c>
+      <c r="J39" t="s">
+        <v>350</v>
       </c>
       <c r="K39" t="s">
+        <v>391</v>
+      </c>
+      <c r="M39" t="s">
+        <v>392</v>
+      </c>
+      <c r="S39" t="s">
+        <v>310</v>
+      </c>
+      <c r="T39" t="s">
         <v>393</v>
       </c>
-      <c r="O39" t="s">
-        <v>971</v>
-      </c>
-      <c r="S39" t="s">
-        <v>330</v>
-      </c>
-      <c r="U39" t="s">
-        <v>970</v>
+      <c r="U39" s="8" t="s">
+        <v>933</v>
       </c>
       <c r="V39" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W39">
         <v>60</v>
@@ -7987,51 +7893,48 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="40" spans="1:24">
+    <row r="40" spans="1:24" ht="20">
       <c r="A40">
-        <v>-93.378865090000005</v>
+        <v>-93.799229999999994</v>
       </c>
       <c r="B40">
-        <v>44.98611502</v>
+        <v>45.302010000000003</v>
       </c>
       <c r="C40">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="D40" t="s">
-        <v>513</v>
+        <v>550</v>
       </c>
       <c r="E40" t="s">
-        <v>514</v>
+        <v>814</v>
       </c>
       <c r="F40" t="s">
-        <v>515</v>
+        <v>683</v>
       </c>
       <c r="G40">
-        <v>55427</v>
+        <v>55362</v>
       </c>
       <c r="H40" t="s">
-        <v>516</v>
+        <v>781</v>
       </c>
       <c r="I40" t="s">
-        <v>517</v>
-      </c>
-      <c r="J40" t="s">
-        <v>518</v>
+        <v>628</v>
       </c>
       <c r="K40" t="s">
-        <v>519</v>
-      </c>
-      <c r="R40" t="s">
-        <v>475</v>
+        <v>379</v>
+      </c>
+      <c r="O40" t="s">
+        <v>847</v>
       </c>
       <c r="S40" t="s">
-        <v>338</v>
-      </c>
-      <c r="T40" t="s">
-        <v>520</v>
+        <v>327</v>
+      </c>
+      <c r="U40" s="8" t="s">
+        <v>934</v>
       </c>
       <c r="V40" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W40">
         <v>60</v>
@@ -8040,69 +7943,54 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="41" spans="1:24">
+    <row r="41" spans="1:24" ht="20">
       <c r="A41">
-        <v>-93.481904319999998</v>
+        <v>-93.664526010000003</v>
       </c>
       <c r="B41">
-        <v>44.838996219999999</v>
+        <v>44.937047810000003</v>
       </c>
       <c r="C41">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D41" t="s">
-        <v>367</v>
+        <v>461</v>
       </c>
       <c r="E41" t="s">
-        <v>368</v>
+        <v>462</v>
       </c>
       <c r="F41" t="s">
-        <v>369</v>
+        <v>463</v>
       </c>
       <c r="G41">
-        <v>55347</v>
+        <v>55364</v>
       </c>
       <c r="H41" t="s">
-        <v>370</v>
+        <v>464</v>
       </c>
       <c r="I41" t="s">
-        <v>371</v>
+        <v>465</v>
       </c>
       <c r="J41" t="s">
-        <v>372</v>
+        <v>466</v>
       </c>
       <c r="K41" t="s">
-        <v>373</v>
-      </c>
-      <c r="L41" t="s">
-        <v>931</v>
-      </c>
-      <c r="M41" t="s">
-        <v>937</v>
-      </c>
-      <c r="N41" t="s">
-        <v>932</v>
-      </c>
-      <c r="O41" t="s">
-        <v>933</v>
-      </c>
-      <c r="P41" t="s">
-        <v>934</v>
-      </c>
-      <c r="Q41" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q41" s="8" t="s">
+        <v>936</v>
+      </c>
+      <c r="S41" t="s">
+        <v>335</v>
+      </c>
+      <c r="T41" t="s">
+        <v>468</v>
+      </c>
+      <c r="U41" s="8" t="s">
         <v>935</v>
       </c>
-      <c r="R41" t="s">
-        <v>936</v>
-      </c>
-      <c r="S41" t="s">
-        <v>338</v>
-      </c>
-      <c r="T41" t="s">
-        <v>374</v>
-      </c>
       <c r="V41" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W41">
         <v>60</v>
@@ -8111,51 +7999,54 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="42" spans="1:24">
+    <row r="42" spans="1:24" ht="20">
       <c r="A42">
-        <v>-93.361558579999993</v>
+        <v>-93.391522600000002</v>
       </c>
       <c r="B42">
-        <v>44.928979269999999</v>
+        <v>45.02124937</v>
       </c>
       <c r="C42">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>527</v>
+        <v>394</v>
       </c>
       <c r="E42" t="s">
-        <v>528</v>
+        <v>395</v>
       </c>
       <c r="F42" t="s">
-        <v>529</v>
+        <v>396</v>
       </c>
       <c r="G42">
-        <v>55426</v>
+        <v>55428</v>
       </c>
       <c r="H42" t="s">
-        <v>530</v>
+        <v>397</v>
       </c>
       <c r="I42" t="s">
-        <v>531</v>
+        <v>398</v>
       </c>
       <c r="J42" t="s">
-        <v>532</v>
+        <v>362</v>
       </c>
       <c r="K42" t="s">
-        <v>393</v>
-      </c>
-      <c r="M42" t="s">
-        <v>533</v>
+        <v>399</v>
+      </c>
+      <c r="Q42" s="8" t="s">
+        <v>938</v>
       </c>
       <c r="S42" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="T42" t="s">
-        <v>534</v>
+        <v>400</v>
+      </c>
+      <c r="U42" s="7" t="s">
+        <v>937</v>
       </c>
       <c r="V42" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W42">
         <v>60</v>
@@ -8164,57 +8055,54 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="43" spans="1:24">
+    <row r="43" spans="1:24" ht="19">
       <c r="A43">
-        <v>-93.238939920000007</v>
+        <v>-93.262404279999998</v>
       </c>
       <c r="B43">
-        <v>44.947987689999998</v>
+        <v>44.908629570000002</v>
       </c>
       <c r="C43">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D43" t="s">
-        <v>375</v>
+        <v>485</v>
       </c>
       <c r="E43" t="s">
-        <v>376</v>
+        <v>486</v>
       </c>
       <c r="F43" t="s">
         <v>97</v>
       </c>
       <c r="G43">
-        <v>55407</v>
+        <v>55417</v>
       </c>
       <c r="H43" t="s">
-        <v>377</v>
+        <v>487</v>
       </c>
       <c r="I43" t="s">
-        <v>378</v>
+        <v>349</v>
       </c>
       <c r="J43" t="s">
-        <v>379</v>
+        <v>431</v>
       </c>
       <c r="K43" t="s">
-        <v>380</v>
-      </c>
-      <c r="M43" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>309</v>
+        <v>351</v>
+      </c>
+      <c r="N43" t="s">
+        <v>488</v>
       </c>
       <c r="S43" t="s">
         <v>310</v>
       </c>
       <c r="T43" t="s">
-        <v>381</v>
-      </c>
-      <c r="U43" t="s">
-        <v>382</v>
+        <v>489</v>
+      </c>
+      <c r="U43" s="7" t="s">
+        <v>939</v>
       </c>
       <c r="V43" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W43">
         <v>60</v>
@@ -8223,54 +8111,54 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="44" spans="1:24">
+    <row r="44" spans="1:24" ht="19">
       <c r="A44">
-        <v>-93.2561532</v>
+        <v>-93.262177269999995</v>
       </c>
       <c r="B44">
-        <v>44.978557719999998</v>
+        <v>44.995133260000003</v>
       </c>
       <c r="C44">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>119</v>
+        <v>401</v>
       </c>
       <c r="E44" t="s">
-        <v>383</v>
+        <v>739</v>
       </c>
       <c r="F44" t="s">
         <v>97</v>
       </c>
       <c r="G44">
-        <v>55401</v>
+        <v>55413</v>
       </c>
       <c r="H44" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="I44" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="J44" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="K44" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="Q44" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="S44" t="s">
         <v>310</v>
       </c>
       <c r="T44" t="s">
-        <v>388</v>
-      </c>
-      <c r="U44" t="s">
-        <v>389</v>
+        <v>406</v>
+      </c>
+      <c r="U44" s="7" t="s">
+        <v>940</v>
       </c>
       <c r="V44" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W44">
         <v>60</v>
@@ -8279,54 +8167,48 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="45" spans="1:24">
+    <row r="45" spans="1:24" ht="19">
       <c r="A45">
-        <v>-93.267168600000005</v>
+        <v>-92.96499</v>
       </c>
       <c r="B45">
-        <v>44.975266300000001</v>
+        <v>44.971760000000003</v>
       </c>
       <c r="C45">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="D45" t="s">
-        <v>129</v>
+        <v>567</v>
       </c>
       <c r="E45" t="s">
-        <v>890</v>
+        <v>807</v>
       </c>
       <c r="F45" t="s">
-        <v>97</v>
+        <v>693</v>
       </c>
       <c r="G45">
-        <v>55487</v>
-      </c>
-      <c r="H45" t="s">
-        <v>390</v>
+        <v>55128</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>943</v>
       </c>
       <c r="I45" t="s">
-        <v>391</v>
-      </c>
-      <c r="J45" t="s">
-        <v>392</v>
+        <v>694</v>
       </c>
       <c r="K45" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="O45" t="s">
-        <v>394</v>
+        <v>833</v>
       </c>
       <c r="S45" t="s">
-        <v>310</v>
-      </c>
-      <c r="T45" t="s">
-        <v>395</v>
-      </c>
-      <c r="U45" t="s">
-        <v>396</v>
+        <v>327</v>
+      </c>
+      <c r="U45" s="7" t="s">
+        <v>944</v>
       </c>
       <c r="V45" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W45">
         <v>60</v>
@@ -8335,48 +8217,54 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="46" spans="1:24">
+    <row r="46" spans="1:24" ht="19">
       <c r="A46">
-        <v>-93.266143999999997</v>
+        <v>-93.402580240000006</v>
       </c>
       <c r="B46">
-        <v>44.976748999999998</v>
+        <v>45.12072336</v>
       </c>
       <c r="C46">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>642</v>
+        <v>407</v>
       </c>
       <c r="E46" t="s">
-        <v>911</v>
+        <v>408</v>
       </c>
       <c r="F46" t="s">
-        <v>735</v>
+        <v>409</v>
       </c>
       <c r="G46">
-        <v>55487</v>
+        <v>55369</v>
       </c>
       <c r="H46" t="s">
-        <v>870</v>
+        <v>894</v>
       </c>
       <c r="I46" t="s">
-        <v>400</v>
+        <v>410</v>
+      </c>
+      <c r="J46" t="s">
+        <v>350</v>
       </c>
       <c r="K46" t="s">
-        <v>393</v>
-      </c>
-      <c r="P46" t="s">
-        <v>975</v>
+        <v>411</v>
+      </c>
+      <c r="M46" t="s">
+        <v>412</v>
       </c>
       <c r="S46" t="s">
-        <v>330</v>
-      </c>
-      <c r="U46" t="s">
-        <v>974</v>
+        <v>335</v>
+      </c>
+      <c r="T46" t="s">
+        <v>413</v>
+      </c>
+      <c r="U46" s="7" t="s">
+        <v>945</v>
       </c>
       <c r="V46" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W46">
         <v>60</v>
@@ -8385,51 +8273,54 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="47" spans="1:24">
+    <row r="47" spans="1:24" ht="19">
       <c r="A47">
-        <v>-93.465455669999997</v>
+        <v>-93.473888900000006</v>
       </c>
       <c r="B47">
-        <v>44.940518529999999</v>
+        <v>44.997202219999998</v>
       </c>
       <c r="C47">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D47" t="s">
-        <v>403</v>
+        <v>469</v>
       </c>
       <c r="E47" t="s">
-        <v>404</v>
+        <v>470</v>
       </c>
       <c r="F47" t="s">
-        <v>405</v>
+        <v>471</v>
       </c>
       <c r="G47">
-        <v>55345</v>
+        <v>55447</v>
       </c>
       <c r="H47" t="s">
-        <v>406</v>
+        <v>472</v>
       </c>
       <c r="I47" t="s">
-        <v>407</v>
+        <v>473</v>
       </c>
       <c r="J47" t="s">
-        <v>354</v>
+        <v>318</v>
       </c>
       <c r="K47" t="s">
-        <v>408</v>
-      </c>
-      <c r="M47" t="s">
-        <v>409</v>
+        <v>474</v>
+      </c>
+      <c r="N47" t="s">
+        <v>475</v>
       </c>
       <c r="S47" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="T47" t="s">
-        <v>410</v>
+        <v>476</v>
+      </c>
+      <c r="U47" s="7" t="s">
+        <v>946</v>
       </c>
       <c r="V47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W47">
         <v>60</v>
@@ -8438,48 +8329,48 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="48" spans="1:24">
+    <row r="48" spans="1:24" ht="19">
       <c r="A48">
-        <v>-93.799229999999994</v>
+        <v>-93.580187940000002</v>
       </c>
       <c r="B48">
-        <v>45.302010000000003</v>
+        <v>45.56948766</v>
       </c>
       <c r="C48">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D48" t="s">
-        <v>652</v>
+        <v>542</v>
       </c>
       <c r="E48" t="s">
-        <v>918</v>
+        <v>610</v>
       </c>
       <c r="F48" t="s">
-        <v>785</v>
+        <v>611</v>
       </c>
       <c r="G48">
-        <v>55362</v>
+        <v>55371</v>
       </c>
       <c r="H48" t="s">
-        <v>883</v>
+        <v>783</v>
       </c>
       <c r="I48" t="s">
-        <v>730</v>
+        <v>612</v>
       </c>
       <c r="K48" t="s">
-        <v>393</v>
-      </c>
-      <c r="O48" t="s">
-        <v>964</v>
+        <v>379</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>844</v>
       </c>
       <c r="S48" t="s">
-        <v>330</v>
-      </c>
-      <c r="U48" t="s">
-        <v>963</v>
+        <v>327</v>
+      </c>
+      <c r="U48" s="7" t="s">
+        <v>903</v>
       </c>
       <c r="V48" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W48">
         <v>60</v>
@@ -8488,51 +8379,48 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="49" spans="1:24">
+    <row r="49" spans="1:24" ht="19">
       <c r="A49">
-        <v>-93.664526010000003</v>
+        <v>-93.424610000000001</v>
       </c>
       <c r="B49">
-        <v>44.937047810000003</v>
+        <v>44.714300000000001</v>
       </c>
       <c r="C49">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D49" t="s">
-        <v>489</v>
+        <v>547</v>
       </c>
       <c r="E49" t="s">
-        <v>490</v>
+        <v>798</v>
       </c>
       <c r="F49" t="s">
-        <v>491</v>
+        <v>548</v>
       </c>
       <c r="G49">
-        <v>55364</v>
+        <v>55372</v>
       </c>
       <c r="H49" t="s">
-        <v>492</v>
+        <v>745</v>
       </c>
       <c r="I49" t="s">
-        <v>493</v>
-      </c>
-      <c r="J49" t="s">
-        <v>494</v>
+        <v>620</v>
       </c>
       <c r="K49" t="s">
-        <v>495</v>
+        <v>379</v>
       </c>
       <c r="Q49" t="s">
-        <v>496</v>
+        <v>836</v>
       </c>
       <c r="S49" t="s">
-        <v>338</v>
-      </c>
-      <c r="T49" t="s">
-        <v>497</v>
+        <v>327</v>
+      </c>
+      <c r="U49" s="7" t="s">
+        <v>903</v>
       </c>
       <c r="V49" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W49">
         <v>60</v>
@@ -8541,54 +8429,54 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="50" spans="1:24">
+    <row r="50" spans="1:24" ht="20">
       <c r="A50">
-        <v>-93.391522600000002</v>
+        <v>-93.265853750000005</v>
       </c>
       <c r="B50">
-        <v>45.02124937</v>
+        <v>44.887157989999999</v>
       </c>
       <c r="C50">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D50" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="E50" t="s">
-        <v>412</v>
+        <v>789</v>
       </c>
       <c r="F50" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="G50">
-        <v>55428</v>
+        <v>55423</v>
       </c>
       <c r="H50" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="I50" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="J50" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="K50" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>309</v>
+        <v>418</v>
+      </c>
+      <c r="Q50" s="8" t="s">
+        <v>419</v>
       </c>
       <c r="S50" t="s">
         <v>310</v>
       </c>
       <c r="T50" t="s">
-        <v>417</v>
-      </c>
-      <c r="U50" t="s">
-        <v>418</v>
+        <v>406</v>
+      </c>
+      <c r="U50" s="8" t="s">
+        <v>940</v>
       </c>
       <c r="V50" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W50">
         <v>60</v>
@@ -8597,54 +8485,45 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="51" spans="1:24">
+    <row r="51" spans="1:24" ht="19">
       <c r="A51">
-        <v>-93.262404279999998</v>
+        <v>-93.161739999999995</v>
       </c>
       <c r="B51">
-        <v>44.908629570000002</v>
+        <v>44.455100000000002</v>
       </c>
       <c r="C51">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D51" t="s">
-        <v>521</v>
+        <v>942</v>
       </c>
       <c r="E51" t="s">
-        <v>522</v>
+        <v>796</v>
       </c>
       <c r="F51" t="s">
-        <v>97</v>
+        <v>644</v>
       </c>
       <c r="G51">
-        <v>55417</v>
+        <v>55057</v>
       </c>
       <c r="H51" t="s">
-        <v>523</v>
-      </c>
-      <c r="I51" t="s">
-        <v>353</v>
-      </c>
-      <c r="J51" t="s">
-        <v>458</v>
+        <v>742</v>
       </c>
       <c r="K51" t="s">
-        <v>355</v>
-      </c>
-      <c r="N51" t="s">
-        <v>524</v>
+        <v>379</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>835</v>
       </c>
       <c r="S51" t="s">
-        <v>310</v>
-      </c>
-      <c r="T51" t="s">
-        <v>525</v>
-      </c>
-      <c r="U51" t="s">
-        <v>526</v>
+        <v>327</v>
+      </c>
+      <c r="U51" s="7" t="s">
+        <v>941</v>
       </c>
       <c r="V51" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W51">
         <v>60</v>
@@ -8653,51 +8532,48 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="52" spans="1:24">
+    <row r="52" spans="1:24" ht="20">
       <c r="A52">
-        <v>-93.262177269999995</v>
+        <v>-92.455960000000005</v>
       </c>
       <c r="B52">
-        <v>44.995133260000003</v>
+        <v>44.001130000000003</v>
       </c>
       <c r="C52">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D52" t="s">
-        <v>419</v>
+        <v>947</v>
       </c>
       <c r="E52" t="s">
-        <v>841</v>
+        <v>795</v>
       </c>
       <c r="F52" t="s">
-        <v>97</v>
+        <v>615</v>
       </c>
       <c r="G52">
-        <v>55413</v>
+        <v>55904</v>
       </c>
       <c r="H52" t="s">
-        <v>420</v>
+        <v>741</v>
       </c>
       <c r="I52" t="s">
-        <v>421</v>
-      </c>
-      <c r="J52" t="s">
-        <v>346</v>
+        <v>616</v>
       </c>
       <c r="K52" t="s">
-        <v>422</v>
+        <v>379</v>
       </c>
       <c r="Q52" t="s">
-        <v>423</v>
+        <v>834</v>
       </c>
       <c r="S52" t="s">
-        <v>310</v>
-      </c>
-      <c r="T52" t="s">
-        <v>424</v>
+        <v>327</v>
+      </c>
+      <c r="U52" s="8" t="s">
+        <v>903</v>
       </c>
       <c r="V52" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W52">
         <v>60</v>
@@ -8706,48 +8582,48 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="53" spans="1:24">
+    <row r="53" spans="1:24" ht="20">
       <c r="A53">
-        <v>-92.96499</v>
+        <v>-93.7346</v>
       </c>
       <c r="B53">
-        <v>44.971760000000003</v>
+        <v>45.088560000000001</v>
       </c>
       <c r="C53">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D53" t="s">
-        <v>669</v>
+        <v>561</v>
       </c>
       <c r="E53" t="s">
-        <v>910</v>
+        <v>812</v>
       </c>
       <c r="F53" t="s">
-        <v>795</v>
+        <v>97</v>
       </c>
       <c r="G53">
-        <v>55128</v>
+        <v>55373</v>
       </c>
       <c r="H53" t="s">
-        <v>868</v>
+        <v>778</v>
       </c>
       <c r="I53" t="s">
-        <v>796</v>
+        <v>379</v>
       </c>
       <c r="K53" t="s">
-        <v>393</v>
-      </c>
-      <c r="O53" t="s">
+        <v>379</v>
+      </c>
+      <c r="P53" t="s">
+        <v>849</v>
+      </c>
+      <c r="S53" t="s">
+        <v>327</v>
+      </c>
+      <c r="U53" s="8" t="s">
         <v>948</v>
       </c>
-      <c r="S53" t="s">
-        <v>330</v>
-      </c>
-      <c r="U53" t="s">
-        <v>670</v>
-      </c>
       <c r="V53" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W53">
         <v>60</v>
@@ -8756,51 +8632,54 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="54" spans="1:24">
+    <row r="54" spans="1:24" ht="20">
       <c r="A54">
-        <v>-93.402580240000006</v>
+        <v>-93.552147840000003</v>
       </c>
       <c r="B54">
-        <v>45.12072336</v>
+        <v>45.187066489999999</v>
       </c>
       <c r="C54">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D54" t="s">
+        <v>420</v>
+      </c>
+      <c r="E54" t="s">
+        <v>790</v>
+      </c>
+      <c r="F54" t="s">
+        <v>421</v>
+      </c>
+      <c r="G54">
+        <v>55347</v>
+      </c>
+      <c r="H54" t="s">
+        <v>422</v>
+      </c>
+      <c r="I54" t="s">
+        <v>423</v>
+      </c>
+      <c r="J54" t="s">
+        <v>424</v>
+      </c>
+      <c r="K54" t="s">
         <v>425</v>
       </c>
-      <c r="E54" t="s">
+      <c r="N54" t="s">
         <v>426</v>
       </c>
-      <c r="F54" t="s">
+      <c r="S54" t="s">
+        <v>335</v>
+      </c>
+      <c r="T54" t="s">
         <v>427</v>
       </c>
-      <c r="G54">
-        <v>55369</v>
-      </c>
-      <c r="H54" t="s">
-        <v>1022</v>
-      </c>
-      <c r="I54" t="s">
-        <v>428</v>
-      </c>
-      <c r="J54" t="s">
-        <v>354</v>
-      </c>
-      <c r="K54" t="s">
-        <v>429</v>
-      </c>
-      <c r="M54" t="s">
-        <v>430</v>
-      </c>
-      <c r="S54" t="s">
-        <v>338</v>
-      </c>
-      <c r="T54" t="s">
-        <v>431</v>
+      <c r="U54" s="8" t="s">
+        <v>949</v>
       </c>
       <c r="V54" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W54">
         <v>60</v>
@@ -8809,51 +8688,48 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="55" spans="1:24">
+    <row r="55" spans="1:24" ht="20">
       <c r="A55">
-        <v>-93.346291449999995</v>
+        <v>-93.127529999999993</v>
       </c>
       <c r="B55">
-        <v>44.933093739999997</v>
+        <v>44.747709999999998</v>
       </c>
       <c r="C55">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D55" t="s">
-        <v>535</v>
+        <v>574</v>
       </c>
       <c r="E55" t="s">
-        <v>536</v>
+        <v>657</v>
       </c>
       <c r="F55" t="s">
-        <v>529</v>
+        <v>264</v>
       </c>
       <c r="G55">
-        <v>55416</v>
+        <v>55068</v>
       </c>
       <c r="H55" t="s">
-        <v>530</v>
+        <v>747</v>
       </c>
       <c r="I55" t="s">
-        <v>531</v>
-      </c>
-      <c r="J55" t="s">
-        <v>532</v>
+        <v>588</v>
       </c>
       <c r="K55" t="s">
-        <v>393</v>
-      </c>
-      <c r="O55" t="s">
-        <v>537</v>
+        <v>379</v>
+      </c>
+      <c r="M55" t="s">
+        <v>838</v>
       </c>
       <c r="S55" t="s">
-        <v>338</v>
-      </c>
-      <c r="T55" t="s">
-        <v>538</v>
+        <v>327</v>
+      </c>
+      <c r="U55" s="8" t="s">
+        <v>933</v>
       </c>
       <c r="V55" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W55">
         <v>60</v>
@@ -8862,51 +8738,48 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="56" spans="1:24">
+    <row r="56" spans="1:24" ht="20">
       <c r="A56">
-        <v>-93.473888900000006</v>
+        <v>-93.178299999999993</v>
       </c>
       <c r="B56">
-        <v>44.997202219999998</v>
+        <v>45.00497</v>
       </c>
       <c r="C56">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="D56" t="s">
-        <v>498</v>
+        <v>535</v>
       </c>
       <c r="E56" t="s">
-        <v>499</v>
+        <v>810</v>
       </c>
       <c r="F56" t="s">
-        <v>500</v>
+        <v>259</v>
       </c>
       <c r="G56">
-        <v>55447</v>
+        <v>55113</v>
       </c>
       <c r="H56" t="s">
-        <v>501</v>
+        <v>773</v>
       </c>
       <c r="I56" t="s">
-        <v>502</v>
-      </c>
-      <c r="J56" t="s">
-        <v>319</v>
+        <v>588</v>
       </c>
       <c r="K56" t="s">
-        <v>503</v>
+        <v>379</v>
       </c>
       <c r="N56" t="s">
-        <v>504</v>
+        <v>851</v>
       </c>
       <c r="S56" t="s">
-        <v>338</v>
-      </c>
-      <c r="T56" t="s">
-        <v>505</v>
+        <v>327</v>
+      </c>
+      <c r="U56" s="8" t="s">
+        <v>950</v>
       </c>
       <c r="V56" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W56">
         <v>60</v>
@@ -8915,48 +8788,48 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="57" spans="1:24">
+    <row r="57" spans="1:24" ht="19">
       <c r="A57">
-        <v>-93.580187940000002</v>
+        <v>-93.340203209999999</v>
       </c>
       <c r="B57">
-        <v>45.56948766</v>
+        <v>44.778434969999999</v>
       </c>
       <c r="C57">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="D57" t="s">
-        <v>644</v>
+        <v>563</v>
       </c>
       <c r="E57" t="s">
-        <v>712</v>
+        <v>800</v>
       </c>
       <c r="F57" t="s">
-        <v>713</v>
+        <v>250</v>
       </c>
       <c r="G57">
-        <v>55371</v>
+        <v>55378</v>
       </c>
       <c r="H57" t="s">
-        <v>885</v>
+        <v>749</v>
       </c>
       <c r="I57" t="s">
-        <v>714</v>
+        <v>588</v>
       </c>
       <c r="K57" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>960</v>
+        <v>379</v>
+      </c>
+      <c r="R57" t="s">
+        <v>839</v>
       </c>
       <c r="S57" t="s">
-        <v>330</v>
-      </c>
-      <c r="U57" t="s">
-        <v>711</v>
+        <v>327</v>
+      </c>
+      <c r="U57" s="9" t="s">
+        <v>951</v>
       </c>
       <c r="V57" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W57">
         <v>60</v>
@@ -8965,45 +8838,48 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="58" spans="1:24">
+    <row r="58" spans="1:24" ht="19">
       <c r="A58">
-        <v>-93.424610000000001</v>
+        <v>-93.135266880000003</v>
       </c>
       <c r="B58">
-        <v>44.714300000000001</v>
+        <v>45.080821800000002</v>
       </c>
       <c r="C58">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="D58" t="s">
-        <v>649</v>
+        <v>565</v>
       </c>
       <c r="E58" t="s">
-        <v>901</v>
+        <v>811</v>
       </c>
       <c r="F58" t="s">
-        <v>650</v>
+        <v>687</v>
       </c>
       <c r="G58">
-        <v>55372</v>
+        <v>55126</v>
       </c>
       <c r="H58" t="s">
-        <v>847</v>
+        <v>777</v>
       </c>
       <c r="I58" t="s">
-        <v>722</v>
+        <v>688</v>
       </c>
       <c r="K58" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>951</v>
+        <v>379</v>
+      </c>
+      <c r="M58" t="s">
+        <v>850</v>
       </c>
       <c r="S58" t="s">
-        <v>330</v>
+        <v>327</v>
+      </c>
+      <c r="U58" s="9" t="s">
+        <v>952</v>
       </c>
       <c r="V58" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W58">
         <v>60</v>
@@ -9014,52 +8890,43 @@
     </row>
     <row r="59" spans="1:24">
       <c r="A59">
-        <v>-93.265853750000005</v>
+        <v>-93.048416000000003</v>
       </c>
       <c r="B59">
-        <v>44.887157989999999</v>
+        <v>44.888627</v>
       </c>
       <c r="C59">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="D59" t="s">
-        <v>432</v>
+        <v>868</v>
       </c>
       <c r="E59" t="s">
-        <v>891</v>
+        <v>871</v>
       </c>
       <c r="F59" t="s">
-        <v>433</v>
+        <v>880</v>
       </c>
       <c r="G59">
-        <v>55423</v>
-      </c>
-      <c r="H59" t="s">
-        <v>434</v>
+        <v>55075</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>953</v>
       </c>
       <c r="I59" t="s">
-        <v>435</v>
-      </c>
-      <c r="J59" t="s">
-        <v>354</v>
+        <v>588</v>
       </c>
       <c r="K59" t="s">
-        <v>436</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>437</v>
-      </c>
-      <c r="S59" t="s">
-        <v>310</v>
-      </c>
-      <c r="T59" t="s">
-        <v>424</v>
+        <v>379</v>
+      </c>
+      <c r="N59" t="s">
+        <v>833</v>
       </c>
       <c r="U59" t="s">
-        <v>438</v>
+        <v>885</v>
       </c>
       <c r="V59" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W59">
         <v>60</v>
@@ -9070,46 +8937,46 @@
     </row>
     <row r="60" spans="1:24">
       <c r="A60">
-        <v>-93.258869090000005</v>
+        <v>-93.085080000000005</v>
       </c>
       <c r="B60">
-        <v>44.986570030000003</v>
+        <v>44.949590000000001</v>
       </c>
       <c r="C60">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="D60" t="s">
-        <v>606</v>
+        <v>736</v>
       </c>
       <c r="E60" t="s">
-        <v>607</v>
+        <v>805</v>
       </c>
       <c r="F60" t="s">
-        <v>97</v>
+        <v>541</v>
       </c>
       <c r="G60">
-        <v>55414</v>
-      </c>
-      <c r="H60" t="s">
-        <v>608</v>
+        <v>55101</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>954</v>
       </c>
       <c r="I60" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="K60" t="s">
-        <v>610</v>
-      </c>
-      <c r="N60" t="s">
-        <v>511</v>
+        <v>379</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>855</v>
+      </c>
+      <c r="R60" t="s">
+        <v>839</v>
       </c>
       <c r="S60" t="s">
-        <v>330</v>
-      </c>
-      <c r="T60" t="s">
-        <v>611</v>
+        <v>327</v>
       </c>
       <c r="V60" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W60">
         <v>60</v>
@@ -9118,42 +8985,48 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="61" spans="1:24">
+    <row r="61" spans="1:24" ht="19">
       <c r="A61">
-        <v>-93.161739999999995</v>
+        <v>-93.145229999999998</v>
       </c>
       <c r="B61">
-        <v>44.455100000000002</v>
+        <v>44.94191</v>
       </c>
       <c r="C61">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="D61" t="s">
-        <v>664</v>
+        <v>817</v>
       </c>
       <c r="E61" t="s">
-        <v>899</v>
+        <v>804</v>
       </c>
       <c r="F61" t="s">
-        <v>746</v>
+        <v>541</v>
       </c>
       <c r="G61">
-        <v>55057</v>
+        <v>55105</v>
       </c>
       <c r="H61" t="s">
-        <v>844</v>
+        <v>761</v>
+      </c>
+      <c r="I61" t="s">
+        <v>588</v>
       </c>
       <c r="K61" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>950</v>
+        <v>379</v>
+      </c>
+      <c r="P61" t="s">
+        <v>856</v>
       </c>
       <c r="S61" t="s">
-        <v>330</v>
+        <v>327</v>
+      </c>
+      <c r="U61" s="9" t="s">
+        <v>955</v>
       </c>
       <c r="V61" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W61">
         <v>60</v>
@@ -9164,49 +9037,49 @@
     </row>
     <row r="62" spans="1:24">
       <c r="A62">
-        <v>-92.455960000000005</v>
+        <v>-93.259001249999997</v>
       </c>
       <c r="B62">
-        <v>44.001130000000003</v>
+        <v>44.934401080000001</v>
       </c>
       <c r="C62">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D62" t="s">
-        <v>645</v>
+        <v>504</v>
       </c>
       <c r="E62" t="s">
-        <v>898</v>
+        <v>793</v>
       </c>
       <c r="F62" t="s">
-        <v>717</v>
+        <v>97</v>
       </c>
       <c r="G62">
-        <v>55904</v>
+        <v>55407</v>
       </c>
       <c r="H62" t="s">
-        <v>843</v>
+        <v>505</v>
       </c>
       <c r="I62" t="s">
-        <v>718</v>
+        <v>506</v>
+      </c>
+      <c r="J62" t="s">
+        <v>490</v>
       </c>
       <c r="K62" t="s">
-        <v>393</v>
-      </c>
-      <c r="N62" t="s">
-        <v>948</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>949</v>
+        <v>507</v>
+      </c>
+      <c r="O62" t="s">
+        <v>508</v>
       </c>
       <c r="S62" t="s">
-        <v>330</v>
-      </c>
-      <c r="U62" t="s">
-        <v>646</v>
+        <v>335</v>
+      </c>
+      <c r="T62" t="s">
+        <v>509</v>
       </c>
       <c r="V62" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W62">
         <v>60</v>
@@ -9215,45 +9088,54 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="63" spans="1:24">
+    <row r="63" spans="1:24" ht="19">
       <c r="A63">
-        <v>-93.7346</v>
+        <v>-93.227817450000003</v>
       </c>
       <c r="B63">
-        <v>45.088560000000001</v>
+        <v>44.974341600000002</v>
       </c>
       <c r="C63">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="D63" t="s">
-        <v>663</v>
+        <v>428</v>
       </c>
       <c r="E63" t="s">
-        <v>916</v>
+        <v>791</v>
       </c>
       <c r="F63" t="s">
         <v>97</v>
       </c>
       <c r="G63">
-        <v>55373</v>
+        <v>55455</v>
       </c>
       <c r="H63" t="s">
-        <v>880</v>
+        <v>429</v>
       </c>
       <c r="I63" t="s">
-        <v>393</v>
+        <v>430</v>
+      </c>
+      <c r="J63" t="s">
+        <v>431</v>
       </c>
       <c r="K63" t="s">
-        <v>393</v>
-      </c>
-      <c r="P63" t="s">
-        <v>966</v>
+        <v>379</v>
+      </c>
+      <c r="N63" t="s">
+        <v>432</v>
       </c>
       <c r="S63" t="s">
-        <v>330</v>
+        <v>335</v>
+      </c>
+      <c r="T63" t="s">
+        <v>433</v>
+      </c>
+      <c r="U63" s="9" t="s">
+        <v>956</v>
       </c>
       <c r="V63" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W63">
         <v>60</v>
@@ -9262,51 +9144,48 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="64" spans="1:24">
+    <row r="64" spans="1:24" ht="19">
       <c r="A64">
-        <v>-93.552147840000003</v>
+        <v>-93.051959999999994</v>
       </c>
       <c r="B64">
-        <v>45.187066489999999</v>
+        <v>45.051380000000002</v>
       </c>
       <c r="C64">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="D64" t="s">
-        <v>439</v>
+        <v>583</v>
       </c>
       <c r="E64" t="s">
-        <v>892</v>
+        <v>722</v>
       </c>
       <c r="F64" t="s">
-        <v>440</v>
+        <v>276</v>
       </c>
       <c r="G64">
-        <v>55347</v>
+        <v>55110</v>
       </c>
       <c r="H64" t="s">
-        <v>441</v>
+        <v>776</v>
       </c>
       <c r="I64" t="s">
-        <v>442</v>
-      </c>
-      <c r="J64" t="s">
-        <v>443</v>
+        <v>588</v>
       </c>
       <c r="K64" t="s">
-        <v>444</v>
+        <v>379</v>
       </c>
       <c r="N64" t="s">
-        <v>445</v>
+        <v>833</v>
       </c>
       <c r="S64" t="s">
-        <v>338</v>
-      </c>
-      <c r="T64" t="s">
-        <v>446</v>
+        <v>327</v>
+      </c>
+      <c r="U64" s="9" t="s">
+        <v>957</v>
       </c>
       <c r="V64" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W64">
         <v>60</v>
@@ -9315,45 +9194,54 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="65" spans="1:24">
+    <row r="65" spans="1:24" ht="19">
       <c r="A65">
-        <v>-93.127529999999993</v>
+        <v>-93.506930420000003</v>
       </c>
       <c r="B65">
-        <v>44.747709999999998</v>
+        <v>44.968517650000003</v>
       </c>
       <c r="C65">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D65" t="s">
-        <v>676</v>
+        <v>491</v>
       </c>
       <c r="E65" t="s">
-        <v>759</v>
+        <v>492</v>
       </c>
       <c r="F65" t="s">
-        <v>264</v>
+        <v>493</v>
       </c>
       <c r="G65">
-        <v>55068</v>
-      </c>
-      <c r="H65" t="s">
-        <v>849</v>
+        <v>55391</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>958</v>
       </c>
       <c r="I65" t="s">
-        <v>690</v>
+        <v>494</v>
+      </c>
+      <c r="J65" t="s">
+        <v>318</v>
       </c>
       <c r="K65" t="s">
-        <v>393</v>
-      </c>
-      <c r="M65" t="s">
-        <v>953</v>
+        <v>495</v>
+      </c>
+      <c r="O65" t="s">
+        <v>959</v>
       </c>
       <c r="S65" t="s">
-        <v>330</v>
+        <v>335</v>
+      </c>
+      <c r="T65" t="s">
+        <v>496</v>
+      </c>
+      <c r="U65" s="9" t="s">
+        <v>960</v>
       </c>
       <c r="V65" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W65">
         <v>60</v>
@@ -9362,48 +9250,54 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="66" spans="1:24">
+    <row r="66" spans="1:24" ht="19">
       <c r="A66">
-        <v>-93.178299999999993</v>
+        <v>-93.288696079999994</v>
       </c>
       <c r="B66">
-        <v>45.00497</v>
+        <v>44.999326080000003</v>
       </c>
       <c r="C66">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="D66" t="s">
-        <v>637</v>
+        <v>25</v>
       </c>
       <c r="E66" t="s">
-        <v>914</v>
+        <v>792</v>
       </c>
       <c r="F66" t="s">
-        <v>259</v>
+        <v>97</v>
       </c>
       <c r="G66">
-        <v>55113</v>
+        <v>55411</v>
       </c>
       <c r="H66" t="s">
-        <v>875</v>
+        <v>455</v>
       </c>
       <c r="I66" t="s">
-        <v>690</v>
+        <v>456</v>
+      </c>
+      <c r="J66" t="s">
+        <v>457</v>
       </c>
       <c r="K66" t="s">
-        <v>393</v>
-      </c>
-      <c r="N66" t="s">
-        <v>969</v>
+        <v>458</v>
+      </c>
+      <c r="P66" t="s">
+        <v>459</v>
       </c>
       <c r="S66" t="s">
-        <v>330</v>
-      </c>
-      <c r="U66" t="s">
-        <v>968</v>
+        <v>310</v>
+      </c>
+      <c r="T66" t="s">
+        <v>460</v>
+      </c>
+      <c r="U66" s="9" t="s">
+        <v>961</v>
       </c>
       <c r="V66" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W66">
         <v>60</v>
@@ -9412,51 +9306,48 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="67" spans="1:24">
+    <row r="67" spans="1:24" ht="19">
       <c r="A67">
-        <v>-93.340203209999999</v>
+        <v>-93.080629999999999</v>
       </c>
       <c r="B67">
-        <v>44.778434969999999</v>
+        <v>44.912550000000003</v>
       </c>
       <c r="C67">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D67" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="E67" t="s">
-        <v>903</v>
+        <v>803</v>
       </c>
       <c r="F67" t="s">
-        <v>250</v>
+        <v>715</v>
       </c>
       <c r="G67">
-        <v>55378</v>
+        <v>55118</v>
       </c>
       <c r="H67" t="s">
-        <v>851</v>
+        <v>757</v>
       </c>
       <c r="I67" t="s">
-        <v>690</v>
+        <v>588</v>
       </c>
       <c r="K67" t="s">
-        <v>393</v>
-      </c>
-      <c r="L67" t="s">
-        <v>956</v>
-      </c>
-      <c r="R67" t="s">
-        <v>954</v>
+        <v>379</v>
+      </c>
+      <c r="P67" t="s">
+        <v>857</v>
       </c>
       <c r="S67" t="s">
-        <v>330</v>
-      </c>
-      <c r="U67" t="s">
-        <v>666</v>
+        <v>327</v>
+      </c>
+      <c r="U67" s="9" t="s">
+        <v>962</v>
       </c>
       <c r="V67" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W67">
         <v>60</v>
@@ -9465,48 +9356,45 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="68" spans="1:24">
+    <row r="68" spans="1:24" ht="19">
       <c r="A68">
-        <v>-93.135266880000003</v>
+        <v>-93.010060999999993</v>
       </c>
       <c r="B68">
-        <v>45.080821800000002</v>
+        <v>45.084986000000001</v>
       </c>
       <c r="C68">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="D68" t="s">
-        <v>667</v>
+        <v>869</v>
       </c>
       <c r="E68" t="s">
-        <v>915</v>
+        <v>870</v>
       </c>
       <c r="F68" t="s">
-        <v>789</v>
+        <v>881</v>
       </c>
       <c r="G68">
-        <v>55126</v>
-      </c>
-      <c r="H68" t="s">
-        <v>879</v>
+        <v>55110</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>963</v>
       </c>
       <c r="I68" t="s">
-        <v>790</v>
+        <v>882</v>
       </c>
       <c r="K68" t="s">
-        <v>393</v>
-      </c>
-      <c r="M68" t="s">
-        <v>967</v>
-      </c>
-      <c r="S68" t="s">
-        <v>330</v>
-      </c>
-      <c r="U68" t="s">
-        <v>792</v>
+        <v>379</v>
+      </c>
+      <c r="P68" t="s">
+        <v>857</v>
+      </c>
+      <c r="U68" s="9" t="s">
+        <v>886</v>
       </c>
       <c r="V68" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W68">
         <v>60</v>
@@ -9515,45 +9403,48 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="69" spans="1:24">
+    <row r="69" spans="1:24" ht="19">
       <c r="A69">
-        <v>-93.048416000000003</v>
+        <v>-93.28013</v>
       </c>
       <c r="B69">
-        <v>44.888627</v>
+        <v>44.955219999999997</v>
       </c>
       <c r="C69">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="D69" t="s">
-        <v>991</v>
+        <v>586</v>
       </c>
       <c r="E69" t="s">
-        <v>994</v>
+        <v>806</v>
       </c>
       <c r="F69" t="s">
-        <v>1003</v>
+        <v>633</v>
       </c>
       <c r="G69">
-        <v>55075</v>
+        <v>55408</v>
       </c>
       <c r="H69" t="s">
-        <v>865</v>
+        <v>764</v>
       </c>
       <c r="I69" t="s">
-        <v>690</v>
+        <v>379</v>
       </c>
       <c r="K69" t="s">
-        <v>393</v>
-      </c>
-      <c r="N69" t="s">
-        <v>948</v>
-      </c>
-      <c r="U69" t="s">
-        <v>1012</v>
+        <v>379</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>854</v>
+      </c>
+      <c r="S69" t="s">
+        <v>327</v>
+      </c>
+      <c r="U69" s="9" t="s">
+        <v>964</v>
       </c>
       <c r="V69" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W69">
         <v>60</v>
@@ -9562,51 +9453,48 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="70" spans="1:24">
+    <row r="70" spans="1:24" ht="19">
       <c r="A70">
-        <v>-93.74145919</v>
+        <v>-92.933160000000001</v>
       </c>
       <c r="B70">
-        <v>44.902299849999999</v>
+        <v>44.915970000000002</v>
       </c>
       <c r="C70">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="D70" t="s">
-        <v>922</v>
+        <v>573</v>
       </c>
       <c r="E70" t="s">
-        <v>506</v>
+        <v>699</v>
       </c>
       <c r="F70" t="s">
-        <v>507</v>
+        <v>252</v>
       </c>
       <c r="G70">
-        <v>55375</v>
+        <v>55125</v>
       </c>
       <c r="H70" t="s">
-        <v>508</v>
+        <v>758</v>
       </c>
       <c r="I70" t="s">
-        <v>509</v>
-      </c>
-      <c r="J70" t="s">
-        <v>319</v>
+        <v>588</v>
       </c>
       <c r="K70" t="s">
-        <v>510</v>
-      </c>
-      <c r="N70" t="s">
-        <v>511</v>
+        <v>379</v>
+      </c>
+      <c r="R70" t="s">
+        <v>839</v>
       </c>
       <c r="S70" t="s">
-        <v>338</v>
-      </c>
-      <c r="T70" t="s">
-        <v>512</v>
+        <v>327</v>
+      </c>
+      <c r="U70" s="9" t="s">
+        <v>965</v>
       </c>
       <c r="V70" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W70">
         <v>60</v>
@@ -9615,51 +9503,45 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="71" spans="1:24">
+    <row r="71" spans="1:24" ht="19">
       <c r="A71">
-        <v>-93.085080000000005</v>
+        <v>-93.584225200000006</v>
       </c>
       <c r="B71">
-        <v>44.949590000000001</v>
+        <v>45.438823290000002</v>
       </c>
       <c r="C71">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D71" t="s">
-        <v>838</v>
+        <v>566</v>
       </c>
       <c r="E71" t="s">
-        <v>908</v>
+        <v>816</v>
       </c>
       <c r="F71" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="G71">
-        <v>55101</v>
+        <v>55398</v>
       </c>
       <c r="H71" t="s">
-        <v>865</v>
-      </c>
-      <c r="I71" t="s">
-        <v>690</v>
+        <v>783</v>
       </c>
       <c r="K71" t="s">
-        <v>393</v>
-      </c>
-      <c r="L71" t="s">
-        <v>956</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>977</v>
-      </c>
-      <c r="R71" t="s">
-        <v>954</v>
+        <v>379</v>
+      </c>
+      <c r="M71" t="s">
+        <v>845</v>
       </c>
       <c r="S71" t="s">
-        <v>330</v>
+        <v>327</v>
+      </c>
+      <c r="U71" s="9" t="s">
+        <v>966</v>
       </c>
       <c r="V71" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W71">
         <v>60</v>
@@ -9668,7 +9550,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="72" spans="1:24">
+    <row r="72" spans="1:24" ht="19">
       <c r="A72">
         <v>-93.091020999999998</v>
       </c>
@@ -9679,757 +9561,45 @@
         <v>81</v>
       </c>
       <c r="D72" t="s">
-        <v>838</v>
+        <v>967</v>
       </c>
       <c r="E72" t="s">
-        <v>839</v>
+        <v>737</v>
       </c>
       <c r="F72" t="s">
-        <v>643</v>
+        <v>541</v>
       </c>
       <c r="G72">
         <v>55101</v>
       </c>
       <c r="H72" t="s">
-        <v>865</v>
+        <v>763</v>
       </c>
       <c r="I72" t="s">
-        <v>690</v>
+        <v>588</v>
       </c>
       <c r="K72" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="M72" t="s">
-        <v>958</v>
+        <v>842</v>
       </c>
       <c r="O72" t="s">
-        <v>957</v>
+        <v>841</v>
       </c>
       <c r="S72" t="s">
-        <v>330</v>
-      </c>
-      <c r="U72" t="s">
-        <v>839</v>
+        <v>327</v>
+      </c>
+      <c r="U72" s="9" t="s">
+        <v>968</v>
       </c>
       <c r="V72" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W72">
         <v>60</v>
       </c>
       <c r="X72">
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="73" spans="1:24">
-      <c r="A73">
-        <v>-93.145229999999998</v>
-      </c>
-      <c r="B73">
-        <v>44.94191</v>
-      </c>
-      <c r="C73">
-        <v>61</v>
-      </c>
-      <c r="D73" t="s">
-        <v>921</v>
-      </c>
-      <c r="E73" t="s">
-        <v>907</v>
-      </c>
-      <c r="F73" t="s">
-        <v>643</v>
-      </c>
-      <c r="G73">
-        <v>55105</v>
-      </c>
-      <c r="H73" t="s">
-        <v>863</v>
-      </c>
-      <c r="I73" t="s">
-        <v>690</v>
-      </c>
-      <c r="K73" t="s">
-        <v>393</v>
-      </c>
-      <c r="P73" t="s">
-        <v>978</v>
-      </c>
-      <c r="S73" t="s">
-        <v>330</v>
-      </c>
-      <c r="V73" t="s">
-        <v>313</v>
-      </c>
-      <c r="W73">
-        <v>60</v>
-      </c>
-      <c r="X73">
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="74" spans="1:24">
-      <c r="A74">
-        <v>-93.259001249999997</v>
-      </c>
-      <c r="B74">
-        <v>44.934401080000001</v>
-      </c>
-      <c r="C74">
-        <v>38</v>
-      </c>
-      <c r="D74" t="s">
-        <v>584</v>
-      </c>
-      <c r="E74" t="s">
-        <v>896</v>
-      </c>
-      <c r="F74" t="s">
-        <v>97</v>
-      </c>
-      <c r="G74">
-        <v>55407</v>
-      </c>
-      <c r="H74" t="s">
-        <v>585</v>
-      </c>
-      <c r="I74" t="s">
-        <v>586</v>
-      </c>
-      <c r="J74" t="s">
-        <v>532</v>
-      </c>
-      <c r="K74" t="s">
-        <v>587</v>
-      </c>
-      <c r="O74" t="s">
-        <v>588</v>
-      </c>
-      <c r="S74" t="s">
-        <v>338</v>
-      </c>
-      <c r="T74" t="s">
-        <v>589</v>
-      </c>
-      <c r="V74" t="s">
-        <v>313</v>
-      </c>
-      <c r="W74">
-        <v>60</v>
-      </c>
-      <c r="X74">
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="75" spans="1:24">
-      <c r="A75">
-        <v>-93.227817450000003</v>
-      </c>
-      <c r="B75">
-        <v>44.974341600000002</v>
-      </c>
-      <c r="C75">
-        <v>20</v>
-      </c>
-      <c r="D75" t="s">
-        <v>455</v>
-      </c>
-      <c r="E75" t="s">
-        <v>893</v>
-      </c>
-      <c r="F75" t="s">
-        <v>97</v>
-      </c>
-      <c r="G75">
-        <v>55455</v>
-      </c>
-      <c r="H75" t="s">
-        <v>456</v>
-      </c>
-      <c r="I75" t="s">
-        <v>457</v>
-      </c>
-      <c r="J75" t="s">
-        <v>458</v>
-      </c>
-      <c r="K75" t="s">
-        <v>393</v>
-      </c>
-      <c r="N75" t="s">
-        <v>459</v>
-      </c>
-      <c r="S75" t="s">
-        <v>338</v>
-      </c>
-      <c r="T75" t="s">
-        <v>460</v>
-      </c>
-      <c r="U75" t="s">
-        <v>461</v>
-      </c>
-      <c r="V75" t="s">
-        <v>313</v>
-      </c>
-      <c r="W75">
-        <v>60</v>
-      </c>
-      <c r="X75">
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="76" spans="1:24">
-      <c r="A76">
-        <v>-93.204085849999998</v>
-      </c>
-      <c r="B76">
-        <v>44.90195782</v>
-      </c>
-      <c r="C76">
-        <v>19</v>
-      </c>
-      <c r="D76" t="s">
-        <v>447</v>
-      </c>
-      <c r="E76" t="s">
-        <v>448</v>
-      </c>
-      <c r="F76" t="s">
-        <v>97</v>
-      </c>
-      <c r="G76">
-        <v>55417</v>
-      </c>
-      <c r="H76" t="s">
-        <v>449</v>
-      </c>
-      <c r="I76" t="s">
-        <v>450</v>
-      </c>
-      <c r="J76" t="s">
-        <v>451</v>
-      </c>
-      <c r="K76" t="s">
-        <v>452</v>
-      </c>
-      <c r="M76" t="s">
-        <v>453</v>
-      </c>
-      <c r="S76" t="s">
-        <v>338</v>
-      </c>
-      <c r="T76" t="s">
-        <v>454</v>
-      </c>
-      <c r="V76" t="s">
-        <v>313</v>
-      </c>
-      <c r="W76">
-        <v>60</v>
-      </c>
-      <c r="X76">
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="77" spans="1:24">
-      <c r="A77">
-        <v>-93.051959999999994</v>
-      </c>
-      <c r="B77">
-        <v>45.051380000000002</v>
-      </c>
-      <c r="C77">
-        <v>72</v>
-      </c>
-      <c r="D77" t="s">
-        <v>685</v>
-      </c>
-      <c r="E77" t="s">
-        <v>824</v>
-      </c>
-      <c r="F77" t="s">
-        <v>276</v>
-      </c>
-      <c r="G77">
-        <v>55110</v>
-      </c>
-      <c r="H77" t="s">
-        <v>878</v>
-      </c>
-      <c r="I77" t="s">
-        <v>690</v>
-      </c>
-      <c r="K77" t="s">
-        <v>393</v>
-      </c>
-      <c r="N77" t="s">
-        <v>948</v>
-      </c>
-      <c r="S77" t="s">
-        <v>330</v>
-      </c>
-      <c r="U77" t="s">
-        <v>825</v>
-      </c>
-      <c r="V77" t="s">
-        <v>313</v>
-      </c>
-      <c r="W77">
-        <v>60</v>
-      </c>
-      <c r="X77">
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="78" spans="1:24">
-      <c r="A78">
-        <v>-93.506930420000003</v>
-      </c>
-      <c r="B78">
-        <v>44.968517650000003</v>
-      </c>
-      <c r="C78">
-        <v>32</v>
-      </c>
-      <c r="D78" t="s">
-        <v>539</v>
-      </c>
-      <c r="E78" t="s">
-        <v>540</v>
-      </c>
-      <c r="F78" t="s">
-        <v>541</v>
-      </c>
-      <c r="G78">
-        <v>55391</v>
-      </c>
-      <c r="H78" t="s">
-        <v>542</v>
-      </c>
-      <c r="I78" t="s">
-        <v>543</v>
-      </c>
-      <c r="J78" t="s">
-        <v>319</v>
-      </c>
-      <c r="K78" t="s">
-        <v>544</v>
-      </c>
-      <c r="O78" t="s">
-        <v>545</v>
-      </c>
-      <c r="S78" t="s">
-        <v>338</v>
-      </c>
-      <c r="T78" t="s">
-        <v>546</v>
-      </c>
-      <c r="V78" t="s">
-        <v>313</v>
-      </c>
-      <c r="W78">
-        <v>60</v>
-      </c>
-      <c r="X78">
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="79" spans="1:24">
-      <c r="A79">
-        <v>-93.247074839999996</v>
-      </c>
-      <c r="B79">
-        <v>44.968948480000002</v>
-      </c>
-      <c r="C79">
-        <v>41</v>
-      </c>
-      <c r="D79" t="s">
-        <v>601</v>
-      </c>
-      <c r="E79" t="s">
-        <v>602</v>
-      </c>
-      <c r="F79" t="s">
-        <v>97</v>
-      </c>
-      <c r="G79">
-        <v>55454</v>
-      </c>
-      <c r="H79" t="s">
-        <v>603</v>
-      </c>
-      <c r="I79" t="s">
-        <v>604</v>
-      </c>
-      <c r="K79" t="s">
-        <v>581</v>
-      </c>
-      <c r="M79" t="s">
-        <v>605</v>
-      </c>
-      <c r="S79" t="s">
-        <v>310</v>
-      </c>
-      <c r="T79" t="s">
-        <v>583</v>
-      </c>
-      <c r="V79" t="s">
-        <v>313</v>
-      </c>
-      <c r="W79">
-        <v>60</v>
-      </c>
-      <c r="X79">
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="80" spans="1:24">
-      <c r="A80">
-        <v>-93.238340809999997</v>
-      </c>
-      <c r="B80">
-        <v>44.966206479999997</v>
-      </c>
-      <c r="C80">
-        <v>37</v>
-      </c>
-      <c r="D80" t="s">
-        <v>576</v>
-      </c>
-      <c r="E80" t="s">
-        <v>577</v>
-      </c>
-      <c r="F80" t="s">
-        <v>97</v>
-      </c>
-      <c r="G80">
-        <v>55454</v>
-      </c>
-      <c r="H80" t="s">
-        <v>578</v>
-      </c>
-      <c r="I80" t="s">
-        <v>579</v>
-      </c>
-      <c r="J80" t="s">
-        <v>580</v>
-      </c>
-      <c r="K80" t="s">
-        <v>581</v>
-      </c>
-      <c r="M80" t="s">
-        <v>582</v>
-      </c>
-      <c r="S80" t="s">
-        <v>310</v>
-      </c>
-      <c r="T80" t="s">
-        <v>583</v>
-      </c>
-      <c r="V80" t="s">
-        <v>313</v>
-      </c>
-      <c r="W80">
-        <v>60</v>
-      </c>
-      <c r="X80">
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="81" spans="1:24">
-      <c r="A81">
-        <v>-93.288696079999994</v>
-      </c>
-      <c r="B81">
-        <v>44.999326080000003</v>
-      </c>
-      <c r="C81">
-        <v>24</v>
-      </c>
-      <c r="D81" t="s">
-        <v>25</v>
-      </c>
-      <c r="E81" t="s">
-        <v>894</v>
-      </c>
-      <c r="F81" t="s">
-        <v>97</v>
-      </c>
-      <c r="G81">
-        <v>55411</v>
-      </c>
-      <c r="H81" t="s">
-        <v>483</v>
-      </c>
-      <c r="I81" t="s">
-        <v>484</v>
-      </c>
-      <c r="J81" t="s">
-        <v>485</v>
-      </c>
-      <c r="K81" t="s">
-        <v>486</v>
-      </c>
-      <c r="P81" t="s">
-        <v>487</v>
-      </c>
-      <c r="S81" t="s">
-        <v>310</v>
-      </c>
-      <c r="T81" t="s">
-        <v>488</v>
-      </c>
-      <c r="V81" t="s">
-        <v>313</v>
-      </c>
-      <c r="W81">
-        <v>60</v>
-      </c>
-      <c r="X81">
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="82" spans="1:24">
-      <c r="A82">
-        <v>-93.080629999999999</v>
-      </c>
-      <c r="B82">
-        <v>44.912550000000003</v>
-      </c>
-      <c r="C82">
-        <v>58</v>
-      </c>
-      <c r="D82" t="s">
-        <v>761</v>
-      </c>
-      <c r="E82" t="s">
-        <v>906</v>
-      </c>
-      <c r="F82" t="s">
-        <v>817</v>
-      </c>
-      <c r="G82">
-        <v>55118</v>
-      </c>
-      <c r="H82" t="s">
-        <v>859</v>
-      </c>
-      <c r="I82" t="s">
-        <v>690</v>
-      </c>
-      <c r="K82" t="s">
-        <v>393</v>
-      </c>
-      <c r="P82" t="s">
-        <v>979</v>
-      </c>
-      <c r="S82" t="s">
-        <v>330</v>
-      </c>
-      <c r="U82" t="s">
-        <v>819</v>
-      </c>
-      <c r="V82" t="s">
-        <v>313</v>
-      </c>
-      <c r="W82">
-        <v>60</v>
-      </c>
-      <c r="X82">
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="83" spans="1:24">
-      <c r="A83">
-        <v>-93.010060999999993</v>
-      </c>
-      <c r="B83">
-        <v>45.084986000000001</v>
-      </c>
-      <c r="C83">
-        <v>92</v>
-      </c>
-      <c r="D83" t="s">
-        <v>992</v>
-      </c>
-      <c r="E83" t="s">
-        <v>993</v>
-      </c>
-      <c r="F83" t="s">
-        <v>1004</v>
-      </c>
-      <c r="G83">
-        <v>55110</v>
-      </c>
-      <c r="H83" t="s">
-        <v>1005</v>
-      </c>
-      <c r="I83" t="s">
-        <v>1008</v>
-      </c>
-      <c r="K83" t="s">
-        <v>393</v>
-      </c>
-      <c r="P83" t="s">
-        <v>979</v>
-      </c>
-      <c r="U83" t="s">
-        <v>1013</v>
-      </c>
-      <c r="V83" t="s">
-        <v>313</v>
-      </c>
-      <c r="W83">
-        <v>60</v>
-      </c>
-      <c r="X83">
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="84" spans="1:24">
-      <c r="A84">
-        <v>-93.28013</v>
-      </c>
-      <c r="B84">
-        <v>44.955219999999997</v>
-      </c>
-      <c r="C84">
-        <v>63</v>
-      </c>
-      <c r="D84" t="s">
-        <v>688</v>
-      </c>
-      <c r="E84" t="s">
-        <v>909</v>
-      </c>
-      <c r="F84" t="s">
-        <v>735</v>
-      </c>
-      <c r="G84">
-        <v>55408</v>
-      </c>
-      <c r="H84" t="s">
-        <v>866</v>
-      </c>
-      <c r="I84" t="s">
-        <v>393</v>
-      </c>
-      <c r="K84" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>976</v>
-      </c>
-      <c r="S84" t="s">
-        <v>330</v>
-      </c>
-      <c r="U84" t="s">
-        <v>778</v>
-      </c>
-      <c r="V84" t="s">
-        <v>313</v>
-      </c>
-      <c r="W84">
-        <v>60</v>
-      </c>
-      <c r="X84">
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="85" spans="1:24">
-      <c r="A85">
-        <v>-92.933160000000001</v>
-      </c>
-      <c r="B85">
-        <v>44.915970000000002</v>
-      </c>
-      <c r="C85">
-        <v>59</v>
-      </c>
-      <c r="D85" t="s">
-        <v>675</v>
-      </c>
-      <c r="E85" t="s">
-        <v>801</v>
-      </c>
-      <c r="F85" t="s">
-        <v>252</v>
-      </c>
-      <c r="G85">
-        <v>55125</v>
-      </c>
-      <c r="H85" t="s">
-        <v>860</v>
-      </c>
-      <c r="I85" t="s">
-        <v>690</v>
-      </c>
-      <c r="K85" t="s">
-        <v>393</v>
-      </c>
-      <c r="L85" t="s">
-        <v>956</v>
-      </c>
-      <c r="R85" t="s">
-        <v>954</v>
-      </c>
-      <c r="S85" t="s">
-        <v>330</v>
-      </c>
-      <c r="U85" t="s">
-        <v>802</v>
-      </c>
-      <c r="V85" t="s">
-        <v>313</v>
-      </c>
-      <c r="W85">
-        <v>60</v>
-      </c>
-      <c r="X85">
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="86" spans="1:24">
-      <c r="A86">
-        <v>-93.584225200000006</v>
-      </c>
-      <c r="B86">
-        <v>45.438823290000002</v>
-      </c>
-      <c r="C86">
-        <v>78</v>
-      </c>
-      <c r="D86" t="s">
-        <v>668</v>
-      </c>
-      <c r="E86" t="s">
-        <v>920</v>
-      </c>
-      <c r="F86" t="s">
-        <v>750</v>
-      </c>
-      <c r="G86">
-        <v>55398</v>
-      </c>
-      <c r="H86" t="s">
-        <v>885</v>
-      </c>
-      <c r="K86" t="s">
-        <v>393</v>
-      </c>
-      <c r="M86" t="s">
-        <v>961</v>
-      </c>
-      <c r="S86" t="s">
-        <v>330</v>
-      </c>
-      <c r="V86" t="s">
-        <v>313</v>
-      </c>
-      <c r="W86">
-        <v>60</v>
-      </c>
-      <c r="X86">
         <v>-60</v>
       </c>
     </row>
@@ -10437,6 +9607,22 @@
   <sortState ref="A2:Y93">
     <sortCondition ref="D1"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="H6" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId2"/>
+    <hyperlink ref="H3" r:id="rId3"/>
+    <hyperlink ref="H15" r:id="rId4"/>
+    <hyperlink ref="H18" r:id="rId5"/>
+    <hyperlink ref="H20" r:id="rId6"/>
+    <hyperlink ref="H23" r:id="rId7"/>
+    <hyperlink ref="H30" r:id="rId8"/>
+    <hyperlink ref="H32" r:id="rId9"/>
+    <hyperlink ref="H45" r:id="rId10"/>
+    <hyperlink ref="H59" r:id="rId11"/>
+    <hyperlink ref="H60" r:id="rId12"/>
+    <hyperlink ref="H65" r:id="rId13"/>
+    <hyperlink ref="H68" r:id="rId14"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -10459,28 +9645,28 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>622</v>
+        <v>520</v>
       </c>
       <c r="B1" t="s">
-        <v>805</v>
+        <v>703</v>
       </c>
       <c r="C1" t="s">
-        <v>806</v>
+        <v>704</v>
       </c>
       <c r="D1" t="s">
-        <v>807</v>
+        <v>705</v>
       </c>
       <c r="E1" t="s">
-        <v>624</v>
+        <v>522</v>
       </c>
       <c r="F1" t="s">
-        <v>830</v>
+        <v>728</v>
       </c>
       <c r="G1" t="s">
-        <v>627</v>
+        <v>525</v>
       </c>
       <c r="H1" t="s">
-        <v>808</v>
+        <v>706</v>
       </c>
       <c r="I1" t="s">
         <v>300</v>
@@ -10491,25 +9677,25 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>647</v>
+        <v>545</v>
       </c>
       <c r="B2" t="s">
-        <v>719</v>
+        <v>617</v>
       </c>
       <c r="D2" t="s">
-        <v>784</v>
+        <v>682</v>
       </c>
       <c r="E2" t="s">
-        <v>648</v>
+        <v>546</v>
       </c>
       <c r="F2" t="s">
-        <v>831</v>
+        <v>729</v>
       </c>
       <c r="G2" t="s">
-        <v>720</v>
+        <v>618</v>
       </c>
       <c r="H2" t="s">
-        <v>842</v>
+        <v>740</v>
       </c>
       <c r="I2">
         <v>-93.945201286304794</v>
@@ -10520,28 +9706,28 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>645</v>
+        <v>543</v>
       </c>
       <c r="B3" t="s">
-        <v>715</v>
+        <v>613</v>
       </c>
       <c r="C3" t="s">
-        <v>646</v>
+        <v>544</v>
       </c>
       <c r="D3" t="s">
-        <v>716</v>
+        <v>614</v>
       </c>
       <c r="E3" t="s">
-        <v>717</v>
+        <v>615</v>
       </c>
       <c r="F3" t="s">
-        <v>831</v>
+        <v>729</v>
       </c>
       <c r="G3" t="s">
-        <v>718</v>
+        <v>616</v>
       </c>
       <c r="H3" t="s">
-        <v>843</v>
+        <v>741</v>
       </c>
       <c r="I3">
         <v>-92.455960000000005</v>
@@ -10552,25 +9738,25 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>645</v>
+        <v>543</v>
       </c>
       <c r="B4" t="s">
-        <v>814</v>
+        <v>712</v>
       </c>
       <c r="D4" t="s">
-        <v>716</v>
+        <v>614</v>
       </c>
       <c r="E4" t="s">
-        <v>679</v>
+        <v>577</v>
       </c>
       <c r="F4" t="s">
-        <v>831</v>
+        <v>729</v>
       </c>
       <c r="G4" t="s">
-        <v>718</v>
+        <v>616</v>
       </c>
       <c r="H4" t="s">
-        <v>843</v>
+        <v>741</v>
       </c>
       <c r="I4">
         <v>-92.455960000000005</v>
@@ -10581,22 +9767,22 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>664</v>
+        <v>562</v>
       </c>
       <c r="B5" t="s">
-        <v>744</v>
+        <v>642</v>
       </c>
       <c r="D5" t="s">
-        <v>745</v>
+        <v>643</v>
       </c>
       <c r="E5" t="s">
-        <v>746</v>
+        <v>644</v>
       </c>
       <c r="F5" t="s">
-        <v>831</v>
+        <v>729</v>
       </c>
       <c r="H5" t="s">
-        <v>844</v>
+        <v>742</v>
       </c>
       <c r="I5">
         <v>-93.161739999999995</v>
@@ -10607,28 +9793,28 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>678</v>
+        <v>576</v>
       </c>
       <c r="B6" t="s">
-        <v>744</v>
+        <v>642</v>
       </c>
       <c r="C6" t="s">
-        <v>776</v>
+        <v>674</v>
       </c>
       <c r="D6" t="s">
-        <v>689</v>
+        <v>587</v>
       </c>
       <c r="E6" t="s">
         <v>270</v>
       </c>
       <c r="F6" t="s">
-        <v>831</v>
+        <v>729</v>
       </c>
       <c r="G6" t="s">
-        <v>690</v>
+        <v>588</v>
       </c>
       <c r="H6" t="s">
-        <v>845</v>
+        <v>743</v>
       </c>
       <c r="I6">
         <v>-93.242890171888604</v>
@@ -10639,28 +9825,28 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>678</v>
+        <v>576</v>
       </c>
       <c r="B7" t="s">
-        <v>812</v>
+        <v>710</v>
       </c>
       <c r="C7" t="s">
-        <v>813</v>
+        <v>711</v>
       </c>
       <c r="D7" t="s">
-        <v>760</v>
+        <v>658</v>
       </c>
       <c r="E7" t="s">
         <v>270</v>
       </c>
       <c r="F7" t="s">
-        <v>831</v>
+        <v>729</v>
       </c>
       <c r="G7" t="s">
-        <v>811</v>
+        <v>709</v>
       </c>
       <c r="H7" t="s">
-        <v>846</v>
+        <v>744</v>
       </c>
       <c r="I7">
         <v>-93.242810000000006</v>
@@ -10671,25 +9857,25 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>649</v>
+        <v>547</v>
       </c>
       <c r="B8" t="s">
-        <v>719</v>
+        <v>617</v>
       </c>
       <c r="D8" t="s">
-        <v>721</v>
+        <v>619</v>
       </c>
       <c r="E8" t="s">
-        <v>650</v>
+        <v>548</v>
       </c>
       <c r="F8" t="s">
-        <v>831</v>
+        <v>729</v>
       </c>
       <c r="G8" t="s">
-        <v>722</v>
+        <v>620</v>
       </c>
       <c r="H8" t="s">
-        <v>847</v>
+        <v>745</v>
       </c>
       <c r="I8">
         <v>-93.424610000000001</v>
@@ -10700,28 +9886,28 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>673</v>
+        <v>571</v>
       </c>
       <c r="B9" t="s">
-        <v>755</v>
+        <v>653</v>
       </c>
       <c r="C9" t="s">
-        <v>674</v>
+        <v>572</v>
       </c>
       <c r="D9" t="s">
-        <v>756</v>
+        <v>654</v>
       </c>
       <c r="E9" t="s">
         <v>292</v>
       </c>
       <c r="F9" t="s">
-        <v>831</v>
+        <v>729</v>
       </c>
       <c r="G9" t="s">
-        <v>690</v>
+        <v>588</v>
       </c>
       <c r="H9" t="s">
-        <v>848</v>
+        <v>746</v>
       </c>
       <c r="I9">
         <v>-93.208690000000004</v>
@@ -10732,25 +9918,25 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>676</v>
+        <v>574</v>
       </c>
       <c r="B10" t="s">
-        <v>758</v>
+        <v>656</v>
       </c>
       <c r="D10" t="s">
-        <v>759</v>
+        <v>657</v>
       </c>
       <c r="E10" t="s">
         <v>264</v>
       </c>
       <c r="F10" t="s">
-        <v>831</v>
+        <v>729</v>
       </c>
       <c r="G10" t="s">
-        <v>690</v>
+        <v>588</v>
       </c>
       <c r="H10" t="s">
-        <v>849</v>
+        <v>747</v>
       </c>
       <c r="I10">
         <v>-93.127529999999993</v>
@@ -10761,25 +9947,25 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>640</v>
+        <v>538</v>
       </c>
       <c r="B11" t="s">
-        <v>723</v>
+        <v>621</v>
       </c>
       <c r="D11" t="s">
-        <v>767</v>
+        <v>665</v>
       </c>
       <c r="E11" t="s">
-        <v>781</v>
+        <v>679</v>
       </c>
       <c r="F11" t="s">
-        <v>831</v>
+        <v>729</v>
       </c>
       <c r="G11" t="s">
-        <v>690</v>
+        <v>588</v>
       </c>
       <c r="H11" t="s">
-        <v>850</v>
+        <v>748</v>
       </c>
       <c r="I11">
         <v>-93.281549999999996</v>
@@ -10790,28 +9976,28 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>665</v>
+        <v>563</v>
       </c>
       <c r="B12" t="s">
-        <v>788</v>
+        <v>686</v>
       </c>
       <c r="C12" t="s">
-        <v>666</v>
+        <v>564</v>
       </c>
       <c r="D12" t="s">
-        <v>748</v>
+        <v>646</v>
       </c>
       <c r="E12" t="s">
         <v>250</v>
       </c>
       <c r="F12" t="s">
-        <v>831</v>
+        <v>729</v>
       </c>
       <c r="G12" t="s">
-        <v>690</v>
+        <v>588</v>
       </c>
       <c r="H12" t="s">
-        <v>851</v>
+        <v>749</v>
       </c>
       <c r="I12">
         <v>-93.340203207883306</v>
@@ -10822,28 +10008,28 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>640</v>
+        <v>538</v>
       </c>
       <c r="B13" t="s">
-        <v>703</v>
+        <v>601</v>
       </c>
       <c r="C13" t="s">
-        <v>641</v>
+        <v>539</v>
       </c>
       <c r="D13" t="s">
-        <v>704</v>
+        <v>602</v>
       </c>
       <c r="E13" t="s">
-        <v>781</v>
+        <v>679</v>
       </c>
       <c r="F13" t="s">
-        <v>831</v>
+        <v>729</v>
       </c>
       <c r="G13" t="s">
-        <v>690</v>
+        <v>588</v>
       </c>
       <c r="H13" t="s">
-        <v>852</v>
+        <v>750</v>
       </c>
       <c r="I13">
         <v>-93.230577999999994</v>
@@ -10854,28 +10040,28 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>684</v>
+        <v>582</v>
       </c>
       <c r="B14" t="s">
-        <v>696</v>
+        <v>594</v>
       </c>
       <c r="C14" t="s">
-        <v>773</v>
+        <v>671</v>
       </c>
       <c r="D14" t="s">
-        <v>693</v>
+        <v>591</v>
       </c>
       <c r="E14" t="s">
         <v>247</v>
       </c>
       <c r="F14" t="s">
-        <v>831</v>
+        <v>729</v>
       </c>
       <c r="G14" t="s">
-        <v>690</v>
+        <v>588</v>
       </c>
       <c r="H14" t="s">
-        <v>853</v>
+        <v>751</v>
       </c>
       <c r="I14">
         <v>-93.063100000000006</v>
@@ -10886,25 +10072,25 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>462</v>
+        <v>434</v>
       </c>
       <c r="B15" t="s">
-        <v>815</v>
+        <v>713</v>
       </c>
       <c r="D15" t="s">
-        <v>816</v>
+        <v>714</v>
       </c>
       <c r="E15" t="s">
-        <v>464</v>
+        <v>436</v>
       </c>
       <c r="F15" t="s">
-        <v>831</v>
+        <v>729</v>
       </c>
       <c r="G15" t="s">
-        <v>466</v>
+        <v>438</v>
       </c>
       <c r="H15" t="s">
-        <v>854</v>
+        <v>752</v>
       </c>
       <c r="I15">
         <v>-93.325823</v>
@@ -10915,25 +10101,25 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="B16" t="s">
-        <v>739</v>
+        <v>637</v>
       </c>
       <c r="C16" t="s">
-        <v>658</v>
+        <v>556</v>
       </c>
       <c r="D16" t="s">
-        <v>740</v>
+        <v>638</v>
       </c>
       <c r="E16" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="F16" t="s">
-        <v>831</v>
+        <v>729</v>
       </c>
       <c r="H16" t="s">
-        <v>855</v>
+        <v>753</v>
       </c>
       <c r="I16">
         <v>-93.267795488253995</v>
@@ -10944,22 +10130,22 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>687</v>
+        <v>585</v>
       </c>
       <c r="B17" t="s">
-        <v>774</v>
+        <v>672</v>
       </c>
       <c r="D17" t="s">
-        <v>827</v>
+        <v>725</v>
       </c>
       <c r="E17" t="s">
-        <v>775</v>
+        <v>673</v>
       </c>
       <c r="F17" t="s">
-        <v>831</v>
+        <v>729</v>
       </c>
       <c r="H17" t="s">
-        <v>856</v>
+        <v>754</v>
       </c>
       <c r="I17">
         <v>-92.783293480054894</v>
@@ -10970,28 +10156,28 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B18" t="s">
-        <v>700</v>
+        <v>598</v>
       </c>
       <c r="C18" t="s">
-        <v>780</v>
+        <v>678</v>
       </c>
       <c r="D18" t="s">
-        <v>780</v>
+        <v>678</v>
       </c>
       <c r="E18" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F18" t="s">
-        <v>831</v>
+        <v>729</v>
       </c>
       <c r="G18" t="s">
-        <v>702</v>
+        <v>600</v>
       </c>
       <c r="H18" t="s">
-        <v>857</v>
+        <v>755</v>
       </c>
       <c r="I18">
         <v>-93.568641662597699</v>
@@ -11002,25 +10188,25 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>677</v>
+        <v>575</v>
       </c>
       <c r="B19" t="s">
-        <v>809</v>
+        <v>707</v>
       </c>
       <c r="D19" t="s">
-        <v>810</v>
+        <v>708</v>
       </c>
       <c r="E19" t="s">
-        <v>735</v>
+        <v>633</v>
       </c>
       <c r="F19" t="s">
-        <v>831</v>
+        <v>729</v>
       </c>
       <c r="G19" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="H19" t="s">
-        <v>858</v>
+        <v>756</v>
       </c>
       <c r="I19">
         <v>-93.262249999999995</v>
@@ -11031,28 +10217,28 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>761</v>
+        <v>659</v>
       </c>
       <c r="B20" t="s">
-        <v>818</v>
+        <v>716</v>
       </c>
       <c r="C20" t="s">
-        <v>819</v>
+        <v>717</v>
       </c>
       <c r="D20" t="s">
-        <v>762</v>
+        <v>660</v>
       </c>
       <c r="E20" t="s">
-        <v>817</v>
+        <v>715</v>
       </c>
       <c r="F20" t="s">
-        <v>831</v>
+        <v>729</v>
       </c>
       <c r="G20" t="s">
-        <v>690</v>
+        <v>588</v>
       </c>
       <c r="H20" t="s">
-        <v>859</v>
+        <v>757</v>
       </c>
       <c r="I20">
         <v>-93.080629999999999</v>
@@ -11063,25 +10249,25 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>478</v>
+        <v>450</v>
       </c>
       <c r="B21" t="s">
-        <v>733</v>
+        <v>631</v>
       </c>
       <c r="D21" t="s">
-        <v>734</v>
+        <v>632</v>
       </c>
       <c r="E21" t="s">
-        <v>735</v>
+        <v>633</v>
       </c>
       <c r="F21" t="s">
-        <v>831</v>
+        <v>729</v>
       </c>
       <c r="G21" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="H21" t="s">
-        <v>858</v>
+        <v>756</v>
       </c>
       <c r="I21">
         <v>-93.324590000000001</v>
@@ -11092,28 +10278,28 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>675</v>
+        <v>573</v>
       </c>
       <c r="B22" t="s">
-        <v>788</v>
+        <v>686</v>
       </c>
       <c r="C22" t="s">
-        <v>802</v>
+        <v>700</v>
       </c>
       <c r="D22" t="s">
-        <v>801</v>
+        <v>699</v>
       </c>
       <c r="E22" t="s">
         <v>252</v>
       </c>
       <c r="F22" t="s">
-        <v>831</v>
+        <v>729</v>
       </c>
       <c r="G22" t="s">
-        <v>690</v>
+        <v>588</v>
       </c>
       <c r="H22" t="s">
-        <v>860</v>
+        <v>758</v>
       </c>
       <c r="I22">
         <v>-92.933160000000001</v>
@@ -11124,25 +10310,25 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B23" t="s">
-        <v>715</v>
+        <v>613</v>
       </c>
       <c r="D23" t="s">
-        <v>763</v>
+        <v>661</v>
       </c>
       <c r="E23" t="s">
-        <v>680</v>
+        <v>578</v>
       </c>
       <c r="F23" t="s">
-        <v>831</v>
+        <v>729</v>
       </c>
       <c r="G23" t="s">
-        <v>764</v>
+        <v>662</v>
       </c>
       <c r="H23" t="s">
-        <v>861</v>
+        <v>759</v>
       </c>
       <c r="I23">
         <v>-93.411522464870899</v>
@@ -11153,28 +10339,28 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B24" t="s">
-        <v>743</v>
+        <v>641</v>
       </c>
       <c r="C24" t="s">
-        <v>747</v>
+        <v>645</v>
       </c>
       <c r="D24" t="s">
-        <v>834</v>
+        <v>732</v>
       </c>
       <c r="E24" t="s">
         <v>97</v>
       </c>
       <c r="F24" t="s">
-        <v>831</v>
+        <v>729</v>
       </c>
       <c r="G24" t="s">
-        <v>837</v>
+        <v>735</v>
       </c>
       <c r="H24" t="s">
-        <v>858</v>
+        <v>756</v>
       </c>
       <c r="I24">
         <v>-93.278319999999994</v>
@@ -11185,28 +10371,28 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>659</v>
+        <v>557</v>
       </c>
       <c r="B25" t="s">
-        <v>741</v>
+        <v>639</v>
       </c>
       <c r="C25" t="s">
-        <v>660</v>
+        <v>558</v>
       </c>
       <c r="D25" t="s">
-        <v>661</v>
+        <v>559</v>
       </c>
       <c r="E25" t="s">
-        <v>662</v>
+        <v>560</v>
       </c>
       <c r="F25" t="s">
-        <v>831</v>
+        <v>729</v>
       </c>
       <c r="G25" t="s">
-        <v>742</v>
+        <v>640</v>
       </c>
       <c r="H25" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="I25">
         <v>-93.664710999999997</v>
@@ -11217,25 +10403,25 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="B26" t="s">
-        <v>803</v>
+        <v>701</v>
       </c>
       <c r="C26" t="s">
-        <v>840</v>
+        <v>738</v>
       </c>
       <c r="D26" t="s">
-        <v>757</v>
+        <v>655</v>
       </c>
       <c r="E26" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="F26" t="s">
-        <v>831</v>
+        <v>729</v>
       </c>
       <c r="H26" t="s">
-        <v>862</v>
+        <v>760</v>
       </c>
       <c r="I26">
         <v>-93.465469999999996</v>
@@ -11246,25 +10432,25 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>707</v>
+        <v>605</v>
       </c>
       <c r="B27" t="s">
-        <v>782</v>
+        <v>680</v>
       </c>
       <c r="D27" t="s">
-        <v>783</v>
+        <v>681</v>
       </c>
       <c r="E27" t="s">
-        <v>643</v>
+        <v>541</v>
       </c>
       <c r="F27" t="s">
-        <v>831</v>
+        <v>729</v>
       </c>
       <c r="G27" t="s">
-        <v>690</v>
+        <v>588</v>
       </c>
       <c r="H27" t="s">
-        <v>863</v>
+        <v>761</v>
       </c>
       <c r="I27">
         <v>-93.145229999999998</v>
@@ -11275,25 +10461,25 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="B28" t="s">
-        <v>708</v>
+        <v>606</v>
       </c>
       <c r="D28" t="s">
-        <v>709</v>
+        <v>607</v>
       </c>
       <c r="E28" t="s">
-        <v>735</v>
+        <v>633</v>
       </c>
       <c r="F28" t="s">
-        <v>831</v>
+        <v>729</v>
       </c>
       <c r="G28" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="H28" t="s">
-        <v>864</v>
+        <v>762</v>
       </c>
       <c r="I28">
         <v>-93.239419999999996</v>
@@ -11304,25 +10490,25 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>695</v>
+        <v>593</v>
       </c>
       <c r="B29" t="s">
-        <v>779</v>
+        <v>677</v>
       </c>
       <c r="D29" t="s">
-        <v>697</v>
+        <v>595</v>
       </c>
       <c r="E29" t="s">
-        <v>643</v>
+        <v>541</v>
       </c>
       <c r="F29" t="s">
-        <v>831</v>
+        <v>729</v>
       </c>
       <c r="G29" t="s">
-        <v>690</v>
+        <v>588</v>
       </c>
       <c r="H29" t="s">
-        <v>865</v>
+        <v>763</v>
       </c>
       <c r="I29">
         <v>-93.085080000000005</v>
@@ -11333,25 +10519,25 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>688</v>
+        <v>586</v>
       </c>
       <c r="B30" t="s">
-        <v>777</v>
+        <v>675</v>
       </c>
       <c r="C30" t="s">
-        <v>778</v>
+        <v>676</v>
       </c>
       <c r="D30" t="s">
-        <v>694</v>
+        <v>592</v>
       </c>
       <c r="E30" t="s">
-        <v>735</v>
+        <v>633</v>
       </c>
       <c r="F30" t="s">
-        <v>831</v>
+        <v>729</v>
       </c>
       <c r="H30" t="s">
-        <v>866</v>
+        <v>764</v>
       </c>
       <c r="I30">
         <v>-93.28013</v>
@@ -11362,25 +10548,25 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>653</v>
+        <v>551</v>
       </c>
       <c r="B31" t="s">
-        <v>835</v>
+        <v>733</v>
       </c>
       <c r="D31" t="s">
-        <v>836</v>
+        <v>734</v>
       </c>
       <c r="E31" t="s">
-        <v>654</v>
+        <v>552</v>
       </c>
       <c r="F31" t="s">
-        <v>831</v>
+        <v>729</v>
       </c>
       <c r="G31" t="s">
-        <v>543</v>
+        <v>494</v>
       </c>
       <c r="H31" t="s">
-        <v>867</v>
+        <v>765</v>
       </c>
       <c r="I31">
         <v>-93.507187999999999</v>
@@ -11391,28 +10577,28 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>669</v>
+        <v>567</v>
       </c>
       <c r="B32" t="s">
-        <v>751</v>
+        <v>649</v>
       </c>
       <c r="C32" t="s">
-        <v>670</v>
+        <v>568</v>
       </c>
       <c r="D32" t="s">
-        <v>692</v>
+        <v>590</v>
       </c>
       <c r="E32" t="s">
-        <v>795</v>
+        <v>693</v>
       </c>
       <c r="F32" t="s">
-        <v>831</v>
+        <v>729</v>
       </c>
       <c r="G32" t="s">
-        <v>796</v>
+        <v>694</v>
       </c>
       <c r="H32" t="s">
-        <v>868</v>
+        <v>766</v>
       </c>
       <c r="I32">
         <v>-92.96499</v>
@@ -11423,25 +10609,25 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>682</v>
+        <v>580</v>
       </c>
       <c r="B33" t="s">
-        <v>719</v>
+        <v>617</v>
       </c>
       <c r="C33" t="s">
-        <v>768</v>
+        <v>666</v>
       </c>
       <c r="D33" t="s">
-        <v>769</v>
+        <v>667</v>
       </c>
       <c r="E33" t="s">
-        <v>770</v>
+        <v>668</v>
       </c>
       <c r="F33" t="s">
-        <v>831</v>
+        <v>729</v>
       </c>
       <c r="H33" t="s">
-        <v>869</v>
+        <v>767</v>
       </c>
       <c r="I33">
         <v>-92.719909999999999</v>
@@ -11452,25 +10638,25 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>642</v>
+        <v>540</v>
       </c>
       <c r="B34" t="s">
-        <v>705</v>
+        <v>603</v>
       </c>
       <c r="D34" t="s">
-        <v>706</v>
+        <v>604</v>
       </c>
       <c r="E34" t="s">
-        <v>735</v>
+        <v>633</v>
       </c>
       <c r="F34" t="s">
-        <v>831</v>
+        <v>729</v>
       </c>
       <c r="G34" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="H34" t="s">
-        <v>870</v>
+        <v>768</v>
       </c>
       <c r="I34">
         <v>-93.266143999999997</v>
@@ -11484,22 +10670,22 @@
         <v>129</v>
       </c>
       <c r="B35" t="s">
-        <v>828</v>
+        <v>726</v>
       </c>
       <c r="D35" t="s">
-        <v>829</v>
+        <v>727</v>
       </c>
       <c r="E35" t="s">
-        <v>735</v>
+        <v>633</v>
       </c>
       <c r="F35" t="s">
-        <v>831</v>
+        <v>729</v>
       </c>
       <c r="G35" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="H35" t="s">
-        <v>870</v>
+        <v>768</v>
       </c>
       <c r="I35">
         <v>-93.286677936605003</v>
@@ -11510,25 +10696,25 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>686</v>
+        <v>584</v>
       </c>
       <c r="B36" t="s">
-        <v>797</v>
+        <v>695</v>
       </c>
       <c r="D36" t="s">
-        <v>826</v>
+        <v>724</v>
       </c>
       <c r="E36" t="s">
-        <v>643</v>
+        <v>541</v>
       </c>
       <c r="F36" t="s">
-        <v>831</v>
+        <v>729</v>
       </c>
       <c r="G36" t="s">
-        <v>690</v>
+        <v>588</v>
       </c>
       <c r="H36" t="s">
-        <v>871</v>
+        <v>769</v>
       </c>
       <c r="I36">
         <v>-93.144052128406898</v>
@@ -11539,28 +10725,28 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>683</v>
+        <v>581</v>
       </c>
       <c r="B37" t="s">
-        <v>822</v>
+        <v>720</v>
       </c>
       <c r="C37" t="s">
-        <v>823</v>
+        <v>721</v>
       </c>
       <c r="D37" t="s">
-        <v>771</v>
+        <v>669</v>
       </c>
       <c r="E37" t="s">
-        <v>515</v>
+        <v>479</v>
       </c>
       <c r="F37" t="s">
-        <v>831</v>
+        <v>729</v>
       </c>
       <c r="G37" t="s">
-        <v>772</v>
+        <v>670</v>
       </c>
       <c r="H37" t="s">
-        <v>872</v>
+        <v>770</v>
       </c>
       <c r="I37">
         <v>-93.378780000000006</v>
@@ -11571,25 +10757,25 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>651</v>
+        <v>549</v>
       </c>
       <c r="B38" t="s">
-        <v>725</v>
+        <v>623</v>
       </c>
       <c r="D38" t="s">
-        <v>726</v>
+        <v>624</v>
       </c>
       <c r="E38" t="s">
-        <v>727</v>
+        <v>625</v>
       </c>
       <c r="F38" t="s">
-        <v>831</v>
+        <v>729</v>
       </c>
       <c r="G38" t="s">
-        <v>690</v>
+        <v>588</v>
       </c>
       <c r="H38" t="s">
-        <v>873</v>
+        <v>771</v>
       </c>
       <c r="I38">
         <v>-93.02346</v>
@@ -11603,22 +10789,22 @@
         <v>25</v>
       </c>
       <c r="B39" t="s">
-        <v>832</v>
+        <v>730</v>
       </c>
       <c r="D39" t="s">
-        <v>833</v>
+        <v>731</v>
       </c>
       <c r="E39" t="s">
-        <v>735</v>
+        <v>633</v>
       </c>
       <c r="F39" t="s">
-        <v>831</v>
+        <v>729</v>
       </c>
       <c r="G39" t="s">
-        <v>754</v>
+        <v>652</v>
       </c>
       <c r="H39" t="s">
-        <v>874</v>
+        <v>772</v>
       </c>
       <c r="I39">
         <v>-93.270849999999996</v>
@@ -11629,25 +10815,25 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>637</v>
+        <v>535</v>
       </c>
       <c r="B40" t="s">
-        <v>698</v>
+        <v>596</v>
       </c>
       <c r="D40" t="s">
-        <v>699</v>
+        <v>597</v>
       </c>
       <c r="E40" t="s">
         <v>259</v>
       </c>
       <c r="F40" t="s">
-        <v>831</v>
+        <v>729</v>
       </c>
       <c r="G40" t="s">
-        <v>690</v>
+        <v>588</v>
       </c>
       <c r="H40" t="s">
-        <v>875</v>
+        <v>773</v>
       </c>
       <c r="I40">
         <v>-93.178299999999993</v>
@@ -11658,25 +10844,25 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>657</v>
+        <v>555</v>
       </c>
       <c r="B41" t="s">
-        <v>736</v>
+        <v>634</v>
       </c>
       <c r="C41" t="s">
-        <v>737</v>
+        <v>635</v>
       </c>
       <c r="D41" t="s">
-        <v>738</v>
+        <v>636</v>
       </c>
       <c r="E41" t="s">
-        <v>735</v>
+        <v>633</v>
       </c>
       <c r="F41" t="s">
-        <v>831</v>
+        <v>729</v>
       </c>
       <c r="H41" t="s">
-        <v>876</v>
+        <v>774</v>
       </c>
       <c r="I41">
         <v>-93.266409999999993</v>
@@ -11687,28 +10873,28 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="B42" t="s">
-        <v>765</v>
+        <v>663</v>
       </c>
       <c r="C42" t="s">
-        <v>681</v>
+        <v>579</v>
       </c>
       <c r="D42" t="s">
-        <v>766</v>
+        <v>664</v>
       </c>
       <c r="E42" t="s">
-        <v>820</v>
+        <v>718</v>
       </c>
       <c r="F42" t="s">
-        <v>831</v>
+        <v>729</v>
       </c>
       <c r="G42" t="s">
-        <v>821</v>
+        <v>719</v>
       </c>
       <c r="H42" t="s">
-        <v>877</v>
+        <v>775</v>
       </c>
       <c r="I42">
         <v>-93.386740000000003</v>
@@ -11719,28 +10905,28 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>685</v>
+        <v>583</v>
       </c>
       <c r="B43" t="s">
-        <v>814</v>
+        <v>712</v>
       </c>
       <c r="C43" t="s">
-        <v>825</v>
+        <v>723</v>
       </c>
       <c r="D43" t="s">
-        <v>824</v>
+        <v>722</v>
       </c>
       <c r="E43" t="s">
         <v>276</v>
       </c>
       <c r="F43" t="s">
-        <v>831</v>
+        <v>729</v>
       </c>
       <c r="G43" t="s">
-        <v>690</v>
+        <v>588</v>
       </c>
       <c r="H43" t="s">
-        <v>878</v>
+        <v>776</v>
       </c>
       <c r="I43">
         <v>-93.051959999999994</v>
@@ -11751,28 +10937,28 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>667</v>
+        <v>565</v>
       </c>
       <c r="B44" t="s">
-        <v>791</v>
+        <v>689</v>
       </c>
       <c r="C44" t="s">
-        <v>792</v>
+        <v>690</v>
       </c>
       <c r="D44" t="s">
-        <v>749</v>
+        <v>647</v>
       </c>
       <c r="E44" t="s">
-        <v>789</v>
+        <v>687</v>
       </c>
       <c r="F44" t="s">
-        <v>831</v>
+        <v>729</v>
       </c>
       <c r="G44" t="s">
-        <v>790</v>
+        <v>688</v>
       </c>
       <c r="H44" t="s">
-        <v>879</v>
+        <v>777</v>
       </c>
       <c r="I44">
         <v>-93.135266880548002</v>
@@ -11783,22 +10969,22 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>663</v>
+        <v>561</v>
       </c>
       <c r="B45" t="s">
-        <v>786</v>
+        <v>684</v>
       </c>
       <c r="D45" t="s">
-        <v>787</v>
+        <v>685</v>
       </c>
       <c r="E45" t="s">
         <v>97</v>
       </c>
       <c r="F45" t="s">
-        <v>831</v>
+        <v>729</v>
       </c>
       <c r="H45" t="s">
-        <v>880</v>
+        <v>778</v>
       </c>
       <c r="I45">
         <v>-93.7346</v>
@@ -11809,28 +10995,28 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
+        <v>354</v>
+      </c>
+      <c r="B46" t="s">
+        <v>650</v>
+      </c>
+      <c r="C46" t="s">
+        <v>570</v>
+      </c>
+      <c r="D46" t="s">
+        <v>651</v>
+      </c>
+      <c r="E46" t="s">
+        <v>698</v>
+      </c>
+      <c r="F46" t="s">
+        <v>729</v>
+      </c>
+      <c r="G46" t="s">
         <v>358</v>
       </c>
-      <c r="B46" t="s">
-        <v>752</v>
-      </c>
-      <c r="C46" t="s">
-        <v>672</v>
-      </c>
-      <c r="D46" t="s">
-        <v>753</v>
-      </c>
-      <c r="E46" t="s">
-        <v>800</v>
-      </c>
-      <c r="F46" t="s">
-        <v>831</v>
-      </c>
-      <c r="G46" t="s">
-        <v>362</v>
-      </c>
       <c r="H46" t="s">
-        <v>881</v>
+        <v>779</v>
       </c>
       <c r="I46">
         <v>-93.44408</v>
@@ -11841,28 +11027,28 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>638</v>
+        <v>536</v>
       </c>
       <c r="B47" t="s">
-        <v>700</v>
+        <v>598</v>
       </c>
       <c r="C47" t="s">
-        <v>639</v>
+        <v>537</v>
       </c>
       <c r="D47" t="s">
-        <v>701</v>
+        <v>599</v>
       </c>
       <c r="E47" t="s">
         <v>256</v>
       </c>
       <c r="F47" t="s">
-        <v>831</v>
+        <v>729</v>
       </c>
       <c r="G47" t="s">
-        <v>690</v>
+        <v>588</v>
       </c>
       <c r="H47" t="s">
-        <v>882</v>
+        <v>780</v>
       </c>
       <c r="I47">
         <v>-93.356430000000003</v>
@@ -11873,25 +11059,25 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>652</v>
+        <v>550</v>
       </c>
       <c r="B48" t="s">
-        <v>728</v>
+        <v>626</v>
       </c>
       <c r="D48" t="s">
+        <v>627</v>
+      </c>
+      <c r="E48" t="s">
+        <v>683</v>
+      </c>
+      <c r="F48" t="s">
         <v>729</v>
       </c>
-      <c r="E48" t="s">
-        <v>785</v>
-      </c>
-      <c r="F48" t="s">
-        <v>831</v>
-      </c>
       <c r="G48" t="s">
-        <v>730</v>
+        <v>628</v>
       </c>
       <c r="H48" t="s">
-        <v>883</v>
+        <v>781</v>
       </c>
       <c r="I48">
         <v>-93.799229999999994</v>
@@ -11902,25 +11088,25 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>655</v>
+        <v>553</v>
       </c>
       <c r="B49" t="s">
-        <v>731</v>
+        <v>629</v>
       </c>
       <c r="C49" t="s">
-        <v>656</v>
+        <v>554</v>
       </c>
       <c r="D49" t="s">
-        <v>691</v>
+        <v>589</v>
       </c>
       <c r="E49" t="s">
-        <v>732</v>
+        <v>630</v>
       </c>
       <c r="F49" t="s">
-        <v>831</v>
+        <v>729</v>
       </c>
       <c r="H49" t="s">
-        <v>884</v>
+        <v>782</v>
       </c>
       <c r="I49">
         <v>-92.890249999999995</v>
@@ -11931,22 +11117,22 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>668</v>
+        <v>566</v>
       </c>
       <c r="B50" t="s">
-        <v>793</v>
+        <v>691</v>
       </c>
       <c r="D50" t="s">
-        <v>794</v>
+        <v>692</v>
       </c>
       <c r="E50" t="s">
-        <v>750</v>
+        <v>648</v>
       </c>
       <c r="F50" t="s">
-        <v>831</v>
+        <v>729</v>
       </c>
       <c r="H50" t="s">
-        <v>885</v>
+        <v>783</v>
       </c>
       <c r="I50">
         <v>-93.584225204641996</v>
@@ -11957,28 +11143,28 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>644</v>
+        <v>542</v>
       </c>
       <c r="B51" t="s">
-        <v>710</v>
+        <v>608</v>
       </c>
       <c r="C51" t="s">
-        <v>711</v>
+        <v>609</v>
       </c>
       <c r="D51" t="s">
-        <v>712</v>
+        <v>610</v>
       </c>
       <c r="E51" t="s">
-        <v>713</v>
+        <v>611</v>
       </c>
       <c r="F51" t="s">
-        <v>831</v>
+        <v>729</v>
       </c>
       <c r="G51" t="s">
-        <v>714</v>
+        <v>612</v>
       </c>
       <c r="H51" t="s">
-        <v>885</v>
+        <v>783</v>
       </c>
       <c r="I51">
         <v>-93.580187936822099</v>
@@ -11992,22 +11178,22 @@
         <v>119</v>
       </c>
       <c r="B52" t="s">
-        <v>723</v>
+        <v>621</v>
       </c>
       <c r="D52" t="s">
-        <v>724</v>
+        <v>622</v>
       </c>
       <c r="E52" t="s">
-        <v>735</v>
+        <v>633</v>
       </c>
       <c r="F52" t="s">
-        <v>831</v>
+        <v>729</v>
       </c>
       <c r="G52" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="H52" t="s">
-        <v>886</v>
+        <v>784</v>
       </c>
       <c r="I52">
         <v>-93.256414000000007</v>
@@ -12018,25 +11204,25 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>671</v>
+        <v>569</v>
       </c>
       <c r="B53" t="s">
-        <v>797</v>
+        <v>695</v>
       </c>
       <c r="C53" t="s">
-        <v>798</v>
+        <v>696</v>
       </c>
       <c r="D53" t="s">
-        <v>798</v>
+        <v>696</v>
       </c>
       <c r="E53" t="s">
-        <v>799</v>
+        <v>697</v>
       </c>
       <c r="F53" t="s">
-        <v>831</v>
+        <v>729</v>
       </c>
       <c r="H53" t="s">
-        <v>887</v>
+        <v>785</v>
       </c>
       <c r="I53">
         <v>-93.577804</v>
@@ -12047,28 +11233,28 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>838</v>
+        <v>736</v>
       </c>
       <c r="B54" t="s">
-        <v>804</v>
+        <v>702</v>
       </c>
       <c r="C54" t="s">
-        <v>839</v>
+        <v>737</v>
       </c>
       <c r="D54" t="s">
-        <v>839</v>
+        <v>737</v>
       </c>
       <c r="E54" t="s">
-        <v>643</v>
+        <v>541</v>
       </c>
       <c r="F54" t="s">
-        <v>831</v>
+        <v>729</v>
       </c>
       <c r="G54" t="s">
-        <v>690</v>
+        <v>588</v>
       </c>
       <c r="H54" t="s">
-        <v>865</v>
+        <v>763</v>
       </c>
       <c r="I54">
         <v>-93.091020999999998</v>
